--- a/update_data/data/ecovacs/dialogue/副本科沃斯门店对话设计.xlsx
+++ b/update_data/data/ecovacs/dialogue/副本科沃斯门店对话设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12075"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="28035" windowHeight="12045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="地宝" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
   <si>
     <t>问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,646 @@
   <si>
     <t>我来买扫地机器人/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买扫地机器人/扫地机器人/扫地的/清洁地面的/能清理地面灰尘的/我来买扫地机器人/我想要扫地机器人/我要扫地机器人/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买扫地机器人/买扫地机器人/我要买扫地机器人/推荐个扫地机器人/推荐扫地机器人/扫地机器人/给我推荐个扫地机器人/介绍个扫地机器人/介绍下扫地机器人/介绍个扫地的/我想买一个扫地机器人/你们这里可以买扫地机器人吗？/你能给我推荐一下扫地机器人吗？/扫地的机器人有没有啊？/有没有扫地的机器人卖？/可以在这里买到扫地机器人吗？/能不能介绍一个扫地机器人给我？/可以给我介绍一个扫地机器人吗？/能不能给我推荐一个扫地机器人？/可以推荐一个扫地机器人给我？/扫地机/推荐个扫地机/扫地机推荐一下/有没有扫地机推荐的/我需要扫地机/我来买扫地的机器/我来买扫地的机器人/我想买扫地的机器/扫地的机器/我来买扫地的机器/我想要扫地的机器/我要扫地的机器/我要买扫地机/推荐个扫地的机器/我要买扫地的机器/买扫地的机器/我要买扫地的机器/推荐个扫地的机器/推荐扫地的机器/扫地的机器/给我推荐个扫地的机器/介绍个扫地的机器/介绍下扫地的机器/我想买一个扫地的机器/你们这里可以买扫地的机器吗？/你能给我推荐一下扫地的机器吗？/扫地的机器有没有啊？/有没有扫地的机器卖？/可以在这里买到扫地的机器吗？/能不能介绍一个扫地的机器给我？/可以给我介绍一个扫地的机器吗？/能不能给我推荐一个扫地的机器？/可以推荐一个扫地的机器给我？/我来买能打扫地面的机器/我来买能打扫地面的机器人/我想买能打扫地面的机器/能打扫地面的机器/我来买能打扫地面的机器/我想要能打扫地面的机器/我要能打扫地面的机器/我要买扫地机/推荐个能打扫地面的机器/我要买能打扫地面的机器/买能打扫地面的机器/我要买能打扫地面的机器/推荐个能打扫地面的机器/推荐能打扫地面的机器/能打扫地面的机器/给我推荐个能打扫地面的机器/介绍个能打扫地面的机器/介绍下能打扫地面的机器/我想买一个能打扫地面的机器/你们这里可以买能打扫地面的机器吗？/你能给我推荐一下能打扫地面的机器吗？/能打扫地面的机器有没有啊？/有没有能打扫地面的机器卖？/可以在这里买到能打扫地面的机器吗？/能不能介绍一个能打扫地面的机器给我？/可以给我介绍一个能打扫地面的机器吗？/能不能给我推荐一个能打扫地面的机器？/可以推荐一个能打扫地面的机器给我？/我来买打扫卫生的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买打扫卫生的机器/打扫卫生的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买打扫卫生的机器/我想要打扫卫生的机器/我要打扫卫生的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买打扫卫生的机器/买打扫卫生的机器/我要买打扫卫生的机器/推荐个打扫卫生的机器/推荐打扫卫生的机器/打扫卫生的机器/给我推荐个打扫卫生的机器/介绍个打扫卫生的机器/介绍下打扫卫生的机器/介绍个扫地的/我想买一个打扫卫生的机器/你们这里可以买打扫卫生的机器吗？/你能给我推荐一下打扫卫生的机器吗？/扫地的机器人有没有啊？/我来买拖地的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买拖地的机器/拖地的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买拖地的机器/我想要拖地的机器/我要拖地的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买拖地的机器/买拖地的机器/我要买拖地的机器/推荐个拖地的机器/推荐拖地的机器/拖地的机器/给我推荐个拖地的机器/介绍个拖地的机器/介绍下拖地的机器/介绍个扫地的/我想买一个拖地的机器/你们这里可以买拖地的机器吗？/你能给我推荐一下拖地的机器吗？/扫地的机器人有没有啊？/我来买清洁地面的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买清洁地面的机器/清洁地面的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买清洁地面的机器/我想要清洁地面的机器/我要清洁地面的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买清洁地面的机器/买清洁地面的机器/我要买清洁地面的机器/推荐个清洁地面的机器/推荐清洁地面的机器/清洁地面的机器/给我推荐个清洁地面的机器/介绍个清洁地面的机器/介绍下清洁地面的机器/介绍个扫地的/我想买一个清洁地面的机器/你们这里可以买清洁地面的机器吗？/你能给我推荐一下清洁地面的机器吗？/扫地的机器人有没有啊？/</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我来买擦窗机器人</t>
+  </si>
+  <si>
+    <t>擦窗机器人</t>
+  </si>
+  <si>
+    <t>买擦窗机器人</t>
+  </si>
+  <si>
+    <t>我来买空气净化机器人</t>
+  </si>
+  <si>
+    <t>空气净化机器人</t>
+  </si>
+  <si>
+    <t>买空气净化机器人</t>
+  </si>
+  <si>
+    <t>我来是买空气净化机器人的/我来买空气净化机器人的/我是来买空气净化机器人的/我来买净化空气的机器人/我想买空气净化机器人/空气净化机器人/净化空气的/能净化空气的/我想要空气净化机器人/我要空气净化机器人/有空气净化机器人吗？/空气净化机器人这里有卖的吗？/你们这里有卖空气净化机器人的吗？/推荐个空气净化机器人/给我推荐个空气净化机器人/介绍个空气净化机器人/介绍空气净化机器人/空气净化器有没有？/有没有空气净化器？/这里有空气净化器吗？/这里有卖空气净化器的吗？/你们这里有空气净化器吗？/你们这里有卖空气净化器的吗？/有没有空气净化器卖呀？/我想买净化空气的机器人/我想要一个净化空气的机器人/我来买净化空气的机器人的/我来买空气净化机器人/我来买空气净化机器人人/我想买空气净化机器人/空气净化机器人/我来买空气净化机器人/我想要空气净化机器人/我要空气净化机器人/推荐个空气净化机器人/我要买空气净化机器人/买空气净化机器人/我要买空气净化机器人/推荐个空气净化机器人/推荐空气净化机器人/空气净化机器人/给我推荐个空气净化机器人/介绍个空气净化机器人/介绍下空气净化机器人/我想买一个空气净化机器人/你们这里可以买空气净化机器人吗？/你能给我推荐一下空气净化机器人吗？/空气净化机器人有没有啊？/有没有空气净化机器人卖？/可以在这里买到空气净化机器人吗？/能不能介绍一个空气净化机器人给我？/可以给我介绍一个空气净化机器人吗？/能不能给我推荐一个空气净化机器人？/可以推荐一个空气净化机器人给我？//我来买净化空气的机器/我来买净化空气的机器人/我想买净化空气的机器/净化空气的机器/我来买净化空气的机器/我想要净化空气的机器/我要净化空气的机器/推荐个净化空气的机器/我要买净化空气的机器/买净化空气的机器/我要买净化空气的机器/推荐个净化空气的机器/推荐净化空气的机器/净化空气的机器/给我推荐个净化空气的机器/介绍个净化空气的机器/介绍下净化空气的机器/我想买一个净化空气的机器/你们这里可以买净化空气的机器吗？/你能给我推荐一下净化空气的机器吗？/净化空气的机器有没有啊？/有没有净化空气的机器卖？/可以在这里买到净化空气的机器吗？/能不能介绍一个净化空气的机器给我？/可以给我介绍一个净化空气的机器吗？/能不能给我推荐一个净化空气的机器？/可以推荐一个净化空气的机器给我？//我来买能让空气变好的机器/我来买能让空气变好的机器人/我想买能让空气变好的机器/能让空气变好的机器/我来买能让空气变好的机器/我想要能让空气变好的机器/我要能让空气变好的机器/推荐个能让空气变好的机器/我要买能让空气变好的机器/买能让空气变好的机器/我要买能让空气变好的机器/推荐个能让空气变好的机器/推荐能让空气变好的机器/能让空气变好的机器/给我推荐个能让空气变好的机器/介绍个能让空气变好的机器/介绍下能让空气变好的机器/我想买一个能让空气变好的机器/你们这里可以买能让空气变好的机器吗？/你能给我推荐一下能让空气变好的机器吗？/能让空气变好的机器有没有啊？/有没有能让空气变好的机器卖？/可以在这里买到能让空气变好的机器吗？/能不能介绍一个能让空气变好的机器给我？/可以给我介绍一个能让空气变好的机器吗？/能不能给我推荐一个能让空气变好的机器？/可以推荐一个能让空气变好的机器给我？//我来买过滤空气的机器/我来买过滤空气的机器人/我想买过滤空气的机器/过滤空气的机器/我来买过滤空气的机器/我想要过滤空气的机器/我要过滤空气的机器/推荐个过滤空气的机器/我要买过滤空气的机器/买过滤空气的机器/我要买过滤空气的机器/推荐个过滤空气的机器/推荐过滤空气的机器/过滤空气的机器/给我推荐个过滤空气的机器/介绍个过滤空气的机器/介绍下过滤空气的机器/我想买一个过滤空气的机器/你们这里可以买过滤空气的机器吗？/你能给我推荐一下过滤空气的机器吗？/过滤空气的机器有没有啊？/有没有过滤空气的机器卖？/可以在这里买到过滤空气的机器吗？/能不能介绍一个过滤空气的机器给我？/可以给我介绍一个过滤空气的机器吗？/能不能给我推荐一个过滤空气的机器？/可以推荐一个过滤空气的机器给我？/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>旺宝诚心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推荐您，本店在售的，会飞檐走壁的窗宝W855。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>他擦了刮，刮了擦，四段清洁很干净；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四重安全保证，全无后顾之忧；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智能记忆功，好放好取；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进口电机，使用寿命长；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轴流式负压风机设计，满足顾客多种介质的擦拭需求。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">您可以在主界面点击搜索了解详情。
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>旺宝给您推荐本店在售的沁宝A650。这款宝宝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有独特的移动巡航技术，自主移动巡航；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>优化的空气动力循环系统，最大限度的净化空气；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4层环形一体化滤芯，杀菌过滤一步到位；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人性化语音提醒，贴心指导；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>APP远程操作，智能预约，家在掌心净化无忧。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>便宜一点的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能高点的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请问您是想要便宜点的还是性能高点的呀？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>给您推荐DG36这款高级宝宝，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他突出特点就是能LDS扫描建立房屋户型图，所有房间有序清洁；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蓝鲸清洁系统，一站式清洁到位;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过超声波探测，辨识地毯和地面，清洁吸力自动选择；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可通过APP实现在线升级，保持程序系统的最新状态，永不落伍。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>能力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>港港的。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>旺宝给您推荐新款的DD56，这款宝宝优点有点多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Smart Move技术路径规划，避免重复;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蓝鲸清洁系统，一站式清洁到位;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>漫威主题外观，钢铁侠主题设计，时尚潮流，新颖美观;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还有手机app远程操控，方便快捷。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD56</t>
+  </si>
+  <si>
+    <t>亲亲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DG716</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DG36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W855</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲亲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请到店里咨询，有店长大人为您做详细介绍哦！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DG716这款宝宝纤薄7点75厘米机身设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>采用日本尼德科无刷电机，噪音小，使用寿命长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更有蓝鲸清洁系统，吸口吸灰，抹布湿拖，一站式清洁到位;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Smart Move技术高效覆盖，打扫不重复;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吸口，滚刷互换功能，深度清洁使用，强效去灰。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便宜一点的扫地机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能高点的扫地机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">还有别的沁宝么？/你们店里还有其他的沁宝么？/沁宝还有没有其他选择？/沁宝还有没有其他款式？/沁宝还有没有其他型号？/沁宝其他型号有没有？/还有没有沁宝/还有沁宝么？/其他的沁宝呢？/别的沁宝/再给我推荐一个沁宝/再推荐一个沁宝我看看/再推荐一个沁宝我听听/我还想了解其他的沁宝/我还想了解别的沁宝型号的/再介绍一个沁宝/再介绍一款沁宝/还有没有沁宝？/还有其他的沁宝么？/其他的沁宝呢？/就这一款沁宝么？/就这一个沁宝？/有没有更好的沁宝？/有没有配置高一点的沁宝？/有没有比这个好的沁宝/有没有比这个好的沁宝推荐一下/有没有性能更好的沁宝/有没有性能更好的沁宝推荐一下/性能更好的沁宝/我想知道其他的沁宝/换一款沁宝/换一个沁宝/下一个沁宝/再介绍一个其他的沁宝/
+还有别的净化空气么？/你们店里还有其他的净化空气么？/净化空气还有没有其他选择？/净化空气还有没有其他款式？/净化空气还有没有其他型号？/净化空气其他型号有没有？/还有没有净化空气/还有净化空气么？/其他的净化空气呢？/别的净化空气/再给我推荐一个净化空气/再推荐一个净化空气我看看/再推荐一个净化空气我听听/我还想了解其他的净化空气/我还想了解别的净化空气型号的/再介绍一个净化空气/再介绍一款净化空气/还有没有净化空气？/还有其他的净化空气么？/其他的净化空气呢？/就这一款净化空气么？/就这一个净化空气？/有没有更好的净化空气？/有没有配置高一点的净化空气？/有没有比这个好的净化空气/有没有比这个好的净化空气推荐一下/有没有性能更好的净化空气/有没有性能更好的净化空气推荐一下/性能更好的净化空气/我想知道其他的净化空气/换一款净化空气/换一个净化空气/下一个净化空气/再介绍一个其他的净化空气/
+还有别的清新房间空气的么？/你们店里还有其他的清新房间空气的么？/清新房间空气的还有没有其他选择？/清新房间空气的还有没有其他款式？/清新房间空气的还有没有其他型号？/清新房间空气的其他型号有没有？/还有没有清新房间空气的/还有清新房间空气的么？/其他的清新房间空气的呢？/别的清新房间空气的/再给我推荐一个清新房间空气的/再推荐一个清新房间空气的我看看/再推荐一个清新房间空气的我听听/我还想了解其他的清新房间空气的/我还想了解别的清新房间空气的型号的/再介绍一个清新房间空气的/再介绍一款清新房间空气的/还有没有清新房间空气的？/还有其他的清新房间空气的么？/其他的清新房间空气的呢？/就这一款清新房间空气的么？/就这一个清新房间空气的？/有没有更好的清新房间空气的？/有没有配置高一点的清新房间空气的？/有没有比这个好的清新房间空气的/有没有比这个好的清新房间空气的推荐一下/有没有性能更好的清新房间空气的/有没有性能更好的清新房间空气的推荐一下/性能更好的清新房间空气的/我想知道其他的清新房间空气的/换一款清新房间空气的/换一个清新房间空气的/下一个清新房间空气的/再介绍一个其他的清新房间空气的/
+还有别的湿润房间空气的么？/你们店里还有其他的湿润房间空气的么？/湿润房间空气的还有没有其他选择？/湿润房间空气的还有没有其他款式？/湿润房间空气的还有没有其他型号？/湿润房间空气的其他型号有没有？/还有没有湿润房间空气的 /还有湿润房间空气的么？/其他的湿润房间空气的呢？/别的湿润房间空气的 /再给我推荐一个湿润房间空气的/再推荐一个湿润房间空气的我看看/再推荐一个湿润房间空气的 我听听/我还想了解其他的湿润房间空气的/我还想了解别的湿润房间空气的 型号的/再介绍一个湿润房间空气的/再介绍一款湿润房间空气的/还有没有湿润房间空气的？/还有其他的湿润房间空气的么？/其他的湿润房间空气的呢？/就这一款湿润房间空气的么？/就这一个湿润房间空气的？/有没有更好的湿润房间空气的？/有没有配置高一点的湿润房间空气的？/有没有比这个好的湿润房间空气的/有没有比这个好的湿润房间空气的推荐一下/有没有性能更好的湿润房间空气的/有没有性能更好的湿润房间空气的推荐一下/性能更好的湿润房间空气的/我想知道其他的湿润房间空气的/换一款湿润房间空气的/换一个湿润房间空气的/下一个湿润房间空气的/再介绍一个其他的湿润房间空气的 /
+还有别的除去房间甲醛的么？/你们店里还有其他的除去房间甲醛的么？/除去房间甲醛的还有没有其他选择？/除去房间甲醛的还有没有其他款式？/除去房间甲醛的还有没有其他型号？/除去房间甲醛的其他型号有没有？/还有没有除去房间甲醛的/还有除去房间甲醛的么？/其他的除去房间甲醛的呢？/别的除去房间甲醛的/再给我推荐一个除去房间甲醛的/再推荐一个除去房间甲醛的我看看/再推荐一个除去房间甲醛的我听听/我还想了解其他的除去房间甲醛的/我还想了解别的除去房间甲醛的型号的/再介绍一个除去房间甲醛的/再介绍一款除去房间甲醛的/还有没有除去房间甲醛的？/还有其他的除去房间甲醛的么？/其他的除去房间甲醛的呢？/就这一款除去房间甲醛的么？/就这一个除去房间甲醛的？/有没有更好的除去房间甲醛的？/有没有配置高一点的除去房间甲醛的？/有没有比这个好的除去房间甲醛的/有没有比这个好的除去房间甲醛的推荐一下/有没有性能更好的除去房间甲醛的/有没有性能更好的除去房间甲醛的推荐一下/性能更好的除去房间甲醛的/我想知道其他的除去房间甲醛的/换一款除去房间甲醛的/换一个除去房间甲醛的/下一个除去房间甲醛的/再介绍一个其他的除去房间甲醛的/给我推荐一款沁宝
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫地机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我来买扫地机/我要买扫地机/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我来买扫地机器人/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买扫地机器人/扫地机器人/扫地的/清洁地面的/能清理地面灰尘的/我来买扫地机器人/我想要扫地机器人/我要扫地机器人/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买扫地机器人/买扫地机器人/我要买扫地机器人/推荐个扫地机器人/推荐扫地机器人/扫地机器人/给我推荐个扫地机器人/介绍个扫地机器人/介绍下扫地机器人/介绍个扫地的/我想买一个扫地机器人/你们这里可以买扫地机器人吗？/你能给我推荐一下扫地机器人吗？/扫地的机器人有没有啊？/有没有扫地的机器人卖？/可以在这里买到扫地机器人吗？/能不能介绍一个扫地机器人给我？/可以给我介绍一个扫地机器人吗？/能不能给我推荐一个扫地机器人？/可以推荐一个扫地机器人给我？/扫地机/推荐个扫地机/扫地机推荐一下/有没有扫地机推荐的/我需要扫地机/我来买扫地的机器/我来买扫地的机器人/我想买扫地的机器/扫地的机器/我来买扫地的机器/我想要扫地的机器/我要扫地的机器/我要买扫地机/推荐个扫地的机器/我要买扫地的机器/买扫地的机器/我要买扫地的机器/推荐个扫地的机器/推荐扫地的机器/扫地的机器/给我推荐个扫地的机器/介绍个扫地的机器/介绍下扫地的机器/我想买一个扫地的机器/你们这里可以买扫地的机器吗？/你能给我推荐一下扫地的机器吗？/扫地的机器有没有啊？/有没有扫地的机器卖？/可以在这里买到扫地的机器吗？/能不能介绍一个扫地的机器给我？/可以给我介绍一个扫地的机器吗？/能不能给我推荐一个扫地的机器？/可以推荐一个扫地的机器给我？/我来买能打扫地面的机器/我来买能打扫地面的机器人/我想买能打扫地面的机器/能打扫地面的机器/我来买能打扫地面的机器/我想要能打扫地面的机器/我要能打扫地面的机器/我要买扫地机/推荐个能打扫地面的机器/我要买能打扫地面的机器/买能打扫地面的机器/我要买能打扫地面的机器/推荐个能打扫地面的机器/推荐能打扫地面的机器/能打扫地面的机器/给我推荐个能打扫地面的机器/介绍个能打扫地面的机器/介绍下能打扫地面的机器/我想买一个能打扫地面的机器/你们这里可以买能打扫地面的机器吗？/你能给我推荐一下能打扫地面的机器吗？/能打扫地面的机器有没有啊？/有没有能打扫地面的机器卖？/可以在这里买到能打扫地面的机器吗？/能不能介绍一个能打扫地面的机器给我？/可以给我介绍一个能打扫地面的机器吗？/能不能给我推荐一个能打扫地面的机器？/可以推荐一个能打扫地面的机器给我？/我来买打扫卫生的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买打扫卫生的机器/打扫卫生的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买打扫卫生的机器/我想要打扫卫生的机器/我要打扫卫生的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买打扫卫生的机器/买打扫卫生的机器/我要买打扫卫生的机器/推荐个打扫卫生的机器/推荐打扫卫生的机器/打扫卫生的机器/给我推荐个打扫卫生的机器/介绍个打扫卫生的机器/介绍下打扫卫生的机器/介绍个扫地的/我想买一个打扫卫生的机器/你们这里可以买打扫卫生的机器吗？/你能给我推荐一下打扫卫生的机器吗？/扫地的机器人有没有啊？/我来买拖地的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买拖地的机器/拖地的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买拖地的机器/我想要拖地的机器/我要拖地的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买拖地的机器/买拖地的机器/我要买拖地的机器/推荐个拖地的机器/推荐拖地的机器/拖地的机器/给我推荐个拖地的机器/介绍个拖地的机器/介绍下拖地的机器/介绍个扫地的/我想买一个拖地的机器/你们这里可以买拖地的机器吗？/你能给我推荐一下拖地的机器吗？/扫地的机器人有没有啊？/我来买清洁地面的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买清洁地面的机器/清洁地面的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买清洁地面的机器/我想要清洁地面的机器/我要清洁地面的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买清洁地面的机器/买清洁地面的机器/我要买清洁地面的机器/推荐个清洁地面的机器/推荐清洁地面的机器/清洁地面的机器/给我推荐个清洁地面的机器/介绍个清洁地面的机器/介绍下清洁地面的机器/介绍个扫地的/我想买一个清洁地面的机器/你们这里可以买清洁地面的机器吗？/你能给我推荐一下清洁地面的机器吗？/扫地的机器人有没有啊？//我想买性价比高的扫地机/我要买性价比高的扫地机/我要买性价比高的扫地机就行/我当然是买性价比高的扫地机了/我要买性价比高的扫地机啦/我要买性价比高的性价比高的扫地机/我要买性价比高的扫地机/我要性价比高一点的扫地机有没有/我需要性价比高的扫地机/你能给我介绍性价比高的扫地机吗/我想买性价比高的扫地机有没有/我想买性价比高的扫地机 /我想要性价比高的扫地机啊/我要买需要性价比高的扫地机了/我要买性价比高一点的扫地机/我要买性价比高的扫地机/我就性价比高一点的扫地机就行了/买性价比高一点的扫地机就可以了/就买性价比高一点的扫地机吧/你就给我介绍性价比高一点的扫地机吧/你给我介绍性价比高一点的扫地机就好了/给我说一下性价比高一点的扫地机吧/我想买性价比高的扫地机器人/我要买性价比高的扫地机器人/我要买性价比高的扫地机器人就行/我当然是买性价比高的扫地机器人了/我要买性价比高的扫地机器人啦/我要买性价比高的性价比高的扫地机器人/我要买性价比高的扫地机器人 /我要性价比高一点的扫地机器人有没有/我需要性价比高的扫地机器人/你能给我介绍性价比高的扫地机器人吗/我想买性价比高的扫地机器人有没有/我想买性价比高的扫地机器人/我想性价比高点的扫地机器人/我想要性价比高的扫地机器人啊/我要买扫地机器人/我要买性价比高的扫地机器人了/我要买需要性价比高的扫地机器人了/我要买性价比高一点的扫地机器人/我要买性价比高的扫地机器人/我就性价比高一点的扫地机器人就行了/买性价比高一点的扫地机器人就可以了/就买性价比高一点的扫地机器人吧/你就给我介绍性价比高一点的扫地机器人吧/你给我介绍性价比高一点的扫地机器人就好了/给我说一下性价比高一点的扫地机器人吧/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中等价位的扫地机有么</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/中等价位的扫地机/</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/我想买便宜点的扫地机/我要买便宜点的扫地机/我要买价格低点的扫地机/我要买便宜的扫地机就行/我当然是买便宜的扫地机了/我要买便宜的扫地机啦/我要买便宜的便宜的扫地机/我要买价格便宜的扫地机/我要买价格低的扫地机/我要便宜一点的扫地机有没有/我需要便宜点的扫地机/你能给我介绍便宜点的扫地机吗/我想买便宜点的扫地机有没有/我想买便宜点的扫地机/我想要价格低点的扫地机/我想要便宜的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格便宜的扫地机了/我要买便宜一点的扫地机/我要买便宜点的扫地机/我就便宜一点的扫地机就行了/买便宜一点的扫地机就可以了/就买便宜一点的扫地机吧/你就给我介绍便宜一点的扫地机吧/你给我介绍便宜一点的扫地机就好了/给我说一下便宜一点的扫地机吧/我不买贵的扫地机/不要贵的扫地机/我贵的扫地机不要/我不想要贵的扫地机/我贵的扫地机不要/我不要贵的扫地机/我不买贵的扫地机/我不要贵的扫地机/贵的扫地机我不要哈/我不想买贵的扫地机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/我想买一款便宜的扫地机/我想买一款性价比高的扫地机/你能给我推荐一款性价比高的扫地机吗/你可以推荐一款性价比高的扫地机给我吗/给我推荐一款价格低的扫地机吧/能不能给我推荐一款价格低点的扫地机啊
+/我想买便宜点的扫地机器人/我要买便宜点的扫地机器人/我要买价格低点的扫地机器人/我要买便宜的扫地机器人就行/我当然是买便宜的扫地机器人了/我要买便宜的扫地机器人啦/我要买便宜的便宜的扫地机器人/我要买价格便宜的扫地机器人/我要买价格低的扫地机器人/我要便宜一点的扫地机器人有没有/我需要便宜点的扫地机器人/你能给我介绍便宜点的扫地机器人吗/我想买便宜点的扫地机器人有没有/我想买便宜点的扫地机器人/我想要价格低点的扫地机器人/我想要便宜的扫地机器人啊/我要买扫地机器人/买价格低点了扫地机器人/我要买价格低的扫地机器人了/我要买需要价格便宜的扫地机器人了/我要买便宜一点的扫地机器人/我要买便宜点的扫地机器人/我就便宜一点的扫地机器人就行了/买便宜一点的扫地机器人就可以了/就买便宜一点的扫地机器人吧/你就给我介绍便宜一点的扫地机器人吧/你给我介绍便宜一点的扫地机器人就好了/给我说一下便宜一点的扫地机器人吧/我不买贵的扫地机器人/不要贵的扫地机器人/我贵的扫地机器人不要/我不想要贵的扫地机器人/我贵的扫地机器人不要/我不要贵的扫地机器人/我不买贵的扫地机器人/我不要贵的扫地机器人/贵的扫地机器人我不要哈/我不想买贵的扫地机器人/我想买一款便宜的扫地机器人/我想买一款性价比高的扫地机器人/你能给我推荐一款性价比高的扫地机器人吗/你可以推荐一款性价比高的扫地机器人给我吗/给我推荐一款价格低的扫地机器人吧/能不能给我推荐一款价格低点的扫地机器人啊//我想买实惠的扫地机/我要买实惠的扫地机/我要买价格低点的扫地机/我要买实惠的扫地机就行/我当然是买实惠的扫地机了/我要买实惠的扫地机啦/我要买实惠的实惠的扫地机/我要买价格实惠的扫地机/我要买价格低的扫地机/我要实惠一点的扫地机有没有/我需要实惠的扫地机/你能给我介绍实惠的扫地机吗/我想买实惠的扫地机有没有/我想买实惠的扫地机/我想要价格低点的扫地机/我想要实惠的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格实惠的扫地机了/我要买实惠一点的扫地机/我要买实惠的扫地机/我就实惠一点的扫地机就行了/买实惠一点的扫地机就可以了/就买实惠一点的扫地机吧/你就给我介绍实惠一点的扫地机吧/你给我介绍实惠一点的扫地机就好了/给我说一下实惠一点的扫地机吧/我想买实惠的扫地机器人/我要买实惠的扫地机器人/我要买价格低点的扫地机器人/我要买实惠的扫地机器人就行/我当然是买实惠的扫地机器人了/我要买实惠的扫地机器人啦/我要买实惠的实惠的扫地机器人/我要买价格实惠的扫地机器人/我要买价格低的扫地机器人/我要实惠一点的扫地机器人有没有/我需要实惠的扫地机器人/你能给我介绍实惠的扫地机器人吗/我想买实惠的扫地机器人有没有/我想买实惠的扫地机器人/我想要价格低点的扫地机器人/我想要实惠的扫地机器人啊/我要买扫地机器人/买价格低点了扫地机器人/我要买价格低的扫地机器人了/我要买需要价格实惠的扫地机器人了/我要买实惠一点的扫地机器人/我要买实惠的扫地机器人/我就实惠一点的扫地机器人就行了/买实惠一点的扫地机器人就可以了/就买实惠一点的扫地机器人吧/你就给我介绍实惠一点的扫地机器人吧/你给我介绍实惠一点的扫地机器人就好了/给我说一下实惠一点的扫地机器人吧/我不买贵的扫地机器人/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你们最便宜的扫地机介绍一下吧/最便宜的地宝/最便宜的/给我介绍一下最实惠的扫地机/最实惠的给我介绍一下/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我要买性能好的扫地机/我要买配置高的我要买扫地机/我要买性能高的扫地机/我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>想买性能高点的扫地机/我要买性能高点的扫地机/我要买性能高的扫地机就行/我当然是买性能高的扫地机了/我要买买性能高的扫地机啦/我要买性能高的扫地机/我要性能高的扫地机/我要性能高一点的扫地机有没有/我需要性能高点的扫地机/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机了/我要买当然买性能好的扫地机了/我要买当然是性能高的扫地机了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机就可以了/我就买性能高一点的扫地机吧/你就给我介绍性能高一点的扫地机吧/你给我介绍性能高一点的扫地机就好了/给我说一下性能高一点的扫地机吧/我不买差的扫地机/我不要差的扫地机/我差的扫地机不要/我不想要差的扫地机/我差的扫地机不要/我不要差的扫地机/我不买差的扫地机/我不要差的扫地机/差的扫地机我不要哈/我不想买差的扫地机/我要买好的扫地机/我要买能力强的扫地机/我要买高性能的扫地机/当然是买性能高的扫地机了/给我推荐一款性能好的扫地机/我要性能好的扫地机/我要配置高的扫地机/我想买一款配置高的扫地机/能给我推荐一款配置高的扫地机吗/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机吗？/我想买性能高的扫地机有吗/我想买配置高的扫地机/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机给我吗/给我推荐一款性能高的扫地机吗/有配置高的扫地机给我推荐一下吧/给我推荐一款配置高的扫地机吧/我要买性能好的扫地机器人/我要买配置高的我要买扫地机器人/我要买性能高的扫地机器人/我想买性能高点的扫地机器人/我要买性能高点的扫地机器人/我要买性能高的扫地机器人就行/我当然是买性能高的扫地机器人了/我要买买性能高的扫地机器人啦/我要买性能高的扫地机器人/我要性能高的扫地机器人/我要性能高一点的扫地机器人有没有/我需要性能高点的扫地机器人/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机器人了/我要买当然买性能好的扫地机器人了/我要买当然是性能高的扫地机器人了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机器人就可以了/我就买性能高一点的扫地机器人吧/你就给我介绍性能高一点的扫地机器人吧/你给我介绍性能高一点的扫地机器人就好了/给我说一下性能高一点的扫地机器人吧/我不买差的扫地机器人/我不要差的扫地机器人/我差的扫地机器人不要/我不想要差的扫地机器人/我差的扫地机器人不要/我不要差的扫地机器人/我不买差的扫地机器人/我不要差的扫地机器人/差的扫地机器人我不要哈/我不想买差的扫地机器人/我要买好的扫地机器人/我要买能力强的扫地机器人/我要买高性能的扫地机器人/当然是买性能高的扫地机器人了/给我推荐一款性能好的扫地机器人/我要性能好的扫地机器人/我要配置高的扫地机器人/我想买一款配置高的扫地机器人/能给我推荐一款配置高的扫地机器人吗/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人吗？/我想买性能高的扫地机器人有吗/我想买配置高的扫地机器人/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人给我吗/给我推荐一款性能高的扫地机器人吗/有配置高的扫地机器人给我推荐一下吧/给我推荐一款配置高的扫地机器人吧//我想买好的扫地机/我要买好的扫地机/我要买好的扫地机就行/我当然是买好的扫地机了/我要买好的扫地机啦/我要买好的好的扫地机/我要买好的扫地机/我要好一点的扫地机有没有/我需要好的扫地机/你能给我介绍好的扫地机吗/我想买好的扫地机有没有/我想买好的扫地机 /我想要好的扫地机啊/我要买需要好的扫地机了/我要买好一点的扫地机/我要买好的扫地机/我就好一点的扫地机就行了/买好一点的扫地机就可以了/就买好一点的扫地机吧/你就给我介绍好一点的扫地机吧/你给我介绍好一点的扫地机就好了/给我说一下好一点的扫地机吧/我想买好的扫地机器人/我要买好的扫地机器人/我要买好的扫地机器人就行/我当然是买好的扫地机器人了/我要买好的扫地机器人啦/我要买好的好的扫地机器人/我要买好的扫地机器人 /我要好一点的扫地机器人有没有/我需要好的扫地机器人/你能给我介绍好的扫地机器人吗/我想买好的扫地机器人有没有/我想买好的扫地机器人/我想好点的扫地机器人/我想要好的扫地机器人啊/我要买扫地机器人/我要买好的扫地机器人了/我要买需要好的扫地机器人了/我要买好一点的扫地机器人/我要买好的扫地机器人/我就好一点的扫地机器人就行了/买好一点的扫地机器人就可以了/就买好一点的扫地机器人吧/你就给我介绍好一点的扫地机器人吧/你给我介绍好一点的扫地机器人就好了/给我说一下好一点的扫地机器人吧/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>给我介绍最贵的扫地机/给我介绍一下配置最高的DG36/给我介绍一下你们最好的扫地机器人/介绍最好的扫地机/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在给我推荐一个/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
+还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
+还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
+还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
+还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
+还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>性能好的/配置高的/性能高的/我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>想买性能高点的/性能高点的/性能高的就行/我当然是买性能高的了/买性能高的啦/性能高的性能高的/我要性能高的/我要性能高一点的有没有/我需要性能高点的/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的了/当然买性能好的了/当然是性能高的了/当然需要性能高的了/当然是买性能高一点的/买性能高点的/性能高一点的就行了/买性能高一点的就可以了/就买性能高一点的吧/你就给我介绍性能高一点的吧/你给我介绍性能高一点的就好了/给我说一下性能高一点的吧/不买差的/不要差的/差的不要/不想要差的/差的不要/不要差的/我不买差的/我不要差的/差的我不要哈/我不想买差的/我要买好的/我要买能力强的/我要买高性能的/当然是买性能高的了/给我推荐一款性能好的/我要性能好的/我要配置高的/我想买一款配置高的/能给我推荐一款配置高的吗/能不能给我推荐一款性能高的/可以推荐一款性能高的吗？/我想买性能高的有吗/我想买配置高的/能不能给我推荐一款性能高的/可以推荐一款性能高的给我吗/给我推荐一款性能高的吗/有配置高的给我推荐一下吧/给我推荐一款配置高的吧</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
@@ -69,576 +709,37 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>业务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还有吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我来买擦窗机器人</t>
-  </si>
-  <si>
-    <t>擦窗机器人</t>
-  </si>
-  <si>
-    <t>买擦窗机器人</t>
+    <r>
+      <t>便宜的/我想买便宜点的/便宜点的/价格低点的/便宜的就行/我当然是买便宜的了/买便宜的啦/便宜的便宜的/价格便宜的/价格低的/我要便宜一点的有没有/我需要便宜点的/你能给我介绍便宜点的吗/我想买便宜点的有没有/我想买便宜点的/我想要价格低点的/我想要便宜的啊/当然是便宜的了/当然买价格低点了/当然是价格低的了/当然需要价格便宜的了/当然是买便宜一点的/买便宜点的/我就便宜一点的就行了/买便宜一点的就可以了/就买便宜一点的吧/你就给我介绍便宜一点的吧/你给我介绍便宜一点的就好了/给我说一下便宜一点的吧/不买贵的/不要贵的/贵的不要/不想要贵的/贵的不要/不要贵的/我不买贵的/我不要贵的/贵的我不要哈/我不想买贵的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/性价比高的/我想买一款便宜的/我想买一款性价比高的/你能给我推荐一款性价比高的吗/你可以推荐一款性价比高的给我吗/给我推荐一款价格低的吧/能不能给我推荐一款价格低点的啊</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>擦窗户的机器人有么？/我来买个擦窗户的/擦窗户的有没有？/擦窗户的那种/能擦窗户的/擦玻璃的那种/擦玻璃的机器人有么？/我来买个擦玻璃的/擦玻璃的有没有？/有没有擦窗机器人？/擦窗机器人有吗？这里有擦窗机器人吗？/有没有擦窗机器人卖？/这里有卖擦窗机器人的吗？/推荐个擦窗机器人/推荐擦窗机器人/介绍个擦窗机器人/介绍擦窗机器人/给我推荐个擦窗机器人/我来买个擦窗机器人/擦窗机器人有吗？/有没有擦窗机器人？/有擦窗机器人吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗机器人？/这里能买到擦窗机器人吗？/给我介绍个擦窗机器人？/能不能介绍一个擦窗机器人？/可以给我介绍一个擦窗机器人吗？/有没有擦窗的机器？/擦窗的机器有吗？这里有擦窗的机器吗？/有没有擦窗的机器卖？/这里有卖擦窗的机器的吗？/推荐个擦窗的机器/推荐擦窗的机器/介绍个擦窗的机器/介绍擦窗的机器/给我推荐个擦窗的机器/我来买个擦窗的机器/擦窗的机器有吗？/有没有擦窗的机器？/有擦窗的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗的机器？/这里能买到擦窗的机器吗？/给我介绍个擦窗的机器？/能不能介绍一个擦窗的机器？/可以给我介绍一个擦窗的机器吗？/有没有擦窗户的机器？/擦窗户的机器有吗？这里有擦窗户的机器吗？/有没有擦窗户的机器卖？/这里有卖擦窗户的机器的吗？/推荐个擦窗户的机器/推荐擦窗户的机器/介绍个擦窗户的机器/介绍擦窗户的机器/给我推荐个擦窗户的机器/我来买个擦窗户的机器/擦窗户的机器有吗？/有没有擦窗户的机器？/有擦窗户的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗户的机器？/这里能买到擦窗户的机器吗？/给我介绍个擦窗户的机器？/能不能介绍一个擦窗户的机器？/可以给我介绍一个擦窗户的机器吗？/有没有擦玻璃的机器？/擦玻璃的机器有吗？这里有擦玻璃的机器吗？/有没有擦玻璃的机器卖？/这里有卖擦玻璃的机器的吗？/推荐个擦玻璃的机器/推荐擦玻璃的机器/介绍个擦玻璃的机器/介绍擦玻璃的机器/给我推荐个擦玻璃的机器/我来买个擦玻璃的机器/擦玻璃的机器有吗？/有没有擦玻璃的机器？/有擦玻璃的机器吗？/有擦玻璃的机器人吗？/你们这里有擦玻璃的机器人卖吗？/可不可以在这里买擦玻璃的机器？/这里能买到擦玻璃的机器吗？/给我介绍个擦玻璃的机器？/能不能介绍一个擦玻璃的机器？/可以给我介绍一个擦玻璃的机器吗？/有没有打扫窗户的机器？/打扫窗户的机器有吗？这里有打扫窗户的机器吗？/有没有打扫窗户的机器卖？/这里有卖打扫窗户的机器的吗？/推荐个打扫窗户的机器/推荐打扫窗户的机器/介绍个打扫窗户的机器/介绍打扫窗户的机器/给我推荐个打扫窗户的机器/我来买个打扫窗户的机器/打扫窗户的机器有吗？/有没有打扫窗户的机器？/有打扫窗户的机器吗？/有打扫窗户的机器人吗？/你们这里有打扫窗户的机器人卖吗？/可不可以在这里买打扫窗户的机器？/这里能买到打扫窗户的机器吗？/给我介绍个打扫窗户的机器？/能不能介绍一个打扫窗户的机器？/可以给我介绍一个打扫窗户的机器吗？/</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>我来买空气净化机器人</t>
-  </si>
-  <si>
-    <t>空气净化机器人</t>
-  </si>
-  <si>
-    <t>买空气净化机器人</t>
-  </si>
-  <si>
-    <t>我来是买空气净化机器人的/我来买空气净化机器人的/我是来买空气净化机器人的/我来买净化空气的机器人/我想买空气净化机器人/空气净化机器人/净化空气的/能净化空气的/我想要空气净化机器人/我要空气净化机器人/有空气净化机器人吗？/空气净化机器人这里有卖的吗？/你们这里有卖空气净化机器人的吗？/推荐个空气净化机器人/给我推荐个空气净化机器人/介绍个空气净化机器人/介绍空气净化机器人/空气净化器有没有？/有没有空气净化器？/这里有空气净化器吗？/这里有卖空气净化器的吗？/你们这里有空气净化器吗？/你们这里有卖空气净化器的吗？/有没有空气净化器卖呀？/我想买净化空气的机器人/我想要一个净化空气的机器人/我来买净化空气的机器人的/我来买空气净化机器人/我来买空气净化机器人人/我想买空气净化机器人/空气净化机器人/我来买空气净化机器人/我想要空气净化机器人/我要空气净化机器人/推荐个空气净化机器人/我要买空气净化机器人/买空气净化机器人/我要买空气净化机器人/推荐个空气净化机器人/推荐空气净化机器人/空气净化机器人/给我推荐个空气净化机器人/介绍个空气净化机器人/介绍下空气净化机器人/我想买一个空气净化机器人/你们这里可以买空气净化机器人吗？/你能给我推荐一下空气净化机器人吗？/空气净化机器人有没有啊？/有没有空气净化机器人卖？/可以在这里买到空气净化机器人吗？/能不能介绍一个空气净化机器人给我？/可以给我介绍一个空气净化机器人吗？/能不能给我推荐一个空气净化机器人？/可以推荐一个空气净化机器人给我？//我来买净化空气的机器/我来买净化空气的机器人/我想买净化空气的机器/净化空气的机器/我来买净化空气的机器/我想要净化空气的机器/我要净化空气的机器/推荐个净化空气的机器/我要买净化空气的机器/买净化空气的机器/我要买净化空气的机器/推荐个净化空气的机器/推荐净化空气的机器/净化空气的机器/给我推荐个净化空气的机器/介绍个净化空气的机器/介绍下净化空气的机器/我想买一个净化空气的机器/你们这里可以买净化空气的机器吗？/你能给我推荐一下净化空气的机器吗？/净化空气的机器有没有啊？/有没有净化空气的机器卖？/可以在这里买到净化空气的机器吗？/能不能介绍一个净化空气的机器给我？/可以给我介绍一个净化空气的机器吗？/能不能给我推荐一个净化空气的机器？/可以推荐一个净化空气的机器给我？//我来买能让空气变好的机器/我来买能让空气变好的机器人/我想买能让空气变好的机器/能让空气变好的机器/我来买能让空气变好的机器/我想要能让空气变好的机器/我要能让空气变好的机器/推荐个能让空气变好的机器/我要买能让空气变好的机器/买能让空气变好的机器/我要买能让空气变好的机器/推荐个能让空气变好的机器/推荐能让空气变好的机器/能让空气变好的机器/给我推荐个能让空气变好的机器/介绍个能让空气变好的机器/介绍下能让空气变好的机器/我想买一个能让空气变好的机器/你们这里可以买能让空气变好的机器吗？/你能给我推荐一下能让空气变好的机器吗？/能让空气变好的机器有没有啊？/有没有能让空气变好的机器卖？/可以在这里买到能让空气变好的机器吗？/能不能介绍一个能让空气变好的机器给我？/可以给我介绍一个能让空气变好的机器吗？/能不能给我推荐一个能让空气变好的机器？/可以推荐一个能让空气变好的机器给我？//我来买过滤空气的机器/我来买过滤空气的机器人/我想买过滤空气的机器/过滤空气的机器/我来买过滤空气的机器/我想要过滤空气的机器/我要过滤空气的机器/推荐个过滤空气的机器/我要买过滤空气的机器/买过滤空气的机器/我要买过滤空气的机器/推荐个过滤空气的机器/推荐过滤空气的机器/过滤空气的机器/给我推荐个过滤空气的机器/介绍个过滤空气的机器/介绍下过滤空气的机器/我想买一个过滤空气的机器/你们这里可以买过滤空气的机器吗？/你能给我推荐一下过滤空气的机器吗？/过滤空气的机器有没有啊？/有没有过滤空气的机器卖？/可以在这里买到过滤空气的机器吗？/能不能介绍一个过滤空气的机器给我？/可以给我介绍一个过滤空气的机器吗？/能不能给我推荐一个过滤空气的机器？/可以推荐一个过滤空气的机器给我？/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>旺宝诚心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>推荐您，本店在售的，会飞檐走壁的窗宝W855。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>他擦了刮，刮了擦，四段清洁很干净；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>四重安全保证，全无后顾之忧；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>智能记忆功，好放好取；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进口电机，使用寿命长；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轴流式负压风机设计，满足顾客多种介质的擦拭需求。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">您可以在主界面点击搜索了解详情。
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>旺宝给您推荐本店在售的沁宝A650。这款宝宝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>有独特的移动巡航技术，自主移动巡航；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>优化的空气动力循环系统，最大限度的净化空气；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4层环形一体化滤芯，杀菌过滤一步到位；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>人性化语音提醒，贴心指导；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>APP远程操作，智能预约，家在掌心净化无忧。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>便宜一点的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性能高点的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请问您是想要便宜点的还是性能高点的呀？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>给您推荐DG36这款高级宝宝，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>他突出特点就是能LDS扫描建立房屋户型图，所有房间有序清洁；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>蓝鲸清洁系统，一站式清洁到位;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>通过超声波探测，辨识地毯和地面，清洁吸力自动选择；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>可通过APP实现在线升级，保持程序系统的最新状态，永不落伍。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>能力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>港港的。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实惠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还有吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的窗宝么？/你们店里还有其他的窗宝么？/窗宝还有没有其他选择？/窗宝还有没有其他款式？/窗宝还有没有其他型号？/窗宝其他型号有没有？/还有没有窗宝/还有窗宝么？/其他的窗宝呢？/别的窗宝/再给我推荐一个窗宝/再推荐一个窗宝我看看/再推荐一个窗宝我听听/我还想了解其他的窗宝/我还想了解别的窗宝型号的/再介绍一个窗宝/再介绍一款窗宝/还有没有窗宝？/还有其他的窗宝么？/其他的窗宝呢？/就这一款窗宝么？/就这一个窗宝？/有没有更好的窗宝？/有没有配置高一点的窗宝？/有没有比这个好的窗宝/有没有比这个好的窗宝推荐一下/有没有性能更好的窗宝/有没有性能更好的窗宝推荐一下/性能更好的窗宝/我想知道其他的窗宝/换一款窗宝/换一个窗宝/下一个窗宝/再介绍一个其他的窗宝/还有别的擦窗户的么？/你们店里还有其他的擦窗户的么？/擦窗户的还有没有其他选择？/擦窗户的还有没有其他款式？/擦窗户的还有没有其他型号？/擦窗户的其他型号有没有？/还有没有擦窗户的/还有擦窗户的么？/其他的擦窗户的呢？/别的擦窗户的/再给我推荐一个擦窗户的/再推荐一个擦窗户的我看看/再推荐一个擦窗户的我听听/我还想了解其他的擦窗户的/我还想了解别的擦窗户的型号的/再介绍一个擦窗户的/再介绍一款擦窗户的/还有没有擦窗户的？/还有其他的擦窗户的么？/其他的擦窗户的呢？/就这一款擦窗户的么？/就这一个擦窗户的？/有没有更好的擦窗户的？/有没有配置高一点的擦窗户的？/有没有比这个好的擦窗户的/有没有比这个好的擦窗户的推荐一下/有没有性能更好的擦窗户的/有没有性能更好的擦窗户的推荐一下/性能更好的擦窗户的/我想知道其他的擦窗户的/换一款擦窗户的/换一个擦窗户的/下一个擦窗户的/再介绍一个其他的擦窗户的/给我推荐一款窗宝
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">还有别的沁宝么？/你们店里还有其他的沁宝么？/沁宝还有没有其他选择？/沁宝还有没有其他款式？/沁宝还有没有其他型号？/沁宝其他型号有没有？/还有没有沁宝/还有沁宝么？/其他的沁宝呢？/别的沁宝/再给我推荐一个沁宝/再推荐一个沁宝我看看/再推荐一个沁宝我听听/我还想了解其他的沁宝/我还想了解别的沁宝型号的/再介绍一个沁宝/再介绍一款沁宝/还有没有沁宝？/还有其他的沁宝么？/其他的沁宝呢？/就这一款沁宝么？/就这一个沁宝？/有没有更好的沁宝？/有没有配置高一点的沁宝？/有没有比这个好的沁宝/有没有比这个好的沁宝推荐一下/有没有性能更好的沁宝/有没有性能更好的沁宝推荐一下/性能更好的沁宝/我想知道其他的沁宝/换一款沁宝/换一个沁宝/下一个沁宝/再介绍一个其他的沁宝/
-还有别的净化空气么？/你们店里还有其他的净化空气么？/净化空气还有没有其他选择？/净化空气还有没有其他款式？/净化空气还有没有其他型号？/净化空气其他型号有没有？/还有没有净化空气/还有净化空气么？/其他的净化空气呢？/别的净化空气/再给我推荐一个净化空气/再推荐一个净化空气我看看/再推荐一个净化空气我听听/我还想了解其他的净化空气/我还想了解别的净化空气型号的/再介绍一个净化空气/再介绍一款净化空气/还有没有净化空气？/还有其他的净化空气么？/其他的净化空气呢？/就这一款净化空气么？/就这一个净化空气？/有没有更好的净化空气？/有没有配置高一点的净化空气？/有没有比这个好的净化空气/有没有比这个好的净化空气推荐一下/有没有性能更好的净化空气/有没有性能更好的净化空气推荐一下/性能更好的净化空气/我想知道其他的净化空气/换一款净化空气/换一个净化空气/下一个净化空气/再介绍一个其他的净化空气/
-还有别的清新房间空气的么？/你们店里还有其他的清新房间空气的么？/清新房间空气的还有没有其他选择？/清新房间空气的还有没有其他款式？/清新房间空气的还有没有其他型号？/清新房间空气的其他型号有没有？/还有没有清新房间空气的/还有清新房间空气的么？/其他的清新房间空气的呢？/别的清新房间空气的/再给我推荐一个清新房间空气的/再推荐一个清新房间空气的我看看/再推荐一个清新房间空气的我听听/我还想了解其他的清新房间空气的/我还想了解别的清新房间空气的型号的/再介绍一个清新房间空气的/再介绍一款清新房间空气的/还有没有清新房间空气的？/还有其他的清新房间空气的么？/其他的清新房间空气的呢？/就这一款清新房间空气的么？/就这一个清新房间空气的？/有没有更好的清新房间空气的？/有没有配置高一点的清新房间空气的？/有没有比这个好的清新房间空气的/有没有比这个好的清新房间空气的推荐一下/有没有性能更好的清新房间空气的/有没有性能更好的清新房间空气的推荐一下/性能更好的清新房间空气的/我想知道其他的清新房间空气的/换一款清新房间空气的/换一个清新房间空气的/下一个清新房间空气的/再介绍一个其他的清新房间空气的/
-还有别的湿润房间空气的么？/你们店里还有其他的湿润房间空气的么？/湿润房间空气的还有没有其他选择？/湿润房间空气的还有没有其他款式？/湿润房间空气的还有没有其他型号？/湿润房间空气的其他型号有没有？/还有没有湿润房间空气的 /还有湿润房间空气的么？/其他的湿润房间空气的呢？/别的湿润房间空气的 /再给我推荐一个湿润房间空气的/再推荐一个湿润房间空气的我看看/再推荐一个湿润房间空气的 我听听/我还想了解其他的湿润房间空气的/我还想了解别的湿润房间空气的 型号的/再介绍一个湿润房间空气的/再介绍一款湿润房间空气的/还有没有湿润房间空气的？/还有其他的湿润房间空气的么？/其他的湿润房间空气的呢？/就这一款湿润房间空气的么？/就这一个湿润房间空气的？/有没有更好的湿润房间空气的？/有没有配置高一点的湿润房间空气的？/有没有比这个好的湿润房间空气的/有没有比这个好的湿润房间空气的推荐一下/有没有性能更好的湿润房间空气的/有没有性能更好的湿润房间空气的推荐一下/性能更好的湿润房间空气的/我想知道其他的湿润房间空气的/换一款湿润房间空气的/换一个湿润房间空气的/下一个湿润房间空气的/再介绍一个其他的湿润房间空气的 /
-还有别的除去房间甲醛的么？/你们店里还有其他的除去房间甲醛的么？/除去房间甲醛的还有没有其他选择？/除去房间甲醛的还有没有其他款式？/除去房间甲醛的还有没有其他型号？/除去房间甲醛的其他型号有没有？/还有没有除去房间甲醛的/还有除去房间甲醛的么？/其他的除去房间甲醛的呢？/别的除去房间甲醛的/再给我推荐一个除去房间甲醛的/再推荐一个除去房间甲醛的我看看/再推荐一个除去房间甲醛的我听听/我还想了解其他的除去房间甲醛的/我还想了解别的除去房间甲醛的型号的/再介绍一个除去房间甲醛的/再介绍一款除去房间甲醛的/还有没有除去房间甲醛的？/还有其他的除去房间甲醛的么？/其他的除去房间甲醛的呢？/就这一款除去房间甲醛的么？/就这一个除去房间甲醛的？/有没有更好的除去房间甲醛的？/有没有配置高一点的除去房间甲醛的？/有没有比这个好的除去房间甲醛的/有没有比这个好的除去房间甲醛的推荐一下/有没有性能更好的除去房间甲醛的/有没有性能更好的除去房间甲醛的推荐一下/性能更好的除去房间甲醛的/我想知道其他的除去房间甲醛的/换一款除去房间甲醛的/换一个除去房间甲醛的/下一个除去房间甲醛的/再介绍一个其他的除去房间甲醛的/给我推荐一款沁宝
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>旺宝给您推荐新款的DD56，这款宝宝优点有点多</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Smart Move技术路径规划，避免重复;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>蓝鲸清洁系统，一站式清洁到位;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>漫威主题外观，钢铁侠主题设计，时尚潮流，新颖美观;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>还有手机app远程操控，方便快捷。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD56</t>
-  </si>
-  <si>
-    <t>亲亲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DG716</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DG36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W855</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亲亲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A650</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请到店里咨询，有店长大人为您做详细介绍哦！</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DG716这款宝宝纤薄7点75厘米机身设计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.59999389629810485"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>采用日本尼德科无刷电机，噪音小，使用寿命长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>更有蓝鲸清洁系统，吸口吸灰，抹布湿拖，一站式清洁到位;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Smart Move技术高效覆盖，打扫不重复;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>吸口，滚刷互换功能，深度清洁使用，强效去灰。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>性能好的/配置高的/性能高的/我</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>想买性能高点的/性能高点的/性能高的就行/我当然是买性能高的了/买性能高的啦/性能高的性能高的/我要性能高的/我要性能高一点的有没有/我需要性能高点的/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的了/当然买性能好的了/当然是性能高的了/当然需要性能高的了/当然是买性能高一点的/买性能高点的/性能高一点的就行了/买性能高一点的就可以了/就买性能高一点的吧/你就给我介绍性能高一点的吧/你给我介绍性能高一点的就好了/给我说一下性能高一点的吧/不买差的/不要差的/差的不要/不想要差的/差的不要/不要差的/我不买差的/我不要差的/差的我不要哈/我不想买差的/我要买好的/我要买能力强的/我要买高性能的/当然是买性能高的了/给我推荐一款性能好的/我要性能好的/我要配置高的/我想买一款配置高的/能给我推荐一款配置高的吗/能不能给我推荐一款性能高的/可以推荐一款性能高的吗？/我想买性能高的有吗/我想买配置高的/能不能给我推荐一款性能高的/可以推荐一款性能高的给我吗/给我推荐一款性能高的吗/有配置高的给我推荐一下吧/给我推荐一款配置高的吧</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>便宜的/我想买便宜点的/便宜点的/价格低点的/便宜的就行/我当然是买便宜的了/买便宜的啦/便宜的便宜的/价格便宜的/价格低的/我要便宜一点的有没有/我需要便宜点的/你能给我介绍便宜点的吗/我想买便宜点的有没有/我想买便宜点的/我想要价格低点的/我想要便宜的啊/当然是便宜的了/当然买价格低点了/当然是价格低的了/当然需要价格便宜的了/当然是买便宜一点的/买便宜点的/我就便宜一点的就行了/买便宜一点的就可以了/就买便宜一点的吧/你就给我介绍便宜一点的吧/你给我介绍便宜一点的就好了/给我说一下便宜一点的吧/不买贵的/不要贵的/贵的不要/不想要贵的/贵的不要/不要贵的/我不买贵的/我不要贵的/贵的我不要哈/我不想买贵的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/性价比高的/我想买一款便宜的/我想买一款性价比高的/你能给我推荐一款性价比高的吗/你可以推荐一款性价比高的给我吗/给我推荐一款价格低的吧/能不能给我推荐一款价格低点的啊</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>便宜一点的扫地机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性能高点的扫地机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实惠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
-还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
-还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
-还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
-还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
-还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/我想买便宜点的扫地机/我要买便宜点的扫地机/我要买价格低点的扫地机/我要买便宜的扫地机就行/我当然是买便宜的扫地机了/我要买便宜的扫地机啦/我要买便宜的便宜的扫地机/我要买价格便宜的扫地机/我要买价格低的扫地机/我要便宜一点的扫地机有没有/我需要便宜点的扫地机/你能给我介绍便宜点的扫地机吗/我想买便宜点的扫地机有没有/我想买便宜点的扫地机/我想要价格低点的扫地机/我想要便宜的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格便宜的扫地机了/我要买便宜一点的扫地机/我要买便宜点的扫地机/我就便宜一点的扫地机就行了/买便宜一点的扫地机就可以了/就买便宜一点的扫地机吧/你就给我介绍便宜一点的扫地机吧/你给我介绍便宜一点的扫地机就好了/给我说一下便宜一点的扫地机吧/我不买贵的扫地机/不要贵的扫地机/我贵的扫地机不要/我不想要贵的扫地机/我贵的扫地机不要/我不要贵的扫地机/我不买贵的扫地机/我不要贵的扫地机/贵的扫地机我不要哈/我不想买贵的扫地机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/我想买一款便宜的扫地机/我想买一款性价比高的扫地机/你能给我推荐一款性价比高的扫地机吗/你可以推荐一款性价比高的扫地机给我吗/给我推荐一款价格低的扫地机吧/能不能给我推荐一款价格低点的扫地机啊
-/我想买便宜点的扫地机器人/我要买便宜点的扫地机器人/我要买价格低点的扫地机器人/我要买便宜的扫地机器人就行/我当然是买便宜的扫地机器人了/我要买便宜的扫地机器人啦/我要买便宜的便宜的扫地机器人/我要买价格便宜的扫地机器人/我要买价格低的扫地机器人/我要便宜一点的扫地机器人有没有/我需要便宜点的扫地机器人/你能给我介绍便宜点的扫地机器人吗/我想买便宜点的扫地机器人有没有/我想买便宜点的扫地机器人/我想要价格低点的扫地机器人/我想要便宜的扫地机器人啊/我要买扫地机器人/买价格低点了扫地机器人/我要买价格低的扫地机器人了/我要买需要价格便宜的扫地机器人了/我要买便宜一点的扫地机器人/我要买便宜点的扫地机器人/我就便宜一点的扫地机器人就行了/买便宜一点的扫地机器人就可以了/就买便宜一点的扫地机器人吧/你就给我介绍便宜一点的扫地机器人吧/你给我介绍便宜一点的扫地机器人就好了/给我说一下便宜一点的扫地机器人吧/我不买贵的扫地机器人/不要贵的扫地机器人/我贵的扫地机器人不要/我不想要贵的扫地机器人/我贵的扫地机器人不要/我不要贵的扫地机器人/我不买贵的扫地机器人/我不要贵的扫地机器人/贵的扫地机器人我不要哈/我不想买贵的扫地机器人/我想买一款便宜的扫地机器人/我想买一款性价比高的扫地机器人/你能给我推荐一款性价比高的扫地机器人吗/你可以推荐一款性价比高的扫地机器人给我吗/给我推荐一款价格低的扫地机器人吧/能不能给我推荐一款价格低点的扫地机器人啊//我想买实惠的扫地机/我要买实惠的扫地机/我要买价格低点的扫地机/我要买实惠的扫地机就行/我当然是买实惠的扫地机了/我要买实惠的扫地机啦/我要买实惠的实惠的扫地机/我要买价格实惠的扫地机/我要买价格低的扫地机/我要实惠一点的扫地机有没有/我需要实惠的扫地机/你能给我介绍实惠的扫地机吗/我想买实惠的扫地机有没有/我想买实惠的扫地机/我想要价格低点的扫地机/我想要实惠的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格实惠的扫地机了/我要买实惠一点的扫地机/我要买实惠的扫地机/我就实惠一点的扫地机就行了/买实惠一点的扫地机就可以了/就买实惠一点的扫地机吧/你就给我介绍实惠一点的扫地机吧/你给我介绍实惠一点的扫地机就好了/给我说一下实惠一点的扫地机吧/我想买实惠的扫地机器人/我要买实惠的扫地机器人/我要买价格低点的扫地机器人/我要买实惠的扫地机器人就行/我当然是买实惠的扫地机器人了/我要买实惠的扫地机器人啦/我要买实惠的实惠的扫地机器人/我要买价格实惠的扫地机器人/我要买价格低的扫地机器人/我要实惠一点的扫地机器人有没有/我需要实惠的扫地机器人/你能给我介绍实惠的扫地机器人吗/我想买实惠的扫地机器人有没有/我想买实惠的扫地机器人/我想要价格低点的扫地机器人/我想要实惠的扫地机器人啊/我要买扫地机器人/买价格低点了扫地机器人/我要买价格低的扫地机器人了/我要买需要价格实惠的扫地机器人了/我要买实惠一点的扫地机器人/我要买实惠的扫地机器人/我就实惠一点的扫地机器人就行了/买实惠一点的扫地机器人就可以了/就买实惠一点的扫地机器人吧/你就给我介绍实惠一点的扫地机器人吧/你给我介绍实惠一点的扫地机器人就好了/给我说一下实惠一点的扫地机器人吧/我不买贵的扫地机器人
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我来买扫地机器人/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买扫地机器人/扫地机器人/扫地的/清洁地面的/能清理地面灰尘的/我来买扫地机器人/我想要扫地机器人/我要扫地机器人/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买扫地机器人/买扫地机器人/我要买扫地机器人/推荐个扫地机器人/推荐扫地机器人/扫地机器人/给我推荐个扫地机器人/介绍个扫地机器人/介绍下扫地机器人/介绍个扫地的/我想买一个扫地机器人/你们这里可以买扫地机器人吗？/你能给我推荐一下扫地机器人吗？/扫地的机器人有没有啊？/有没有扫地的机器人卖？/可以在这里买到扫地机器人吗？/能不能介绍一个扫地机器人给我？/可以给我介绍一个扫地机器人吗？/能不能给我推荐一个扫地机器人？/可以推荐一个扫地机器人给我？/扫地机/推荐个扫地机/扫地机推荐一下/有没有扫地机推荐的/我需要扫地机/我来买扫地的机器/我来买扫地的机器人/我想买扫地的机器/扫地的机器/我来买扫地的机器/我想要扫地的机器/我要扫地的机器/我要买扫地机/推荐个扫地的机器/我要买扫地的机器/买扫地的机器/我要买扫地的机器/推荐个扫地的机器/推荐扫地的机器/扫地的机器/给我推荐个扫地的机器/介绍个扫地的机器/介绍下扫地的机器/我想买一个扫地的机器/你们这里可以买扫地的机器吗？/你能给我推荐一下扫地的机器吗？/扫地的机器有没有啊？/有没有扫地的机器卖？/可以在这里买到扫地的机器吗？/能不能介绍一个扫地的机器给我？/可以给我介绍一个扫地的机器吗？/能不能给我推荐一个扫地的机器？/可以推荐一个扫地的机器给我？/我来买能打扫地面的机器/我来买能打扫地面的机器人/我想买能打扫地面的机器/能打扫地面的机器/我来买能打扫地面的机器/我想要能打扫地面的机器/我要能打扫地面的机器/我要买扫地机/推荐个能打扫地面的机器/我要买能打扫地面的机器/买能打扫地面的机器/我要买能打扫地面的机器/推荐个能打扫地面的机器/推荐能打扫地面的机器/能打扫地面的机器/给我推荐个能打扫地面的机器/介绍个能打扫地面的机器/介绍下能打扫地面的机器/我想买一个能打扫地面的机器/你们这里可以买能打扫地面的机器吗？/你能给我推荐一下能打扫地面的机器吗？/能打扫地面的机器有没有啊？/有没有能打扫地面的机器卖？/可以在这里买到能打扫地面的机器吗？/能不能介绍一个能打扫地面的机器给我？/可以给我介绍一个能打扫地面的机器吗？/能不能给我推荐一个能打扫地面的机器？/可以推荐一个能打扫地面的机器给我？/我来买打扫卫生的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买打扫卫生的机器/打扫卫生的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买打扫卫生的机器/我想要打扫卫生的机器/我要打扫卫生的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买打扫卫生的机器/买打扫卫生的机器/我要买打扫卫生的机器/推荐个打扫卫生的机器/推荐打扫卫生的机器/打扫卫生的机器/给我推荐个打扫卫生的机器/介绍个打扫卫生的机器/介绍下打扫卫生的机器/介绍个扫地的/我想买一个打扫卫生的机器/你们这里可以买打扫卫生的机器吗？/你能给我推荐一下打扫卫生的机器吗？/扫地的机器人有没有啊？/我来买拖地的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买拖地的机器/拖地的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买拖地的机器/我想要拖地的机器/我要拖地的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买拖地的机器/买拖地的机器/我要买拖地的机器/推荐个拖地的机器/推荐拖地的机器/拖地的机器/给我推荐个拖地的机器/介绍个拖地的机器/介绍下拖地的机器/介绍个扫地的/我想买一个拖地的机器/你们这里可以买拖地的机器吗？/你能给我推荐一下拖地的机器吗？/扫地的机器人有没有啊？/我来买清洁地面的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买清洁地面的机器/清洁地面的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买清洁地面的机器/我想要清洁地面的机器/我要清洁地面的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买清洁地面的机器/买清洁地面的机器/我要买清洁地面的机器/推荐个清洁地面的机器/推荐清洁地面的机器/清洁地面的机器/给我推荐个清洁地面的机器/介绍个清洁地面的机器/介绍下清洁地面的机器/介绍个扫地的/我想买一个清洁地面的机器/你们这里可以买清洁地面的机器吗？/你能给我推荐一下清洁地面的机器吗？/扫地的机器人有没有啊？//我想买性价比高的扫地机/我要买性价比高的扫地机/我要买性价比高的扫地机就行/我当然是买性价比高的扫地机了/我要买性价比高的扫地机啦/我要买性价比高的性价比高的扫地机/我要买性价比高的扫地机/我要性价比高一点的扫地机有没有/我需要性价比高的扫地机/你能给我介绍性价比高的扫地机吗/我想买性价比高的扫地机有没有/我想买性价比高的扫地机 /我想要性价比高的扫地机啊/我要买需要性价比高的扫地机了/我要买性价比高一点的扫地机/我要买性价比高的扫地机/我就性价比高一点的扫地机就行了/买性价比高一点的扫地机就可以了/就买性价比高一点的扫地机吧/你就给我介绍性价比高一点的扫地机吧/你给我介绍性价比高一点的扫地机就好了/给我说一下性价比高一点的扫地机吧/我想买性价比高的扫地机器人/我要买性价比高的扫地机器人/我要买性价比高的扫地机器人就行/我当然是买性价比高的扫地机器人了/我要买性价比高的扫地机器人啦/我要买性价比高的性价比高的扫地机器人/我要买性价比高的扫地机器人 /我要性价比高一点的扫地机器人有没有/我需要性价比高的扫地机器人/你能给我介绍性价比高的扫地机器人吗/我想买性价比高的扫地机器人有没有/我想买性价比高的扫地机器人/我想性价比高点的扫地机器人/我想要性价比高的扫地机器人啊/我要买扫地机器人/我要买性价比高的扫地机器人了/我要买需要性价比高的扫地机器人了/我要买性价比高一点的扫地机器人/我要买性价比高的扫地机器人/我就性价比高一点的扫地机器人就行了/买性价比高一点的扫地机器人就可以了/就买性价比高一点的扫地机器人吧/你就给我介绍性价比高一点的扫地机器人吧/你给我介绍性价比高一点的扫地机器人就好了/给我说一下性价比高一点的扫地机器人吧/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>我要买性能好的扫地机/我要买配置高的我要买扫地机/我要买性能高的扫地机/我</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>想买性能高点的扫地机/我要买性能高点的扫地机/我要买性能高的扫地机就行/我当然是买性能高的扫地机了/我要买买性能高的扫地机啦/我要买性能高的扫地机/我要性能高的扫地机/我要性能高一点的扫地机有没有/我需要性能高点的扫地机/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机了/我要买当然买性能好的扫地机了/我要买当然是性能高的扫地机了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机就可以了/我就买性能高一点的扫地机吧/你就给我介绍性能高一点的扫地机吧/你给我介绍性能高一点的扫地机就好了/给我说一下性能高一点的扫地机吧/我不买差的扫地机/我不要差的扫地机/我差的扫地机不要/我不想要差的扫地机/我差的扫地机不要/我不要差的扫地机/我不买差的扫地机/我不要差的扫地机/差的扫地机我不要哈/我不想买差的扫地机/我要买好的扫地机/我要买能力强的扫地机/我要买高性能的扫地机/当然是买性能高的扫地机了/给我推荐一款性能好的扫地机/我要性能好的扫地机/我要配置高的扫地机/我想买一款配置高的扫地机/能给我推荐一款配置高的扫地机吗/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机吗？/我想买性能高的扫地机有吗/我想买配置高的扫地机/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机给我吗/给我推荐一款性能高的扫地机吗/有配置高的扫地机给我推荐一下吧/给我推荐一款配置高的扫地机吧/我要买性能好的扫地机器人/我要买配置高的我要买扫地机器人/我要买性能高的扫地机器人/我想买性能高点的扫地机器人/我要买性能高点的扫地机器人/我要买性能高的扫地机器人就行/我当然是买性能高的扫地机器人了/我要买买性能高的扫地机器人啦/我要买性能高的扫地机器人/我要性能高的扫地机器人/我要性能高一点的扫地机器人有没有/我需要性能高点的扫地机器人/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机器人了/我要买当然买性能好的扫地机器人了/我要买当然是性能高的扫地机器人了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机器人就可以了/我就买性能高一点的扫地机器人吧/你就给我介绍性能高一点的扫地机器人吧/你给我介绍性能高一点的扫地机器人就好了/给我说一下性能高一点的扫地机器人吧/我不买差的扫地机器人/我不要差的扫地机器人/我差的扫地机器人不要/我不想要差的扫地机器人/我差的扫地机器人不要/我不要差的扫地机器人/我不买差的扫地机器人/我不要差的扫地机器人/差的扫地机器人我不要哈/我不想买差的扫地机器人/我要买好的扫地机器人/我要买能力强的扫地机器人/我要买高性能的扫地机器人/当然是买性能高的扫地机器人了/给我推荐一款性能好的扫地机器人/我要性能好的扫地机器人/我要配置高的扫地机器人/我想买一款配置高的扫地机器人/能给我推荐一款配置高的扫地机器人吗/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人吗？/我想买性能高的扫地机器人有吗/我想买配置高的扫地机器人/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人给我吗/给我推荐一款性能高的扫地机器人吗/有配置高的扫地机器人给我推荐一下吧/给我推荐一款配置高的扫地机器人吧//我想买好的扫地机/我要买好的扫地机/我要买好的扫地机就行/我当然是买好的扫地机了/我要买好的扫地机啦/我要买好的好的扫地机/我要买好的扫地机/我要好一点的扫地机有没有/我需要好的扫地机/你能给我介绍好的扫地机吗/我想买好的扫地机有没有/我想买好的扫地机 /我想要好的扫地机啊/我要买需要好的扫地机了/我要买好一点的扫地机/我要买好的扫地机/我就好一点的扫地机就行了/买好一点的扫地机就可以了/就买好一点的扫地机吧/你就给我介绍好一点的扫地机吧/你给我介绍好一点的扫地机就好了/给我说一下好一点的扫地机吧/我想买好的扫地机器人/我要买好的扫地机器人/我要买好的扫地机器人就行/我当然是买好的扫地机器人了/我要买好的扫地机器人啦/我要买好的好的扫地机器人/我要买好的扫地机器人 /我要好一点的扫地机器人有没有/我需要好的扫地机器人/你能给我介绍好的扫地机器人吗/我想买好的扫地机器人有没有/我想买好的扫地机器人/我想好点的扫地机器人/我想要好的扫地机器人啊/我要买扫地机器人/我要买好的扫地机器人了/我要买需要好的扫地机器人了/我要买好一点的扫地机器人/我要买好的扫地机器人/我就好一点的扫地机器人就行了/买好一点的扫地机器人就可以了/就买好一点的扫地机器人吧/你就给我介绍好一点的扫地机器人吧/你给我介绍好一点的扫地机器人就好了/给我说一下好一点的扫地机器人吧/</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -815,6 +916,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -839,7 +948,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -882,6 +991,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1186,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1210,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1233,7 +1346,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1241,59 +1354,59 @@
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>52</v>
+      <c r="F2" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
+      <c r="F3" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1306,7 +1419,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -1319,74 +1432,74 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1394,22 +1507,22 @@
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1423,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1445,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1465,45 +1578,45 @@
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" s="12" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1517,7 +1630,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1536,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1556,46 +1669,46 @@
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="209.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="207" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/update_data/data/ecovacs/dialogue/副本科沃斯门店对话设计.xlsx
+++ b/update_data/data/ecovacs/dialogue/副本科沃斯门店对话设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="28035" windowHeight="12045" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="28035" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="地宝" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,15 @@
     <sheet name="沁宝" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <customWorkbookViews>
+    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{613290AE-B815-482C-9227-4F835E90B755}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" activeSheetId="3"/>
+    <customWorkbookView name="hongru.chu(褚宏茹) - 个人视图" guid="{5629F9B3-54EF-42EA-B0A9-15544B8E5C42}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="781" activeSheetId="1"/>
+  </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
   <si>
     <t>问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,17 +50,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我来买扫地机器人</t>
-  </si>
-  <si>
     <t>扫地机器人</t>
   </si>
   <si>
     <t>买扫地机器人</t>
-  </si>
-  <si>
-    <t>我来买扫地机器人/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买扫地机器人/扫地机器人/扫地的/清洁地面的/能清理地面灰尘的/我来买扫地机器人/我想要扫地机器人/我要扫地机器人/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买扫地机器人/买扫地机器人/我要买扫地机器人/推荐个扫地机器人/推荐扫地机器人/扫地机器人/给我推荐个扫地机器人/介绍个扫地机器人/介绍下扫地机器人/介绍个扫地的/我想买一个扫地机器人/你们这里可以买扫地机器人吗？/你能给我推荐一下扫地机器人吗？/扫地的机器人有没有啊？/有没有扫地的机器人卖？/可以在这里买到扫地机器人吗？/能不能介绍一个扫地机器人给我？/可以给我介绍一个扫地机器人吗？/能不能给我推荐一个扫地机器人？/可以推荐一个扫地机器人给我？/扫地机/推荐个扫地机/扫地机推荐一下/有没有扫地机推荐的/我需要扫地机/我来买扫地的机器/我来买扫地的机器人/我想买扫地的机器/扫地的机器/我来买扫地的机器/我想要扫地的机器/我要扫地的机器/我要买扫地机/推荐个扫地的机器/我要买扫地的机器/买扫地的机器/我要买扫地的机器/推荐个扫地的机器/推荐扫地的机器/扫地的机器/给我推荐个扫地的机器/介绍个扫地的机器/介绍下扫地的机器/我想买一个扫地的机器/你们这里可以买扫地的机器吗？/你能给我推荐一下扫地的机器吗？/扫地的机器有没有啊？/有没有扫地的机器卖？/可以在这里买到扫地的机器吗？/能不能介绍一个扫地的机器给我？/可以给我介绍一个扫地的机器吗？/能不能给我推荐一个扫地的机器？/可以推荐一个扫地的机器给我？/我来买能打扫地面的机器/我来买能打扫地面的机器人/我想买能打扫地面的机器/能打扫地面的机器/我来买能打扫地面的机器/我想要能打扫地面的机器/我要能打扫地面的机器/我要买扫地机/推荐个能打扫地面的机器/我要买能打扫地面的机器/买能打扫地面的机器/我要买能打扫地面的机器/推荐个能打扫地面的机器/推荐能打扫地面的机器/能打扫地面的机器/给我推荐个能打扫地面的机器/介绍个能打扫地面的机器/介绍下能打扫地面的机器/我想买一个能打扫地面的机器/你们这里可以买能打扫地面的机器吗？/你能给我推荐一下能打扫地面的机器吗？/能打扫地面的机器有没有啊？/有没有能打扫地面的机器卖？/可以在这里买到能打扫地面的机器吗？/能不能介绍一个能打扫地面的机器给我？/可以给我介绍一个能打扫地面的机器吗？/能不能给我推荐一个能打扫地面的机器？/可以推荐一个能打扫地面的机器给我？/我来买打扫卫生的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买打扫卫生的机器/打扫卫生的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买打扫卫生的机器/我想要打扫卫生的机器/我要打扫卫生的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买打扫卫生的机器/买打扫卫生的机器/我要买打扫卫生的机器/推荐个打扫卫生的机器/推荐打扫卫生的机器/打扫卫生的机器/给我推荐个打扫卫生的机器/介绍个打扫卫生的机器/介绍下打扫卫生的机器/介绍个扫地的/我想买一个打扫卫生的机器/你们这里可以买打扫卫生的机器吗？/你能给我推荐一下打扫卫生的机器吗？/扫地的机器人有没有啊？/我来买拖地的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买拖地的机器/拖地的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买拖地的机器/我想要拖地的机器/我要拖地的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买拖地的机器/买拖地的机器/我要买拖地的机器/推荐个拖地的机器/推荐拖地的机器/拖地的机器/给我推荐个拖地的机器/介绍个拖地的机器/介绍下拖地的机器/介绍个扫地的/我想买一个拖地的机器/你们这里可以买拖地的机器吗？/你能给我推荐一下拖地的机器吗？/扫地的机器人有没有啊？/我来买清洁地面的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买清洁地面的机器/清洁地面的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买清洁地面的机器/我想要清洁地面的机器/我要清洁地面的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买清洁地面的机器/买清洁地面的机器/我要买清洁地面的机器/推荐个清洁地面的机器/推荐清洁地面的机器/清洁地面的机器/给我推荐个清洁地面的机器/介绍个清洁地面的机器/介绍下清洁地面的机器/介绍个扫地的/我想买一个清洁地面的机器/你们这里可以买清洁地面的机器吗？/你能给我推荐一下清洁地面的机器吗？/扫地的机器人有没有啊？/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>业务</t>
@@ -67,26 +64,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我来买擦窗机器人</t>
-  </si>
-  <si>
     <t>擦窗机器人</t>
   </si>
   <si>
     <t>买擦窗机器人</t>
   </si>
   <si>
-    <t>我来买空气净化机器人</t>
-  </si>
-  <si>
     <t>空气净化机器人</t>
   </si>
   <si>
     <t>买空气净化机器人</t>
-  </si>
-  <si>
-    <t>我来是买空气净化机器人的/我来买空气净化机器人的/我是来买空气净化机器人的/我来买净化空气的机器人/我想买空气净化机器人/空气净化机器人/净化空气的/能净化空气的/我想要空气净化机器人/我要空气净化机器人/有空气净化机器人吗？/空气净化机器人这里有卖的吗？/你们这里有卖空气净化机器人的吗？/推荐个空气净化机器人/给我推荐个空气净化机器人/介绍个空气净化机器人/介绍空气净化机器人/空气净化器有没有？/有没有空气净化器？/这里有空气净化器吗？/这里有卖空气净化器的吗？/你们这里有空气净化器吗？/你们这里有卖空气净化器的吗？/有没有空气净化器卖呀？/我想买净化空气的机器人/我想要一个净化空气的机器人/我来买净化空气的机器人的/我来买空气净化机器人/我来买空气净化机器人人/我想买空气净化机器人/空气净化机器人/我来买空气净化机器人/我想要空气净化机器人/我要空气净化机器人/推荐个空气净化机器人/我要买空气净化机器人/买空气净化机器人/我要买空气净化机器人/推荐个空气净化机器人/推荐空气净化机器人/空气净化机器人/给我推荐个空气净化机器人/介绍个空气净化机器人/介绍下空气净化机器人/我想买一个空气净化机器人/你们这里可以买空气净化机器人吗？/你能给我推荐一下空气净化机器人吗？/空气净化机器人有没有啊？/有没有空气净化机器人卖？/可以在这里买到空气净化机器人吗？/能不能介绍一个空气净化机器人给我？/可以给我介绍一个空气净化机器人吗？/能不能给我推荐一个空气净化机器人？/可以推荐一个空气净化机器人给我？//我来买净化空气的机器/我来买净化空气的机器人/我想买净化空气的机器/净化空气的机器/我来买净化空气的机器/我想要净化空气的机器/我要净化空气的机器/推荐个净化空气的机器/我要买净化空气的机器/买净化空气的机器/我要买净化空气的机器/推荐个净化空气的机器/推荐净化空气的机器/净化空气的机器/给我推荐个净化空气的机器/介绍个净化空气的机器/介绍下净化空气的机器/我想买一个净化空气的机器/你们这里可以买净化空气的机器吗？/你能给我推荐一下净化空气的机器吗？/净化空气的机器有没有啊？/有没有净化空气的机器卖？/可以在这里买到净化空气的机器吗？/能不能介绍一个净化空气的机器给我？/可以给我介绍一个净化空气的机器吗？/能不能给我推荐一个净化空气的机器？/可以推荐一个净化空气的机器给我？//我来买能让空气变好的机器/我来买能让空气变好的机器人/我想买能让空气变好的机器/能让空气变好的机器/我来买能让空气变好的机器/我想要能让空气变好的机器/我要能让空气变好的机器/推荐个能让空气变好的机器/我要买能让空气变好的机器/买能让空气变好的机器/我要买能让空气变好的机器/推荐个能让空气变好的机器/推荐能让空气变好的机器/能让空气变好的机器/给我推荐个能让空气变好的机器/介绍个能让空气变好的机器/介绍下能让空气变好的机器/我想买一个能让空气变好的机器/你们这里可以买能让空气变好的机器吗？/你能给我推荐一下能让空气变好的机器吗？/能让空气变好的机器有没有啊？/有没有能让空气变好的机器卖？/可以在这里买到能让空气变好的机器吗？/能不能介绍一个能让空气变好的机器给我？/可以给我介绍一个能让空气变好的机器吗？/能不能给我推荐一个能让空气变好的机器？/可以推荐一个能让空气变好的机器给我？//我来买过滤空气的机器/我来买过滤空气的机器人/我想买过滤空气的机器/过滤空气的机器/我来买过滤空气的机器/我想要过滤空气的机器/我要过滤空气的机器/推荐个过滤空气的机器/我要买过滤空气的机器/买过滤空气的机器/我要买过滤空气的机器/推荐个过滤空气的机器/推荐过滤空气的机器/过滤空气的机器/给我推荐个过滤空气的机器/介绍个过滤空气的机器/介绍下过滤空气的机器/我想买一个过滤空气的机器/你们这里可以买过滤空气的机器吗？/你能给我推荐一下过滤空气的机器吗？/过滤空气的机器有没有啊？/有没有过滤空气的机器卖？/可以在这里买到过滤空气的机器吗？/能不能介绍一个过滤空气的机器给我？/可以给我介绍一个过滤空气的机器吗？/能不能给我推荐一个过滤空气的机器？/可以推荐一个过滤空气的机器给我？/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -227,6 +214,366 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>请问您是想要便宜点的还是性能高点的呀？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>给您推荐DG36这款高级宝宝，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他突出特点就是能LDS扫描建立房屋户型图，所有房间有序清洁；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蓝鲸清洁系统，一站式清洁到位;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过超声波探测，辨识地毯和地面，清洁吸力自动选择；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可通过APP实现在线升级，保持程序系统的最新状态，永不落伍。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>能力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>港港的。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>旺宝给您推荐新款的DD56，这款宝宝优点有点多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Smart Move技术路径规划，避免重复;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蓝鲸清洁系统，一站式清洁到位;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>漫威主题外观，钢铁侠主题设计，时尚潮流，新颖美观;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还有手机app远程操控，方便快捷。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD56</t>
+  </si>
+  <si>
+    <t>亲亲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DG716</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DG36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W855</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲亲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请到店里咨询，有店长大人为您做详细介绍哦！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DG716这款宝宝纤薄7点75厘米机身设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>采用日本尼德科无刷电机，噪音小，使用寿命长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更有蓝鲸清洁系统，吸口吸灰，抹布湿拖，一站式清洁到位;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Smart Move技术高效覆盖，打扫不重复;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吸口，滚刷互换功能，深度清洁使用，强效去灰。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫地机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我来买扫地机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我来买扫地机器人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我来买扫地机/我要买扫地机/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我来买扫地机器人/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买扫地机器人/扫地机器人/扫地的/清洁地面的/能清理地面灰尘的/我来买扫地机器人/我想要扫地机器人/我要扫地机器人/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买扫地机器人/买扫地机器人/我要买扫地机器人/推荐个扫地机器人/推荐扫地机器人/扫地机器人/给我推荐个扫地机器人/介绍个扫地机器人/介绍下扫地机器人/介绍个扫地的/我想买一个扫地机器人/你们这里可以买扫地机器人吗？/你能给我推荐一下扫地机器人吗？/扫地的机器人有没有啊？/有没有扫地的机器人卖？/可以在这里买到扫地机器人吗？/能不能介绍一个扫地机器人给我？/可以给我介绍一个扫地机器人吗？/能不能给我推荐一个扫地机器人？/可以推荐一个扫地机器人给我？/扫地机/推荐个扫地机/扫地机推荐一下/有没有扫地机推荐的/我需要扫地机/我来买扫地的机器/我来买扫地的机器人/我想买扫地的机器/扫地的机器/我来买扫地的机器/我想要扫地的机器/我要扫地的机器/我要买扫地机/推荐个扫地的机器/我要买扫地的机器/买扫地的机器/我要买扫地的机器/推荐个扫地的机器/推荐扫地的机器/扫地的机器/给我推荐个扫地的机器/介绍个扫地的机器/介绍下扫地的机器/我想买一个扫地的机器/你们这里可以买扫地的机器吗？/你能给我推荐一下扫地的机器吗？/扫地的机器有没有啊？/有没有扫地的机器卖？/可以在这里买到扫地的机器吗？/能不能介绍一个扫地的机器给我？/可以给我介绍一个扫地的机器吗？/能不能给我推荐一个扫地的机器？/可以推荐一个扫地的机器给我？/我来买能打扫地面的机器/我来买能打扫地面的机器人/我想买能打扫地面的机器/能打扫地面的机器/我来买能打扫地面的机器/我想要能打扫地面的机器/我要能打扫地面的机器/我要买扫地机/推荐个能打扫地面的机器/我要买能打扫地面的机器/买能打扫地面的机器/我要买能打扫地面的机器/推荐个能打扫地面的机器/推荐能打扫地面的机器/能打扫地面的机器/给我推荐个能打扫地面的机器/介绍个能打扫地面的机器/介绍下能打扫地面的机器/我想买一个能打扫地面的机器/你们这里可以买能打扫地面的机器吗？/你能给我推荐一下能打扫地面的机器吗？/能打扫地面的机器有没有啊？/有没有能打扫地面的机器卖？/可以在这里买到能打扫地面的机器吗？/能不能介绍一个能打扫地面的机器给我？/可以给我介绍一个能打扫地面的机器吗？/能不能给我推荐一个能打扫地面的机器？/可以推荐一个能打扫地面的机器给我？/我来买打扫卫生的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买打扫卫生的机器/打扫卫生的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买打扫卫生的机器/我想要打扫卫生的机器/我要打扫卫生的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买打扫卫生的机器/买打扫卫生的机器/我要买打扫卫生的机器/推荐个打扫卫生的机器/推荐打扫卫生的机器/打扫卫生的机器/给我推荐个打扫卫生的机器/介绍个打扫卫生的机器/介绍下打扫卫生的机器/介绍个扫地的/我想买一个打扫卫生的机器/你们这里可以买打扫卫生的机器吗？/你能给我推荐一下打扫卫生的机器吗？/扫地的机器人有没有啊？/我来买拖地的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买拖地的机器/拖地的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买拖地的机器/我想要拖地的机器/我要拖地的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买拖地的机器/买拖地的机器/我要买拖地的机器/推荐个拖地的机器/推荐拖地的机器/拖地的机器/给我推荐个拖地的机器/介绍个拖地的机器/介绍下拖地的机器/介绍个扫地的/我想买一个拖地的机器/你们这里可以买拖地的机器吗？/你能给我推荐一下拖地的机器吗？/扫地的机器人有没有啊？/我来买清洁地面的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买清洁地面的机器/清洁地面的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买清洁地面的机器/我想要清洁地面的机器/我要清洁地面的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买清洁地面的机器/买清洁地面的机器/我要买清洁地面的机器/推荐个清洁地面的机器/推荐清洁地面的机器/清洁地面的机器/给我推荐个清洁地面的机器/介绍个清洁地面的机器/介绍下清洁地面的机器/介绍个扫地的/我想买一个清洁地面的机器/你们这里可以买清洁地面的机器吗？/你能给我推荐一下清洁地面的机器吗？/扫地的机器人有没有啊？//我想买性价比高的扫地机/我要买性价比高的扫地机/我要买性价比高的扫地机就行/我当然是买性价比高的扫地机了/我要买性价比高的扫地机啦/我要买性价比高的性价比高的扫地机/我要买性价比高的扫地机/我要性价比高一点的扫地机有没有/我需要性价比高的扫地机/你能给我介绍性价比高的扫地机吗/我想买性价比高的扫地机有没有/我想买性价比高的扫地机 /我想要性价比高的扫地机啊/我要买需要性价比高的扫地机了/我要买性价比高一点的扫地机/我要买性价比高的扫地机/我就性价比高一点的扫地机就行了/买性价比高一点的扫地机就可以了/就买性价比高一点的扫地机吧/你就给我介绍性价比高一点的扫地机吧/你给我介绍性价比高一点的扫地机就好了/给我说一下性价比高一点的扫地机吧/我想买性价比高的扫地机器人/我要买性价比高的扫地机器人/我要买性价比高的扫地机器人就行/我当然是买性价比高的扫地机器人了/我要买性价比高的扫地机器人啦/我要买性价比高的性价比高的扫地机器人/我要买性价比高的扫地机器人 /我要性价比高一点的扫地机器人有没有/我需要性价比高的扫地机器人/你能给我介绍性价比高的扫地机器人吗/我想买性价比高的扫地机器人有没有/我想买性价比高的扫地机器人/我想性价比高点的扫地机器人/我想要性价比高的扫地机器人啊/我要买扫地机器人/我要买性价比高的扫地机器人了/我要买需要性价比高的扫地机器人了/我要买性价比高一点的扫地机器人/我要买性价比高的扫地机器人/我就性价比高一点的扫地机器人就行了/买性价比高一点的扫地机器人就可以了/就买性价比高一点的扫地机器人吧/你就给我介绍性价比高一点的扫地机器人吧/你给我介绍性价比高一点的扫地机器人就好了/给我说一下性价比高一点的扫地机器人吧/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中等价位的扫地机有么</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/中等价位的扫地机/</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>便宜一点的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,306 +582,178 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请问您是想要便宜点的还是性能高点的呀？</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>性能高点的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/性能好的/配置高的/性能高的/我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>想买性能高点的/性能高点的/性能高的就行/我当然是买性能高的了/买性能高的啦/性能高的性能高的/我要性能高的/我要性能高一点的有没有/我需要性能高点的/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的了/当然买性能好的了/当然是性能高的了/当然需要性能高的了/当然是买性能高一点的/买性能高点的/性能高一点的就行了/买性能高一点的就可以了/就买性能高一点的吧/你就给我介绍性能高一点的吧/你给我介绍性能高一点的就好了/给我说一下性能高一点的吧/不买差的/不要差的/差的不要/不想要差的/差的不要/不要差的/我不买差的/我不要差的/差的我不要哈/我不想买差的/我要买好的/我要买能力强的/我要买高性能的/当然是买性能高的了/给我推荐一款性能好的/我要性能好的/我要配置高的/我想买一款配置高的/能给我推荐一款配置高的吗/能不能给我推荐一款性能高的/可以推荐一款性能高的吗？/我想买性能高的有吗/我想买配置高的/能不能给我推荐一款性能高的/可以推荐一款性能高的给我吗/给我推荐一款性能高的吗/有配置高的给我推荐一下吧/给我推荐一款配置高的吧</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我来买擦窗机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我来买擦窗机器人/擦窗户的机器人有么？/我来买个擦窗户的/擦窗户的有没有？/擦窗户的那种/能擦窗户的/擦玻璃的那种/擦玻璃的机器人有么？/我来买个擦玻璃的/擦玻璃的有没有？/有没有擦窗机器人？/擦窗机器人有吗？这里有擦窗机器人吗？/有没有擦窗机器人卖？/这里有卖擦窗机器人的吗？/推荐个擦窗机器人/推荐擦窗机器人/介绍个擦窗机器人/介绍擦窗机器人/给我推荐个擦窗机器人/我来买个擦窗机器人/擦窗机器人有吗？/有没有擦窗机器人？/有擦窗机器人吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗机器人？/这里能买到擦窗机器人吗？/给我介绍个擦窗机器人？/能不能介绍一个擦窗机器人？/可以给我介绍一个擦窗机器人吗？/有没有擦窗的机器？/擦窗的机器有吗？这里有擦窗的机器吗？/有没有擦窗的机器卖？/这里有卖擦窗的机器的吗？/推荐个擦窗的机器/推荐擦窗的机器/介绍个擦窗的机器/介绍擦窗的机器/给我推荐个擦窗的机器/我来买个擦窗的机器/擦窗的机器有吗？/有没有擦窗的机器？/有擦窗的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗的机器？/这里能买到擦窗的机器吗？/给我介绍个擦窗的机器？/能不能介绍一个擦窗的机器？/可以给我介绍一个擦窗的机器吗？/有没有擦窗户的机器？/擦窗户的机器有吗？这里有擦窗户的机器吗？/有没有擦窗户的机器卖？/这里有卖擦窗户的机器的吗？/推荐个擦窗户的机器/推荐擦窗户的机器/介绍个擦窗户的机器/介绍擦窗户的机器/给我推荐个擦窗户的机器/我来买个擦窗户的机器/擦窗户的机器有吗？/有没有擦窗户的机器？/有擦窗户的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗户的机器？/这里能买到擦窗户的机器吗？/给我介绍个擦窗户的机器？/能不能介绍一个擦窗户的机器？/可以给我介绍一个擦窗户的机器吗？/有没有擦玻璃的机器？/擦玻璃的机器有吗？这里有擦玻璃的机器吗？/有没有擦玻璃的机器卖？/这里有卖擦玻璃的机器的吗？/推荐个擦玻璃的机器/推荐擦玻璃的机器/介绍个擦玻璃的机器/介绍擦玻璃的机器/给我推荐个擦玻璃的机器/我来买个擦玻璃的机器/擦玻璃的机器有吗？/有没有擦玻璃的机器？/有擦玻璃的机器吗？/有擦玻璃的机器人吗？/你们这里有擦玻璃的机器人卖吗？/可不可以在这里买擦玻璃的机器？/这里能买到擦玻璃的机器吗？/给我介绍个擦玻璃的机器？/能不能介绍一个擦玻璃的机器？/可以给我介绍一个擦玻璃的机器吗？/有没有打扫窗户的机器？/打扫窗户的机器有吗？这里有打扫窗户的机器吗？/有没有打扫窗户的机器卖？/这里有卖打扫窗户的机器的吗？/推荐个打扫窗户的机器/推荐打扫窗户的机器/介绍个打扫窗户的机器/介绍打扫窗户的机器/给我推荐个打扫窗户的机器/我来买个打扫窗户的机器/打扫窗户的机器有吗？/有没有打扫窗户的机器？/有打扫窗户的机器吗？/有打扫窗户的机器人吗？/你们这里有打扫窗户的机器人卖吗？/可不可以在这里买打扫窗户的机器？/这里能买到打扫窗户的机器吗？/给我介绍个打扫窗户的机器？/能不能介绍一个打扫窗户的机器？/可以给我介绍一个打扫窗户的机器吗？/</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>给您推荐DG36这款高级宝宝，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>他突出特点就是能LDS扫描建立房屋户型图，所有房间有序清洁；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>蓝鲸清洁系统，一站式清洁到位;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>通过超声波探测，辨识地毯和地面，清洁吸力自动选择；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>可通过APP实现在线升级，保持程序系统的最新状态，永不落伍。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>能力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>港港的。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实惠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>还有吗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第二步</t>
+    <t>我来买空气净化机器人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>我来买空气净化机器人/我来是买空气净化机器人的/我来买空气净化机器人的/我是来买空气净化机器人的/我来买净化空气的机器人/我想买空气净化机器人/空气净化机器人/净化空气的/能净化空气的/我想要空气净化机器人/我要空气净化机器人/有空气净化机器人吗？/空气净化机器人这里有卖的吗？/你们这里有卖空气净化机器人的吗？/推荐个空气净化机器人/给我推荐个空气净化机器人/介绍个空气净化机器人/介绍空气净化机器人/空气净化器有没有？/有没有空气净化器？/这里有空气净化器吗？/这里有卖空气净化器的吗？/你们这里有空气净化器吗？/你们这里有卖空气净化器的吗？/有没有空气净化器卖呀？/我想买净化空气的机器人/我想要一个净化空气的机器人/我来买净化空气的机器人的/我来买空气净化机器人/我来买空气净化机器人人/我想买空气净化机器人/空气净化机器人/我来买空气净化机器人/我想要空气净化机器人/我要空气净化机器人/推荐个空气净化机器人/我要买空气净化机器人/买空气净化机器人/我要买空气净化机器人/推荐个空气净化机器人/推荐空气净化机器人/空气净化机器人/给我推荐个空气净化机器人/介绍个空气净化机器人/介绍下空气净化机器人/我想买一个空气净化机器人/你们这里可以买空气净化机器人吗？/你能给我推荐一下空气净化机器人吗？/空气净化机器人有没有啊？/有没有空气净化机器人卖？/可以在这里买到空气净化机器人吗？/能不能介绍一个空气净化机器人给我？/可以给我介绍一个空气净化机器人吗？/能不能给我推荐一个空气净化机器人？/可以推荐一个空气净化机器人给我？//我来买净化空气的机器/我来买净化空气的机器人/我想买净化空气的机器/净化空气的机器/我来买净化空气的机器/我想要净化空气的机器/我要净化空气的机器/推荐个净化空气的机器/我要买净化空气的机器/买净化空气的机器/我要买净化空气的机器/推荐个净化空气的机器/推荐净化空气的机器/净化空气的机器/给我推荐个净化空气的机器/介绍个净化空气的机器/介绍下净化空气的机器/我想买一个净化空气的机器/你们这里可以买净化空气的机器吗？/你能给我推荐一下净化空气的机器吗？/净化空气的机器有没有啊？/有没有净化空气的机器卖？/可以在这里买到净化空气的机器吗？/能不能介绍一个净化空气的机器给我？/可以给我介绍一个净化空气的机器吗？/能不能给我推荐一个净化空气的机器？/可以推荐一个净化空气的机器给我？//我来买能让空气变好的机器/我来买能让空气变好的机器人/我想买能让空气变好的机器/能让空气变好的机器/我来买能让空气变好的机器/我想要能让空气变好的机器/我要能让空气变好的机器/推荐个能让空气变好的机器/我要买能让空气变好的机器/买能让空气变好的机器/我要买能让空气变好的机器/推荐个能让空气变好的机器/推荐能让空气变好的机器/能让空气变好的机器/给我推荐个能让空气变好的机器/介绍个能让空气变好的机器/介绍下能让空气变好的机器/我想买一个能让空气变好的机器/你们这里可以买能让空气变好的机器吗？/你能给我推荐一下能让空气变好的机器吗？/能让空气变好的机器有没有啊？/有没有能让空气变好的机器卖？/可以在这里买到能让空气变好的机器吗？/能不能介绍一个能让空气变好的机器给我？/可以给我介绍一个能让空气变好的机器吗？/能不能给我推荐一个能让空气变好的机器？/可以推荐一个能让空气变好的机器给我？//我来买过滤空气的机器/我来买过滤空气的机器人/我想买过滤空气的机器/过滤空气的机器/我来买过滤空气的机器/我想要过滤空气的机器/我要过滤空气的机器/推荐个过滤空气的机器/我要买过滤空气的机器/买过滤空气的机器/我要买过滤空气的机器/推荐个过滤空气的机器/推荐过滤空气的机器/过滤空气的机器/给我推荐个过滤空气的机器/介绍个过滤空气的机器/介绍下过滤空气的机器/我想买一个过滤空气的机器/你们这里可以买过滤空气的机器吗？/你能给我推荐一下过滤空气的机器吗？/过滤空气的机器有没有啊？/有没有过滤空气的机器卖？/可以在这里买到过滤空气的机器吗？/能不能介绍一个过滤空气的机器给我？/可以给我介绍一个过滤空气的机器吗？/能不能给我推荐一个过滤空气的机器？/可以推荐一个过滤空气的机器给我？/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能高点的扫地机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我来买扫地机器人/</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>旺宝给您推荐新款的DD56，这款宝宝优点有点多</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Smart Move技术路径规划，避免重复;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>蓝鲸清洁系统，一站式清洁到位;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>漫威主题外观，钢铁侠主题设计，时尚潮流，新颖美观;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>还有手机app远程操控，方便快捷。</t>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买扫地机器人/扫地机器人/扫地的/清洁地面的/能清理地面灰尘的/我来买扫地机器人/我想要扫地机器人/我要扫地机器人/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买扫地机器人/买扫地机器人/我要买扫地机器人/推荐个扫地机器人/推荐扫地机器人/扫地机器人/给我推荐个扫地机器人/介绍个扫地机器人/介绍下扫地机器人/介绍个扫地的/我想买一个扫地机器人/你们这里可以买扫地机器人吗？/你能给我推荐一下扫地机器人吗？/扫地的机器人有没有啊？/有没有扫地的机器人卖？/可以在这里买到扫地机器人吗？/能不能介绍一个扫地机器人给我？/可以给我介绍一个扫地机器人吗？/能不能给我推荐一个扫地机器人？/可以推荐一个扫地机器人给我？/扫地机/推荐个扫地机/扫地机推荐一下/有没有扫地机推荐的/我需要扫地机/我来买扫地的机器/我来买扫地的机器人/我想买扫地的机器/扫地的机器/我来买扫地的机器/我想要扫地的机器/我要扫地的机器/我要买扫地机/推荐个扫地的机器/我要买扫地的机器/买扫地的机器/我要买扫地的机器/推荐个扫地的机器/推荐扫地的机器/扫地的机器/给我推荐个扫地的机器/介绍个扫地的机器/介绍下扫地的机器/我想买一个扫地的机器/你们这里可以买扫地的机器吗？/你能给我推荐一下扫地的机器吗？/扫地的机器有没有啊？/有没有扫地的机器卖？/可以在这里买到扫地的机器吗？/能不能介绍一个扫地的机器给我？/可以给我介绍一个扫地的机器吗？/能不能给我推荐一个扫地的机器？/可以推荐一个扫地的机器给我？/我来买能打扫地面的机器/我来买能打扫地面的机器人/我想买能打扫地面的机器/能打扫地面的机器/我来买能打扫地面的机器/我想要能打扫地面的机器/我要能打扫地面的机器/我要买扫地机/推荐个能打扫地面的机器/我要买能打扫地面的机器/买能打扫地面的机器/我要买能打扫地面的机器/推荐个能打扫地面的机器/推荐能打扫地面的机器/能打扫地面的机器/给我推荐个能打扫地面的机器/介绍个能打扫地面的机器/介绍下能打扫地面的机器/我想买一个能打扫地面的机器/你们这里可以买能打扫地面的机器吗？/你能给我推荐一下能打扫地面的机器吗？/能打扫地面的机器有没有啊？/有没有能打扫地面的机器卖？/可以在这里买到能打扫地面的机器吗？/能不能介绍一个能打扫地面的机器给我？/可以给我介绍一个能打扫地面的机器吗？/能不能给我推荐一个能打扫地面的机器？/可以推荐一个能打扫地面的机器给我？/我来买打扫卫生的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买打扫卫生的机器/打扫卫生的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买打扫卫生的机器/我想要打扫卫生的机器/我要打扫卫生的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买打扫卫生的机器/买打扫卫生的机器/我要买打扫卫生的机器/推荐个打扫卫生的机器/推荐打扫卫生的机器/打扫卫生的机器/给我推荐个打扫卫生的机器/介绍个打扫卫生的机器/介绍下打扫卫生的机器/介绍个扫地的/我想买一个打扫卫生的机器/你们这里可以买打扫卫生的机器吗？/你能给我推荐一下打扫卫生的机器吗？/扫地的机器人有没有啊？/我来买拖地的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买拖地的机器/拖地的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买拖地的机器/我想要拖地的机器/我要拖地的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买拖地的机器/买拖地的机器/我要买拖地的机器/推荐个拖地的机器/推荐拖地的机器/拖地的机器/给我推荐个拖地的机器/介绍个拖地的机器/介绍下拖地的机器/介绍个扫地的/我想买一个拖地的机器/你们这里可以买拖地的机器吗？/你能给我推荐一下拖地的机器吗？/扫地的机器人有没有啊？/我来买清洁地面的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买清洁地面的机器/清洁地面的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买清洁地面的机器/我想要清洁地面的机器/我要清洁地面的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买清洁地面的机器/买清洁地面的机器/我要买清洁地面的机器/推荐个清洁地面的机器/推荐清洁地面的机器/清洁地面的机器/给我推荐个清洁地面的机器/介绍个清洁地面的机器/介绍下清洁地面的机器/介绍个扫地的/我想买一个清洁地面的机器/你们这里可以买清洁地面的机器吗？/你能给我推荐一下清洁地面的机器吗？/扫地的机器人有没有啊？/</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD56</t>
-  </si>
-  <si>
-    <t>亲亲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DG716</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DG36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W855</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亲亲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A650</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请到店里咨询，有店长大人为您做详细介绍哦！</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DG716这款宝宝纤薄7点75厘米机身设计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.59999389629810485"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>采用日本尼德科无刷电机，噪音小，使用寿命长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>更有蓝鲸清洁系统，吸口吸灰，抹布湿拖，一站式清洁到位;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Smart Move技术高效覆盖，打扫不重复;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>吸口，滚刷互换功能，深度清洁使用，强效去灰。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>便宜一点的扫地机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>性能高点的扫地机</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>性能高点的扫地机/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我要买性能好的扫地机/我要买配置高的我要买扫地机/我要买性能高的扫地机/我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>想买性能高点的扫地机/我要买性能高点的扫地机/我要买性能高的扫地机就行/我当然是买性能高的扫地机了/我要买买性能高的扫地机啦/我要买性能高的扫地机/我要性能高的扫地机/我要性能高一点的扫地机有没有/我需要性能高点的扫地机/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机了/我要买当然买性能好的扫地机了/我要买当然是性能高的扫地机了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机就可以了/我就买性能高一点的扫地机吧/你就给我介绍性能高一点的扫地机吧/你给我介绍性能高一点的扫地机就好了/给我说一下性能高一点的扫地机吧/我不买差的扫地机/我不要差的扫地机/我差的扫地机不要/我不想要差的扫地机/我差的扫地机不要/我不要差的扫地机/我不买差的扫地机/我不要差的扫地机/差的扫地机我不要哈/我不想买差的扫地机/我要买好的扫地机/我要买能力强的扫地机/我要买高性能的扫地机/当然是买性能高的扫地机了/给我推荐一款性能好的扫地机/我要性能好的扫地机/我要配置高的扫地机/我想买一款配置高的扫地机/能给我推荐一款配置高的扫地机吗/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机吗？/我想买性能高的扫地机有吗/我想买配置高的扫地机/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机给我吗/给我推荐一款性能高的扫地机吗/有配置高的扫地机给我推荐一下吧/给我推荐一款配置高的扫地机吧/我要买性能好的扫地机器人/我要买配置高的我要买扫地机器人/我要买性能高的扫地机器人/我想买性能高点的扫地机器人/我要买性能高点的扫地机器人/我要买性能高的扫地机器人就行/我当然是买性能高的扫地机器人了/我要买买性能高的扫地机器人啦/我要买性能高的扫地机器人/我要性能高的扫地机器人/我要性能高一点的扫地机器人有没有/我需要性能高点的扫地机器人/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机器人了/我要买当然买性能好的扫地机器人了/我要买当然是性能高的扫地机器人了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机器人就可以了/我就买性能高一点的扫地机器人吧/你就给我介绍性能高一点的扫地机器人吧/你给我介绍性能高一点的扫地机器人就好了/给我说一下性能高一点的扫地机器人吧/我不买差的扫地机器人/我不要差的扫地机器人/我差的扫地机器人不要/我不想要差的扫地机器人/我差的扫地机器人不要/我不要差的扫地机器人/我不买差的扫地机器人/我不要差的扫地机器人/差的扫地机器人我不要哈/我不想买差的扫地机器人/我要买好的扫地机器人/我要买能力强的扫地机器人/我要买高性能的扫地机器人/当然是买性能高的扫地机器人了/给我推荐一款性能好的扫地机器人/我要性能好的扫地机器人/我要配置高的扫地机器人/我想买一款配置高的扫地机器人/能给我推荐一款配置高的扫地机器人吗/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人吗？/我想买性能高的扫地机器人有吗/我想买配置高的扫地机器人/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人给我吗/给我推荐一款性能高的扫地机器人吗/有配置高的扫地机器人给我推荐一下吧/给我推荐一款配置高的扫地机器人吧//我想买好的扫地机/我要买好的扫地机/我要买好的扫地机就行/我当然是买好的扫地机了/我要买好的扫地机啦/我要买好的好的扫地机/我要买好的扫地机/我要好一点的扫地机有没有/我需要好的扫地机/你能给我介绍好的扫地机吗/我想买好的扫地机有没有/我想买好的扫地机 /我想要好的扫地机啊/我要买需要好的扫地机了/我要买好一点的扫地机/我要买好的扫地机/我就好一点的扫地机就行了/买好一点的扫地机就可以了/就买好一点的扫地机吧/你就给我介绍好一点的扫地机吧/你给我介绍好一点的扫地机就好了/给我说一下好一点的扫地机吧/我想买好的扫地机器人/我要买好的扫地机器人/我要买好的扫地机器人就行/我当然是买好的扫地机器人了/我要买好的扫地机器人啦/我要买好的好的扫地机器人/我要买好的扫地机器人 /我要好一点的扫地机器人有没有/我需要好的扫地机器人/你能给我介绍好的扫地机器人吗/我想买好的扫地机器人有没有/我想买好的扫地机器人/我想好点的扫地机器人/我想要好的扫地机器人啊/我要买扫地机器人/我要买好的扫地机器人了/我要买需要好的扫地机器人了/我要买好一点的扫地机器人/我要买好的扫地机器人/我就好一点的扫地机器人就行了/买好一点的扫地机器人就可以了/就买好一点的扫地机器人吧/你就给我介绍好一点的扫地机器人吧/你给我介绍好一点的扫地机器人就好了/给我说一下好一点的扫地机器人吧/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>给我介绍最贵的扫地机/给我介绍一下配置最高的DG36/给我介绍一下你们最好的扫地机器人/介绍最好的扫地机/</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实惠</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>便宜一点的/既便宜又实惠的/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>便宜的/我想买便宜点的/便宜点的/价格低点的/便宜的就行/我当然是买便宜的了/买便宜的啦/便宜的便宜的/价格便宜的/价格低的/我要便宜一点的有没有/我需要便宜点的/你能给我介绍便宜点的吗/我想买便宜点的有没有/我想买便宜点的/我想要价格低点的/我想要便宜的啊/当然是便宜的了/当然买价格低点了/当然是价格低的了/当然需要价格便宜的了/当然是买便宜一点的/买便宜点的/我就便宜一点的就行了/买便宜一点的就可以了/就买便宜一点的吧/你就给我介绍便宜一点的吧/你给我介绍便宜一点的就好了/给我说一下便宜一点的吧/不买贵的/不要贵的/贵的不要/不想要贵的/贵的不要/不要贵的/我不买贵的/我不要贵的/贵的我不要哈/我不想买贵的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/性价比高的/我想买一款便宜的/我想买一款性价比高的/你能给我推荐一款性价比高的吗/你可以推荐一款性价比高的给我吗/给我推荐一款价格低的吧/能不能给我推荐一款价格低点的啊</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">还有别的沁宝么？/你们店里还有其他的沁宝么？/沁宝还有没有其他选择？/沁宝还有没有其他款式？/沁宝还有没有其他型号？/沁宝其他型号有没有？/还有没有沁宝/还有沁宝么？/其他的沁宝呢？/别的沁宝/再给我推荐一个沁宝/再推荐一个沁宝我看看/再推荐一个沁宝我听听/我还想了解其他的沁宝/我还想了解别的沁宝型号的/再介绍一个沁宝/再介绍一款沁宝/还有没有沁宝？/还有其他的沁宝么？/其他的沁宝呢？/就这一款沁宝么？/就这一个沁宝？/有没有更好的沁宝？/有没有配置高一点的沁宝？/有没有比这个好的沁宝/有没有比这个好的沁宝推荐一下/有没有性能更好的沁宝/有没有性能更好的沁宝推荐一下/性能更好的沁宝/我想知道其他的沁宝/换一款沁宝/换一个沁宝/下一个沁宝/再介绍一个其他的沁宝/
-还有别的净化空气么？/你们店里还有其他的净化空气么？/净化空气还有没有其他选择？/净化空气还有没有其他款式？/净化空气还有没有其他型号？/净化空气其他型号有没有？/还有没有净化空气/还有净化空气么？/其他的净化空气呢？/别的净化空气/再给我推荐一个净化空气/再推荐一个净化空气我看看/再推荐一个净化空气我听听/我还想了解其他的净化空气/我还想了解别的净化空气型号的/再介绍一个净化空气/再介绍一款净化空气/还有没有净化空气？/还有其他的净化空气么？/其他的净化空气呢？/就这一款净化空气么？/就这一个净化空气？/有没有更好的净化空气？/有没有配置高一点的净化空气？/有没有比这个好的净化空气/有没有比这个好的净化空气推荐一下/有没有性能更好的净化空气/有没有性能更好的净化空气推荐一下/性能更好的净化空气/我想知道其他的净化空气/换一款净化空气/换一个净化空气/下一个净化空气/再介绍一个其他的净化空气/
-还有别的清新房间空气的么？/你们店里还有其他的清新房间空气的么？/清新房间空气的还有没有其他选择？/清新房间空气的还有没有其他款式？/清新房间空气的还有没有其他型号？/清新房间空气的其他型号有没有？/还有没有清新房间空气的/还有清新房间空气的么？/其他的清新房间空气的呢？/别的清新房间空气的/再给我推荐一个清新房间空气的/再推荐一个清新房间空气的我看看/再推荐一个清新房间空气的我听听/我还想了解其他的清新房间空气的/我还想了解别的清新房间空气的型号的/再介绍一个清新房间空气的/再介绍一款清新房间空气的/还有没有清新房间空气的？/还有其他的清新房间空气的么？/其他的清新房间空气的呢？/就这一款清新房间空气的么？/就这一个清新房间空气的？/有没有更好的清新房间空气的？/有没有配置高一点的清新房间空气的？/有没有比这个好的清新房间空气的/有没有比这个好的清新房间空气的推荐一下/有没有性能更好的清新房间空气的/有没有性能更好的清新房间空气的推荐一下/性能更好的清新房间空气的/我想知道其他的清新房间空气的/换一款清新房间空气的/换一个清新房间空气的/下一个清新房间空气的/再介绍一个其他的清新房间空气的/
-还有别的湿润房间空气的么？/你们店里还有其他的湿润房间空气的么？/湿润房间空气的还有没有其他选择？/湿润房间空气的还有没有其他款式？/湿润房间空气的还有没有其他型号？/湿润房间空气的其他型号有没有？/还有没有湿润房间空气的 /还有湿润房间空气的么？/其他的湿润房间空气的呢？/别的湿润房间空气的 /再给我推荐一个湿润房间空气的/再推荐一个湿润房间空气的我看看/再推荐一个湿润房间空气的 我听听/我还想了解其他的湿润房间空气的/我还想了解别的湿润房间空气的 型号的/再介绍一个湿润房间空气的/再介绍一款湿润房间空气的/还有没有湿润房间空气的？/还有其他的湿润房间空气的么？/其他的湿润房间空气的呢？/就这一款湿润房间空气的么？/就这一个湿润房间空气的？/有没有更好的湿润房间空气的？/有没有配置高一点的湿润房间空气的？/有没有比这个好的湿润房间空气的/有没有比这个好的湿润房间空气的推荐一下/有没有性能更好的湿润房间空气的/有没有性能更好的湿润房间空气的推荐一下/性能更好的湿润房间空气的/我想知道其他的湿润房间空气的/换一款湿润房间空气的/换一个湿润房间空气的/下一个湿润房间空气的/再介绍一个其他的湿润房间空气的 /
-还有别的除去房间甲醛的么？/你们店里还有其他的除去房间甲醛的么？/除去房间甲醛的还有没有其他选择？/除去房间甲醛的还有没有其他款式？/除去房间甲醛的还有没有其他型号？/除去房间甲醛的其他型号有没有？/还有没有除去房间甲醛的/还有除去房间甲醛的么？/其他的除去房间甲醛的呢？/别的除去房间甲醛的/再给我推荐一个除去房间甲醛的/再推荐一个除去房间甲醛的我看看/再推荐一个除去房间甲醛的我听听/我还想了解其他的除去房间甲醛的/我还想了解别的除去房间甲醛的型号的/再介绍一个除去房间甲醛的/再介绍一款除去房间甲醛的/还有没有除去房间甲醛的？/还有其他的除去房间甲醛的么？/其他的除去房间甲醛的呢？/就这一款除去房间甲醛的么？/就这一个除去房间甲醛的？/有没有更好的除去房间甲醛的？/有没有配置高一点的除去房间甲醛的？/有没有比这个好的除去房间甲醛的/有没有比这个好的除去房间甲醛的推荐一下/有没有性能更好的除去房间甲醛的/有没有性能更好的除去房间甲醛的推荐一下/性能更好的除去房间甲醛的/我想知道其他的除去房间甲醛的/换一款除去房间甲醛的/换一个除去房间甲醛的/下一个除去房间甲醛的/再介绍一个其他的除去房间甲醛的/给我推荐一款沁宝
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫地机器人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -544,7 +763,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>我来买扫地机/我要买扫地机/</t>
+      <t>便宜一点的扫地机</t>
     </r>
     <r>
       <rPr>
@@ -555,34 +774,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>我来买扫地机器人/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买扫地机器人/扫地机器人/扫地的/清洁地面的/能清理地面灰尘的/我来买扫地机器人/我想要扫地机器人/我要扫地机器人/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买扫地机器人/买扫地机器人/我要买扫地机器人/推荐个扫地机器人/推荐扫地机器人/扫地机器人/给我推荐个扫地机器人/介绍个扫地机器人/介绍下扫地机器人/介绍个扫地的/我想买一个扫地机器人/你们这里可以买扫地机器人吗？/你能给我推荐一下扫地机器人吗？/扫地的机器人有没有啊？/有没有扫地的机器人卖？/可以在这里买到扫地机器人吗？/能不能介绍一个扫地机器人给我？/可以给我介绍一个扫地机器人吗？/能不能给我推荐一个扫地机器人？/可以推荐一个扫地机器人给我？/扫地机/推荐个扫地机/扫地机推荐一下/有没有扫地机推荐的/我需要扫地机/我来买扫地的机器/我来买扫地的机器人/我想买扫地的机器/扫地的机器/我来买扫地的机器/我想要扫地的机器/我要扫地的机器/我要买扫地机/推荐个扫地的机器/我要买扫地的机器/买扫地的机器/我要买扫地的机器/推荐个扫地的机器/推荐扫地的机器/扫地的机器/给我推荐个扫地的机器/介绍个扫地的机器/介绍下扫地的机器/我想买一个扫地的机器/你们这里可以买扫地的机器吗？/你能给我推荐一下扫地的机器吗？/扫地的机器有没有啊？/有没有扫地的机器卖？/可以在这里买到扫地的机器吗？/能不能介绍一个扫地的机器给我？/可以给我介绍一个扫地的机器吗？/能不能给我推荐一个扫地的机器？/可以推荐一个扫地的机器给我？/我来买能打扫地面的机器/我来买能打扫地面的机器人/我想买能打扫地面的机器/能打扫地面的机器/我来买能打扫地面的机器/我想要能打扫地面的机器/我要能打扫地面的机器/我要买扫地机/推荐个能打扫地面的机器/我要买能打扫地面的机器/买能打扫地面的机器/我要买能打扫地面的机器/推荐个能打扫地面的机器/推荐能打扫地面的机器/能打扫地面的机器/给我推荐个能打扫地面的机器/介绍个能打扫地面的机器/介绍下能打扫地面的机器/我想买一个能打扫地面的机器/你们这里可以买能打扫地面的机器吗？/你能给我推荐一下能打扫地面的机器吗？/能打扫地面的机器有没有啊？/有没有能打扫地面的机器卖？/可以在这里买到能打扫地面的机器吗？/能不能介绍一个能打扫地面的机器给我？/可以给我介绍一个能打扫地面的机器吗？/能不能给我推荐一个能打扫地面的机器？/可以推荐一个能打扫地面的机器给我？/我来买打扫卫生的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买打扫卫生的机器/打扫卫生的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买打扫卫生的机器/我想要打扫卫生的机器/我要打扫卫生的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买打扫卫生的机器/买打扫卫生的机器/我要买打扫卫生的机器/推荐个打扫卫生的机器/推荐打扫卫生的机器/打扫卫生的机器/给我推荐个打扫卫生的机器/介绍个打扫卫生的机器/介绍下打扫卫生的机器/介绍个扫地的/我想买一个打扫卫生的机器/你们这里可以买打扫卫生的机器吗？/你能给我推荐一下打扫卫生的机器吗？/扫地的机器人有没有啊？/我来买拖地的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买拖地的机器/拖地的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买拖地的机器/我想要拖地的机器/我要拖地的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买拖地的机器/买拖地的机器/我要买拖地的机器/推荐个拖地的机器/推荐拖地的机器/拖地的机器/给我推荐个拖地的机器/介绍个拖地的机器/介绍下拖地的机器/介绍个扫地的/我想买一个拖地的机器/你们这里可以买拖地的机器吗？/你能给我推荐一下拖地的机器吗？/扫地的机器人有没有啊？/我来买清洁地面的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买清洁地面的机器/清洁地面的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买清洁地面的机器/我想要清洁地面的机器/我要清洁地面的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买清洁地面的机器/买清洁地面的机器/我要买清洁地面的机器/推荐个清洁地面的机器/推荐清洁地面的机器/清洁地面的机器/给我推荐个清洁地面的机器/介绍个清洁地面的机器/介绍下清洁地面的机器/介绍个扫地的/我想买一个清洁地面的机器/你们这里可以买清洁地面的机器吗？/你能给我推荐一下清洁地面的机器吗？/扫地的机器人有没有啊？//我想买性价比高的扫地机/我要买性价比高的扫地机/我要买性价比高的扫地机就行/我当然是买性价比高的扫地机了/我要买性价比高的扫地机啦/我要买性价比高的性价比高的扫地机/我要买性价比高的扫地机/我要性价比高一点的扫地机有没有/我需要性价比高的扫地机/你能给我介绍性价比高的扫地机吗/我想买性价比高的扫地机有没有/我想买性价比高的扫地机 /我想要性价比高的扫地机啊/我要买需要性价比高的扫地机了/我要买性价比高一点的扫地机/我要买性价比高的扫地机/我就性价比高一点的扫地机就行了/买性价比高一点的扫地机就可以了/就买性价比高一点的扫地机吧/你就给我介绍性价比高一点的扫地机吧/你给我介绍性价比高一点的扫地机就好了/给我说一下性价比高一点的扫地机吧/我想买性价比高的扫地机器人/我要买性价比高的扫地机器人/我要买性价比高的扫地机器人就行/我当然是买性价比高的扫地机器人了/我要买性价比高的扫地机器人啦/我要买性价比高的性价比高的扫地机器人/我要买性价比高的扫地机器人 /我要性价比高一点的扫地机器人有没有/我需要性价比高的扫地机器人/你能给我介绍性价比高的扫地机器人吗/我想买性价比高的扫地机器人有没有/我想买性价比高的扫地机器人/我想性价比高点的扫地机器人/我想要性价比高的扫地机器人啊/我要买扫地机器人/我要买性价比高的扫地机器人了/我要买需要性价比高的扫地机器人了/我要买性价比高一点的扫地机器人/我要买性价比高的扫地机器人/我就性价比高一点的扫地机器人就行了/买性价比高一点的扫地机器人就可以了/就买性价比高一点的扫地机器人吧/你就给我介绍性价比高一点的扫地机器人吧/你给我介绍性价比高一点的扫地机器人就好了/给我说一下性价比高一点的扫地机器人吧/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中等价位的扫地机有么</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/中等价位的扫地机/</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>/我想买便宜点的扫地机/我要买便宜点的扫地机/我要买价格低点的扫地机/我要买便宜的扫地机就行/我当然是买便宜的扫地机了/我要买便宜的扫地机啦/我要买便宜的便宜的扫地机/我要买价格便宜的扫地机/我要买价格低的扫地机/我要便宜一点的扫地机有没有/我需要便宜点的扫地机/你能给我介绍便宜点的扫地机吗/我想买便宜点的扫地机有没有/我想买便宜点的扫地机/我想要价格低点的扫地机/我想要便宜的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格便宜的扫地机了/我要买便宜一点的扫地机/我要买便宜点的扫地机/我就便宜一点的扫地机就行了/买便宜一点的扫地机就可以了/就买便宜一点的扫地机吧/你就给我介绍便宜一点的扫地机吧/你给我介绍便宜一点的扫地机就好了/给我说一下便宜一点的扫地机吧/我不买贵的扫地机/不要贵的扫地机/我贵的扫地机不要/我不想要贵的扫地机/我贵的扫地机不要/我不要贵的扫地机/我不买贵的扫地机/我不要贵的扫地机/贵的扫地机我不要哈/我不想买贵的扫地机</t>
     </r>
     <r>
@@ -606,7 +797,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>你们最便宜的扫地机介绍一下吧/最便宜的地宝/最便宜的/给我介绍一下最实惠的扫地机/最实惠的给我介绍一下/</t>
+      <t>你们最便宜的扫地机介绍一下吧/最便宜的地宝/最便宜的/给我介绍一下最实惠的扫地机/最实惠的给我介绍一下/你们这里有折扣很大的扫地机卖吗</t>
     </r>
     <r>
       <rPr>
@@ -624,7 +815,34 @@
   </si>
   <si>
     <r>
-      <t>我要买性能好的扫地机/我要买配置高的我要买扫地机/我要买性能高的扫地机/我</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>还有吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/还有别的选择吗/还有没有别的选择/还有啥样的/还有其他选择吗/还有什么选择呀/还有什么别的选择/还有选择吗/其他有什么好选的/其他可以选什么/还有其他可以选的吗/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在给我推荐一个/有其他推荐吗/有其他型号吗/有其他的类型吗/有其他款式吗/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/有其他型号推荐吗/有其他款式推荐吗/有其他类型推荐吗/还有别的型号吗/还有别的推荐吗/还有别的型号选择吗/还有别的类型选择吗/还有别的型号推荐吗/在介绍一个/解释一下其他的/介绍一下其他款式/介绍一下其他类型/介绍其他的型号的/有没有其他款/有没有性能好一点的/有没有配置高一点的/换一款/其它款有没有/其他类型有没有/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/换一款/换一个/下一个/再介绍一个其他的/</t>
     </r>
     <r>
       <rPr>
@@ -633,43 +851,6 @@
         <rFont val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>想买性能高点的扫地机/我要买性能高点的扫地机/我要买性能高的扫地机就行/我当然是买性能高的扫地机了/我要买买性能高的扫地机啦/我要买性能高的扫地机/我要性能高的扫地机/我要性能高一点的扫地机有没有/我需要性能高点的扫地机/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机了/我要买当然买性能好的扫地机了/我要买当然是性能高的扫地机了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机就可以了/我就买性能高一点的扫地机吧/你就给我介绍性能高一点的扫地机吧/你给我介绍性能高一点的扫地机就好了/给我说一下性能高一点的扫地机吧/我不买差的扫地机/我不要差的扫地机/我差的扫地机不要/我不想要差的扫地机/我差的扫地机不要/我不要差的扫地机/我不买差的扫地机/我不要差的扫地机/差的扫地机我不要哈/我不想买差的扫地机/我要买好的扫地机/我要买能力强的扫地机/我要买高性能的扫地机/当然是买性能高的扫地机了/给我推荐一款性能好的扫地机/我要性能好的扫地机/我要配置高的扫地机/我想买一款配置高的扫地机/能给我推荐一款配置高的扫地机吗/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机吗？/我想买性能高的扫地机有吗/我想买配置高的扫地机/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机给我吗/给我推荐一款性能高的扫地机吗/有配置高的扫地机给我推荐一下吧/给我推荐一款配置高的扫地机吧/我要买性能好的扫地机器人/我要买配置高的我要买扫地机器人/我要买性能高的扫地机器人/我想买性能高点的扫地机器人/我要买性能高点的扫地机器人/我要买性能高的扫地机器人就行/我当然是买性能高的扫地机器人了/我要买买性能高的扫地机器人啦/我要买性能高的扫地机器人/我要性能高的扫地机器人/我要性能高一点的扫地机器人有没有/我需要性能高点的扫地机器人/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机器人了/我要买当然买性能好的扫地机器人了/我要买当然是性能高的扫地机器人了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机器人就可以了/我就买性能高一点的扫地机器人吧/你就给我介绍性能高一点的扫地机器人吧/你给我介绍性能高一点的扫地机器人就好了/给我说一下性能高一点的扫地机器人吧/我不买差的扫地机器人/我不要差的扫地机器人/我差的扫地机器人不要/我不想要差的扫地机器人/我差的扫地机器人不要/我不要差的扫地机器人/我不买差的扫地机器人/我不要差的扫地机器人/差的扫地机器人我不要哈/我不想买差的扫地机器人/我要买好的扫地机器人/我要买能力强的扫地机器人/我要买高性能的扫地机器人/当然是买性能高的扫地机器人了/给我推荐一款性能好的扫地机器人/我要性能好的扫地机器人/我要配置高的扫地机器人/我想买一款配置高的扫地机器人/能给我推荐一款配置高的扫地机器人吗/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人吗？/我想买性能高的扫地机器人有吗/我想买配置高的扫地机器人/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人给我吗/给我推荐一款性能高的扫地机器人吗/有配置高的扫地机器人给我推荐一下吧/给我推荐一款配置高的扫地机器人吧//我想买好的扫地机/我要买好的扫地机/我要买好的扫地机就行/我当然是买好的扫地机了/我要买好的扫地机啦/我要买好的好的扫地机/我要买好的扫地机/我要好一点的扫地机有没有/我需要好的扫地机/你能给我介绍好的扫地机吗/我想买好的扫地机有没有/我想买好的扫地机 /我想要好的扫地机啊/我要买需要好的扫地机了/我要买好一点的扫地机/我要买好的扫地机/我就好一点的扫地机就行了/买好一点的扫地机就可以了/就买好一点的扫地机吧/你就给我介绍好一点的扫地机吧/你给我介绍好一点的扫地机就好了/给我说一下好一点的扫地机吧/我想买好的扫地机器人/我要买好的扫地机器人/我要买好的扫地机器人就行/我当然是买好的扫地机器人了/我要买好的扫地机器人啦/我要买好的好的扫地机器人/我要买好的扫地机器人 /我要好一点的扫地机器人有没有/我需要好的扫地机器人/你能给我介绍好的扫地机器人吗/我想买好的扫地机器人有没有/我想买好的扫地机器人/我想好点的扫地机器人/我想要好的扫地机器人啊/我要买扫地机器人/我要买好的扫地机器人了/我要买需要好的扫地机器人了/我要买好一点的扫地机器人/我要买好的扫地机器人/我就好一点的扫地机器人就行了/买好一点的扫地机器人就可以了/就买好一点的扫地机器人吧/你就给我介绍好一点的扫地机器人吧/你给我介绍好一点的扫地机器人就好了/给我说一下好一点的扫地机器人吧/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>给我介绍最贵的扫地机/给我介绍一下配置最高的DG36/给我介绍一下你们最好的扫地机器人/介绍最好的扫地机/</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>在给我推荐一个/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
 还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
@@ -679,11 +860,19 @@
 还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
 </t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>性能好的/配置高的/性能高的/我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还有吗/还有别的选择吗/还有没有别的选择/还有啥样的/还有其他选择吗/还有什么选择呀/还有什么别的选择/还有选择吗/其他有什么好选的/其他可以选什么/还有其他可以选的吗/在给我推荐一个/有其他推荐吗/有其他型号吗/有其他的类型吗/有其他款式吗/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/有其他型号推荐吗/有其他款式推荐吗/有其他类型推荐吗/还有别的型号吗/还有别的推荐吗/还有别的型号选择吗/还有别的类型选择吗/还有别的型号推荐吗/在介绍一个/解释一下其他的/介绍一下其他款式/介绍一下其他类型/介绍其他的型号的/有没有其他款/有没有性能好一点的/有没有配置高一点的/换一款/其它款有没有/其他类型有没有/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/换一款/换一个/下一个/再介绍一个其他的/</t>
     </r>
     <r>
       <rPr>
@@ -694,44 +883,70 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>想买性能高点的/性能高点的/性能高的就行/我当然是买性能高的了/买性能高的啦/性能高的性能高的/我要性能高的/我要性能高一点的有没有/我需要性能高点的/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的了/当然买性能好的了/当然是性能高的了/当然需要性能高的了/当然是买性能高一点的/买性能高点的/性能高一点的就行了/买性能高一点的就可以了/就买性能高一点的吧/你就给我介绍性能高一点的吧/你给我介绍性能高一点的就好了/给我说一下性能高一点的吧/不买差的/不要差的/差的不要/不想要差的/差的不要/不要差的/我不买差的/我不要差的/差的我不要哈/我不想买差的/我要买好的/我要买能力强的/我要买高性能的/当然是买性能高的了/给我推荐一款性能好的/我要性能好的/我要配置高的/我想买一款配置高的/能给我推荐一款配置高的吗/能不能给我推荐一款性能高的/可以推荐一款性能高的吗？/我想买性能高的有吗/我想买配置高的/能不能给我推荐一款性能高的/可以推荐一款性能高的给我吗/给我推荐一款性能高的吗/有配置高的给我推荐一下吧/给我推荐一款配置高的吧</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
+      <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
 还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
 还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
 还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
 还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
 还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
 </t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>便宜的/我想买便宜点的/便宜点的/价格低点的/便宜的就行/我当然是买便宜的了/买便宜的啦/便宜的便宜的/价格便宜的/价格低的/我要便宜一点的有没有/我需要便宜点的/你能给我介绍便宜点的吗/我想买便宜点的有没有/我想买便宜点的/我想要价格低点的/我想要便宜的啊/当然是便宜的了/当然买价格低点了/当然是价格低的了/当然需要价格便宜的了/当然是买便宜一点的/买便宜点的/我就便宜一点的就行了/买便宜一点的就可以了/就买便宜一点的吧/你就给我介绍便宜一点的吧/你给我介绍便宜一点的就好了/给我说一下便宜一点的吧/不买贵的/不要贵的/贵的不要/不想要贵的/贵的不要/不要贵的/我不买贵的/我不要贵的/贵的我不要哈/我不想买贵的</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还有啥样的/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/性价比高的/我想买一款便宜的/我想买一款性价比高的/你能给我推荐一款性价比高的吗/你可以推荐一款性价比高的给我吗/给我推荐一款价格低的吧/能不能给我推荐一款价格低点的啊</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>擦窗户的机器人有么？/我来买个擦窗户的/擦窗户的有没有？/擦窗户的那种/能擦窗户的/擦玻璃的那种/擦玻璃的机器人有么？/我来买个擦玻璃的/擦玻璃的有没有？/有没有擦窗机器人？/擦窗机器人有吗？这里有擦窗机器人吗？/有没有擦窗机器人卖？/这里有卖擦窗机器人的吗？/推荐个擦窗机器人/推荐擦窗机器人/介绍个擦窗机器人/介绍擦窗机器人/给我推荐个擦窗机器人/我来买个擦窗机器人/擦窗机器人有吗？/有没有擦窗机器人？/有擦窗机器人吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗机器人？/这里能买到擦窗机器人吗？/给我介绍个擦窗机器人？/能不能介绍一个擦窗机器人？/可以给我介绍一个擦窗机器人吗？/有没有擦窗的机器？/擦窗的机器有吗？这里有擦窗的机器吗？/有没有擦窗的机器卖？/这里有卖擦窗的机器的吗？/推荐个擦窗的机器/推荐擦窗的机器/介绍个擦窗的机器/介绍擦窗的机器/给我推荐个擦窗的机器/我来买个擦窗的机器/擦窗的机器有吗？/有没有擦窗的机器？/有擦窗的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗的机器？/这里能买到擦窗的机器吗？/给我介绍个擦窗的机器？/能不能介绍一个擦窗的机器？/可以给我介绍一个擦窗的机器吗？/有没有擦窗户的机器？/擦窗户的机器有吗？这里有擦窗户的机器吗？/有没有擦窗户的机器卖？/这里有卖擦窗户的机器的吗？/推荐个擦窗户的机器/推荐擦窗户的机器/介绍个擦窗户的机器/介绍擦窗户的机器/给我推荐个擦窗户的机器/我来买个擦窗户的机器/擦窗户的机器有吗？/有没有擦窗户的机器？/有擦窗户的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗户的机器？/这里能买到擦窗户的机器吗？/给我介绍个擦窗户的机器？/能不能介绍一个擦窗户的机器？/可以给我介绍一个擦窗户的机器吗？/有没有擦玻璃的机器？/擦玻璃的机器有吗？这里有擦玻璃的机器吗？/有没有擦玻璃的机器卖？/这里有卖擦玻璃的机器的吗？/推荐个擦玻璃的机器/推荐擦玻璃的机器/介绍个擦玻璃的机器/介绍擦玻璃的机器/给我推荐个擦玻璃的机器/我来买个擦玻璃的机器/擦玻璃的机器有吗？/有没有擦玻璃的机器？/有擦玻璃的机器吗？/有擦玻璃的机器人吗？/你们这里有擦玻璃的机器人卖吗？/可不可以在这里买擦玻璃的机器？/这里能买到擦玻璃的机器吗？/给我介绍个擦玻璃的机器？/能不能介绍一个擦玻璃的机器？/可以给我介绍一个擦玻璃的机器吗？/有没有打扫窗户的机器？/打扫窗户的机器有吗？这里有打扫窗户的机器吗？/有没有打扫窗户的机器卖？/这里有卖打扫窗户的机器的吗？/推荐个打扫窗户的机器/推荐打扫窗户的机器/介绍个打扫窗户的机器/介绍打扫窗户的机器/给我推荐个打扫窗户的机器/我来买个打扫窗户的机器/打扫窗户的机器有吗？/有没有打扫窗户的机器？/有打扫窗户的机器吗？/有打扫窗户的机器人吗？/你们这里有打扫窗户的机器人卖吗？/可不可以在这里买打扫窗户的机器？/这里能买到打扫窗户的机器吗？/给我介绍个打扫窗户的机器？/能不能介绍一个打扫窗户的机器？/可以给我介绍一个打扫窗户的机器吗？/</t>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的窗宝么？/你们店里还有其他的窗宝么？/窗宝还有没有其他选择？/窗宝还有没有其他款式？/窗宝还有没有其他型号？/窗宝其他型号有没有？/还有没有窗宝/还有窗宝么？/其他的窗宝呢？/别的窗宝/再给我推荐一个窗宝/再推荐一个窗宝我看看/再推荐一个窗宝我听听/我还想了解其他的窗宝/我还想了解别的窗宝型号的/再介绍一个窗宝/再介绍一款窗宝/还有没有窗宝？/还有其他的窗宝么？/其他的窗宝呢？/就这一款窗宝么？/就这一个窗宝？/有没有更好的窗宝？/有没有配置高一点的窗宝？/有没有比这个好的窗宝/有没有比这个好的窗宝推荐一下/有没有性能更好的窗宝/有没有性能更好的窗宝推荐一下/性能更好的窗宝/我想知道其他的窗宝/换一款窗宝/换一个窗宝/下一个窗宝/再介绍一个其他的窗宝/还有别的擦窗户的么？/你们店里还有其他的擦窗户的么？/擦窗户的还有没有其他选择？/擦窗户的还有没有其他款式？/擦窗户的还有没有其他型号？/擦窗户的其他型号有没有？/还有没有擦窗户的/还有擦窗户的么？/其他的擦窗户的呢？/别的擦窗户的/再给我推荐一个擦窗户的/再推荐一个擦窗户的我看看/再推荐一个擦窗户的我听听/我还想了解其他的擦窗户的/我还想了解别的擦窗户的型号的/再介绍一个擦窗户的/再介绍一款擦窗户的/还有没有擦窗户的？/还有其他的擦窗户的么？/其他的擦窗户的呢？/就这一款擦窗户的么？/就这一个擦窗户的？/有没有更好的擦窗户的？/有没有配置高一点的擦窗户的？/有没有比这个好的擦窗户的/有没有比这个好的擦窗户的推荐一下/有没有性能更好的擦窗户的/有没有性能更好的擦窗户的推荐一下/性能更好的擦窗户的/我想知道其他的擦窗户的/换一款擦窗户的/换一个擦窗户的/下一个擦窗户的/再介绍一个其他的擦窗户的/给我推荐一款窗宝
+</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的窗宝么？/你们店里还有其他的窗宝么？/窗宝还有没有其他选择？/窗宝还有没有其他款式？/窗宝还有没有其他型号？/窗宝其他型号有没有？/还有没有窗宝/还有窗宝么？/其他的窗宝呢？/别的窗宝/再给我推荐一个窗宝/再推荐一个窗宝我看看/再推荐一个窗宝我听听/我还想了解其他的窗宝/我还想了解别的窗宝型号的/再介绍一个窗宝/再介绍一款窗宝/还有没有窗宝？/还有其他的窗宝么？/其他的窗宝呢？/就这一款窗宝么？/就这一个窗宝？/有没有更好的窗宝？/有没有配置高一点的窗宝？/有没有比这个好的窗宝/有没有比这个好的窗宝推荐一下/有没有性能更好的窗宝/有没有性能更好的窗宝推荐一下/性能更好的窗宝/我想知道其他的窗宝/换一款窗宝/换一个窗宝/下一个窗宝/再介绍一个其他的窗宝/还有别的擦窗户的么？/你们店里还有其他的擦窗户的么？/擦窗户的还有没有其他选择？/擦窗户的还有没有其他款式？/擦窗户的还有没有其他型号？/擦窗户的其他型号有没有？/还有没有擦窗户的/还有擦窗户的么？/其他的擦窗户的呢？/别的擦窗户的/再给我推荐一个擦窗户的/再推荐一个擦窗户的我看看/再推荐一个擦窗户的我听听/我还想了解其他的擦窗户的/我还想了解别的擦窗户的型号的/再介绍一个擦窗户的/再介绍一款擦窗户的/还有没有擦窗户的？/还有其他的擦窗户的么？/其他的擦窗户的呢？/就这一款擦窗户的么？/就这一个擦窗户的？/有没有更好的擦窗户的？/有没有配置高一点的擦窗户的？/有没有比这个好的擦窗户的/有没有比这个好的擦窗户的推荐一下/有没有性能更好的擦窗户的/有没有性能更好的擦窗户的推荐一下/性能更好的擦窗户的/我想知道其他的擦窗户的/换一款擦窗户的/换一个擦窗户的/下一个擦窗户的/再介绍一个其他的擦窗户的/给我推荐一款窗宝
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还有啥样的/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的沁宝么？/你们店里还有其他的沁宝么？/沁宝还有没有其他选择？/沁宝还有没有其他款式？/沁宝还有没有其他型号？/沁宝其他型号有没有？/还有没有沁宝/还有沁宝么？/其他的沁宝呢？/别的沁宝/再给我推荐一个沁宝/再推荐一个沁宝我看看/再推荐一个沁宝我听听/我还想了解其他的沁宝/我还想了解别的沁宝型号的/再介绍一个沁宝/再介绍一款沁宝/还有没有沁宝？/还有其他的沁宝么？/其他的沁宝呢？/就这一款沁宝么？/就这一个沁宝？/有没有更好的沁宝？/有没有配置高一点的沁宝？/有没有比这个好的沁宝/有没有比这个好的沁宝推荐一下/有没有性能更好的沁宝/有没有性能更好的沁宝推荐一下/性能更好的沁宝/我想知道其他的沁宝/换一款沁宝/换一个沁宝/下一个沁宝/再介绍一个其他的沁宝/还有别的沁宝么？/你们店里还有其他的沁宝么？/沁宝还有没有其他选择？/沁宝还有没有其他款式？/沁宝还有没有其他型号？/沁宝其他型号有没有？/还有没有沁宝/还有沁宝么？/其他的沁宝呢？/别的沁宝/再给我推荐一个沁宝/再推荐一个沁宝我看看/再推荐一个沁宝我听听/我还想了解其他的沁宝/我还想了解别的沁宝型号的/再介绍一个沁宝/再介绍一款沁宝/还有没有沁宝？/还有其他的沁宝么？/其他的沁宝呢？/就这一款沁宝么？/就这一个沁宝？/有没有更好的沁宝？/有没有配置高一点的沁宝？/有没有比这个好的沁宝/有没有比这个好的沁宝推荐一下/有没有性能更好的沁宝/有没有性能更好的沁宝推荐一下/性能更好的沁宝/我想知道其他的沁宝/换一款沁宝/换一个沁宝/下一个沁宝/再介绍一个其他的沁宝/
+还有别的净化空气么？/你们店里还有其他的净化空气么？/净化空气还有没有其他选择？/净化空气还有没有其他款式？/净化空气还有没有其他型号？/净化空气其他型号有没有？/还有没有净化空气/还有净化空气么？/其他的净化空气呢？/别的净化空气/再给我推荐一个净化空气/再推荐一个净化空气我看看/再推荐一个净化空气我听听/我还想了解其他的净化空气/我还想了解别的净化空气型号的/再介绍一个净化空气/再介绍一款净化空气/还有没有净化空气？/还有其他的净化空气么？/其他的净化空气呢？/就这一款净化空气么？/就这一个净化空气？/有没有更好的净化空气？/有没有配置高一点的净化空气？/有没有比这个好的净化空气/有没有比这个好的净化空气推荐一下/有没有性能更好的净化空气/有没有性能更好的净化空气推荐一下/性能更好的净化空气/我想知道其他的净化空气/换一款净化空气/换一个净化空气/下一个净化空气/再介绍一个其他的净化空气/
+还有别的清新房间空气的么？/你们店里还有其他的清新房间空气的么？/清新房间空气的还有没有其他选择？/清新房间空气的还有没有其他款式？/清新房间空气的还有没有其他型号？/清新房间空气的其他型号有没有？/还有没有清新房间空气的/还有清新房间空气的么？/其他的清新房间空气的呢？/别的清新房间空气的/再给我推荐一个清新房间空气的/再推荐一个清新房间空气的我看看/再推荐一个清新房间空气的我听听/我还想了解其他的清新房间空气的/我还想了解别的清新房间空气的型号的/再介绍一个清新房间空气的/再介绍一款清新房间空气的/还有没有清新房间空气的？/还有其他的清新房间空气的么？/其他的清新房间空气的呢？/就这一款清新房间空气的么？/就这一个清新房间空气的？/有没有更好的清新房间空气的？/有没有配置高一点的清新房间空气的？/有没有比这个好的清新房间空气的/有没有比这个好的清新房间空气的推荐一下/有没有性能更好的清新房间空气的/有没有性能更好的清新房间空气的推荐一下/性能更好的清新房间空气的/我想知道其他的清新房间空气的/换一款清新房间空气的/换一个清新房间空气的/下一个清新房间空气的/再介绍一个其他的清新房间空气的/
+还有别的湿润房间空气的么？/你们店里还有其他的湿润房间空气的么？/湿润房间空气的还有没有其他选择？/湿润房间空气的还有没有其他款式？/湿润房间空气的还有没有其他型号？/湿润房间空气的其他型号有没有？/还有没有湿润房间空气的 /还有湿润房间空气的么？/其他的湿润房间空气的呢？/别的湿润房间空气的 /再给我推荐一个湿润房间空气的/再推荐一个湿润房间空气的我看看/再推荐一个湿润房间空气的 我听听/我还想了解其他的湿润房间空气的/我还想了解别的湿润房间空气的 型号的/再介绍一个湿润房间空气的/再介绍一款湿润房间空气的/还有没有湿润房间空气的？/还有其他的湿润房间空气的么？/其他的湿润房间空气的呢？/就这一款湿润房间空气的么？/就这一个湿润房间空气的？/有没有更好的湿润房间空气的？/有没有配置高一点的湿润房间空气的？/有没有比这个好的湿润房间空气的/有没有比这个好的湿润房间空气的推荐一下/有没有性能更好的湿润房间空气的/有没有性能更好的湿润房间空气的推荐一下/性能更好的湿润房间空气的/我想知道其他的湿润房间空气的/换一款湿润房间空气的/换一个湿润房间空气的/下一个湿润房间空气的/再介绍一个其他的湿润房间空气的 /
+还有别的除去房间甲醛的么？/你们店里还有其他的除去房间甲醛的么？/除去房间甲醛的还有没有其他选择？/除去房间甲醛的还有没有其他款式？/除去房间甲醛的还有没有其他型号？/除去房间甲醛的其他型号有没有？/还有没有除去房间甲醛的/还有除去房间甲醛的么？/其他的除去房间甲醛的呢？/别的除去房间甲醛的/再给我推荐一个除去房间甲醛的/再推荐一个除去房间甲醛的我看看/再推荐一个除去房间甲醛的我听听/我还想了解其他的除去房间甲醛的/我还想了解别的除去房间甲醛的型号的/再介绍一个除去房间甲醛的/再介绍一款除去房间甲醛的/还有没有除去房间甲醛的？/还有其他的除去房间甲醛的么？/其他的除去房间甲醛的呢？/就这一款除去房间甲醛的么？/就这一个除去房间甲醛的？/有没有更好的除去房间甲醛的？/有没有配置高一点的除去房间甲醛的？/有没有比这个好的除去房间甲醛的/有没有比这个好的除去房间甲醛的推荐一下/有没有性能更好的除去房间甲醛的/有没有性能更好的除去房间甲醛的推荐一下/性能更好的除去房间甲醛的/我想知道其他的除去房间甲醛的/换一款除去房间甲醛的/换一个除去房间甲醛的/下一个除去房间甲醛的/再介绍一个其他的除去房间甲醛的/给我推荐一款沁宝
 </t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -739,7 +954,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -925,6 +1140,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -948,7 +1177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,12 +1218,26 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1008,6 +1251,2650 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0789D63C-071E-467A-8209-91968BBC6FB6}" diskRevisions="1" revisionId="40" version="37">
+  <header guid="{03AB2736-FEAA-4E3D-9D27-83C05A1C89C8}" dateTime="2017-12-13T15:33:05" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId1">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C2A6C539-1262-412A-8107-B6FA531899CA}" dateTime="2017-12-13T15:33:37" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId2" minRId="1" maxRId="2">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{70C810EF-7F8C-4068-9C05-F2453D38F557}" dateTime="2017-12-13T15:33:55" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId3" minRId="3" maxRId="4">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0871924D-7EC3-4105-8064-07D72DD01E66}" dateTime="2017-12-13T15:34:29" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId4" minRId="5" maxRId="6">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1AF37E18-EF0D-442C-9D75-25ACA22AC72B}" dateTime="2017-12-13T15:34:41" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId5" minRId="7">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B1DBB9C7-B500-48AB-9A4E-9255D3E24B0C}" dateTime="2017-12-13T15:34:48" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId6" minRId="8" maxRId="9">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B9FC180A-A3A0-4107-9C6B-A07A76F3643D}" dateTime="2017-12-13T15:35:19" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId7">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7CB76CEF-12E7-42E5-BC2B-FFFEC5F50E20}" dateTime="2017-12-13T15:35:28" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId8" minRId="10" maxRId="11">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{43CB4BF7-DE6A-4F40-A39C-6734A0C53CCC}" dateTime="2017-12-13T15:35:52" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId9" minRId="12" maxRId="13">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B57DC59C-C591-4D9C-B1E6-0417926DBF1B}" dateTime="2017-12-13T15:37:45" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId10" minRId="14" maxRId="15">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8C3E6302-BC68-4DD7-A3B4-DFFDC48408AB}" dateTime="2017-12-13T15:38:03" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId11" minRId="16">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E416EF50-62C5-40C2-8286-55C28CDB9D0F}" dateTime="2017-12-13T15:38:39" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId12">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FEA0FC77-12EA-4976-9881-1CA2EF7B5B66}" dateTime="2017-12-13T15:40:13" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId13" minRId="17" maxRId="18">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0DD627E9-DDA2-42E5-BDB4-664861BD0817}" dateTime="2017-12-13T15:41:22" maxSheetId="4" userName="hongru.chu(褚宏茹)" r:id="rId14" minRId="19">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B47F19EA-8D0F-4019-B1AC-8334396E09C9}" dateTime="2017-12-13T15:42:14" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId15" minRId="20">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{80D858CA-7053-4013-965F-2502DFA7166A}" dateTime="2017-12-13T15:42:20" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId16">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BAE470D4-0075-4D04-8D10-5A8EA27F950C}" dateTime="2017-12-13T15:42:27" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId17" minRId="21">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E38C8C7A-442C-4644-B409-5B39C4BB46D7}" dateTime="2017-12-13T15:42:51" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId18" minRId="22">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{01E19A63-015C-4699-975B-2E7937C73FA0}" dateTime="2017-12-13T15:42:58" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId19">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B7B45DC7-B29B-4054-8B70-B3B00A830FC5}" dateTime="2017-12-13T15:43:30" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId20" minRId="23">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3843AE92-3196-40AF-8EEA-837840B69F3E}" dateTime="2017-12-13T15:43:34" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId21">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8DA583DB-69F5-465E-A5C4-35A6FDCB8C8A}" dateTime="2017-12-13T15:43:45" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId22" minRId="24">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{976ADD5A-3889-4AC3-990D-0E205B04ADD0}" dateTime="2017-12-13T15:44:03" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId23" minRId="25" maxRId="26">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{ED270297-F982-47A2-BF68-6155FAE18813}" dateTime="2017-12-13T15:44:10" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId24" minRId="27">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E27A0AE4-FC70-4DE7-9206-E0C9E0C52666}" dateTime="2017-12-13T15:44:19" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId25">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A70FD343-721A-4922-B06F-47D3475FB4D2}" dateTime="2017-12-13T15:45:43" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId26" minRId="28">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9D7E90E0-8C78-4BF0-8E1C-AB0B35952792}" dateTime="2017-12-13T15:46:19" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId27" minRId="29">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B2962D10-D0AA-4DDF-BD06-84688CC7C327}" dateTime="2017-12-13T15:46:49" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId28" minRId="30">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6AFD67E2-6135-4B0D-B4D8-910A3FA772B8}" dateTime="2017-12-13T15:47:05" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId29" minRId="31">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{54017050-1C91-4FB3-A7ED-200D673308B9}" dateTime="2017-12-13T15:47:14" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId30" minRId="32">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5B2A663E-33AD-4AAC-8AE9-FD2CA94CC60C}" dateTime="2017-12-13T15:47:27" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId31" minRId="33">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F713FE7C-8BE8-4E69-803E-D61958263EFE}" dateTime="2017-12-13T15:47:53" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId32" minRId="34">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{ED730859-1199-485A-98A7-38F793FDA656}" dateTime="2017-12-13T15:48:21" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId33" minRId="35">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A8E791EB-2C1C-4668-AF51-AAF9577EFB69}" dateTime="2017-12-13T15:49:13" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId34" minRId="36">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8FC61589-EE6F-4583-8294-B0B08538F16F}" dateTime="2017-12-13T15:51:35" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId35" minRId="37" maxRId="38">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3B0312B9-A986-4295-8513-AFC98B234349}" dateTime="2017-12-13T15:51:44" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId36" minRId="39">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0789D63C-071E-467A-8209-91968BBC6FB6}" dateTime="2017-12-13T15:51:52" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId37" minRId="40">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="3" xfDxf="1" sqref="B10" start="0" length="0"/>
+  <rfmt sheetId="3" sqref="B10">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="14" sId="3">
+    <nc r="B10" t="inlineStr">
+      <is>
+        <t>还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的沁宝么？/你们店里还有其他的沁宝么？/沁宝还有没有其他选择？/沁宝还有没有其他款式？/沁宝还有没有其他型号？/沁宝其他型号有没有？/还有没有沁宝/还有沁宝么？/其他的沁宝呢？/别的沁宝/再给我推荐一个沁宝/再推荐一个沁宝我看看/再推荐一个沁宝我听听/我还想了解其他的沁宝/我还想了解别的沁宝型号的/再介绍一个沁宝/再介绍一款沁宝/还有没有沁宝？/还有其他的沁宝么？/其他的沁宝呢？/就这一款沁宝么？/就这一个沁宝？/有没有更好的沁宝？/有没有配置高一点的沁宝？/有没有比这个好的沁宝/有没有比这个好的沁宝推荐一下/有没有性能更好的沁宝/有没有性能更好的沁宝推荐一下/性能更好的沁宝/我想知道其他的沁宝/换一款沁宝/换一个沁宝/下一个沁宝/再介绍一个其他的沁宝/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="15" sId="3">
+    <oc r="F3" t="inlineStr">
+      <is>
+        <t xml:space="preserve">还有别的沁宝么？/你们店里还有其他的沁宝么？/沁宝还有没有其他选择？/沁宝还有没有其他款式？/沁宝还有没有其他型号？/沁宝其他型号有没有？/还有没有沁宝/还有沁宝么？/其他的沁宝呢？/别的沁宝/再给我推荐一个沁宝/再推荐一个沁宝我看看/再推荐一个沁宝我听听/我还想了解其他的沁宝/我还想了解别的沁宝型号的/再介绍一个沁宝/再介绍一款沁宝/还有没有沁宝？/还有其他的沁宝么？/其他的沁宝呢？/就这一款沁宝么？/就这一个沁宝？/有没有更好的沁宝？/有没有配置高一点的沁宝？/有没有比这个好的沁宝/有没有比这个好的沁宝推荐一下/有没有性能更好的沁宝/有没有性能更好的沁宝推荐一下/性能更好的沁宝/我想知道其他的沁宝/换一款沁宝/换一个沁宝/下一个沁宝/再介绍一个其他的沁宝/
+还有别的净化空气么？/你们店里还有其他的净化空气么？/净化空气还有没有其他选择？/净化空气还有没有其他款式？/净化空气还有没有其他型号？/净化空气其他型号有没有？/还有没有净化空气/还有净化空气么？/其他的净化空气呢？/别的净化空气/再给我推荐一个净化空气/再推荐一个净化空气我看看/再推荐一个净化空气我听听/我还想了解其他的净化空气/我还想了解别的净化空气型号的/再介绍一个净化空气/再介绍一款净化空气/还有没有净化空气？/还有其他的净化空气么？/其他的净化空气呢？/就这一款净化空气么？/就这一个净化空气？/有没有更好的净化空气？/有没有配置高一点的净化空气？/有没有比这个好的净化空气/有没有比这个好的净化空气推荐一下/有没有性能更好的净化空气/有没有性能更好的净化空气推荐一下/性能更好的净化空气/我想知道其他的净化空气/换一款净化空气/换一个净化空气/下一个净化空气/再介绍一个其他的净化空气/
+还有别的清新房间空气的么？/你们店里还有其他的清新房间空气的么？/清新房间空气的还有没有其他选择？/清新房间空气的还有没有其他款式？/清新房间空气的还有没有其他型号？/清新房间空气的其他型号有没有？/还有没有清新房间空气的/还有清新房间空气的么？/其他的清新房间空气的呢？/别的清新房间空气的/再给我推荐一个清新房间空气的/再推荐一个清新房间空气的我看看/再推荐一个清新房间空气的我听听/我还想了解其他的清新房间空气的/我还想了解别的清新房间空气的型号的/再介绍一个清新房间空气的/再介绍一款清新房间空气的/还有没有清新房间空气的？/还有其他的清新房间空气的么？/其他的清新房间空气的呢？/就这一款清新房间空气的么？/就这一个清新房间空气的？/有没有更好的清新房间空气的？/有没有配置高一点的清新房间空气的？/有没有比这个好的清新房间空气的/有没有比这个好的清新房间空气的推荐一下/有没有性能更好的清新房间空气的/有没有性能更好的清新房间空气的推荐一下/性能更好的清新房间空气的/我想知道其他的清新房间空气的/换一款清新房间空气的/换一个清新房间空气的/下一个清新房间空气的/再介绍一个其他的清新房间空气的/
+还有别的湿润房间空气的么？/你们店里还有其他的湿润房间空气的么？/湿润房间空气的还有没有其他选择？/湿润房间空气的还有没有其他款式？/湿润房间空气的还有没有其他型号？/湿润房间空气的其他型号有没有？/还有没有湿润房间空气的 /还有湿润房间空气的么？/其他的湿润房间空气的呢？/别的湿润房间空气的 /再给我推荐一个湿润房间空气的/再推荐一个湿润房间空气的我看看/再推荐一个湿润房间空气的 我听听/我还想了解其他的湿润房间空气的/我还想了解别的湿润房间空气的 型号的/再介绍一个湿润房间空气的/再介绍一款湿润房间空气的/还有没有湿润房间空气的？/还有其他的湿润房间空气的么？/其他的湿润房间空气的呢？/就这一款湿润房间空气的么？/就这一个湿润房间空气的？/有没有更好的湿润房间空气的？/有没有配置高一点的湿润房间空气的？/有没有比这个好的湿润房间空气的/有没有比这个好的湿润房间空气的推荐一下/有没有性能更好的湿润房间空气的/有没有性能更好的湿润房间空气的推荐一下/性能更好的湿润房间空气的/我想知道其他的湿润房间空气的/换一款湿润房间空气的/换一个湿润房间空气的/下一个湿润房间空气的/再介绍一个其他的湿润房间空气的 /
+还有别的除去房间甲醛的么？/你们店里还有其他的除去房间甲醛的么？/除去房间甲醛的还有没有其他选择？/除去房间甲醛的还有没有其他款式？/除去房间甲醛的还有没有其他型号？/除去房间甲醛的其他型号有没有？/还有没有除去房间甲醛的/还有除去房间甲醛的么？/其他的除去房间甲醛的呢？/别的除去房间甲醛的/再给我推荐一个除去房间甲醛的/再推荐一个除去房间甲醛的我看看/再推荐一个除去房间甲醛的我听听/我还想了解其他的除去房间甲醛的/我还想了解别的除去房间甲醛的型号的/再介绍一个除去房间甲醛的/再介绍一款除去房间甲醛的/还有没有除去房间甲醛的？/还有其他的除去房间甲醛的么？/其他的除去房间甲醛的呢？/就这一款除去房间甲醛的么？/就这一个除去房间甲醛的？/有没有更好的除去房间甲醛的？/有没有配置高一点的除去房间甲醛的？/有没有比这个好的除去房间甲醛的/有没有比这个好的除去房间甲醛的推荐一下/有没有性能更好的除去房间甲醛的/有没有性能更好的除去房间甲醛的推荐一下/性能更好的除去房间甲醛的/我想知道其他的除去房间甲醛的/换一款除去房间甲醛的/换一个除去房间甲醛的/下一个除去房间甲醛的/再介绍一个其他的除去房间甲醛的/给我推荐一款沁宝
+</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F3" t="inlineStr">
+      <is>
+        <t xml:space="preserve">还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的沁宝么？/你们店里还有其他的沁宝么？/沁宝还有没有其他选择？/沁宝还有没有其他款式？/沁宝还有没有其他型号？/沁宝其他型号有没有？/还有没有沁宝/还有沁宝么？/其他的沁宝呢？/别的沁宝/再给我推荐一个沁宝/再推荐一个沁宝我看看/再推荐一个沁宝我听听/我还想了解其他的沁宝/我还想了解别的沁宝型号的/再介绍一个沁宝/再介绍一款沁宝/还有没有沁宝？/还有其他的沁宝么？/其他的沁宝呢？/就这一款沁宝么？/就这一个沁宝？/有没有更好的沁宝？/有没有配置高一点的沁宝？/有没有比这个好的沁宝/有没有比这个好的沁宝推荐一下/有没有性能更好的沁宝/有没有性能更好的沁宝推荐一下/性能更好的沁宝/我想知道其他的沁宝/换一款沁宝/换一个沁宝/下一个沁宝/再介绍一个其他的沁宝/还有别的沁宝么？/你们店里还有其他的沁宝么？/沁宝还有没有其他选择？/沁宝还有没有其他款式？/沁宝还有没有其他型号？/沁宝其他型号有没有？/还有没有沁宝/还有沁宝么？/其他的沁宝呢？/别的沁宝/再给我推荐一个沁宝/再推荐一个沁宝我看看/再推荐一个沁宝我听听/我还想了解其他的沁宝/我还想了解别的沁宝型号的/再介绍一个沁宝/再介绍一款沁宝/还有没有沁宝？/还有其他的沁宝么？/其他的沁宝呢？/就这一款沁宝么？/就这一个沁宝？/有没有更好的沁宝？/有没有配置高一点的沁宝？/有没有比这个好的沁宝/有没有比这个好的沁宝推荐一下/有没有性能更好的沁宝/有没有性能更好的沁宝推荐一下/性能更好的沁宝/我想知道其他的沁宝/换一款沁宝/换一个沁宝/下一个沁宝/再介绍一个其他的沁宝/
+还有别的净化空气么？/你们店里还有其他的净化空气么？/净化空气还有没有其他选择？/净化空气还有没有其他款式？/净化空气还有没有其他型号？/净化空气其他型号有没有？/还有没有净化空气/还有净化空气么？/其他的净化空气呢？/别的净化空气/再给我推荐一个净化空气/再推荐一个净化空气我看看/再推荐一个净化空气我听听/我还想了解其他的净化空气/我还想了解别的净化空气型号的/再介绍一个净化空气/再介绍一款净化空气/还有没有净化空气？/还有其他的净化空气么？/其他的净化空气呢？/就这一款净化空气么？/就这一个净化空气？/有没有更好的净化空气？/有没有配置高一点的净化空气？/有没有比这个好的净化空气/有没有比这个好的净化空气推荐一下/有没有性能更好的净化空气/有没有性能更好的净化空气推荐一下/性能更好的净化空气/我想知道其他的净化空气/换一款净化空气/换一个净化空气/下一个净化空气/再介绍一个其他的净化空气/
+还有别的清新房间空气的么？/你们店里还有其他的清新房间空气的么？/清新房间空气的还有没有其他选择？/清新房间空气的还有没有其他款式？/清新房间空气的还有没有其他型号？/清新房间空气的其他型号有没有？/还有没有清新房间空气的/还有清新房间空气的么？/其他的清新房间空气的呢？/别的清新房间空气的/再给我推荐一个清新房间空气的/再推荐一个清新房间空气的我看看/再推荐一个清新房间空气的我听听/我还想了解其他的清新房间空气的/我还想了解别的清新房间空气的型号的/再介绍一个清新房间空气的/再介绍一款清新房间空气的/还有没有清新房间空气的？/还有其他的清新房间空气的么？/其他的清新房间空气的呢？/就这一款清新房间空气的么？/就这一个清新房间空气的？/有没有更好的清新房间空气的？/有没有配置高一点的清新房间空气的？/有没有比这个好的清新房间空气的/有没有比这个好的清新房间空气的推荐一下/有没有性能更好的清新房间空气的/有没有性能更好的清新房间空气的推荐一下/性能更好的清新房间空气的/我想知道其他的清新房间空气的/换一款清新房间空气的/换一个清新房间空气的/下一个清新房间空气的/再介绍一个其他的清新房间空气的/
+还有别的湿润房间空气的么？/你们店里还有其他的湿润房间空气的么？/湿润房间空气的还有没有其他选择？/湿润房间空气的还有没有其他款式？/湿润房间空气的还有没有其他型号？/湿润房间空气的其他型号有没有？/还有没有湿润房间空气的 /还有湿润房间空气的么？/其他的湿润房间空气的呢？/别的湿润房间空气的 /再给我推荐一个湿润房间空气的/再推荐一个湿润房间空气的我看看/再推荐一个湿润房间空气的 我听听/我还想了解其他的湿润房间空气的/我还想了解别的湿润房间空气的 型号的/再介绍一个湿润房间空气的/再介绍一款湿润房间空气的/还有没有湿润房间空气的？/还有其他的湿润房间空气的么？/其他的湿润房间空气的呢？/就这一款湿润房间空气的么？/就这一个湿润房间空气的？/有没有更好的湿润房间空气的？/有没有配置高一点的湿润房间空气的？/有没有比这个好的湿润房间空气的/有没有比这个好的湿润房间空气的推荐一下/有没有性能更好的湿润房间空气的/有没有性能更好的湿润房间空气的推荐一下/性能更好的湿润房间空气的/我想知道其他的湿润房间空气的/换一款湿润房间空气的/换一个湿润房间空气的/下一个湿润房间空气的/再介绍一个其他的湿润房间空气的 /
+还有别的除去房间甲醛的么？/你们店里还有其他的除去房间甲醛的么？/除去房间甲醛的还有没有其他选择？/除去房间甲醛的还有没有其他款式？/除去房间甲醛的还有没有其他型号？/除去房间甲醛的其他型号有没有？/还有没有除去房间甲醛的/还有除去房间甲醛的么？/其他的除去房间甲醛的呢？/别的除去房间甲醛的/再给我推荐一个除去房间甲醛的/再推荐一个除去房间甲醛的我看看/再推荐一个除去房间甲醛的我听听/我还想了解其他的除去房间甲醛的/我还想了解别的除去房间甲醛的型号的/再介绍一个除去房间甲醛的/再介绍一款除去房间甲醛的/还有没有除去房间甲醛的？/还有其他的除去房间甲醛的么？/其他的除去房间甲醛的呢？/就这一款除去房间甲醛的么？/就这一个除去房间甲醛的？/有没有更好的除去房间甲醛的？/有没有配置高一点的除去房间甲醛的？/有没有比这个好的除去房间甲醛的/有没有比这个好的除去房间甲醛的推荐一下/有没有性能更好的除去房间甲醛的/有没有性能更好的除去房间甲醛的推荐一下/性能更好的除去房间甲醛的/我想知道其他的除去房间甲醛的/换一款除去房间甲醛的/换一个除去房间甲醛的/下一个除去房间甲醛的/再介绍一个其他的除去房间甲醛的/给我推荐一款沁宝
+</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="16" sId="3">
+    <oc r="B10" t="inlineStr">
+      <is>
+        <t>还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的沁宝么？/你们店里还有其他的沁宝么？/沁宝还有没有其他选择？/沁宝还有没有其他款式？/沁宝还有没有其他型号？/沁宝其他型号有没有？/还有没有沁宝/还有沁宝么？/其他的沁宝呢？/别的沁宝/再给我推荐一个沁宝/再推荐一个沁宝我看看/再推荐一个沁宝我听听/我还想了解其他的沁宝/我还想了解别的沁宝型号的/再介绍一个沁宝/再介绍一款沁宝/还有没有沁宝？/还有其他的沁宝么？/其他的沁宝呢？/就这一款沁宝么？/就这一个沁宝？/有没有更好的沁宝？/有没有配置高一点的沁宝？/有没有比这个好的沁宝/有没有比这个好的沁宝推荐一下/有没有性能更好的沁宝/有没有性能更好的沁宝推荐一下/性能更好的沁宝/我想知道其他的沁宝/换一款沁宝/换一个沁宝/下一个沁宝/再介绍一个其他的沁宝/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B10"/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{613290AE-B815-482C-9227-4F835E90B755}" action="delete"/>
+  <rcv guid="{613290AE-B815-482C-9227-4F835E90B755}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="F12">
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="17" sId="1">
+    <oc r="A12" t="inlineStr">
+      <is>
+        <t>性能高点的扫地机</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="A12" t="inlineStr">
+      <is>
+        <t>性能高点的扫地机</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="18" sId="1">
+    <oc r="F12" t="inlineStr">
+      <is>
+        <r>
+          <t>我要买性能好的扫地机/我要买配置高的我要买扫地机/我要买性能高的扫地机/我</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>想买性能高点的扫地机/我要买性能高点的扫地机/我要买性能高的扫地机就行/我当然是买性能高的扫地机了/我要买买性能高的扫地机啦/我要买性能高的扫地机/我要性能高的扫地机/我要性能高一点的扫地机有没有/我需要性能高点的扫地机/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机了/我要买当然买性能好的扫地机了/我要买当然是性能高的扫地机了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机就可以了/我就买性能高一点的扫地机吧/你就给我介绍性能高一点的扫地机吧/你给我介绍性能高一点的扫地机就好了/给我说一下性能高一点的扫地机吧/我不买差的扫地机/我不要差的扫地机/我差的扫地机不要/我不想要差的扫地机/我差的扫地机不要/我不要差的扫地机/我不买差的扫地机/我不要差的扫地机/差的扫地机我不要哈/我不想买差的扫地机/我要买好的扫地机/我要买能力强的扫地机/我要买高性能的扫地机/当然是买性能高的扫地机了/给我推荐一款性能好的扫地机/我要性能好的扫地机/我要配置高的扫地机/我想买一款配置高的扫地机/能给我推荐一款配置高的扫地机吗/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机吗？/我想买性能高的扫地机有吗/我想买配置高的扫地机/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机给我吗/给我推荐一款性能高的扫地机吗/有配置高的扫地机给我推荐一下吧/给我推荐一款配置高的扫地机吧/我要买性能好的扫地机器人/我要买配置高的我要买扫地机器人/我要买性能高的扫地机器人/我想买性能高点的扫地机器人/我要买性能高点的扫地机器人/我要买性能高的扫地机器人就行/我当然是买性能高的扫地机器人了/我要买买性能高的扫地机器人啦/我要买性能高的扫地机器人/我要性能高的扫地机器人/我要性能高一点的扫地机器人有没有/我需要性能高点的扫地机器人/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机器人了/我要买当然买性能好的扫地机器人了/我要买当然是性能高的扫地机器人了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机器人就可以了/我就买性能高一点的扫地机器人吧/你就给我介绍性能高一点的扫地机器人吧/你给我介绍性能高一点的扫地机器人就好了/给我说一下性能高一点的扫地机器人吧/我不买差的扫地机器人/我不要差的扫地机器人/我差的扫地机器人不要/我不想要差的扫地机器人/我差的扫地机器人不要/我不要差的扫地机器人/我不买差的扫地机器人/我不要差的扫地机器人/差的扫地机器人我不要哈/我不想买差的扫地机器人/我要买好的扫地机器人/我要买能力强的扫地机器人/我要买高性能的扫地机器人/当然是买性能高的扫地机器人了/给我推荐一款性能好的扫地机器人/我要性能好的扫地机器人/我要配置高的扫地机器人/我想买一款配置高的扫地机器人/能给我推荐一款配置高的扫地机器人吗/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人吗？/我想买性能高的扫地机器人有吗/我想买配置高的扫地机器人/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人给我吗/给我推荐一款性能高的扫地机器人吗/有配置高的扫地机器人给我推荐一下吧/给我推荐一款配置高的扫地机器人吧//我想买好的扫地机/我要买好的扫地机/我要买好的扫地机就行/我当然是买好的扫地机了/我要买好的扫地机啦/我要买好的好的扫地机/我要买好的扫地机/我要好一点的扫地机有没有/我需要好的扫地机/你能给我介绍好的扫地机吗/我想买好的扫地机有没有/我想买好的扫地机 /我想要好的扫地机啊/我要买需要好的扫地机了/我要买好一点的扫地机/我要买好的扫地机/我就好一点的扫地机就行了/买好一点的扫地机就可以了/就买好一点的扫地机吧/你就给我介绍好一点的扫地机吧/你给我介绍好一点的扫地机就好了/给我说一下好一点的扫地机吧/我想买好的扫地机器人/我要买好的扫地机器人/我要买好的扫地机器人就行/我当然是买好的扫地机器人了/我要买好的扫地机器人啦/我要买好的好的扫地机器人/我要买好的扫地机器人 /我要好一点的扫地机器人有没有/我需要好的扫地机器人/你能给我介绍好的扫地机器人吗/我想买好的扫地机器人有没有/我想买好的扫地机器人/我想好点的扫地机器人/我想要好的扫地机器人啊/我要买扫地机器人/我要买好的扫地机器人了/我要买需要好的扫地机器人了/我要买好一点的扫地机器人/我要买好的扫地机器人/我就好一点的扫地机器人就行了/买好一点的扫地机器人就可以了/就买好一点的扫地机器人吧/你就给我介绍好一点的扫地机器人吧/你给我介绍好一点的扫地机器人就好了/给我说一下好一点的扫地机器人吧/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给我介绍最贵的扫地机/给我介绍一下配置最高的DG36/给我介绍一下你们最好的扫地机器人/介绍最好的扫地机/</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F12" t="inlineStr">
+      <is>
+        <r>
+          <t>性能高点的扫地机/我要买性能好的扫地机/我要买配置高的我要买扫地机/我要买性能高的扫地机/我</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>想买性能高点的扫地机/我要买性能高点的扫地机/我要买性能高的扫地机就行/我当然是买性能高的扫地机了/我要买买性能高的扫地机啦/我要买性能高的扫地机/我要性能高的扫地机/我要性能高一点的扫地机有没有/我需要性能高点的扫地机/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机了/我要买当然买性能好的扫地机了/我要买当然是性能高的扫地机了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机就可以了/我就买性能高一点的扫地机吧/你就给我介绍性能高一点的扫地机吧/你给我介绍性能高一点的扫地机就好了/给我说一下性能高一点的扫地机吧/我不买差的扫地机/我不要差的扫地机/我差的扫地机不要/我不想要差的扫地机/我差的扫地机不要/我不要差的扫地机/我不买差的扫地机/我不要差的扫地机/差的扫地机我不要哈/我不想买差的扫地机/我要买好的扫地机/我要买能力强的扫地机/我要买高性能的扫地机/当然是买性能高的扫地机了/给我推荐一款性能好的扫地机/我要性能好的扫地机/我要配置高的扫地机/我想买一款配置高的扫地机/能给我推荐一款配置高的扫地机吗/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机吗？/我想买性能高的扫地机有吗/我想买配置高的扫地机/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机给我吗/给我推荐一款性能高的扫地机吗/有配置高的扫地机给我推荐一下吧/给我推荐一款配置高的扫地机吧/我要买性能好的扫地机器人/我要买配置高的我要买扫地机器人/我要买性能高的扫地机器人/我想买性能高点的扫地机器人/我要买性能高点的扫地机器人/我要买性能高的扫地机器人就行/我当然是买性能高的扫地机器人了/我要买买性能高的扫地机器人啦/我要买性能高的扫地机器人/我要性能高的扫地机器人/我要性能高一点的扫地机器人有没有/我需要性能高点的扫地机器人/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机器人了/我要买当然买性能好的扫地机器人了/我要买当然是性能高的扫地机器人了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机器人就可以了/我就买性能高一点的扫地机器人吧/你就给我介绍性能高一点的扫地机器人吧/你给我介绍性能高一点的扫地机器人就好了/给我说一下性能高一点的扫地机器人吧/我不买差的扫地机器人/我不要差的扫地机器人/我差的扫地机器人不要/我不想要差的扫地机器人/我差的扫地机器人不要/我不要差的扫地机器人/我不买差的扫地机器人/我不要差的扫地机器人/差的扫地机器人我不要哈/我不想买差的扫地机器人/我要买好的扫地机器人/我要买能力强的扫地机器人/我要买高性能的扫地机器人/当然是买性能高的扫地机器人了/给我推荐一款性能好的扫地机器人/我要性能好的扫地机器人/我要配置高的扫地机器人/我想买一款配置高的扫地机器人/能给我推荐一款配置高的扫地机器人吗/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人吗？/我想买性能高的扫地机器人有吗/我想买配置高的扫地机器人/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人给我吗/给我推荐一款性能高的扫地机器人吗/有配置高的扫地机器人给我推荐一下吧/给我推荐一款配置高的扫地机器人吧//我想买好的扫地机/我要买好的扫地机/我要买好的扫地机就行/我当然是买好的扫地机了/我要买好的扫地机啦/我要买好的好的扫地机/我要买好的扫地机/我要好一点的扫地机有没有/我需要好的扫地机/你能给我介绍好的扫地机吗/我想买好的扫地机有没有/我想买好的扫地机 /我想要好的扫地机啊/我要买需要好的扫地机了/我要买好一点的扫地机/我要买好的扫地机/我就好一点的扫地机就行了/买好一点的扫地机就可以了/就买好一点的扫地机吧/你就给我介绍好一点的扫地机吧/你给我介绍好一点的扫地机就好了/给我说一下好一点的扫地机吧/我想买好的扫地机器人/我要买好的扫地机器人/我要买好的扫地机器人就行/我当然是买好的扫地机器人了/我要买好的扫地机器人啦/我要买好的好的扫地机器人/我要买好的扫地机器人 /我要好一点的扫地机器人有没有/我需要好的扫地机器人/你能给我介绍好的扫地机器人吗/我想买好的扫地机器人有没有/我想买好的扫地机器人/我想好点的扫地机器人/我想要好的扫地机器人啊/我要买扫地机器人/我要买好的扫地机器人了/我要买需要好的扫地机器人了/我要买好一点的扫地机器人/我要买好的扫地机器人/我就好一点的扫地机器人就行了/买好一点的扫地机器人就可以了/就买好一点的扫地机器人吧/你就给我介绍好一点的扫地机器人吧/你给我介绍好一点的扫地机器人就好了/给我说一下好一点的扫地机器人吧/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给我介绍最贵的扫地机/给我介绍一下配置最高的DG36/给我介绍一下你们最好的扫地机器人/介绍最好的扫地机/</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="19" sId="1">
+    <oc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有吗</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/还有别的选择吗/还有没有别的选择/还有其他选择吗/还有什么选择呀/还有什么别的选择/还有选择吗/其他有什么好选的/其他可以选什么/还有其他可以选的吗/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在给我推荐一个/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
+还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
+还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
+还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
+还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
+还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
+</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有吗</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/还有别的选择吗/还有没有别的选择/还有其他选择吗/还有什么选择呀/还有什么别的选择/还有选择吗/其他有什么好选的/其他可以选什么/还有其他可以选的吗/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在给我推荐一个/有其他推荐吗/有其他型号吗/有其他的类型吗/有其他款式吗/有其他型号推荐吗/有其他款式推荐吗/有其他类型推荐吗/还有别的型号吗/还有别的推荐吗/还有别的型号选择吗/还有别的类型选择吗/还有别的型号推荐吗/在介绍一个/解释一下其他的/介绍一下其他款式/介绍一下其他类型/介绍其他的型号的/有没有其他款/有没有性能好一点的/有没有配置高一点的/换一款/其它款有没有/其他类型有没有/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
+还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
+还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
+还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
+还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
+还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
+</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{5629F9B3-54EF-42EA-B0A9-15544B8E5C42}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="20" sId="1" odxf="1" dxf="1">
+    <oc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有吗</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/还有别的选择吗/还有没有别的选择/还有其他选择吗/还有什么选择呀/还有什么别的选择/还有选择吗/其他有什么好选的/其他可以选什么/还有其他可以选的吗/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在给我推荐一个/有其他推荐吗/有其他型号吗/有其他的类型吗/有其他款式吗/有其他型号推荐吗/有其他款式推荐吗/有其他类型推荐吗/还有别的型号吗/还有别的推荐吗/还有别的型号选择吗/还有别的类型选择吗/还有别的型号推荐吗/在介绍一个/解释一下其他的/介绍一下其他款式/介绍一下其他类型/介绍其他的型号的/有没有其他款/有没有性能好一点的/有没有配置高一点的/换一款/其它款有没有/其他类型有没有/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
+还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
+还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
+还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
+还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
+还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
+</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有吗</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/还有别的选择吗/还有没有别的选择/还有其他选择吗/还有什么选择呀/还有什么别的选择/还有选择吗/其他有什么好选的/其他可以选什么/还有其他可以选的吗/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在给我推荐一个/有其他推荐吗/有其他型号吗/有其他的类型吗/有其他款式吗/有其他型号推荐吗/有其他款式推荐吗/有其他类型推荐吗/还有别的型号吗/还有别的推荐吗/还有别的型号选择吗/还有别的类型选择吗/还有别的型号推荐吗/在介绍一个/解释一下其他的/介绍一下其他款式/介绍一下其他类型/介绍其他的型号的/有没有其他款/有没有性能好一点的/有没有配置高一点的/换一款/其它款有没有/其他类型有没有/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
+还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
+还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
+还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
+还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
+还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
+</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font/>
+    </odxf>
+    <ndxf>
+      <font/>
+    </ndxf>
+  </rcc>
+  <rcv guid="{613290AE-B815-482C-9227-4F835E90B755}" action="delete"/>
+  <rcv guid="{613290AE-B815-482C-9227-4F835E90B755}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{613290AE-B815-482C-9227-4F835E90B755}" action="delete"/>
+  <rcv guid="{613290AE-B815-482C-9227-4F835E90B755}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="21" sId="1">
+    <oc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有吗</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/还有别的选择吗/还有没有别的选择/还有其他选择吗/还有什么选择呀/还有什么别的选择/还有选择吗/其他有什么好选的/其他可以选什么/还有其他可以选的吗/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在给我推荐一个/有其他推荐吗/有其他型号吗/有其他的类型吗/有其他款式吗/有其他型号推荐吗/有其他款式推荐吗/有其他类型推荐吗/还有别的型号吗/还有别的推荐吗/还有别的型号选择吗/还有别的类型选择吗/还有别的型号推荐吗/在介绍一个/解释一下其他的/介绍一下其他款式/介绍一下其他类型/介绍其他的型号的/有没有其他款/有没有性能好一点的/有没有配置高一点的/换一款/其它款有没有/其他类型有没有/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
+还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
+还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
+还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
+还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
+还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
+</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有吗</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/还有别的选择吗/还有没有别的选择/还有其他选择吗/还有什么选择呀/还有什么别的选择/还有选择吗/其他有什么好选的/其他可以选什么/还有其他可以选的吗/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在给我推荐一个/有其他推荐吗/有其他型号吗/有其他的类型吗/有其他款式吗/有其他型号推荐吗/有其他款式推荐吗/有其他类型推荐吗/还有别的型号吗/还有别的推荐吗/还有别的型号选择吗/还有别的类型选择吗/还有别的型号推荐吗/在介绍一个/解释一下其他的/介绍一下其他款式/介绍一下其他类型/介绍其他的型号的/有没有其他款/有没有性能好一点的/有没有配置高一点的/换一款/其它款有没有/其他类型有没有/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
+还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
+还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
+还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
+还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
+还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
+</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="22" sId="1">
+    <oc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有吗</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/还有别的选择吗/还有没有别的选择/还有其他选择吗/还有什么选择呀/还有什么别的选择/还有选择吗/其他有什么好选的/其他可以选什么/还有其他可以选的吗/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在给我推荐一个/有其他推荐吗/有其他型号吗/有其他的类型吗/有其他款式吗/有其他型号推荐吗/有其他款式推荐吗/有其他类型推荐吗/还有别的型号吗/还有别的推荐吗/还有别的型号选择吗/还有别的类型选择吗/还有别的型号推荐吗/在介绍一个/解释一下其他的/介绍一下其他款式/介绍一下其他类型/介绍其他的型号的/有没有其他款/有没有性能好一点的/有没有配置高一点的/换一款/其它款有没有/其他类型有没有/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
+还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
+还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
+还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
+还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
+还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
+</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有吗</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/还有别的选择吗/还有没有别的选择/还有其他选择吗/还有什么选择呀/还有什么别的选择/还有选择吗/其他有什么好选的/其他可以选什么/还有其他可以选的吗/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在给我推荐一个/有其他推荐吗/有其他型号吗/有其他的类型吗/有其他款式吗/有其他型号推荐吗/有其他款式推荐吗/有其他类型推荐吗/还有别的型号吗/还有别的推荐吗/还有别的型号选择吗/还有别的类型选择吗/还有别的型号推荐吗/在介绍一个/解释一下其他的/介绍一下其他款式/介绍一下其他类型/介绍其他的型号的/有没有其他款/有没有性能好一点的/有没有配置高一点的/换一款/其它款有没有/其他类型有没有/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/换一款/换一个/下一个/再介绍一个其他的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
+还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
+还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
+还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
+还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
+还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
+</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{613290AE-B815-482C-9227-4F835E90B755}" action="delete"/>
+  <rcv guid="{613290AE-B815-482C-9227-4F835E90B755}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1">
+    <oc r="A4" t="inlineStr">
+      <is>
+        <t>便宜一点的</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>便宜一点的</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2" sId="1" odxf="1" dxf="1">
+    <oc r="F4" t="inlineStr">
+      <is>
+        <r>
+          <t>便宜的/我想买便宜点的/便宜点的/价格低点的/便宜的就行/我当然是买便宜的了/买便宜的啦/便宜的便宜的/价格便宜的/价格低的/我要便宜一点的有没有/我需要便宜点的/你能给我介绍便宜点的吗/我想买便宜点的有没有/我想买便宜点的/我想要价格低点的/我想要便宜的啊/当然是便宜的了/当然买价格低点了/当然是价格低的了/当然需要价格便宜的了/当然是买便宜一点的/买便宜点的/我就便宜一点的就行了/买便宜一点的就可以了/就买便宜一点的吧/你就给我介绍便宜一点的吧/你给我介绍便宜一点的就好了/给我说一下便宜一点的吧/不买贵的/不要贵的/贵的不要/不想要贵的/贵的不要/不要贵的/我不买贵的/我不要贵的/贵的我不要哈/我不想买贵的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/性价比高的/我想买一款便宜的/我想买一款性价比高的/你能给我推荐一款性价比高的吗/你可以推荐一款性价比高的给我吗/给我推荐一款价格低的吧/能不能给我推荐一款价格低点的啊</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F4" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>便宜一点的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>便宜的/我想买便宜点的/便宜点的/价格低点的/便宜的就行/我当然是买便宜的了/买便宜的啦/便宜的便宜的/价格便宜的/价格低的/我要便宜一点的有没有/我需要便宜点的/你能给我介绍便宜点的吗/我想买便宜点的有没有/我想买便宜点的/我想要价格低点的/我想要便宜的啊/当然是便宜的了/当然买价格低点了/当然是价格低的了/当然需要价格便宜的了/当然是买便宜一点的/买便宜点的/我就便宜一点的就行了/买便宜一点的就可以了/就买便宜一点的吧/你就给我介绍便宜一点的吧/你给我介绍便宜一点的就好了/给我说一下便宜一点的吧/不买贵的/不要贵的/贵的不要/不想要贵的/贵的不要/不要贵的/我不买贵的/我不要贵的/贵的我不要哈/我不想买贵的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/性价比高的/我想买一款便宜的/我想买一款性价比高的/你能给我推荐一款性价比高的吗/你可以推荐一款性价比高的给我吗/给我推荐一款价格低的吧/能不能给我推荐一款价格低点的啊</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="F7">
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="23" sId="1" odxf="1" dxf="1">
+    <oc r="F7" t="inlineStr">
+      <is>
+        <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
+还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
+还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
+还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
+还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
+还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
+</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F7" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有吗/还有别的选择吗/还有没有别的选择/还有其他选择吗/还有什么选择呀/还有什么别的选择/还有选择吗/其他有什么好选的/其他可以选什么/还有其他可以选的吗/在给我推荐一个/有其他推荐吗/有其他型号吗/有其他的类型吗/有其他款式吗/有其他型号推荐吗/有其他款式推荐吗/有其他类型推荐吗/还有别的型号吗/还有别的推荐吗/还有别的型号选择吗/还有别的类型选择吗/还有别的型号推荐吗/在介绍一个/解释一下其他的/介绍一下其他款式/介绍一下其他类型/介绍其他的型号的/有没有其他款/有没有性能好一点的/有没有配置高一点的/换一款/其它款有没有/其他类型有没有/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/换一款/换一个/下一个/再介绍一个其他的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
+还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
+还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
+还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
+还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
+还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
+</t>
+        </r>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{613290AE-B815-482C-9227-4F835E90B755}" action="delete"/>
+  <rcv guid="{613290AE-B815-482C-9227-4F835E90B755}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="24" sId="1" odxf="1" dxf="1">
+    <oc r="F6" t="inlineStr">
+      <is>
+        <t>我来买扫地机器人/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买扫地机器人/扫地机器人/扫地的/清洁地面的/能清理地面灰尘的/我来买扫地机器人/我想要扫地机器人/我要扫地机器人/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买扫地机器人/买扫地机器人/我要买扫地机器人/推荐个扫地机器人/推荐扫地机器人/扫地机器人/给我推荐个扫地机器人/介绍个扫地机器人/介绍下扫地机器人/介绍个扫地的/我想买一个扫地机器人/你们这里可以买扫地机器人吗？/你能给我推荐一下扫地机器人吗？/扫地的机器人有没有啊？/有没有扫地的机器人卖？/可以在这里买到扫地机器人吗？/能不能介绍一个扫地机器人给我？/可以给我介绍一个扫地机器人吗？/能不能给我推荐一个扫地机器人？/可以推荐一个扫地机器人给我？/扫地机/推荐个扫地机/扫地机推荐一下/有没有扫地机推荐的/我需要扫地机/我来买扫地的机器/我来买扫地的机器人/我想买扫地的机器/扫地的机器/我来买扫地的机器/我想要扫地的机器/我要扫地的机器/我要买扫地机/推荐个扫地的机器/我要买扫地的机器/买扫地的机器/我要买扫地的机器/推荐个扫地的机器/推荐扫地的机器/扫地的机器/给我推荐个扫地的机器/介绍个扫地的机器/介绍下扫地的机器/我想买一个扫地的机器/你们这里可以买扫地的机器吗？/你能给我推荐一下扫地的机器吗？/扫地的机器有没有啊？/有没有扫地的机器卖？/可以在这里买到扫地的机器吗？/能不能介绍一个扫地的机器给我？/可以给我介绍一个扫地的机器吗？/能不能给我推荐一个扫地的机器？/可以推荐一个扫地的机器给我？/我来买能打扫地面的机器/我来买能打扫地面的机器人/我想买能打扫地面的机器/能打扫地面的机器/我来买能打扫地面的机器/我想要能打扫地面的机器/我要能打扫地面的机器/我要买扫地机/推荐个能打扫地面的机器/我要买能打扫地面的机器/买能打扫地面的机器/我要买能打扫地面的机器/推荐个能打扫地面的机器/推荐能打扫地面的机器/能打扫地面的机器/给我推荐个能打扫地面的机器/介绍个能打扫地面的机器/介绍下能打扫地面的机器/我想买一个能打扫地面的机器/你们这里可以买能打扫地面的机器吗？/你能给我推荐一下能打扫地面的机器吗？/能打扫地面的机器有没有啊？/有没有能打扫地面的机器卖？/可以在这里买到能打扫地面的机器吗？/能不能介绍一个能打扫地面的机器给我？/可以给我介绍一个能打扫地面的机器吗？/能不能给我推荐一个能打扫地面的机器？/可以推荐一个能打扫地面的机器给我？/我来买打扫卫生的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买打扫卫生的机器/打扫卫生的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买打扫卫生的机器/我想要打扫卫生的机器/我要打扫卫生的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买打扫卫生的机器/买打扫卫生的机器/我要买打扫卫生的机器/推荐个打扫卫生的机器/推荐打扫卫生的机器/打扫卫生的机器/给我推荐个打扫卫生的机器/介绍个打扫卫生的机器/介绍下打扫卫生的机器/介绍个扫地的/我想买一个打扫卫生的机器/你们这里可以买打扫卫生的机器吗？/你能给我推荐一下打扫卫生的机器吗？/扫地的机器人有没有啊？/我来买拖地的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买拖地的机器/拖地的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买拖地的机器/我想要拖地的机器/我要拖地的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买拖地的机器/买拖地的机器/我要买拖地的机器/推荐个拖地的机器/推荐拖地的机器/拖地的机器/给我推荐个拖地的机器/介绍个拖地的机器/介绍下拖地的机器/介绍个扫地的/我想买一个拖地的机器/你们这里可以买拖地的机器吗？/你能给我推荐一下拖地的机器吗？/扫地的机器人有没有啊？/我来买清洁地面的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买清洁地面的机器/清洁地面的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买清洁地面的机器/我想要清洁地面的机器/我要清洁地面的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买清洁地面的机器/买清洁地面的机器/我要买清洁地面的机器/推荐个清洁地面的机器/推荐清洁地面的机器/清洁地面的机器/给我推荐个清洁地面的机器/介绍个清洁地面的机器/介绍下清洁地面的机器/介绍个扫地的/我想买一个清洁地面的机器/你们这里可以买清洁地面的机器吗？/你能给我推荐一下清洁地面的机器吗？/扫地的机器人有没有啊？/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F6" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我来买扫地机器人/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买扫地机器人/扫地机器人/扫地的/清洁地面的/能清理地面灰尘的/我来买扫地机器人/我想要扫地机器人/我要扫地机器人/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买扫地机器人/买扫地机器人/我要买扫地机器人/推荐个扫地机器人/推荐扫地机器人/扫地机器人/给我推荐个扫地机器人/介绍个扫地机器人/介绍下扫地机器人/介绍个扫地的/我想买一个扫地机器人/你们这里可以买扫地机器人吗？/你能给我推荐一下扫地机器人吗？/扫地的机器人有没有啊？/有没有扫地的机器人卖？/可以在这里买到扫地机器人吗？/能不能介绍一个扫地机器人给我？/可以给我介绍一个扫地机器人吗？/能不能给我推荐一个扫地机器人？/可以推荐一个扫地机器人给我？/扫地机/推荐个扫地机/扫地机推荐一下/有没有扫地机推荐的/我需要扫地机/我来买扫地的机器/我来买扫地的机器人/我想买扫地的机器/扫地的机器/我来买扫地的机器/我想要扫地的机器/我要扫地的机器/我要买扫地机/推荐个扫地的机器/我要买扫地的机器/买扫地的机器/我要买扫地的机器/推荐个扫地的机器/推荐扫地的机器/扫地的机器/给我推荐个扫地的机器/介绍个扫地的机器/介绍下扫地的机器/我想买一个扫地的机器/你们这里可以买扫地的机器吗？/你能给我推荐一下扫地的机器吗？/扫地的机器有没有啊？/有没有扫地的机器卖？/可以在这里买到扫地的机器吗？/能不能介绍一个扫地的机器给我？/可以给我介绍一个扫地的机器吗？/能不能给我推荐一个扫地的机器？/可以推荐一个扫地的机器给我？/我来买能打扫地面的机器/我来买能打扫地面的机器人/我想买能打扫地面的机器/能打扫地面的机器/我来买能打扫地面的机器/我想要能打扫地面的机器/我要能打扫地面的机器/我要买扫地机/推荐个能打扫地面的机器/我要买能打扫地面的机器/买能打扫地面的机器/我要买能打扫地面的机器/推荐个能打扫地面的机器/推荐能打扫地面的机器/能打扫地面的机器/给我推荐个能打扫地面的机器/介绍个能打扫地面的机器/介绍下能打扫地面的机器/我想买一个能打扫地面的机器/你们这里可以买能打扫地面的机器吗？/你能给我推荐一下能打扫地面的机器吗？/能打扫地面的机器有没有啊？/有没有能打扫地面的机器卖？/可以在这里买到能打扫地面的机器吗？/能不能介绍一个能打扫地面的机器给我？/可以给我介绍一个能打扫地面的机器吗？/能不能给我推荐一个能打扫地面的机器？/可以推荐一个能打扫地面的机器给我？/我来买打扫卫生的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买打扫卫生的机器/打扫卫生的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买打扫卫生的机器/我想要打扫卫生的机器/我要打扫卫生的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买打扫卫生的机器/买打扫卫生的机器/我要买打扫卫生的机器/推荐个打扫卫生的机器/推荐打扫卫生的机器/打扫卫生的机器/给我推荐个打扫卫生的机器/介绍个打扫卫生的机器/介绍下打扫卫生的机器/介绍个扫地的/我想买一个打扫卫生的机器/你们这里可以买打扫卫生的机器吗？/你能给我推荐一下打扫卫生的机器吗？/扫地的机器人有没有啊？/我来买拖地的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买拖地的机器/拖地的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买拖地的机器/我想要拖地的机器/我要拖地的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买拖地的机器/买拖地的机器/我要买拖地的机器/推荐个拖地的机器/推荐拖地的机器/拖地的机器/给我推荐个拖地的机器/介绍个拖地的机器/介绍下拖地的机器/介绍个扫地的/我想买一个拖地的机器/你们这里可以买拖地的机器吗？/你能给我推荐一下拖地的机器吗？/扫地的机器人有没有啊？/我来买清洁地面的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买清洁地面的机器/清洁地面的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买清洁地面的机器/我想要清洁地面的机器/我要清洁地面的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买清洁地面的机器/买清洁地面的机器/我要买清洁地面的机器/推荐个清洁地面的机器/推荐清洁地面的机器/清洁地面的机器/给我推荐个清洁地面的机器/介绍个清洁地面的机器/介绍下清洁地面的机器/介绍个扫地的/我想买一个清洁地面的机器/你们这里可以买清洁地面的机器吗？/你能给我推荐一下清洁地面的机器吗？/扫地的机器人有没有啊？/</t>
+        </r>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="F10">
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="25" sId="1">
+    <oc r="A10" t="inlineStr">
+      <is>
+        <t>便宜一点的扫地机</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="A10" t="inlineStr">
+      <is>
+        <t>便宜一点的扫地机</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="26" sId="1" odxf="1" dxf="1">
+    <oc r="F10" t="inlineStr">
+      <is>
+        <r>
+          <t>/我想买便宜点的扫地机/我要买便宜点的扫地机/我要买价格低点的扫地机/我要买便宜的扫地机就行/我当然是买便宜的扫地机了/我要买便宜的扫地机啦/我要买便宜的便宜的扫地机/我要买价格便宜的扫地机/我要买价格低的扫地机/我要便宜一点的扫地机有没有/我需要便宜点的扫地机/你能给我介绍便宜点的扫地机吗/我想买便宜点的扫地机有没有/我想买便宜点的扫地机/我想要价格低点的扫地机/我想要便宜的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格便宜的扫地机了/我要买便宜一点的扫地机/我要买便宜点的扫地机/我就便宜一点的扫地机就行了/买便宜一点的扫地机就可以了/就买便宜一点的扫地机吧/你就给我介绍便宜一点的扫地机吧/你给我介绍便宜一点的扫地机就好了/给我说一下便宜一点的扫地机吧/我不买贵的扫地机/不要贵的扫地机/我贵的扫地机不要/我不想要贵的扫地机/我贵的扫地机不要/我不要贵的扫地机/我不买贵的扫地机/我不要贵的扫地机/贵的扫地机我不要哈/我不想买贵的扫地机</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/我想买一款便宜的扫地机/我想买一款性价比高的扫地机/你能给我推荐一款性价比高的扫地机吗/你可以推荐一款性价比高的扫地机给我吗/给我推荐一款价格低的扫地机吧/能不能给我推荐一款价格低点的扫地机啊
+/我想买便宜点的扫地机器人/我要买便宜点的扫地机器人/我要买价格低点的扫地机器人/我要买便宜的扫地机器人就行/我当然是买便宜的扫地机器人了/我要买便宜的扫地机器人啦/我要买便宜的便宜的扫地机器人/我要买价格便宜的扫地机器人/我要买价格低的扫地机器人/我要便宜一点的扫地机器人有没有/我需要便宜点的扫地机器人/你能给我介绍便宜点的扫地机器人吗/我想买便宜点的扫地机器人有没有/我想买便宜点的扫地机器人/我想要价格低点的扫地机器人/我想要便宜的扫地机器人啊/我要买扫地机器人/买价格低点了扫地机器人/我要买价格低的扫地机器人了/我要买需要价格便宜的扫地机器人了/我要买便宜一点的扫地机器人/我要买便宜点的扫地机器人/我就便宜一点的扫地机器人就行了/买便宜一点的扫地机器人就可以了/就买便宜一点的扫地机器人吧/你就给我介绍便宜一点的扫地机器人吧/你给我介绍便宜一点的扫地机器人就好了/给我说一下便宜一点的扫地机器人吧/我不买贵的扫地机器人/不要贵的扫地机器人/我贵的扫地机器人不要/我不想要贵的扫地机器人/我贵的扫地机器人不要/我不要贵的扫地机器人/我不买贵的扫地机器人/我不要贵的扫地机器人/贵的扫地机器人我不要哈/我不想买贵的扫地机器人/我想买一款便宜的扫地机器人/我想买一款性价比高的扫地机器人/你能给我推荐一款性价比高的扫地机器人吗/你可以推荐一款性价比高的扫地机器人给我吗/给我推荐一款价格低的扫地机器人吧/能不能给我推荐一款价格低点的扫地机器人啊//我想买实惠的扫地机/我要买实惠的扫地机/我要买价格低点的扫地机/我要买实惠的扫地机就行/我当然是买实惠的扫地机了/我要买实惠的扫地机啦/我要买实惠的实惠的扫地机/我要买价格实惠的扫地机/我要买价格低的扫地机/我要实惠一点的扫地机有没有/我需要实惠的扫地机/你能给我介绍实惠的扫地机吗/我想买实惠的扫地机有没有/我想买实惠的扫地机/我想要价格低点的扫地机/我想要实惠的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格实惠的扫地机了/我要买实惠一点的扫地机/我要买实惠的扫地机/我就实惠一点的扫地机就行了/买实惠一点的扫地机就可以了/就买实惠一点的扫地机吧/你就给我介绍实惠一点的扫地机吧/你给我介绍实惠一点的扫地机就好了/给我说一下实惠一点的扫地机吧/我想买实惠的扫地机器人/我要买实惠的扫地机器人/我要买价格低点的扫地机器人/我要买实惠的扫地机器人就行/我当然是买实惠的扫地机器人了/我要买实惠的扫地机器人啦/我要买实惠的实惠的扫地机器人/我要买价格实惠的扫地机器人/我要买价格低的扫地机器人/我要实惠一点的扫地机器人有没有/我需要实惠的扫地机器人/你能给我介绍实惠的扫地机器人吗/我想买实惠的扫地机器人有没有/我想买实惠的扫地机器人/我想要价格低点的扫地机器人/我想要实惠的扫地机器人啊/我要买扫地机器人/买价格低点了扫地机器人/我要买价格低的扫地机器人了/我要买需要价格实惠的扫地机器人了/我要买实惠一点的扫地机器人/我要买实惠的扫地机器人/我就实惠一点的扫地机器人就行了/买实惠一点的扫地机器人就可以了/就买实惠一点的扫地机器人吧/你就给我介绍实惠一点的扫地机器人吧/你给我介绍实惠一点的扫地机器人就好了/给我说一下实惠一点的扫地机器人吧/我不买贵的扫地机器人/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>你们最便宜的扫地机介绍一下吧/最便宜的地宝/最便宜的/给我介绍一下最实惠的扫地机/最实惠的给我介绍一下/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F10" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>便宜一点的扫地机</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/我想买便宜点的扫地机/我要买便宜点的扫地机/我要买价格低点的扫地机/我要买便宜的扫地机就行/我当然是买便宜的扫地机了/我要买便宜的扫地机啦/我要买便宜的便宜的扫地机/我要买价格便宜的扫地机/我要买价格低的扫地机/我要便宜一点的扫地机有没有/我需要便宜点的扫地机/你能给我介绍便宜点的扫地机吗/我想买便宜点的扫地机有没有/我想买便宜点的扫地机/我想要价格低点的扫地机/我想要便宜的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格便宜的扫地机了/我要买便宜一点的扫地机/我要买便宜点的扫地机/我就便宜一点的扫地机就行了/买便宜一点的扫地机就可以了/就买便宜一点的扫地机吧/你就给我介绍便宜一点的扫地机吧/你给我介绍便宜一点的扫地机就好了/给我说一下便宜一点的扫地机吧/我不买贵的扫地机/不要贵的扫地机/我贵的扫地机不要/我不想要贵的扫地机/我贵的扫地机不要/我不要贵的扫地机/我不买贵的扫地机/我不要贵的扫地机/贵的扫地机我不要哈/我不想买贵的扫地机</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/我想买一款便宜的扫地机/我想买一款性价比高的扫地机/你能给我推荐一款性价比高的扫地机吗/你可以推荐一款性价比高的扫地机给我吗/给我推荐一款价格低的扫地机吧/能不能给我推荐一款价格低点的扫地机啊
+/我想买便宜点的扫地机器人/我要买便宜点的扫地机器人/我要买价格低点的扫地机器人/我要买便宜的扫地机器人就行/我当然是买便宜的扫地机器人了/我要买便宜的扫地机器人啦/我要买便宜的便宜的扫地机器人/我要买价格便宜的扫地机器人/我要买价格低的扫地机器人/我要便宜一点的扫地机器人有没有/我需要便宜点的扫地机器人/你能给我介绍便宜点的扫地机器人吗/我想买便宜点的扫地机器人有没有/我想买便宜点的扫地机器人/我想要价格低点的扫地机器人/我想要便宜的扫地机器人啊/我要买扫地机器人/买价格低点了扫地机器人/我要买价格低的扫地机器人了/我要买需要价格便宜的扫地机器人了/我要买便宜一点的扫地机器人/我要买便宜点的扫地机器人/我就便宜一点的扫地机器人就行了/买便宜一点的扫地机器人就可以了/就买便宜一点的扫地机器人吧/你就给我介绍便宜一点的扫地机器人吧/你给我介绍便宜一点的扫地机器人就好了/给我说一下便宜一点的扫地机器人吧/我不买贵的扫地机器人/不要贵的扫地机器人/我贵的扫地机器人不要/我不想要贵的扫地机器人/我贵的扫地机器人不要/我不要贵的扫地机器人/我不买贵的扫地机器人/我不要贵的扫地机器人/贵的扫地机器人我不要哈/我不想买贵的扫地机器人/我想买一款便宜的扫地机器人/我想买一款性价比高的扫地机器人/你能给我推荐一款性价比高的扫地机器人吗/你可以推荐一款性价比高的扫地机器人给我吗/给我推荐一款价格低的扫地机器人吧/能不能给我推荐一款价格低点的扫地机器人啊//我想买实惠的扫地机/我要买实惠的扫地机/我要买价格低点的扫地机/我要买实惠的扫地机就行/我当然是买实惠的扫地机了/我要买实惠的扫地机啦/我要买实惠的实惠的扫地机/我要买价格实惠的扫地机/我要买价格低的扫地机/我要实惠一点的扫地机有没有/我需要实惠的扫地机/你能给我介绍实惠的扫地机吗/我想买实惠的扫地机有没有/我想买实惠的扫地机/我想要价格低点的扫地机/我想要实惠的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格实惠的扫地机了/我要买实惠一点的扫地机/我要买实惠的扫地机/我就实惠一点的扫地机就行了/买实惠一点的扫地机就可以了/就买实惠一点的扫地机吧/你就给我介绍实惠一点的扫地机吧/你给我介绍实惠一点的扫地机就好了/给我说一下实惠一点的扫地机吧/我想买实惠的扫地机器人/我要买实惠的扫地机器人/我要买价格低点的扫地机器人/我要买实惠的扫地机器人就行/我当然是买实惠的扫地机器人了/我要买实惠的扫地机器人啦/我要买实惠的实惠的扫地机器人/我要买价格实惠的扫地机器人/我要买价格低的扫地机器人/我要实惠一点的扫地机器人有没有/我需要实惠的扫地机器人/你能给我介绍实惠的扫地机器人吗/我想买实惠的扫地机器人有没有/我想买实惠的扫地机器人/我想要价格低点的扫地机器人/我想要实惠的扫地机器人啊/我要买扫地机器人/买价格低点了扫地机器人/我要买价格低的扫地机器人了/我要买需要价格实惠的扫地机器人了/我要买实惠一点的扫地机器人/我要买实惠的扫地机器人/我就实惠一点的扫地机器人就行了/买实惠一点的扫地机器人就可以了/就买实惠一点的扫地机器人吧/你就给我介绍实惠一点的扫地机器人吧/你给我介绍实惠一点的扫地机器人就好了/给我说一下实惠一点的扫地机器人吧/我不买贵的扫地机器人/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>你们最便宜的扫地机介绍一下吧/最便宜的地宝/最便宜的/给我介绍一下最实惠的扫地机/最实惠的给我介绍一下/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="27" sId="1">
+    <oc r="F12" t="inlineStr">
+      <is>
+        <r>
+          <t>性能高点的扫地机/我要买性能好的扫地机/我要买配置高的我要买扫地机/我要买性能高的扫地机/我</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>想买性能高点的扫地机/我要买性能高点的扫地机/我要买性能高的扫地机就行/我当然是买性能高的扫地机了/我要买买性能高的扫地机啦/我要买性能高的扫地机/我要性能高的扫地机/我要性能高一点的扫地机有没有/我需要性能高点的扫地机/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机了/我要买当然买性能好的扫地机了/我要买当然是性能高的扫地机了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机就可以了/我就买性能高一点的扫地机吧/你就给我介绍性能高一点的扫地机吧/你给我介绍性能高一点的扫地机就好了/给我说一下性能高一点的扫地机吧/我不买差的扫地机/我不要差的扫地机/我差的扫地机不要/我不想要差的扫地机/我差的扫地机不要/我不要差的扫地机/我不买差的扫地机/我不要差的扫地机/差的扫地机我不要哈/我不想买差的扫地机/我要买好的扫地机/我要买能力强的扫地机/我要买高性能的扫地机/当然是买性能高的扫地机了/给我推荐一款性能好的扫地机/我要性能好的扫地机/我要配置高的扫地机/我想买一款配置高的扫地机/能给我推荐一款配置高的扫地机吗/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机吗？/我想买性能高的扫地机有吗/我想买配置高的扫地机/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机给我吗/给我推荐一款性能高的扫地机吗/有配置高的扫地机给我推荐一下吧/给我推荐一款配置高的扫地机吧/我要买性能好的扫地机器人/我要买配置高的我要买扫地机器人/我要买性能高的扫地机器人/我想买性能高点的扫地机器人/我要买性能高点的扫地机器人/我要买性能高的扫地机器人就行/我当然是买性能高的扫地机器人了/我要买买性能高的扫地机器人啦/我要买性能高的扫地机器人/我要性能高的扫地机器人/我要性能高一点的扫地机器人有没有/我需要性能高点的扫地机器人/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机器人了/我要买当然买性能好的扫地机器人了/我要买当然是性能高的扫地机器人了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机器人就可以了/我就买性能高一点的扫地机器人吧/你就给我介绍性能高一点的扫地机器人吧/你给我介绍性能高一点的扫地机器人就好了/给我说一下性能高一点的扫地机器人吧/我不买差的扫地机器人/我不要差的扫地机器人/我差的扫地机器人不要/我不想要差的扫地机器人/我差的扫地机器人不要/我不要差的扫地机器人/我不买差的扫地机器人/我不要差的扫地机器人/差的扫地机器人我不要哈/我不想买差的扫地机器人/我要买好的扫地机器人/我要买能力强的扫地机器人/我要买高性能的扫地机器人/当然是买性能高的扫地机器人了/给我推荐一款性能好的扫地机器人/我要性能好的扫地机器人/我要配置高的扫地机器人/我想买一款配置高的扫地机器人/能给我推荐一款配置高的扫地机器人吗/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人吗？/我想买性能高的扫地机器人有吗/我想买配置高的扫地机器人/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人给我吗/给我推荐一款性能高的扫地机器人吗/有配置高的扫地机器人给我推荐一下吧/给我推荐一款配置高的扫地机器人吧//我想买好的扫地机/我要买好的扫地机/我要买好的扫地机就行/我当然是买好的扫地机了/我要买好的扫地机啦/我要买好的好的扫地机/我要买好的扫地机/我要好一点的扫地机有没有/我需要好的扫地机/你能给我介绍好的扫地机吗/我想买好的扫地机有没有/我想买好的扫地机 /我想要好的扫地机啊/我要买需要好的扫地机了/我要买好一点的扫地机/我要买好的扫地机/我就好一点的扫地机就行了/买好一点的扫地机就可以了/就买好一点的扫地机吧/你就给我介绍好一点的扫地机吧/你给我介绍好一点的扫地机就好了/给我说一下好一点的扫地机吧/我想买好的扫地机器人/我要买好的扫地机器人/我要买好的扫地机器人就行/我当然是买好的扫地机器人了/我要买好的扫地机器人啦/我要买好的好的扫地机器人/我要买好的扫地机器人 /我要好一点的扫地机器人有没有/我需要好的扫地机器人/你能给我介绍好的扫地机器人吗/我想买好的扫地机器人有没有/我想买好的扫地机器人/我想好点的扫地机器人/我想要好的扫地机器人啊/我要买扫地机器人/我要买好的扫地机器人了/我要买需要好的扫地机器人了/我要买好一点的扫地机器人/我要买好的扫地机器人/我就好一点的扫地机器人就行了/买好一点的扫地机器人就可以了/就买好一点的扫地机器人吧/你就给我介绍好一点的扫地机器人吧/你给我介绍好一点的扫地机器人就好了/给我说一下好一点的扫地机器人吧/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给我介绍最贵的扫地机/给我介绍一下配置最高的DG36/给我介绍一下你们最好的扫地机器人/介绍最好的扫地机/</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F12" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>性能高点的扫地机/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我要买性能好的扫地机/我要买配置高的我要买扫地机/我要买性能高的扫地机/我</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>想买性能高点的扫地机/我要买性能高点的扫地机/我要买性能高的扫地机就行/我当然是买性能高的扫地机了/我要买买性能高的扫地机啦/我要买性能高的扫地机/我要性能高的扫地机/我要性能高一点的扫地机有没有/我需要性能高点的扫地机/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机了/我要买当然买性能好的扫地机了/我要买当然是性能高的扫地机了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机就可以了/我就买性能高一点的扫地机吧/你就给我介绍性能高一点的扫地机吧/你给我介绍性能高一点的扫地机就好了/给我说一下性能高一点的扫地机吧/我不买差的扫地机/我不要差的扫地机/我差的扫地机不要/我不想要差的扫地机/我差的扫地机不要/我不要差的扫地机/我不买差的扫地机/我不要差的扫地机/差的扫地机我不要哈/我不想买差的扫地机/我要买好的扫地机/我要买能力强的扫地机/我要买高性能的扫地机/当然是买性能高的扫地机了/给我推荐一款性能好的扫地机/我要性能好的扫地机/我要配置高的扫地机/我想买一款配置高的扫地机/能给我推荐一款配置高的扫地机吗/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机吗？/我想买性能高的扫地机有吗/我想买配置高的扫地机/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机给我吗/给我推荐一款性能高的扫地机吗/有配置高的扫地机给我推荐一下吧/给我推荐一款配置高的扫地机吧/我要买性能好的扫地机器人/我要买配置高的我要买扫地机器人/我要买性能高的扫地机器人/我想买性能高点的扫地机器人/我要买性能高点的扫地机器人/我要买性能高的扫地机器人就行/我当然是买性能高的扫地机器人了/我要买买性能高的扫地机器人啦/我要买性能高的扫地机器人/我要性能高的扫地机器人/我要性能高一点的扫地机器人有没有/我需要性能高点的扫地机器人/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机器人了/我要买当然买性能好的扫地机器人了/我要买当然是性能高的扫地机器人了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机器人就可以了/我就买性能高一点的扫地机器人吧/你就给我介绍性能高一点的扫地机器人吧/你给我介绍性能高一点的扫地机器人就好了/给我说一下性能高一点的扫地机器人吧/我不买差的扫地机器人/我不要差的扫地机器人/我差的扫地机器人不要/我不想要差的扫地机器人/我差的扫地机器人不要/我不要差的扫地机器人/我不买差的扫地机器人/我不要差的扫地机器人/差的扫地机器人我不要哈/我不想买差的扫地机器人/我要买好的扫地机器人/我要买能力强的扫地机器人/我要买高性能的扫地机器人/当然是买性能高的扫地机器人了/给我推荐一款性能好的扫地机器人/我要性能好的扫地机器人/我要配置高的扫地机器人/我想买一款配置高的扫地机器人/能给我推荐一款配置高的扫地机器人吗/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人吗？/我想买性能高的扫地机器人有吗/我想买配置高的扫地机器人/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人给我吗/给我推荐一款性能高的扫地机器人吗/有配置高的扫地机器人给我推荐一下吧/给我推荐一款配置高的扫地机器人吧//我想买好的扫地机/我要买好的扫地机/我要买好的扫地机就行/我当然是买好的扫地机了/我要买好的扫地机啦/我要买好的好的扫地机/我要买好的扫地机/我要好一点的扫地机有没有/我需要好的扫地机/你能给我介绍好的扫地机吗/我想买好的扫地机有没有/我想买好的扫地机 /我想要好的扫地机啊/我要买需要好的扫地机了/我要买好一点的扫地机/我要买好的扫地机/我就好一点的扫地机就行了/买好一点的扫地机就可以了/就买好一点的扫地机吧/你就给我介绍好一点的扫地机吧/你给我介绍好一点的扫地机就好了/给我说一下好一点的扫地机吧/我想买好的扫地机器人/我要买好的扫地机器人/我要买好的扫地机器人就行/我当然是买好的扫地机器人了/我要买好的扫地机器人啦/我要买好的好的扫地机器人/我要买好的扫地机器人 /我要好一点的扫地机器人有没有/我需要好的扫地机器人/你能给我介绍好的扫地机器人吗/我想买好的扫地机器人有没有/我想买好的扫地机器人/我想好点的扫地机器人/我想要好的扫地机器人啊/我要买扫地机器人/我要买好的扫地机器人了/我要买需要好的扫地机器人了/我要买好一点的扫地机器人/我要买好的扫地机器人/我就好一点的扫地机器人就行了/买好一点的扫地机器人就可以了/就买好一点的扫地机器人吧/你就给我介绍好一点的扫地机器人吧/你给我介绍好一点的扫地机器人就好了/给我说一下好一点的扫地机器人吧/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给我介绍最贵的扫地机/给我介绍一下配置最高的DG36/给我介绍一下你们最好的扫地机器人/介绍最好的扫地机/</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog25.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{613290AE-B815-482C-9227-4F835E90B755}" action="delete"/>
+  <rcv guid="{613290AE-B815-482C-9227-4F835E90B755}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog26.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="28" sId="1">
+    <oc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有吗</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/还有别的选择吗/还有没有别的选择/还有其他选择吗/还有什么选择呀/还有什么别的选择/还有选择吗/其他有什么好选的/其他可以选什么/还有其他可以选的吗/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在给我推荐一个/有其他推荐吗/有其他型号吗/有其他的类型吗/有其他款式吗/有其他型号推荐吗/有其他款式推荐吗/有其他类型推荐吗/还有别的型号吗/还有别的推荐吗/还有别的型号选择吗/还有别的类型选择吗/还有别的型号推荐吗/在介绍一个/解释一下其他的/介绍一下其他款式/介绍一下其他类型/介绍其他的型号的/有没有其他款/有没有性能好一点的/有没有配置高一点的/换一款/其它款有没有/其他类型有没有/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/换一款/换一个/下一个/再介绍一个其他的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
+还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
+还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
+还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
+还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
+还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
+</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有吗</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/还有别的选择吗/还有没有别的选择/还有其他选择吗/还有什么选择呀/还有什么别的选择/还有选择吗/其他有什么好选的/其他可以选什么/还有其他可以选的吗/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在给我推荐一个/有其他推荐吗/有其他型号吗/有其他的类型吗/有其他款式吗/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有其他型号推荐吗/有其他款式推荐吗/有其他类型推荐吗/还有别的型号吗/还有别的推荐吗/还有别的型号选择吗/还有别的类型选择吗/还有别的型号推荐吗/在介绍一个/解释一下其他的/介绍一下其他款式/介绍一下其他类型/介绍其他的型号的/有没有其他款/有没有性能好一点的/有没有配置高一点的/换一款/其它款有没有/其他类型有没有/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/换一款/换一个/下一个/再介绍一个其他的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
+还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
+还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
+还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
+还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
+还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
+</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog27.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="29" sId="1">
+    <oc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有吗</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/还有别的选择吗/还有没有别的选择/还有其他选择吗/还有什么选择呀/还有什么别的选择/还有选择吗/其他有什么好选的/其他可以选什么/还有其他可以选的吗/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在给我推荐一个/有其他推荐吗/有其他型号吗/有其他的类型吗/有其他款式吗/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有其他型号推荐吗/有其他款式推荐吗/有其他类型推荐吗/还有别的型号吗/还有别的推荐吗/还有别的型号选择吗/还有别的类型选择吗/还有别的型号推荐吗/在介绍一个/解释一下其他的/介绍一下其他款式/介绍一下其他类型/介绍其他的型号的/有没有其他款/有没有性能好一点的/有没有配置高一点的/换一款/其它款有没有/其他类型有没有/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/换一款/换一个/下一个/再介绍一个其他的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
+还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
+还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
+还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
+还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
+还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
+</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有吗</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/还有别的选择吗/还有没有别的选择/还有其他选择吗/还有什么选择呀/还有什么别的选择/还有选择吗/其他有什么好选的/其他可以选什么/还有其他可以选的吗/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在给我推荐一个/有其他推荐吗/有其他型号吗/有其他的类型吗/有其他款式吗/别的形状的有吗/有别的形状的吗/还有别的形状的吗/可有其他类型的/有没有其他类型的/其他类型的有没有/有其他型号推荐吗/有其他款式推荐吗/有其他类型推荐吗/还有别的型号吗/还有别的推荐吗/还有别的型号选择吗/还有别的类型选择吗/还有别的型号推荐吗/在介绍一个/解释一下其他的/介绍一下其他款式/介绍一下其他类型/介绍其他的型号的/有没有其他款/有没有性能好一点的/有没有配置高一点的/换一款/其它款有没有/其他类型有没有/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/换一款/换一个/下一个/再介绍一个其他的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
+还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
+还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
+还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
+还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
+还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
+</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="30" sId="1">
+    <oc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有吗</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/还有别的选择吗/还有没有别的选择/还有其他选择吗/还有什么选择呀/还有什么别的选择/还有选择吗/其他有什么好选的/其他可以选什么/还有其他可以选的吗/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在给我推荐一个/有其他推荐吗/有其他型号吗/有其他的类型吗/有其他款式吗/别的形状的有吗/有别的形状的吗/还有别的形状的吗/可有其他类型的/有没有其他类型的/其他类型的有没有/有其他型号推荐吗/有其他款式推荐吗/有其他类型推荐吗/还有别的型号吗/还有别的推荐吗/还有别的型号选择吗/还有别的类型选择吗/还有别的型号推荐吗/在介绍一个/解释一下其他的/介绍一下其他款式/介绍一下其他类型/介绍其他的型号的/有没有其他款/有没有性能好一点的/有没有配置高一点的/换一款/其它款有没有/其他类型有没有/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/换一款/换一个/下一个/再介绍一个其他的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
+还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
+还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
+还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
+还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
+还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
+</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有吗</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/还有别的选择吗/还有没有别的选择/还有其他选择吗/还有什么选择呀/还有什么别的选择/还有选择吗/其他有什么好选的/其他可以选什么/还有其他可以选的吗/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在给我推荐一个/有其他推荐吗/有其他型号吗/有其他的类型吗/有其他款式吗/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/有其他型号推荐吗/有其他款式推荐吗/有其他类型推荐吗/还有别的型号吗/还有别的推荐吗/还有别的型号选择吗/还有别的类型选择吗/还有别的型号推荐吗/在介绍一个/解释一下其他的/介绍一下其他款式/介绍一下其他类型/介绍其他的型号的/有没有其他款/有没有性能好一点的/有没有配置高一点的/换一款/其它款有没有/其他类型有没有/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/换一款/换一个/下一个/再介绍一个其他的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
+还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
+还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
+还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
+还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
+还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
+</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="31" sId="2" odxf="1" dxf="1">
+    <oc r="F3" t="inlineStr">
+      <is>
+        <t xml:space="preserve">还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的窗宝么？/你们店里还有其他的窗宝么？/窗宝还有没有其他选择？/窗宝还有没有其他款式？/窗宝还有没有其他型号？/窗宝其他型号有没有？/还有没有窗宝/还有窗宝么？/其他的窗宝呢？/别的窗宝/再给我推荐一个窗宝/再推荐一个窗宝我看看/再推荐一个窗宝我听听/我还想了解其他的窗宝/我还想了解别的窗宝型号的/再介绍一个窗宝/再介绍一款窗宝/还有没有窗宝？/还有其他的窗宝么？/其他的窗宝呢？/就这一款窗宝么？/就这一个窗宝？/有没有更好的窗宝？/有没有配置高一点的窗宝？/有没有比这个好的窗宝/有没有比这个好的窗宝推荐一下/有没有性能更好的窗宝/有没有性能更好的窗宝推荐一下/性能更好的窗宝/我想知道其他的窗宝/换一款窗宝/换一个窗宝/下一个窗宝/再介绍一个其他的窗宝/还有别的擦窗户的么？/你们店里还有其他的擦窗户的么？/擦窗户的还有没有其他选择？/擦窗户的还有没有其他款式？/擦窗户的还有没有其他型号？/擦窗户的其他型号有没有？/还有没有擦窗户的/还有擦窗户的么？/其他的擦窗户的呢？/别的擦窗户的/再给我推荐一个擦窗户的/再推荐一个擦窗户的我看看/再推荐一个擦窗户的我听听/我还想了解其他的擦窗户的/我还想了解别的擦窗户的型号的/再介绍一个擦窗户的/再介绍一款擦窗户的/还有没有擦窗户的？/还有其他的擦窗户的么？/其他的擦窗户的呢？/就这一款擦窗户的么？/就这一个擦窗户的？/有没有更好的擦窗户的？/有没有配置高一点的擦窗户的？/有没有比这个好的擦窗户的/有没有比这个好的擦窗户的推荐一下/有没有性能更好的擦窗户的/有没有性能更好的擦窗户的推荐一下/性能更好的擦窗户的/我想知道其他的擦窗户的/换一款擦窗户的/换一个擦窗户的/下一个擦窗户的/再介绍一个其他的擦窗户的/给我推荐一款窗宝
+</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的窗宝么？/你们店里还有其他的窗宝么？/窗宝还有没有其他选择？/窗宝还有没有其他款式？/窗宝还有没有其他型号？/窗宝其他型号有没有？/还有没有窗宝/还有窗宝么？/其他的窗宝呢？/别的窗宝/再给我推荐一个窗宝/再推荐一个窗宝我看看/再推荐一个窗宝我听听/我还想了解其他的窗宝/我还想了解别的窗宝型号的/再介绍一个窗宝/再介绍一款窗宝/还有没有窗宝？/还有其他的窗宝么？/其他的窗宝呢？/就这一款窗宝么？/就这一个窗宝？/有没有更好的窗宝？/有没有配置高一点的窗宝？/有没有比这个好的窗宝/有没有比这个好的窗宝推荐一下/有没有性能更好的窗宝/有没有性能更好的窗宝推荐一下/性能更好的窗宝/我想知道其他的窗宝/换一款窗宝/换一个窗宝/下一个窗宝/再介绍一个其他的窗宝/还有别的擦窗户的么？/你们店里还有其他的擦窗户的么？/擦窗户的还有没有其他选择？/擦窗户的还有没有其他款式？/擦窗户的还有没有其他型号？/擦窗户的其他型号有没有？/还有没有擦窗户的/还有擦窗户的么？/其他的擦窗户的呢？/别的擦窗户的/再给我推荐一个擦窗户的/再推荐一个擦窗户的我看看/再推荐一个擦窗户的我听听/我还想了解其他的擦窗户的/我还想了解别的擦窗户的型号的/再介绍一个擦窗户的/再介绍一款擦窗户的/还有没有擦窗户的？/还有其他的擦窗户的么？/其他的擦窗户的呢？/就这一款擦窗户的么？/就这一个擦窗户的？/有没有更好的擦窗户的？/有没有配置高一点的擦窗户的？/有没有比这个好的擦窗户的/有没有比这个好的擦窗户的推荐一下/有没有性能更好的擦窗户的/有没有性能更好的擦窗户的推荐一下/性能更好的擦窗户的/我想知道其他的擦窗户的/换一款擦窗户的/换一个擦窗户的/下一个擦窗户的/再介绍一个其他的擦窗户的/给我推荐一款窗宝
+</t>
+        </r>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3" sId="1">
+    <oc r="A6" t="inlineStr">
+      <is>
+        <t>我来买扫地机器人</t>
+      </is>
+    </oc>
+    <nc r="A6" t="inlineStr">
+      <is>
+        <t>我来买扫地机器人</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4" sId="1">
+    <oc r="F6" t="inlineStr">
+      <is>
+        <t>我来买扫地机器人/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买扫地机器人/扫地机器人/扫地的/清洁地面的/能清理地面灰尘的/我来买扫地机器人/我想要扫地机器人/我要扫地机器人/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买扫地机器人/买扫地机器人/我要买扫地机器人/推荐个扫地机器人/推荐扫地机器人/扫地机器人/给我推荐个扫地机器人/介绍个扫地机器人/介绍下扫地机器人/介绍个扫地的/我想买一个扫地机器人/你们这里可以买扫地机器人吗？/你能给我推荐一下扫地机器人吗？/扫地的机器人有没有啊？/有没有扫地的机器人卖？/可以在这里买到扫地机器人吗？/能不能介绍一个扫地机器人给我？/可以给我介绍一个扫地机器人吗？/能不能给我推荐一个扫地机器人？/可以推荐一个扫地机器人给我？/扫地机/推荐个扫地机/扫地机推荐一下/有没有扫地机推荐的/我需要扫地机/我来买扫地的机器/我来买扫地的机器人/我想买扫地的机器/扫地的机器/我来买扫地的机器/我想要扫地的机器/我要扫地的机器/我要买扫地机/推荐个扫地的机器/我要买扫地的机器/买扫地的机器/我要买扫地的机器/推荐个扫地的机器/推荐扫地的机器/扫地的机器/给我推荐个扫地的机器/介绍个扫地的机器/介绍下扫地的机器/我想买一个扫地的机器/你们这里可以买扫地的机器吗？/你能给我推荐一下扫地的机器吗？/扫地的机器有没有啊？/有没有扫地的机器卖？/可以在这里买到扫地的机器吗？/能不能介绍一个扫地的机器给我？/可以给我介绍一个扫地的机器吗？/能不能给我推荐一个扫地的机器？/可以推荐一个扫地的机器给我？/我来买能打扫地面的机器/我来买能打扫地面的机器人/我想买能打扫地面的机器/能打扫地面的机器/我来买能打扫地面的机器/我想要能打扫地面的机器/我要能打扫地面的机器/我要买扫地机/推荐个能打扫地面的机器/我要买能打扫地面的机器/买能打扫地面的机器/我要买能打扫地面的机器/推荐个能打扫地面的机器/推荐能打扫地面的机器/能打扫地面的机器/给我推荐个能打扫地面的机器/介绍个能打扫地面的机器/介绍下能打扫地面的机器/我想买一个能打扫地面的机器/你们这里可以买能打扫地面的机器吗？/你能给我推荐一下能打扫地面的机器吗？/能打扫地面的机器有没有啊？/有没有能打扫地面的机器卖？/可以在这里买到能打扫地面的机器吗？/能不能介绍一个能打扫地面的机器给我？/可以给我介绍一个能打扫地面的机器吗？/能不能给我推荐一个能打扫地面的机器？/可以推荐一个能打扫地面的机器给我？/我来买打扫卫生的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买打扫卫生的机器/打扫卫生的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买打扫卫生的机器/我想要打扫卫生的机器/我要打扫卫生的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买打扫卫生的机器/买打扫卫生的机器/我要买打扫卫生的机器/推荐个打扫卫生的机器/推荐打扫卫生的机器/打扫卫生的机器/给我推荐个打扫卫生的机器/介绍个打扫卫生的机器/介绍下打扫卫生的机器/介绍个扫地的/我想买一个打扫卫生的机器/你们这里可以买打扫卫生的机器吗？/你能给我推荐一下打扫卫生的机器吗？/扫地的机器人有没有啊？/我来买拖地的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买拖地的机器/拖地的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买拖地的机器/我想要拖地的机器/我要拖地的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买拖地的机器/买拖地的机器/我要买拖地的机器/推荐个拖地的机器/推荐拖地的机器/拖地的机器/给我推荐个拖地的机器/介绍个拖地的机器/介绍下拖地的机器/介绍个扫地的/我想买一个拖地的机器/你们这里可以买拖地的机器吗？/你能给我推荐一下拖地的机器吗？/扫地的机器人有没有啊？/我来买清洁地面的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买清洁地面的机器/清洁地面的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买清洁地面的机器/我想要清洁地面的机器/我要清洁地面的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买清洁地面的机器/买清洁地面的机器/我要买清洁地面的机器/推荐个清洁地面的机器/推荐清洁地面的机器/清洁地面的机器/给我推荐个清洁地面的机器/介绍个清洁地面的机器/介绍下清洁地面的机器/介绍个扫地的/我想买一个清洁地面的机器/你们这里可以买清洁地面的机器吗？/你能给我推荐一下清洁地面的机器吗？/扫地的机器人有没有啊？/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F6" t="inlineStr">
+      <is>
+        <t>我来买扫地机器人/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买扫地机器人/扫地机器人/扫地的/清洁地面的/能清理地面灰尘的/我来买扫地机器人/我想要扫地机器人/我要扫地机器人/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买扫地机器人/买扫地机器人/我要买扫地机器人/推荐个扫地机器人/推荐扫地机器人/扫地机器人/给我推荐个扫地机器人/介绍个扫地机器人/介绍下扫地机器人/介绍个扫地的/我想买一个扫地机器人/你们这里可以买扫地机器人吗？/你能给我推荐一下扫地机器人吗？/扫地的机器人有没有啊？/有没有扫地的机器人卖？/可以在这里买到扫地机器人吗？/能不能介绍一个扫地机器人给我？/可以给我介绍一个扫地机器人吗？/能不能给我推荐一个扫地机器人？/可以推荐一个扫地机器人给我？/扫地机/推荐个扫地机/扫地机推荐一下/有没有扫地机推荐的/我需要扫地机/我来买扫地的机器/我来买扫地的机器人/我想买扫地的机器/扫地的机器/我来买扫地的机器/我想要扫地的机器/我要扫地的机器/我要买扫地机/推荐个扫地的机器/我要买扫地的机器/买扫地的机器/我要买扫地的机器/推荐个扫地的机器/推荐扫地的机器/扫地的机器/给我推荐个扫地的机器/介绍个扫地的机器/介绍下扫地的机器/我想买一个扫地的机器/你们这里可以买扫地的机器吗？/你能给我推荐一下扫地的机器吗？/扫地的机器有没有啊？/有没有扫地的机器卖？/可以在这里买到扫地的机器吗？/能不能介绍一个扫地的机器给我？/可以给我介绍一个扫地的机器吗？/能不能给我推荐一个扫地的机器？/可以推荐一个扫地的机器给我？/我来买能打扫地面的机器/我来买能打扫地面的机器人/我想买能打扫地面的机器/能打扫地面的机器/我来买能打扫地面的机器/我想要能打扫地面的机器/我要能打扫地面的机器/我要买扫地机/推荐个能打扫地面的机器/我要买能打扫地面的机器/买能打扫地面的机器/我要买能打扫地面的机器/推荐个能打扫地面的机器/推荐能打扫地面的机器/能打扫地面的机器/给我推荐个能打扫地面的机器/介绍个能打扫地面的机器/介绍下能打扫地面的机器/我想买一个能打扫地面的机器/你们这里可以买能打扫地面的机器吗？/你能给我推荐一下能打扫地面的机器吗？/能打扫地面的机器有没有啊？/有没有能打扫地面的机器卖？/可以在这里买到能打扫地面的机器吗？/能不能介绍一个能打扫地面的机器给我？/可以给我介绍一个能打扫地面的机器吗？/能不能给我推荐一个能打扫地面的机器？/可以推荐一个能打扫地面的机器给我？/我来买打扫卫生的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买打扫卫生的机器/打扫卫生的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买打扫卫生的机器/我想要打扫卫生的机器/我要打扫卫生的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买打扫卫生的机器/买打扫卫生的机器/我要买打扫卫生的机器/推荐个打扫卫生的机器/推荐打扫卫生的机器/打扫卫生的机器/给我推荐个打扫卫生的机器/介绍个打扫卫生的机器/介绍下打扫卫生的机器/介绍个扫地的/我想买一个打扫卫生的机器/你们这里可以买打扫卫生的机器吗？/你能给我推荐一下打扫卫生的机器吗？/扫地的机器人有没有啊？/我来买拖地的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买拖地的机器/拖地的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买拖地的机器/我想要拖地的机器/我要拖地的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买拖地的机器/买拖地的机器/我要买拖地的机器/推荐个拖地的机器/推荐拖地的机器/拖地的机器/给我推荐个拖地的机器/介绍个拖地的机器/介绍下拖地的机器/介绍个扫地的/我想买一个拖地的机器/你们这里可以买拖地的机器吗？/你能给我推荐一下拖地的机器吗？/扫地的机器人有没有啊？/我来买清洁地面的机器/我来买扫地的机器人/我来买清洁房屋的机器人/我来买打扫房间卫生的机器人/我想买清洁地面的机器/清洁地面的机器/扫地的/清洁地面的/能清理地面灰尘的/我来买清洁地面的机器/我想要清洁地面的机器/我要清洁地面的机器/我要买扫地机/这里是不是卖扫地机的/推荐个扫地机/我要买清洁地面的机器/买清洁地面的机器/我要买清洁地面的机器/推荐个清洁地面的机器/推荐清洁地面的机器/清洁地面的机器/给我推荐个清洁地面的机器/介绍个清洁地面的机器/介绍下清洁地面的机器/介绍个扫地的/我想买一个清洁地面的机器/你们这里可以买清洁地面的机器吗？/你能给我推荐一下清洁地面的机器吗？/扫地的机器人有没有啊？/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="F6">
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="32" sId="3" odxf="1" dxf="1">
+    <oc r="F3" t="inlineStr">
+      <is>
+        <t xml:space="preserve">还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的沁宝么？/你们店里还有其他的沁宝么？/沁宝还有没有其他选择？/沁宝还有没有其他款式？/沁宝还有没有其他型号？/沁宝其他型号有没有？/还有没有沁宝/还有沁宝么？/其他的沁宝呢？/别的沁宝/再给我推荐一个沁宝/再推荐一个沁宝我看看/再推荐一个沁宝我听听/我还想了解其他的沁宝/我还想了解别的沁宝型号的/再介绍一个沁宝/再介绍一款沁宝/还有没有沁宝？/还有其他的沁宝么？/其他的沁宝呢？/就这一款沁宝么？/就这一个沁宝？/有没有更好的沁宝？/有没有配置高一点的沁宝？/有没有比这个好的沁宝/有没有比这个好的沁宝推荐一下/有没有性能更好的沁宝/有没有性能更好的沁宝推荐一下/性能更好的沁宝/我想知道其他的沁宝/换一款沁宝/换一个沁宝/下一个沁宝/再介绍一个其他的沁宝/还有别的沁宝么？/你们店里还有其他的沁宝么？/沁宝还有没有其他选择？/沁宝还有没有其他款式？/沁宝还有没有其他型号？/沁宝其他型号有没有？/还有没有沁宝/还有沁宝么？/其他的沁宝呢？/别的沁宝/再给我推荐一个沁宝/再推荐一个沁宝我看看/再推荐一个沁宝我听听/我还想了解其他的沁宝/我还想了解别的沁宝型号的/再介绍一个沁宝/再介绍一款沁宝/还有没有沁宝？/还有其他的沁宝么？/其他的沁宝呢？/就这一款沁宝么？/就这一个沁宝？/有没有更好的沁宝？/有没有配置高一点的沁宝？/有没有比这个好的沁宝/有没有比这个好的沁宝推荐一下/有没有性能更好的沁宝/有没有性能更好的沁宝推荐一下/性能更好的沁宝/我想知道其他的沁宝/换一款沁宝/换一个沁宝/下一个沁宝/再介绍一个其他的沁宝/
+还有别的净化空气么？/你们店里还有其他的净化空气么？/净化空气还有没有其他选择？/净化空气还有没有其他款式？/净化空气还有没有其他型号？/净化空气其他型号有没有？/还有没有净化空气/还有净化空气么？/其他的净化空气呢？/别的净化空气/再给我推荐一个净化空气/再推荐一个净化空气我看看/再推荐一个净化空气我听听/我还想了解其他的净化空气/我还想了解别的净化空气型号的/再介绍一个净化空气/再介绍一款净化空气/还有没有净化空气？/还有其他的净化空气么？/其他的净化空气呢？/就这一款净化空气么？/就这一个净化空气？/有没有更好的净化空气？/有没有配置高一点的净化空气？/有没有比这个好的净化空气/有没有比这个好的净化空气推荐一下/有没有性能更好的净化空气/有没有性能更好的净化空气推荐一下/性能更好的净化空气/我想知道其他的净化空气/换一款净化空气/换一个净化空气/下一个净化空气/再介绍一个其他的净化空气/
+还有别的清新房间空气的么？/你们店里还有其他的清新房间空气的么？/清新房间空气的还有没有其他选择？/清新房间空气的还有没有其他款式？/清新房间空气的还有没有其他型号？/清新房间空气的其他型号有没有？/还有没有清新房间空气的/还有清新房间空气的么？/其他的清新房间空气的呢？/别的清新房间空气的/再给我推荐一个清新房间空气的/再推荐一个清新房间空气的我看看/再推荐一个清新房间空气的我听听/我还想了解其他的清新房间空气的/我还想了解别的清新房间空气的型号的/再介绍一个清新房间空气的/再介绍一款清新房间空气的/还有没有清新房间空气的？/还有其他的清新房间空气的么？/其他的清新房间空气的呢？/就这一款清新房间空气的么？/就这一个清新房间空气的？/有没有更好的清新房间空气的？/有没有配置高一点的清新房间空气的？/有没有比这个好的清新房间空气的/有没有比这个好的清新房间空气的推荐一下/有没有性能更好的清新房间空气的/有没有性能更好的清新房间空气的推荐一下/性能更好的清新房间空气的/我想知道其他的清新房间空气的/换一款清新房间空气的/换一个清新房间空气的/下一个清新房间空气的/再介绍一个其他的清新房间空气的/
+还有别的湿润房间空气的么？/你们店里还有其他的湿润房间空气的么？/湿润房间空气的还有没有其他选择？/湿润房间空气的还有没有其他款式？/湿润房间空气的还有没有其他型号？/湿润房间空气的其他型号有没有？/还有没有湿润房间空气的 /还有湿润房间空气的么？/其他的湿润房间空气的呢？/别的湿润房间空气的 /再给我推荐一个湿润房间空气的/再推荐一个湿润房间空气的我看看/再推荐一个湿润房间空气的 我听听/我还想了解其他的湿润房间空气的/我还想了解别的湿润房间空气的 型号的/再介绍一个湿润房间空气的/再介绍一款湿润房间空气的/还有没有湿润房间空气的？/还有其他的湿润房间空气的么？/其他的湿润房间空气的呢？/就这一款湿润房间空气的么？/就这一个湿润房间空气的？/有没有更好的湿润房间空气的？/有没有配置高一点的湿润房间空气的？/有没有比这个好的湿润房间空气的/有没有比这个好的湿润房间空气的推荐一下/有没有性能更好的湿润房间空气的/有没有性能更好的湿润房间空气的推荐一下/性能更好的湿润房间空气的/我想知道其他的湿润房间空气的/换一款湿润房间空气的/换一个湿润房间空气的/下一个湿润房间空气的/再介绍一个其他的湿润房间空气的 /
+还有别的除去房间甲醛的么？/你们店里还有其他的除去房间甲醛的么？/除去房间甲醛的还有没有其他选择？/除去房间甲醛的还有没有其他款式？/除去房间甲醛的还有没有其他型号？/除去房间甲醛的其他型号有没有？/还有没有除去房间甲醛的/还有除去房间甲醛的么？/其他的除去房间甲醛的呢？/别的除去房间甲醛的/再给我推荐一个除去房间甲醛的/再推荐一个除去房间甲醛的我看看/再推荐一个除去房间甲醛的我听听/我还想了解其他的除去房间甲醛的/我还想了解别的除去房间甲醛的型号的/再介绍一个除去房间甲醛的/再介绍一款除去房间甲醛的/还有没有除去房间甲醛的？/还有其他的除去房间甲醛的么？/其他的除去房间甲醛的呢？/就这一款除去房间甲醛的么？/就这一个除去房间甲醛的？/有没有更好的除去房间甲醛的？/有没有配置高一点的除去房间甲醛的？/有没有比这个好的除去房间甲醛的/有没有比这个好的除去房间甲醛的推荐一下/有没有性能更好的除去房间甲醛的/有没有性能更好的除去房间甲醛的推荐一下/性能更好的除去房间甲醛的/我想知道其他的除去房间甲醛的/换一款除去房间甲醛的/换一个除去房间甲醛的/下一个除去房间甲醛的/再介绍一个其他的除去房间甲醛的/给我推荐一款沁宝
+</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的沁宝么？/你们店里还有其他的沁宝么？/沁宝还有没有其他选择？/沁宝还有没有其他款式？/沁宝还有没有其他型号？/沁宝其他型号有没有？/还有没有沁宝/还有沁宝么？/其他的沁宝呢？/别的沁宝/再给我推荐一个沁宝/再推荐一个沁宝我看看/再推荐一个沁宝我听听/我还想了解其他的沁宝/我还想了解别的沁宝型号的/再介绍一个沁宝/再介绍一款沁宝/还有没有沁宝？/还有其他的沁宝么？/其他的沁宝呢？/就这一款沁宝么？/就这一个沁宝？/有没有更好的沁宝？/有没有配置高一点的沁宝？/有没有比这个好的沁宝/有没有比这个好的沁宝推荐一下/有没有性能更好的沁宝/有没有性能更好的沁宝推荐一下/性能更好的沁宝/我想知道其他的沁宝/换一款沁宝/换一个沁宝/下一个沁宝/再介绍一个其他的沁宝/还有别的沁宝么？/你们店里还有其他的沁宝么？/沁宝还有没有其他选择？/沁宝还有没有其他款式？/沁宝还有没有其他型号？/沁宝其他型号有没有？/还有没有沁宝/还有沁宝么？/其他的沁宝呢？/别的沁宝/再给我推荐一个沁宝/再推荐一个沁宝我看看/再推荐一个沁宝我听听/我还想了解其他的沁宝/我还想了解别的沁宝型号的/再介绍一个沁宝/再介绍一款沁宝/还有没有沁宝？/还有其他的沁宝么？/其他的沁宝呢？/就这一款沁宝么？/就这一个沁宝？/有没有更好的沁宝？/有没有配置高一点的沁宝？/有没有比这个好的沁宝/有没有比这个好的沁宝推荐一下/有没有性能更好的沁宝/有没有性能更好的沁宝推荐一下/性能更好的沁宝/我想知道其他的沁宝/换一款沁宝/换一个沁宝/下一个沁宝/再介绍一个其他的沁宝/
+还有别的净化空气么？/你们店里还有其他的净化空气么？/净化空气还有没有其他选择？/净化空气还有没有其他款式？/净化空气还有没有其他型号？/净化空气其他型号有没有？/还有没有净化空气/还有净化空气么？/其他的净化空气呢？/别的净化空气/再给我推荐一个净化空气/再推荐一个净化空气我看看/再推荐一个净化空气我听听/我还想了解其他的净化空气/我还想了解别的净化空气型号的/再介绍一个净化空气/再介绍一款净化空气/还有没有净化空气？/还有其他的净化空气么？/其他的净化空气呢？/就这一款净化空气么？/就这一个净化空气？/有没有更好的净化空气？/有没有配置高一点的净化空气？/有没有比这个好的净化空气/有没有比这个好的净化空气推荐一下/有没有性能更好的净化空气/有没有性能更好的净化空气推荐一下/性能更好的净化空气/我想知道其他的净化空气/换一款净化空气/换一个净化空气/下一个净化空气/再介绍一个其他的净化空气/
+还有别的清新房间空气的么？/你们店里还有其他的清新房间空气的么？/清新房间空气的还有没有其他选择？/清新房间空气的还有没有其他款式？/清新房间空气的还有没有其他型号？/清新房间空气的其他型号有没有？/还有没有清新房间空气的/还有清新房间空气的么？/其他的清新房间空气的呢？/别的清新房间空气的/再给我推荐一个清新房间空气的/再推荐一个清新房间空气的我看看/再推荐一个清新房间空气的我听听/我还想了解其他的清新房间空气的/我还想了解别的清新房间空气的型号的/再介绍一个清新房间空气的/再介绍一款清新房间空气的/还有没有清新房间空气的？/还有其他的清新房间空气的么？/其他的清新房间空气的呢？/就这一款清新房间空气的么？/就这一个清新房间空气的？/有没有更好的清新房间空气的？/有没有配置高一点的清新房间空气的？/有没有比这个好的清新房间空气的/有没有比这个好的清新房间空气的推荐一下/有没有性能更好的清新房间空气的/有没有性能更好的清新房间空气的推荐一下/性能更好的清新房间空气的/我想知道其他的清新房间空气的/换一款清新房间空气的/换一个清新房间空气的/下一个清新房间空气的/再介绍一个其他的清新房间空气的/
+还有别的湿润房间空气的么？/你们店里还有其他的湿润房间空气的么？/湿润房间空气的还有没有其他选择？/湿润房间空气的还有没有其他款式？/湿润房间空气的还有没有其他型号？/湿润房间空气的其他型号有没有？/还有没有湿润房间空气的 /还有湿润房间空气的么？/其他的湿润房间空气的呢？/别的湿润房间空气的 /再给我推荐一个湿润房间空气的/再推荐一个湿润房间空气的我看看/再推荐一个湿润房间空气的 我听听/我还想了解其他的湿润房间空气的/我还想了解别的湿润房间空气的 型号的/再介绍一个湿润房间空气的/再介绍一款湿润房间空气的/还有没有湿润房间空气的？/还有其他的湿润房间空气的么？/其他的湿润房间空气的呢？/就这一款湿润房间空气的么？/就这一个湿润房间空气的？/有没有更好的湿润房间空气的？/有没有配置高一点的湿润房间空气的？/有没有比这个好的湿润房间空气的/有没有比这个好的湿润房间空气的推荐一下/有没有性能更好的湿润房间空气的/有没有性能更好的湿润房间空气的推荐一下/性能更好的湿润房间空气的/我想知道其他的湿润房间空气的/换一款湿润房间空气的/换一个湿润房间空气的/下一个湿润房间空气的/再介绍一个其他的湿润房间空气的 /
+还有别的除去房间甲醛的么？/你们店里还有其他的除去房间甲醛的么？/除去房间甲醛的还有没有其他选择？/除去房间甲醛的还有没有其他款式？/除去房间甲醛的还有没有其他型号？/除去房间甲醛的其他型号有没有？/还有没有除去房间甲醛的/还有除去房间甲醛的么？/其他的除去房间甲醛的呢？/别的除去房间甲醛的/再给我推荐一个除去房间甲醛的/再推荐一个除去房间甲醛的我看看/再推荐一个除去房间甲醛的我听听/我还想了解其他的除去房间甲醛的/我还想了解别的除去房间甲醛的型号的/再介绍一个除去房间甲醛的/再介绍一款除去房间甲醛的/还有没有除去房间甲醛的？/还有其他的除去房间甲醛的么？/其他的除去房间甲醛的呢？/就这一款除去房间甲醛的么？/就这一个除去房间甲醛的？/有没有更好的除去房间甲醛的？/有没有配置高一点的除去房间甲醛的？/有没有比这个好的除去房间甲醛的/有没有比这个好的除去房间甲醛的推荐一下/有没有性能更好的除去房间甲醛的/有没有性能更好的除去房间甲醛的推荐一下/性能更好的除去房间甲醛的/我想知道其他的除去房间甲醛的/换一款除去房间甲醛的/换一个除去房间甲醛的/下一个除去房间甲醛的/再介绍一个其他的除去房间甲醛的/给我推荐一款沁宝
+</t>
+        </r>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog31.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="33" sId="1">
+    <oc r="F7" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有吗/还有别的选择吗/还有没有别的选择/还有其他选择吗/还有什么选择呀/还有什么别的选择/还有选择吗/其他有什么好选的/其他可以选什么/还有其他可以选的吗/在给我推荐一个/有其他推荐吗/有其他型号吗/有其他的类型吗/有其他款式吗/有其他型号推荐吗/有其他款式推荐吗/有其他类型推荐吗/还有别的型号吗/还有别的推荐吗/还有别的型号选择吗/还有别的类型选择吗/还有别的型号推荐吗/在介绍一个/解释一下其他的/介绍一下其他款式/介绍一下其他类型/介绍其他的型号的/有没有其他款/有没有性能好一点的/有没有配置高一点的/换一款/其它款有没有/其他类型有没有/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/换一款/换一个/下一个/再介绍一个其他的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
+还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
+还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
+还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
+还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
+还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
+</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F7" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有吗/还有别的选择吗/还有没有别的选择/还有其他选择吗/还有什么选择呀/还有什么别的选择/还有选择吗/其他有什么好选的/其他可以选什么/还有其他可以选的吗/在给我推荐一个/有其他推荐吗/有其他型号吗/有其他的类型吗/有其他款式吗/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/有其他型号推荐吗/有其他款式推荐吗/有其他类型推荐吗/还有别的型号吗/还有别的推荐吗/还有别的型号选择吗/还有别的类型选择吗/还有别的型号推荐吗/在介绍一个/解释一下其他的/介绍一下其他款式/介绍一下其他类型/介绍其他的型号的/有没有其他款/有没有性能好一点的/有没有配置高一点的/换一款/其它款有没有/其他类型有没有/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/换一款/换一个/下一个/再介绍一个其他的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
+还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
+还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
+还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
+还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
+还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
+</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog32.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="34" sId="1">
+    <oc r="F4" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>便宜一点的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>便宜的/我想买便宜点的/便宜点的/价格低点的/便宜的就行/我当然是买便宜的了/买便宜的啦/便宜的便宜的/价格便宜的/价格低的/我要便宜一点的有没有/我需要便宜点的/你能给我介绍便宜点的吗/我想买便宜点的有没有/我想买便宜点的/我想要价格低点的/我想要便宜的啊/当然是便宜的了/当然买价格低点了/当然是价格低的了/当然需要价格便宜的了/当然是买便宜一点的/买便宜点的/我就便宜一点的就行了/买便宜一点的就可以了/就买便宜一点的吧/你就给我介绍便宜一点的吧/你给我介绍便宜一点的就好了/给我说一下便宜一点的吧/不买贵的/不要贵的/贵的不要/不想要贵的/贵的不要/不要贵的/我不买贵的/我不要贵的/贵的我不要哈/我不想买贵的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/性价比高的/我想买一款便宜的/我想买一款性价比高的/你能给我推荐一款性价比高的吗/你可以推荐一款性价比高的给我吗/给我推荐一款价格低的吧/能不能给我推荐一款价格低点的啊</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F4" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>便宜一点的/既便宜又实惠的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>便宜的/我想买便宜点的/便宜点的/价格低点的/便宜的就行/我当然是买便宜的了/买便宜的啦/便宜的便宜的/价格便宜的/价格低的/我要便宜一点的有没有/我需要便宜点的/你能给我介绍便宜点的吗/我想买便宜点的有没有/我想买便宜点的/我想要价格低点的/我想要便宜的啊/当然是便宜的了/当然买价格低点了/当然是价格低的了/当然需要价格便宜的了/当然是买便宜一点的/买便宜点的/我就便宜一点的就行了/买便宜一点的就可以了/就买便宜一点的吧/你就给我介绍便宜一点的吧/你给我介绍便宜一点的就好了/给我说一下便宜一点的吧/不买贵的/不要贵的/贵的不要/不想要贵的/贵的不要/不要贵的/我不买贵的/我不要贵的/贵的我不要哈/我不想买贵的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/性价比高的/我想买一款便宜的/我想买一款性价比高的/你能给我推荐一款性价比高的吗/你可以推荐一款性价比高的给我吗/给我推荐一款价格低的吧/能不能给我推荐一款价格低点的啊</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog33.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="35" sId="1">
+    <oc r="F4" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>便宜一点的/既便宜又实惠的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>便宜的/我想买便宜点的/便宜点的/价格低点的/便宜的就行/我当然是买便宜的了/买便宜的啦/便宜的便宜的/价格便宜的/价格低的/我要便宜一点的有没有/我需要便宜点的/你能给我介绍便宜点的吗/我想买便宜点的有没有/我想买便宜点的/我想要价格低点的/我想要便宜的啊/当然是便宜的了/当然买价格低点了/当然是价格低的了/当然需要价格便宜的了/当然是买便宜一点的/买便宜点的/我就便宜一点的就行了/买便宜一点的就可以了/就买便宜一点的吧/你就给我介绍便宜一点的吧/你给我介绍便宜一点的就好了/给我说一下便宜一点的吧/不买贵的/不要贵的/贵的不要/不想要贵的/贵的不要/不要贵的/我不买贵的/我不要贵的/贵的我不要哈/我不想买贵的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/性价比高的/我想买一款便宜的/我想买一款性价比高的/你能给我推荐一款性价比高的吗/你可以推荐一款性价比高的给我吗/给我推荐一款价格低的吧/能不能给我推荐一款价格低点的啊</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F4" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>便宜一点的/既便宜又实惠的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>便宜的/我想买便宜点的/便宜点的/价格低点的/便宜的就行/我当然是买便宜的了/买便宜的啦/便宜的便宜的/价格便宜的/价格低的/我要便宜一点的有没有/我需要便宜点的/你能给我介绍便宜点的吗/我想买便宜点的有没有/我想买便宜点的/我想要价格低点的/我想要便宜的啊/当然是便宜的了/当然买价格低点了/当然是价格低的了/当然需要价格便宜的了/当然是买便宜一点的/买便宜点的/我就便宜一点的就行了/买便宜一点的就可以了/就买便宜一点的吧/你就给我介绍便宜一点的吧/你给我介绍便宜一点的就好了/给我说一下便宜一点的吧/不买贵的/不要贵的/贵的不要/不想要贵的/贵的不要/不要贵的/我不买贵的/我不要贵的/贵的我不要哈/我不想买贵的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/性价比高的/我想买一款便宜的/我想买一款性价比高的/你能给我推荐一款性价比高的吗/你可以推荐一款性价比高的给我吗/给我推荐一款价格低的吧/能不能给我推荐一款价格低点的啊</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog34.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="36" sId="1">
+    <oc r="F10" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>便宜一点的扫地机</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/我想买便宜点的扫地机/我要买便宜点的扫地机/我要买价格低点的扫地机/我要买便宜的扫地机就行/我当然是买便宜的扫地机了/我要买便宜的扫地机啦/我要买便宜的便宜的扫地机/我要买价格便宜的扫地机/我要买价格低的扫地机/我要便宜一点的扫地机有没有/我需要便宜点的扫地机/你能给我介绍便宜点的扫地机吗/我想买便宜点的扫地机有没有/我想买便宜点的扫地机/我想要价格低点的扫地机/我想要便宜的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格便宜的扫地机了/我要买便宜一点的扫地机/我要买便宜点的扫地机/我就便宜一点的扫地机就行了/买便宜一点的扫地机就可以了/就买便宜一点的扫地机吧/你就给我介绍便宜一点的扫地机吧/你给我介绍便宜一点的扫地机就好了/给我说一下便宜一点的扫地机吧/我不买贵的扫地机/不要贵的扫地机/我贵的扫地机不要/我不想要贵的扫地机/我贵的扫地机不要/我不要贵的扫地机/我不买贵的扫地机/我不要贵的扫地机/贵的扫地机我不要哈/我不想买贵的扫地机</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/我想买一款便宜的扫地机/我想买一款性价比高的扫地机/你能给我推荐一款性价比高的扫地机吗/你可以推荐一款性价比高的扫地机给我吗/给我推荐一款价格低的扫地机吧/能不能给我推荐一款价格低点的扫地机啊
+/我想买便宜点的扫地机器人/我要买便宜点的扫地机器人/我要买价格低点的扫地机器人/我要买便宜的扫地机器人就行/我当然是买便宜的扫地机器人了/我要买便宜的扫地机器人啦/我要买便宜的便宜的扫地机器人/我要买价格便宜的扫地机器人/我要买价格低的扫地机器人/我要便宜一点的扫地机器人有没有/我需要便宜点的扫地机器人/你能给我介绍便宜点的扫地机器人吗/我想买便宜点的扫地机器人有没有/我想买便宜点的扫地机器人/我想要价格低点的扫地机器人/我想要便宜的扫地机器人啊/我要买扫地机器人/买价格低点了扫地机器人/我要买价格低的扫地机器人了/我要买需要价格便宜的扫地机器人了/我要买便宜一点的扫地机器人/我要买便宜点的扫地机器人/我就便宜一点的扫地机器人就行了/买便宜一点的扫地机器人就可以了/就买便宜一点的扫地机器人吧/你就给我介绍便宜一点的扫地机器人吧/你给我介绍便宜一点的扫地机器人就好了/给我说一下便宜一点的扫地机器人吧/我不买贵的扫地机器人/不要贵的扫地机器人/我贵的扫地机器人不要/我不想要贵的扫地机器人/我贵的扫地机器人不要/我不要贵的扫地机器人/我不买贵的扫地机器人/我不要贵的扫地机器人/贵的扫地机器人我不要哈/我不想买贵的扫地机器人/我想买一款便宜的扫地机器人/我想买一款性价比高的扫地机器人/你能给我推荐一款性价比高的扫地机器人吗/你可以推荐一款性价比高的扫地机器人给我吗/给我推荐一款价格低的扫地机器人吧/能不能给我推荐一款价格低点的扫地机器人啊//我想买实惠的扫地机/我要买实惠的扫地机/我要买价格低点的扫地机/我要买实惠的扫地机就行/我当然是买实惠的扫地机了/我要买实惠的扫地机啦/我要买实惠的实惠的扫地机/我要买价格实惠的扫地机/我要买价格低的扫地机/我要实惠一点的扫地机有没有/我需要实惠的扫地机/你能给我介绍实惠的扫地机吗/我想买实惠的扫地机有没有/我想买实惠的扫地机/我想要价格低点的扫地机/我想要实惠的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格实惠的扫地机了/我要买实惠一点的扫地机/我要买实惠的扫地机/我就实惠一点的扫地机就行了/买实惠一点的扫地机就可以了/就买实惠一点的扫地机吧/你就给我介绍实惠一点的扫地机吧/你给我介绍实惠一点的扫地机就好了/给我说一下实惠一点的扫地机吧/我想买实惠的扫地机器人/我要买实惠的扫地机器人/我要买价格低点的扫地机器人/我要买实惠的扫地机器人就行/我当然是买实惠的扫地机器人了/我要买实惠的扫地机器人啦/我要买实惠的实惠的扫地机器人/我要买价格实惠的扫地机器人/我要买价格低的扫地机器人/我要实惠一点的扫地机器人有没有/我需要实惠的扫地机器人/你能给我介绍实惠的扫地机器人吗/我想买实惠的扫地机器人有没有/我想买实惠的扫地机器人/我想要价格低点的扫地机器人/我想要实惠的扫地机器人啊/我要买扫地机器人/买价格低点了扫地机器人/我要买价格低的扫地机器人了/我要买需要价格实惠的扫地机器人了/我要买实惠一点的扫地机器人/我要买实惠的扫地机器人/我就实惠一点的扫地机器人就行了/买实惠一点的扫地机器人就可以了/就买实惠一点的扫地机器人吧/你就给我介绍实惠一点的扫地机器人吧/你给我介绍实惠一点的扫地机器人就好了/给我说一下实惠一点的扫地机器人吧/我不买贵的扫地机器人/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>你们最便宜的扫地机介绍一下吧/最便宜的地宝/最便宜的/给我介绍一下最实惠的扫地机/最实惠的给我介绍一下/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F10" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>便宜一点的扫地机</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/我想买便宜点的扫地机/我要买便宜点的扫地机/我要买价格低点的扫地机/我要买便宜的扫地机就行/我当然是买便宜的扫地机了/我要买便宜的扫地机啦/我要买便宜的便宜的扫地机/我要买价格便宜的扫地机/我要买价格低的扫地机/我要便宜一点的扫地机有没有/我需要便宜点的扫地机/你能给我介绍便宜点的扫地机吗/我想买便宜点的扫地机有没有/我想买便宜点的扫地机/我想要价格低点的扫地机/我想要便宜的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格便宜的扫地机了/我要买便宜一点的扫地机/我要买便宜点的扫地机/我就便宜一点的扫地机就行了/买便宜一点的扫地机就可以了/就买便宜一点的扫地机吧/你就给我介绍便宜一点的扫地机吧/你给我介绍便宜一点的扫地机就好了/给我说一下便宜一点的扫地机吧/我不买贵的扫地机/不要贵的扫地机/我贵的扫地机不要/我不想要贵的扫地机/我贵的扫地机不要/我不要贵的扫地机/我不买贵的扫地机/我不要贵的扫地机/贵的扫地机我不要哈/我不想买贵的扫地机</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/我想买一款便宜的扫地机/我想买一款性价比高的扫地机/你能给我推荐一款性价比高的扫地机吗/你可以推荐一款性价比高的扫地机给我吗/给我推荐一款价格低的扫地机吧/能不能给我推荐一款价格低点的扫地机啊
+/我想买便宜点的扫地机器人/我要买便宜点的扫地机器人/我要买价格低点的扫地机器人/我要买便宜的扫地机器人就行/我当然是买便宜的扫地机器人了/我要买便宜的扫地机器人啦/我要买便宜的便宜的扫地机器人/我要买价格便宜的扫地机器人/我要买价格低的扫地机器人/我要便宜一点的扫地机器人有没有/我需要便宜点的扫地机器人/你能给我介绍便宜点的扫地机器人吗/我想买便宜点的扫地机器人有没有/我想买便宜点的扫地机器人/我想要价格低点的扫地机器人/我想要便宜的扫地机器人啊/我要买扫地机器人/买价格低点了扫地机器人/我要买价格低的扫地机器人了/我要买需要价格便宜的扫地机器人了/我要买便宜一点的扫地机器人/我要买便宜点的扫地机器人/我就便宜一点的扫地机器人就行了/买便宜一点的扫地机器人就可以了/就买便宜一点的扫地机器人吧/你就给我介绍便宜一点的扫地机器人吧/你给我介绍便宜一点的扫地机器人就好了/给我说一下便宜一点的扫地机器人吧/我不买贵的扫地机器人/不要贵的扫地机器人/我贵的扫地机器人不要/我不想要贵的扫地机器人/我贵的扫地机器人不要/我不要贵的扫地机器人/我不买贵的扫地机器人/我不要贵的扫地机器人/贵的扫地机器人我不要哈/我不想买贵的扫地机器人/我想买一款便宜的扫地机器人/我想买一款性价比高的扫地机器人/你能给我推荐一款性价比高的扫地机器人吗/你可以推荐一款性价比高的扫地机器人给我吗/给我推荐一款价格低的扫地机器人吧/能不能给我推荐一款价格低点的扫地机器人啊//我想买实惠的扫地机/我要买实惠的扫地机/我要买价格低点的扫地机/我要买实惠的扫地机就行/我当然是买实惠的扫地机了/我要买实惠的扫地机啦/我要买实惠的实惠的扫地机/我要买价格实惠的扫地机/我要买价格低的扫地机/我要实惠一点的扫地机有没有/我需要实惠的扫地机/你能给我介绍实惠的扫地机吗/我想买实惠的扫地机有没有/我想买实惠的扫地机/我想要价格低点的扫地机/我想要实惠的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格实惠的扫地机了/我要买实惠一点的扫地机/我要买实惠的扫地机/我就实惠一点的扫地机就行了/买实惠一点的扫地机就可以了/就买实惠一点的扫地机吧/你就给我介绍实惠一点的扫地机吧/你给我介绍实惠一点的扫地机就好了/给我说一下实惠一点的扫地机吧/我想买实惠的扫地机器人/我要买实惠的扫地机器人/我要买价格低点的扫地机器人/我要买实惠的扫地机器人就行/我当然是买实惠的扫地机器人了/我要买实惠的扫地机器人啦/我要买实惠的实惠的扫地机器人/我要买价格实惠的扫地机器人/我要买价格低的扫地机器人/我要实惠一点的扫地机器人有没有/我需要实惠的扫地机器人/你能给我介绍实惠的扫地机器人吗/我想买实惠的扫地机器人有没有/我想买实惠的扫地机器人/我想要价格低点的扫地机器人/我想要实惠的扫地机器人啊/我要买扫地机器人/买价格低点了扫地机器人/我要买价格低的扫地机器人了/我要买需要价格实惠的扫地机器人了/我要买实惠一点的扫地机器人/我要买实惠的扫地机器人/我就实惠一点的扫地机器人就行了/买实惠一点的扫地机器人就可以了/就买实惠一点的扫地机器人吧/你就给我介绍实惠一点的扫地机器人吧/你给我介绍实惠一点的扫地机器人就好了/给我说一下实惠一点的扫地机器人吧/我不买贵的扫地机器人/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>你们最便宜的扫地机介绍一下吧/最便宜的地宝/最便宜的/给我介绍一下最实惠的扫地机/最实惠的给我介绍一下/你们这里有折扣很大的扫地机卖吗</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog35.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="37" sId="1">
+    <oc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有吗</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/还有别的选择吗/还有没有别的选择/还有其他选择吗/还有什么选择呀/还有什么别的选择/还有选择吗/其他有什么好选的/其他可以选什么/还有其他可以选的吗/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在给我推荐一个/有其他推荐吗/有其他型号吗/有其他的类型吗/有其他款式吗/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/有其他型号推荐吗/有其他款式推荐吗/有其他类型推荐吗/还有别的型号吗/还有别的推荐吗/还有别的型号选择吗/还有别的类型选择吗/还有别的型号推荐吗/在介绍一个/解释一下其他的/介绍一下其他款式/介绍一下其他类型/介绍其他的型号的/有没有其他款/有没有性能好一点的/有没有配置高一点的/换一款/其它款有没有/其他类型有没有/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/换一款/换一个/下一个/再介绍一个其他的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
+还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
+还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
+还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
+还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
+还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
+</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有吗</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/还有别的选择吗/还有没有别的选择/还有啥样的/还有其他选择吗/还有什么选择呀/还有什么别的选择/还有选择吗/其他有什么好选的/其他可以选什么/还有其他可以选的吗/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在给我推荐一个/有其他推荐吗/有其他型号吗/有其他的类型吗/有其他款式吗/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/有其他型号推荐吗/有其他款式推荐吗/有其他类型推荐吗/还有别的型号吗/还有别的推荐吗/还有别的型号选择吗/还有别的类型选择吗/还有别的型号推荐吗/在介绍一个/解释一下其他的/介绍一下其他款式/介绍一下其他类型/介绍其他的型号的/有没有其他款/有没有性能好一点的/有没有配置高一点的/换一款/其它款有没有/其他类型有没有/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/换一款/换一个/下一个/再介绍一个其他的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
+还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
+还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
+还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
+还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
+还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
+</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="38" sId="1">
+    <oc r="F7" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有吗/还有别的选择吗/还有没有别的选择/还有其他选择吗/还有什么选择呀/还有什么别的选择/还有选择吗/其他有什么好选的/其他可以选什么/还有其他可以选的吗/在给我推荐一个/有其他推荐吗/有其他型号吗/有其他的类型吗/有其他款式吗/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/有其他型号推荐吗/有其他款式推荐吗/有其他类型推荐吗/还有别的型号吗/还有别的推荐吗/还有别的型号选择吗/还有别的类型选择吗/还有别的型号推荐吗/在介绍一个/解释一下其他的/介绍一下其他款式/介绍一下其他类型/介绍其他的型号的/有没有其他款/有没有性能好一点的/有没有配置高一点的/换一款/其它款有没有/其他类型有没有/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/换一款/换一个/下一个/再介绍一个其他的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
+还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
+还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
+还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
+还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
+还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
+</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F7" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有吗/还有别的选择吗/还有没有别的选择/还有啥样的/还有其他选择吗/还有什么选择呀/还有什么别的选择/还有选择吗/其他有什么好选的/其他可以选什么/还有其他可以选的吗/在给我推荐一个/有其他推荐吗/有其他型号吗/有其他的类型吗/有其他款式吗/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/有其他型号推荐吗/有其他款式推荐吗/有其他类型推荐吗/还有别的型号吗/还有别的推荐吗/还有别的型号选择吗/还有别的类型选择吗/还有别的型号推荐吗/在介绍一个/解释一下其他的/介绍一下其他款式/介绍一下其他类型/介绍其他的型号的/有没有其他款/有没有性能好一点的/有没有配置高一点的/换一款/其它款有没有/其他类型有没有/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/换一款/换一个/下一个/再介绍一个其他的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有别的扫地机器人么？/你们店里还有其他的扫地机器人么？/扫地机器人还有没有其他选择？/扫地机器人还有没有其他款式？/扫地机器人还有没有其他型号？/扫地机器人其他型号有没有？/还有没有扫地机器人/还有扫地机器人么？/其他的扫地机器人呢？/别的扫地机器人/再给我推荐一个扫地机器人/再推荐一个扫地机器人我看看/再推荐一个扫地机器人我听听/我还想了解其他的扫地机器人/我还想了解别的扫地机器人型号的/再介绍一个扫地机器人/再介绍一款扫地机器人/还有没有扫地机器人？/还有其他的扫地机器人么？/其他的扫地机器人呢？/就这一款扫地机器人么？/就这一个扫地机器人？/有没有更好的扫地机器人？/有没有配置高一点的扫地机器人？/有没有比这个好的扫地机器人/有没有比这个好的扫地机器人推荐一下/有没有性能更好的扫地机器人/有没有性能更好的扫地机器人推荐一下/性能更好的扫地机器人/我想知道其他的扫地机器人/换一款扫地机器人/换一个扫地机器人/下一个扫地机器人/再介绍一个其他的扫地机器人/
+还有别的扫地的么？/你们店里还有其他的扫地的么？/扫地的还有没有其他选择？/扫地的还有没有其他款式？/扫地的还有没有其他型号？/扫地的其他型号有没有？/还有没有扫地的/还有扫地的么？/其他的扫地的呢？/别的扫地的/再给我推荐一个扫地的/再推荐一个扫地的我看看/再推荐一个扫地的我听听/我还想了解其他的扫地的/我还想了解别的扫地的型号的/再介绍一个扫地的/再介绍一款扫地的/还有没有扫地的？/还有其他的扫地的么？/其他的扫地的呢？/就这一款扫地的么？/就这一个扫地的？/有没有更好的扫地的？/有没有配置高一点的扫地的？/有没有比这个好的扫地的/有没有比这个好的扫地的推荐一下/有没有性能更好的扫地的/有没有性能更好的扫地的推荐一下/性能更好的扫地的/我想知道其他的扫地的/换一款扫地的/换一个扫地的/下一个扫地的/再介绍一个其他的扫地的/
+还有别的扫地的机器么？/你们店里还有其他的扫地的机器么？/扫地的机器还有没有其他选择？/扫地的机器还有没有其他款式？/扫地的机器还有没有其他型号？/扫地的机器其他型号有没有？/还有没有扫地的机器/还有扫地的机器么？/其他的扫地的机器呢？/别的扫地的机器/再给我推荐一个扫地的机器/再推荐一个扫地的机器我看看/再推荐一个扫地的机器我听听/我还想了解其他的扫地的机器/我还想了解别的扫地的机器型号的/再介绍一个扫地的机器/再介绍一款扫地的机器/还有没有扫地的机器？/还有其他的扫地的机器么？/其他的扫地的机器呢？/就这一款扫地的机器么？/就这一个扫地的机器？/有没有更好的扫地的机器？/有没有配置高一点的扫地的机器？/有没有比这个好的扫地的机器/有没有比这个好的扫地的机器推荐一下/有没有性能更好的扫地的机器/有没有性能更好的扫地的机器推荐一下/性能更好的扫地的机器/我想知道其他的扫地的机器/换一款扫地的机器/换一个扫地的机器/下一个扫地的机器/再介绍一个其他的扫地的机器/
+还有别的扫地拖地的么？/你们店里还有其他的扫地拖地的么？/扫地拖地的还有没有其他选择？/扫地拖地的还有没有其他款式？/扫地拖地的还有没有其他型号？/扫地拖地的其他型号有没有？/还有没有扫地拖地的/还有扫地拖地的么？/其他的扫地拖地的呢？/别的扫地拖地的/再给我推荐一个扫地拖地的/再推荐一个扫地拖地的我看看/再推荐一个扫地拖地的我听听/我还想了解其他的扫地拖地的/我还想了解别的扫地拖地的型号的/再介绍一个扫地拖地的/再介绍一款扫地拖地的/还有没有扫地拖地的？/还有其他的扫地拖地的么？/其他的扫地拖地的呢？/就这一款扫地拖地的么？/就这一个扫地拖地的？/有没有更好的扫地拖地的？/有没有配置高一点的扫地拖地的？/有没有比这个好的扫地拖地的/有没有比这个好的扫地拖地的推荐一下/有没有性能更好的扫地拖地的/有没有性能更好的扫地拖地的推荐一下/性能更好的扫地拖地的/我想知道其他的扫地拖地的/换一款扫地拖地的/换一个扫地拖地的/下一个扫地拖地的/再介绍一个其他的扫地拖地的/
+还有别的清洁地板的 么？/你们店里还有其他的清洁地板的 么？/清洁地板的 还有没有其他选择？/清洁地板的 还有没有其他款式？/清洁地板的 还有没有其他型号？/清洁地板的 其他型号有没有？/还有没有清洁地板的 /还有清洁地板的 么？/其他的清洁地板的 呢？/别的清洁地板的 /再给我推荐一个清洁地板的 /再推荐一个清洁地板的 我看看/再推荐一个清洁地板的 我听听/我还想了解其他的清洁地板的 /我还想了解别的清洁地板的 型号的/再介绍一个清洁地板的 /再介绍一款清洁地板的 /还有没有清洁地板的 ？/还有其他的清洁地板的 么？/其他的清洁地板的 呢？/就这一款清洁地板的 么？/就这一个清洁地板的 ？/有没有更好的清洁地板的 ？/有没有配置高一点的清洁地板的 ？/有没有比这个好的清洁地板的 /有没有比这个好的清洁地板的 推荐一下/有没有性能更好的清洁地板的 /有没有性能更好的清洁地板的 推荐一下/性能更好的清洁地板的 /我想知道其他的清洁地板的 /换一款清洁地板的 /换一个清洁地板的 /下一个清洁地板的 /再介绍一个其他的清洁地板的 /
+还有别的做清洁的么？/你们店里还有其他的做清洁的么？/做清洁的还有没有其他选择？/做清洁的还有没有其他款式？/做清洁的还有没有其他型号？/做清洁的其他型号有没有？/还有没有做清洁的/还有做清洁的么？/其他的做清洁的呢？/别的做清洁的/再给我推荐一个做清洁的/再推荐一个做清洁的我看看/再推荐一个做清洁的我听听/我还想了解其他的做清洁的/我还想了解别的做清洁的型号的/再介绍一个做清洁的/再介绍一款做清洁的/还有没有做清洁的？/还有其他的做清洁的么？/其他的做清洁的呢？/就这一款做清洁的么？/就这一个做清洁的？/有没有更好的做清洁的？/有没有配置高一点的做清洁的？/有没有比这个好的做清洁的/有没有比这个好的做清洁的推荐一下/有没有性能更好的做清洁的/有没有性能更好的做清洁的推荐一下/性能更好的做清洁的/我想知道其他的做清洁的/换一款做清洁的/换一个做清洁的/下一个做清洁的/再介绍一个其他的做清洁的/给我推荐一款扫地机器人
+</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog36.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="39" sId="2">
+    <oc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的窗宝么？/你们店里还有其他的窗宝么？/窗宝还有没有其他选择？/窗宝还有没有其他款式？/窗宝还有没有其他型号？/窗宝其他型号有没有？/还有没有窗宝/还有窗宝么？/其他的窗宝呢？/别的窗宝/再给我推荐一个窗宝/再推荐一个窗宝我看看/再推荐一个窗宝我听听/我还想了解其他的窗宝/我还想了解别的窗宝型号的/再介绍一个窗宝/再介绍一款窗宝/还有没有窗宝？/还有其他的窗宝么？/其他的窗宝呢？/就这一款窗宝么？/就这一个窗宝？/有没有更好的窗宝？/有没有配置高一点的窗宝？/有没有比这个好的窗宝/有没有比这个好的窗宝推荐一下/有没有性能更好的窗宝/有没有性能更好的窗宝推荐一下/性能更好的窗宝/我想知道其他的窗宝/换一款窗宝/换一个窗宝/下一个窗宝/再介绍一个其他的窗宝/还有别的擦窗户的么？/你们店里还有其他的擦窗户的么？/擦窗户的还有没有其他选择？/擦窗户的还有没有其他款式？/擦窗户的还有没有其他型号？/擦窗户的其他型号有没有？/还有没有擦窗户的/还有擦窗户的么？/其他的擦窗户的呢？/别的擦窗户的/再给我推荐一个擦窗户的/再推荐一个擦窗户的我看看/再推荐一个擦窗户的我听听/我还想了解其他的擦窗户的/我还想了解别的擦窗户的型号的/再介绍一个擦窗户的/再介绍一款擦窗户的/还有没有擦窗户的？/还有其他的擦窗户的么？/其他的擦窗户的呢？/就这一款擦窗户的么？/就这一个擦窗户的？/有没有更好的擦窗户的？/有没有配置高一点的擦窗户的？/有没有比这个好的擦窗户的/有没有比这个好的擦窗户的推荐一下/有没有性能更好的擦窗户的/有没有性能更好的擦窗户的推荐一下/性能更好的擦窗户的/我想知道其他的擦窗户的/换一款擦窗户的/换一个擦窗户的/下一个擦窗户的/再介绍一个其他的擦窗户的/给我推荐一款窗宝
+</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有啥样的/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的窗宝么？/你们店里还有其他的窗宝么？/窗宝还有没有其他选择？/窗宝还有没有其他款式？/窗宝还有没有其他型号？/窗宝其他型号有没有？/还有没有窗宝/还有窗宝么？/其他的窗宝呢？/别的窗宝/再给我推荐一个窗宝/再推荐一个窗宝我看看/再推荐一个窗宝我听听/我还想了解其他的窗宝/我还想了解别的窗宝型号的/再介绍一个窗宝/再介绍一款窗宝/还有没有窗宝？/还有其他的窗宝么？/其他的窗宝呢？/就这一款窗宝么？/就这一个窗宝？/有没有更好的窗宝？/有没有配置高一点的窗宝？/有没有比这个好的窗宝/有没有比这个好的窗宝推荐一下/有没有性能更好的窗宝/有没有性能更好的窗宝推荐一下/性能更好的窗宝/我想知道其他的窗宝/换一款窗宝/换一个窗宝/下一个窗宝/再介绍一个其他的窗宝/还有别的擦窗户的么？/你们店里还有其他的擦窗户的么？/擦窗户的还有没有其他选择？/擦窗户的还有没有其他款式？/擦窗户的还有没有其他型号？/擦窗户的其他型号有没有？/还有没有擦窗户的/还有擦窗户的么？/其他的擦窗户的呢？/别的擦窗户的/再给我推荐一个擦窗户的/再推荐一个擦窗户的我看看/再推荐一个擦窗户的我听听/我还想了解其他的擦窗户的/我还想了解别的擦窗户的型号的/再介绍一个擦窗户的/再介绍一款擦窗户的/还有没有擦窗户的？/还有其他的擦窗户的么？/其他的擦窗户的呢？/就这一款擦窗户的么？/就这一个擦窗户的？/有没有更好的擦窗户的？/有没有配置高一点的擦窗户的？/有没有比这个好的擦窗户的/有没有比这个好的擦窗户的推荐一下/有没有性能更好的擦窗户的/有没有性能更好的擦窗户的推荐一下/性能更好的擦窗户的/我想知道其他的擦窗户的/换一款擦窗户的/换一个擦窗户的/下一个擦窗户的/再介绍一个其他的擦窗户的/给我推荐一款窗宝
+</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog37.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="40" sId="3">
+    <oc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的沁宝么？/你们店里还有其他的沁宝么？/沁宝还有没有其他选择？/沁宝还有没有其他款式？/沁宝还有没有其他型号？/沁宝其他型号有没有？/还有没有沁宝/还有沁宝么？/其他的沁宝呢？/别的沁宝/再给我推荐一个沁宝/再推荐一个沁宝我看看/再推荐一个沁宝我听听/我还想了解其他的沁宝/我还想了解别的沁宝型号的/再介绍一个沁宝/再介绍一款沁宝/还有没有沁宝？/还有其他的沁宝么？/其他的沁宝呢？/就这一款沁宝么？/就这一个沁宝？/有没有更好的沁宝？/有没有配置高一点的沁宝？/有没有比这个好的沁宝/有没有比这个好的沁宝推荐一下/有没有性能更好的沁宝/有没有性能更好的沁宝推荐一下/性能更好的沁宝/我想知道其他的沁宝/换一款沁宝/换一个沁宝/下一个沁宝/再介绍一个其他的沁宝/还有别的沁宝么？/你们店里还有其他的沁宝么？/沁宝还有没有其他选择？/沁宝还有没有其他款式？/沁宝还有没有其他型号？/沁宝其他型号有没有？/还有没有沁宝/还有沁宝么？/其他的沁宝呢？/别的沁宝/再给我推荐一个沁宝/再推荐一个沁宝我看看/再推荐一个沁宝我听听/我还想了解其他的沁宝/我还想了解别的沁宝型号的/再介绍一个沁宝/再介绍一款沁宝/还有没有沁宝？/还有其他的沁宝么？/其他的沁宝呢？/就这一款沁宝么？/就这一个沁宝？/有没有更好的沁宝？/有没有配置高一点的沁宝？/有没有比这个好的沁宝/有没有比这个好的沁宝推荐一下/有没有性能更好的沁宝/有没有性能更好的沁宝推荐一下/性能更好的沁宝/我想知道其他的沁宝/换一款沁宝/换一个沁宝/下一个沁宝/再介绍一个其他的沁宝/
+还有别的净化空气么？/你们店里还有其他的净化空气么？/净化空气还有没有其他选择？/净化空气还有没有其他款式？/净化空气还有没有其他型号？/净化空气其他型号有没有？/还有没有净化空气/还有净化空气么？/其他的净化空气呢？/别的净化空气/再给我推荐一个净化空气/再推荐一个净化空气我看看/再推荐一个净化空气我听听/我还想了解其他的净化空气/我还想了解别的净化空气型号的/再介绍一个净化空气/再介绍一款净化空气/还有没有净化空气？/还有其他的净化空气么？/其他的净化空气呢？/就这一款净化空气么？/就这一个净化空气？/有没有更好的净化空气？/有没有配置高一点的净化空气？/有没有比这个好的净化空气/有没有比这个好的净化空气推荐一下/有没有性能更好的净化空气/有没有性能更好的净化空气推荐一下/性能更好的净化空气/我想知道其他的净化空气/换一款净化空气/换一个净化空气/下一个净化空气/再介绍一个其他的净化空气/
+还有别的清新房间空气的么？/你们店里还有其他的清新房间空气的么？/清新房间空气的还有没有其他选择？/清新房间空气的还有没有其他款式？/清新房间空气的还有没有其他型号？/清新房间空气的其他型号有没有？/还有没有清新房间空气的/还有清新房间空气的么？/其他的清新房间空气的呢？/别的清新房间空气的/再给我推荐一个清新房间空气的/再推荐一个清新房间空气的我看看/再推荐一个清新房间空气的我听听/我还想了解其他的清新房间空气的/我还想了解别的清新房间空气的型号的/再介绍一个清新房间空气的/再介绍一款清新房间空气的/还有没有清新房间空气的？/还有其他的清新房间空气的么？/其他的清新房间空气的呢？/就这一款清新房间空气的么？/就这一个清新房间空气的？/有没有更好的清新房间空气的？/有没有配置高一点的清新房间空气的？/有没有比这个好的清新房间空气的/有没有比这个好的清新房间空气的推荐一下/有没有性能更好的清新房间空气的/有没有性能更好的清新房间空气的推荐一下/性能更好的清新房间空气的/我想知道其他的清新房间空气的/换一款清新房间空气的/换一个清新房间空气的/下一个清新房间空气的/再介绍一个其他的清新房间空气的/
+还有别的湿润房间空气的么？/你们店里还有其他的湿润房间空气的么？/湿润房间空气的还有没有其他选择？/湿润房间空气的还有没有其他款式？/湿润房间空气的还有没有其他型号？/湿润房间空气的其他型号有没有？/还有没有湿润房间空气的 /还有湿润房间空气的么？/其他的湿润房间空气的呢？/别的湿润房间空气的 /再给我推荐一个湿润房间空气的/再推荐一个湿润房间空气的我看看/再推荐一个湿润房间空气的 我听听/我还想了解其他的湿润房间空气的/我还想了解别的湿润房间空气的 型号的/再介绍一个湿润房间空气的/再介绍一款湿润房间空气的/还有没有湿润房间空气的？/还有其他的湿润房间空气的么？/其他的湿润房间空气的呢？/就这一款湿润房间空气的么？/就这一个湿润房间空气的？/有没有更好的湿润房间空气的？/有没有配置高一点的湿润房间空气的？/有没有比这个好的湿润房间空气的/有没有比这个好的湿润房间空气的推荐一下/有没有性能更好的湿润房间空气的/有没有性能更好的湿润房间空气的推荐一下/性能更好的湿润房间空气的/我想知道其他的湿润房间空气的/换一款湿润房间空气的/换一个湿润房间空气的/下一个湿润房间空气的/再介绍一个其他的湿润房间空气的 /
+还有别的除去房间甲醛的么？/你们店里还有其他的除去房间甲醛的么？/除去房间甲醛的还有没有其他选择？/除去房间甲醛的还有没有其他款式？/除去房间甲醛的还有没有其他型号？/除去房间甲醛的其他型号有没有？/还有没有除去房间甲醛的/还有除去房间甲醛的么？/其他的除去房间甲醛的呢？/别的除去房间甲醛的/再给我推荐一个除去房间甲醛的/再推荐一个除去房间甲醛的我看看/再推荐一个除去房间甲醛的我听听/我还想了解其他的除去房间甲醛的/我还想了解别的除去房间甲醛的型号的/再介绍一个除去房间甲醛的/再介绍一款除去房间甲醛的/还有没有除去房间甲醛的？/还有其他的除去房间甲醛的么？/其他的除去房间甲醛的呢？/就这一款除去房间甲醛的么？/就这一个除去房间甲醛的？/有没有更好的除去房间甲醛的？/有没有配置高一点的除去房间甲醛的？/有没有比这个好的除去房间甲醛的/有没有比这个好的除去房间甲醛的推荐一下/有没有性能更好的除去房间甲醛的/有没有性能更好的除去房间甲醛的推荐一下/性能更好的除去房间甲醛的/我想知道其他的除去房间甲醛的/换一款除去房间甲醛的/换一个除去房间甲醛的/下一个除去房间甲醛的/再介绍一个其他的除去房间甲醛的/给我推荐一款沁宝
+</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有啥样的/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的沁宝么？/你们店里还有其他的沁宝么？/沁宝还有没有其他选择？/沁宝还有没有其他款式？/沁宝还有没有其他型号？/沁宝其他型号有没有？/还有没有沁宝/还有沁宝么？/其他的沁宝呢？/别的沁宝/再给我推荐一个沁宝/再推荐一个沁宝我看看/再推荐一个沁宝我听听/我还想了解其他的沁宝/我还想了解别的沁宝型号的/再介绍一个沁宝/再介绍一款沁宝/还有没有沁宝？/还有其他的沁宝么？/其他的沁宝呢？/就这一款沁宝么？/就这一个沁宝？/有没有更好的沁宝？/有没有配置高一点的沁宝？/有没有比这个好的沁宝/有没有比这个好的沁宝推荐一下/有没有性能更好的沁宝/有没有性能更好的沁宝推荐一下/性能更好的沁宝/我想知道其他的沁宝/换一款沁宝/换一个沁宝/下一个沁宝/再介绍一个其他的沁宝/还有别的沁宝么？/你们店里还有其他的沁宝么？/沁宝还有没有其他选择？/沁宝还有没有其他款式？/沁宝还有没有其他型号？/沁宝其他型号有没有？/还有没有沁宝/还有沁宝么？/其他的沁宝呢？/别的沁宝/再给我推荐一个沁宝/再推荐一个沁宝我看看/再推荐一个沁宝我听听/我还想了解其他的沁宝/我还想了解别的沁宝型号的/再介绍一个沁宝/再介绍一款沁宝/还有没有沁宝？/还有其他的沁宝么？/其他的沁宝呢？/就这一款沁宝么？/就这一个沁宝？/有没有更好的沁宝？/有没有配置高一点的沁宝？/有没有比这个好的沁宝/有没有比这个好的沁宝推荐一下/有没有性能更好的沁宝/有没有性能更好的沁宝推荐一下/性能更好的沁宝/我想知道其他的沁宝/换一款沁宝/换一个沁宝/下一个沁宝/再介绍一个其他的沁宝/
+还有别的净化空气么？/你们店里还有其他的净化空气么？/净化空气还有没有其他选择？/净化空气还有没有其他款式？/净化空气还有没有其他型号？/净化空气其他型号有没有？/还有没有净化空气/还有净化空气么？/其他的净化空气呢？/别的净化空气/再给我推荐一个净化空气/再推荐一个净化空气我看看/再推荐一个净化空气我听听/我还想了解其他的净化空气/我还想了解别的净化空气型号的/再介绍一个净化空气/再介绍一款净化空气/还有没有净化空气？/还有其他的净化空气么？/其他的净化空气呢？/就这一款净化空气么？/就这一个净化空气？/有没有更好的净化空气？/有没有配置高一点的净化空气？/有没有比这个好的净化空气/有没有比这个好的净化空气推荐一下/有没有性能更好的净化空气/有没有性能更好的净化空气推荐一下/性能更好的净化空气/我想知道其他的净化空气/换一款净化空气/换一个净化空气/下一个净化空气/再介绍一个其他的净化空气/
+还有别的清新房间空气的么？/你们店里还有其他的清新房间空气的么？/清新房间空气的还有没有其他选择？/清新房间空气的还有没有其他款式？/清新房间空气的还有没有其他型号？/清新房间空气的其他型号有没有？/还有没有清新房间空气的/还有清新房间空气的么？/其他的清新房间空气的呢？/别的清新房间空气的/再给我推荐一个清新房间空气的/再推荐一个清新房间空气的我看看/再推荐一个清新房间空气的我听听/我还想了解其他的清新房间空气的/我还想了解别的清新房间空气的型号的/再介绍一个清新房间空气的/再介绍一款清新房间空气的/还有没有清新房间空气的？/还有其他的清新房间空气的么？/其他的清新房间空气的呢？/就这一款清新房间空气的么？/就这一个清新房间空气的？/有没有更好的清新房间空气的？/有没有配置高一点的清新房间空气的？/有没有比这个好的清新房间空气的/有没有比这个好的清新房间空气的推荐一下/有没有性能更好的清新房间空气的/有没有性能更好的清新房间空气的推荐一下/性能更好的清新房间空气的/我想知道其他的清新房间空气的/换一款清新房间空气的/换一个清新房间空气的/下一个清新房间空气的/再介绍一个其他的清新房间空气的/
+还有别的湿润房间空气的么？/你们店里还有其他的湿润房间空气的么？/湿润房间空气的还有没有其他选择？/湿润房间空气的还有没有其他款式？/湿润房间空气的还有没有其他型号？/湿润房间空气的其他型号有没有？/还有没有湿润房间空气的 /还有湿润房间空气的么？/其他的湿润房间空气的呢？/别的湿润房间空气的 /再给我推荐一个湿润房间空气的/再推荐一个湿润房间空气的我看看/再推荐一个湿润房间空气的 我听听/我还想了解其他的湿润房间空气的/我还想了解别的湿润房间空气的 型号的/再介绍一个湿润房间空气的/再介绍一款湿润房间空气的/还有没有湿润房间空气的？/还有其他的湿润房间空气的么？/其他的湿润房间空气的呢？/就这一款湿润房间空气的么？/就这一个湿润房间空气的？/有没有更好的湿润房间空气的？/有没有配置高一点的湿润房间空气的？/有没有比这个好的湿润房间空气的/有没有比这个好的湿润房间空气的推荐一下/有没有性能更好的湿润房间空气的/有没有性能更好的湿润房间空气的推荐一下/性能更好的湿润房间空气的/我想知道其他的湿润房间空气的/换一款湿润房间空气的/换一个湿润房间空气的/下一个湿润房间空气的/再介绍一个其他的湿润房间空气的 /
+还有别的除去房间甲醛的么？/你们店里还有其他的除去房间甲醛的么？/除去房间甲醛的还有没有其他选择？/除去房间甲醛的还有没有其他款式？/除去房间甲醛的还有没有其他型号？/除去房间甲醛的其他型号有没有？/还有没有除去房间甲醛的/还有除去房间甲醛的么？/其他的除去房间甲醛的呢？/别的除去房间甲醛的/再给我推荐一个除去房间甲醛的/再推荐一个除去房间甲醛的我看看/再推荐一个除去房间甲醛的我听听/我还想了解其他的除去房间甲醛的/我还想了解别的除去房间甲醛的型号的/再介绍一个除去房间甲醛的/再介绍一款除去房间甲醛的/还有没有除去房间甲醛的？/还有其他的除去房间甲醛的么？/其他的除去房间甲醛的呢？/就这一款除去房间甲醛的么？/就这一个除去房间甲醛的？/有没有更好的除去房间甲醛的？/有没有配置高一点的除去房间甲醛的？/有没有比这个好的除去房间甲醛的/有没有比这个好的除去房间甲醛的推荐一下/有没有性能更好的除去房间甲醛的/有没有性能更好的除去房间甲醛的推荐一下/性能更好的除去房间甲醛的/我想知道其他的除去房间甲醛的/换一款除去房间甲醛的/换一个除去房间甲醛的/下一个除去房间甲醛的/再介绍一个其他的除去房间甲醛的/给我推荐一款沁宝
+</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="5" sId="1">
+    <oc r="A8" t="inlineStr">
+      <is>
+        <t>性能高点的</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="A8" t="inlineStr">
+      <is>
+        <t>性能高点的</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="6" sId="1">
+    <oc r="F8" t="inlineStr">
+      <is>
+        <r>
+          <t>性能好的/配置高的/性能高的/我</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>想买性能高点的/性能高点的/性能高的就行/我当然是买性能高的了/买性能高的啦/性能高的性能高的/我要性能高的/我要性能高一点的有没有/我需要性能高点的/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的了/当然买性能好的了/当然是性能高的了/当然需要性能高的了/当然是买性能高一点的/买性能高点的/性能高一点的就行了/买性能高一点的就可以了/就买性能高一点的吧/你就给我介绍性能高一点的吧/你给我介绍性能高一点的就好了/给我说一下性能高一点的吧/不买差的/不要差的/差的不要/不想要差的/差的不要/不要差的/我不买差的/我不要差的/差的我不要哈/我不想买差的/我要买好的/我要买能力强的/我要买高性能的/当然是买性能高的了/给我推荐一款性能好的/我要性能好的/我要配置高的/我想买一款配置高的/能给我推荐一款配置高的吗/能不能给我推荐一款性能高的/可以推荐一款性能高的吗？/我想买性能高的有吗/我想买配置高的/能不能给我推荐一款性能高的/可以推荐一款性能高的给我吗/给我推荐一款性能高的吗/有配置高的给我推荐一下吧/给我推荐一款配置高的吧</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F8" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>性能高点的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/性能好的/配置高的/性能高的/我</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>想买性能高点的/性能高点的/性能高的就行/我当然是买性能高的了/买性能高的啦/性能高的性能高的/我要性能高的/我要性能高一点的有没有/我需要性能高点的/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的了/当然买性能好的了/当然是性能高的了/当然需要性能高的了/当然是买性能高一点的/买性能高点的/性能高一点的就行了/买性能高一点的就可以了/就买性能高一点的吧/你就给我介绍性能高一点的吧/你给我介绍性能高一点的就好了/给我说一下性能高一点的吧/不买差的/不要差的/差的不要/不想要差的/差的不要/不要差的/我不买差的/我不要差的/差的我不要哈/我不想买差的/我要买好的/我要买能力强的/我要买高性能的/当然是买性能高的了/给我推荐一款性能好的/我要性能好的/我要配置高的/我想买一款配置高的/能给我推荐一款配置高的吗/能不能给我推荐一款性能高的/可以推荐一款性能高的吗？/我想买性能高的有吗/我想买配置高的/能不能给我推荐一款性能高的/可以推荐一款性能高的给我吗/给我推荐一款性能高的吗/有配置高的给我推荐一下吧/给我推荐一款配置高的吧</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="7" sId="1">
+    <oc r="A10" t="inlineStr">
+      <is>
+        <t>便宜一点的扫地机</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="A10" t="inlineStr">
+      <is>
+        <t>便宜一点的扫地机</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="F1:F1048576">
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="8" sId="2">
+    <oc r="A2" t="inlineStr">
+      <is>
+        <t>我来买擦窗机器人</t>
+      </is>
+    </oc>
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>我来买擦窗机器人</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="9" sId="2">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <t>擦窗户的机器人有么？/我来买个擦窗户的/擦窗户的有没有？/擦窗户的那种/能擦窗户的/擦玻璃的那种/擦玻璃的机器人有么？/我来买个擦玻璃的/擦玻璃的有没有？/有没有擦窗机器人？/擦窗机器人有吗？这里有擦窗机器人吗？/有没有擦窗机器人卖？/这里有卖擦窗机器人的吗？/推荐个擦窗机器人/推荐擦窗机器人/介绍个擦窗机器人/介绍擦窗机器人/给我推荐个擦窗机器人/我来买个擦窗机器人/擦窗机器人有吗？/有没有擦窗机器人？/有擦窗机器人吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗机器人？/这里能买到擦窗机器人吗？/给我介绍个擦窗机器人？/能不能介绍一个擦窗机器人？/可以给我介绍一个擦窗机器人吗？/有没有擦窗的机器？/擦窗的机器有吗？这里有擦窗的机器吗？/有没有擦窗的机器卖？/这里有卖擦窗的机器的吗？/推荐个擦窗的机器/推荐擦窗的机器/介绍个擦窗的机器/介绍擦窗的机器/给我推荐个擦窗的机器/我来买个擦窗的机器/擦窗的机器有吗？/有没有擦窗的机器？/有擦窗的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗的机器？/这里能买到擦窗的机器吗？/给我介绍个擦窗的机器？/能不能介绍一个擦窗的机器？/可以给我介绍一个擦窗的机器吗？/有没有擦窗户的机器？/擦窗户的机器有吗？这里有擦窗户的机器吗？/有没有擦窗户的机器卖？/这里有卖擦窗户的机器的吗？/推荐个擦窗户的机器/推荐擦窗户的机器/介绍个擦窗户的机器/介绍擦窗户的机器/给我推荐个擦窗户的机器/我来买个擦窗户的机器/擦窗户的机器有吗？/有没有擦窗户的机器？/有擦窗户的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗户的机器？/这里能买到擦窗户的机器吗？/给我介绍个擦窗户的机器？/能不能介绍一个擦窗户的机器？/可以给我介绍一个擦窗户的机器吗？/有没有擦玻璃的机器？/擦玻璃的机器有吗？这里有擦玻璃的机器吗？/有没有擦玻璃的机器卖？/这里有卖擦玻璃的机器的吗？/推荐个擦玻璃的机器/推荐擦玻璃的机器/介绍个擦玻璃的机器/介绍擦玻璃的机器/给我推荐个擦玻璃的机器/我来买个擦玻璃的机器/擦玻璃的机器有吗？/有没有擦玻璃的机器？/有擦玻璃的机器吗？/有擦玻璃的机器人吗？/你们这里有擦玻璃的机器人卖吗？/可不可以在这里买擦玻璃的机器？/这里能买到擦玻璃的机器吗？/给我介绍个擦玻璃的机器？/能不能介绍一个擦玻璃的机器？/可以给我介绍一个擦玻璃的机器吗？/有没有打扫窗户的机器？/打扫窗户的机器有吗？这里有打扫窗户的机器吗？/有没有打扫窗户的机器卖？/这里有卖打扫窗户的机器的吗？/推荐个打扫窗户的机器/推荐打扫窗户的机器/介绍个打扫窗户的机器/介绍打扫窗户的机器/给我推荐个打扫窗户的机器/我来买个打扫窗户的机器/打扫窗户的机器有吗？/有没有打扫窗户的机器？/有打扫窗户的机器吗？/有打扫窗户的机器人吗？/你们这里有打扫窗户的机器人卖吗？/可不可以在这里买打扫窗户的机器？/这里能买到打扫窗户的机器吗？/给我介绍个打扫窗户的机器？/能不能介绍一个打扫窗户的机器？/可以给我介绍一个打扫窗户的机器吗？/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>我来买擦窗机器人/擦窗户的机器人有么？/我来买个擦窗户的/擦窗户的有没有？/擦窗户的那种/能擦窗户的/擦玻璃的那种/擦玻璃的机器人有么？/我来买个擦玻璃的/擦玻璃的有没有？/有没有擦窗机器人？/擦窗机器人有吗？这里有擦窗机器人吗？/有没有擦窗机器人卖？/这里有卖擦窗机器人的吗？/推荐个擦窗机器人/推荐擦窗机器人/介绍个擦窗机器人/介绍擦窗机器人/给我推荐个擦窗机器人/我来买个擦窗机器人/擦窗机器人有吗？/有没有擦窗机器人？/有擦窗机器人吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗机器人？/这里能买到擦窗机器人吗？/给我介绍个擦窗机器人？/能不能介绍一个擦窗机器人？/可以给我介绍一个擦窗机器人吗？/有没有擦窗的机器？/擦窗的机器有吗？这里有擦窗的机器吗？/有没有擦窗的机器卖？/这里有卖擦窗的机器的吗？/推荐个擦窗的机器/推荐擦窗的机器/介绍个擦窗的机器/介绍擦窗的机器/给我推荐个擦窗的机器/我来买个擦窗的机器/擦窗的机器有吗？/有没有擦窗的机器？/有擦窗的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗的机器？/这里能买到擦窗的机器吗？/给我介绍个擦窗的机器？/能不能介绍一个擦窗的机器？/可以给我介绍一个擦窗的机器吗？/有没有擦窗户的机器？/擦窗户的机器有吗？这里有擦窗户的机器吗？/有没有擦窗户的机器卖？/这里有卖擦窗户的机器的吗？/推荐个擦窗户的机器/推荐擦窗户的机器/介绍个擦窗户的机器/介绍擦窗户的机器/给我推荐个擦窗户的机器/我来买个擦窗户的机器/擦窗户的机器有吗？/有没有擦窗户的机器？/有擦窗户的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗户的机器？/这里能买到擦窗户的机器吗？/给我介绍个擦窗户的机器？/能不能介绍一个擦窗户的机器？/可以给我介绍一个擦窗户的机器吗？/有没有擦玻璃的机器？/擦玻璃的机器有吗？这里有擦玻璃的机器吗？/有没有擦玻璃的机器卖？/这里有卖擦玻璃的机器的吗？/推荐个擦玻璃的机器/推荐擦玻璃的机器/介绍个擦玻璃的机器/介绍擦玻璃的机器/给我推荐个擦玻璃的机器/我来买个擦玻璃的机器/擦玻璃的机器有吗？/有没有擦玻璃的机器？/有擦玻璃的机器吗？/有擦玻璃的机器人吗？/你们这里有擦玻璃的机器人卖吗？/可不可以在这里买擦玻璃的机器？/这里能买到擦玻璃的机器吗？/给我介绍个擦玻璃的机器？/能不能介绍一个擦玻璃的机器？/可以给我介绍一个擦玻璃的机器吗？/有没有打扫窗户的机器？/打扫窗户的机器有吗？这里有打扫窗户的机器吗？/有没有打扫窗户的机器卖？/这里有卖打扫窗户的机器的吗？/推荐个打扫窗户的机器/推荐打扫窗户的机器/介绍个打扫窗户的机器/介绍打扫窗户的机器/给我推荐个打扫窗户的机器/我来买个打扫窗户的机器/打扫窗户的机器有吗？/有没有打扫窗户的机器？/有打扫窗户的机器吗？/有打扫窗户的机器人吗？/你们这里有打扫窗户的机器人卖吗？/可不可以在这里买打扫窗户的机器？/这里能买到打扫窗户的机器吗？/给我介绍个打扫窗户的机器？/能不能介绍一个打扫窗户的机器？/可以给我介绍一个打扫窗户的机器吗？/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{613290AE-B815-482C-9227-4F835E90B755}" action="delete"/>
+  <rcv guid="{613290AE-B815-482C-9227-4F835E90B755}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="10" sId="2">
+    <oc r="A3" t="inlineStr">
+      <is>
+        <t>还有吗</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>还有吗</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="11" sId="2">
+    <oc r="F3" t="inlineStr">
+      <is>
+        <t xml:space="preserve">还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的窗宝么？/你们店里还有其他的窗宝么？/窗宝还有没有其他选择？/窗宝还有没有其他款式？/窗宝还有没有其他型号？/窗宝其他型号有没有？/还有没有窗宝/还有窗宝么？/其他的窗宝呢？/别的窗宝/再给我推荐一个窗宝/再推荐一个窗宝我看看/再推荐一个窗宝我听听/我还想了解其他的窗宝/我还想了解别的窗宝型号的/再介绍一个窗宝/再介绍一款窗宝/还有没有窗宝？/还有其他的窗宝么？/其他的窗宝呢？/就这一款窗宝么？/就这一个窗宝？/有没有更好的窗宝？/有没有配置高一点的窗宝？/有没有比这个好的窗宝/有没有比这个好的窗宝推荐一下/有没有性能更好的窗宝/有没有性能更好的窗宝推荐一下/性能更好的窗宝/我想知道其他的窗宝/换一款窗宝/换一个窗宝/下一个窗宝/再介绍一个其他的窗宝/还有别的擦窗户的么？/你们店里还有其他的擦窗户的么？/擦窗户的还有没有其他选择？/擦窗户的还有没有其他款式？/擦窗户的还有没有其他型号？/擦窗户的其他型号有没有？/还有没有擦窗户的/还有擦窗户的么？/其他的擦窗户的呢？/别的擦窗户的/再给我推荐一个擦窗户的/再推荐一个擦窗户的我看看/再推荐一个擦窗户的我听听/我还想了解其他的擦窗户的/我还想了解别的擦窗户的型号的/再介绍一个擦窗户的/再介绍一款擦窗户的/还有没有擦窗户的？/还有其他的擦窗户的么？/其他的擦窗户的呢？/就这一款擦窗户的么？/就这一个擦窗户的？/有没有更好的擦窗户的？/有没有配置高一点的擦窗户的？/有没有比这个好的擦窗户的/有没有比这个好的擦窗户的推荐一下/有没有性能更好的擦窗户的/有没有性能更好的擦窗户的推荐一下/性能更好的擦窗户的/我想知道其他的擦窗户的/换一款擦窗户的/换一个擦窗户的/下一个擦窗户的/再介绍一个其他的擦窗户的/给我推荐一款窗宝
+</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F3" t="inlineStr">
+      <is>
+        <t xml:space="preserve">还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的窗宝么？/你们店里还有其他的窗宝么？/窗宝还有没有其他选择？/窗宝还有没有其他款式？/窗宝还有没有其他型号？/窗宝其他型号有没有？/还有没有窗宝/还有窗宝么？/其他的窗宝呢？/别的窗宝/再给我推荐一个窗宝/再推荐一个窗宝我看看/再推荐一个窗宝我听听/我还想了解其他的窗宝/我还想了解别的窗宝型号的/再介绍一个窗宝/再介绍一款窗宝/还有没有窗宝？/还有其他的窗宝么？/其他的窗宝呢？/就这一款窗宝么？/就这一个窗宝？/有没有更好的窗宝？/有没有配置高一点的窗宝？/有没有比这个好的窗宝/有没有比这个好的窗宝推荐一下/有没有性能更好的窗宝/有没有性能更好的窗宝推荐一下/性能更好的窗宝/我想知道其他的窗宝/换一款窗宝/换一个窗宝/下一个窗宝/再介绍一个其他的窗宝/还有别的擦窗户的么？/你们店里还有其他的擦窗户的么？/擦窗户的还有没有其他选择？/擦窗户的还有没有其他款式？/擦窗户的还有没有其他型号？/擦窗户的其他型号有没有？/还有没有擦窗户的/还有擦窗户的么？/其他的擦窗户的呢？/别的擦窗户的/再给我推荐一个擦窗户的/再推荐一个擦窗户的我看看/再推荐一个擦窗户的我听听/我还想了解其他的擦窗户的/我还想了解别的擦窗户的型号的/再介绍一个擦窗户的/再介绍一款擦窗户的/还有没有擦窗户的？/还有其他的擦窗户的么？/其他的擦窗户的呢？/就这一款擦窗户的么？/就这一个擦窗户的？/有没有更好的擦窗户的？/有没有配置高一点的擦窗户的？/有没有比这个好的擦窗户的/有没有比这个好的擦窗户的推荐一下/有没有性能更好的擦窗户的/有没有性能更好的擦窗户的推荐一下/性能更好的擦窗户的/我想知道其他的擦窗户的/换一款擦窗户的/换一个擦窗户的/下一个擦窗户的/再介绍一个其他的擦窗户的/给我推荐一款窗宝
+</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="3" sqref="F1:F1048576">
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="12" sId="3">
+    <oc r="A2" t="inlineStr">
+      <is>
+        <t>我来买空气净化机器人</t>
+      </is>
+    </oc>
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>我来买空气净化机器人</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="13" sId="3">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <t>我来是买空气净化机器人的/我来买空气净化机器人的/我是来买空气净化机器人的/我来买净化空气的机器人/我想买空气净化机器人/空气净化机器人/净化空气的/能净化空气的/我想要空气净化机器人/我要空气净化机器人/有空气净化机器人吗？/空气净化机器人这里有卖的吗？/你们这里有卖空气净化机器人的吗？/推荐个空气净化机器人/给我推荐个空气净化机器人/介绍个空气净化机器人/介绍空气净化机器人/空气净化器有没有？/有没有空气净化器？/这里有空气净化器吗？/这里有卖空气净化器的吗？/你们这里有空气净化器吗？/你们这里有卖空气净化器的吗？/有没有空气净化器卖呀？/我想买净化空气的机器人/我想要一个净化空气的机器人/我来买净化空气的机器人的/我来买空气净化机器人/我来买空气净化机器人人/我想买空气净化机器人/空气净化机器人/我来买空气净化机器人/我想要空气净化机器人/我要空气净化机器人/推荐个空气净化机器人/我要买空气净化机器人/买空气净化机器人/我要买空气净化机器人/推荐个空气净化机器人/推荐空气净化机器人/空气净化机器人/给我推荐个空气净化机器人/介绍个空气净化机器人/介绍下空气净化机器人/我想买一个空气净化机器人/你们这里可以买空气净化机器人吗？/你能给我推荐一下空气净化机器人吗？/空气净化机器人有没有啊？/有没有空气净化机器人卖？/可以在这里买到空气净化机器人吗？/能不能介绍一个空气净化机器人给我？/可以给我介绍一个空气净化机器人吗？/能不能给我推荐一个空气净化机器人？/可以推荐一个空气净化机器人给我？//我来买净化空气的机器/我来买净化空气的机器人/我想买净化空气的机器/净化空气的机器/我来买净化空气的机器/我想要净化空气的机器/我要净化空气的机器/推荐个净化空气的机器/我要买净化空气的机器/买净化空气的机器/我要买净化空气的机器/推荐个净化空气的机器/推荐净化空气的机器/净化空气的机器/给我推荐个净化空气的机器/介绍个净化空气的机器/介绍下净化空气的机器/我想买一个净化空气的机器/你们这里可以买净化空气的机器吗？/你能给我推荐一下净化空气的机器吗？/净化空气的机器有没有啊？/有没有净化空气的机器卖？/可以在这里买到净化空气的机器吗？/能不能介绍一个净化空气的机器给我？/可以给我介绍一个净化空气的机器吗？/能不能给我推荐一个净化空气的机器？/可以推荐一个净化空气的机器给我？//我来买能让空气变好的机器/我来买能让空气变好的机器人/我想买能让空气变好的机器/能让空气变好的机器/我来买能让空气变好的机器/我想要能让空气变好的机器/我要能让空气变好的机器/推荐个能让空气变好的机器/我要买能让空气变好的机器/买能让空气变好的机器/我要买能让空气变好的机器/推荐个能让空气变好的机器/推荐能让空气变好的机器/能让空气变好的机器/给我推荐个能让空气变好的机器/介绍个能让空气变好的机器/介绍下能让空气变好的机器/我想买一个能让空气变好的机器/你们这里可以买能让空气变好的机器吗？/你能给我推荐一下能让空气变好的机器吗？/能让空气变好的机器有没有啊？/有没有能让空气变好的机器卖？/可以在这里买到能让空气变好的机器吗？/能不能介绍一个能让空气变好的机器给我？/可以给我介绍一个能让空气变好的机器吗？/能不能给我推荐一个能让空气变好的机器？/可以推荐一个能让空气变好的机器给我？//我来买过滤空气的机器/我来买过滤空气的机器人/我想买过滤空气的机器/过滤空气的机器/我来买过滤空气的机器/我想要过滤空气的机器/我要过滤空气的机器/推荐个过滤空气的机器/我要买过滤空气的机器/买过滤空气的机器/我要买过滤空气的机器/推荐个过滤空气的机器/推荐过滤空气的机器/过滤空气的机器/给我推荐个过滤空气的机器/介绍个过滤空气的机器/介绍下过滤空气的机器/我想买一个过滤空气的机器/你们这里可以买过滤空气的机器吗？/你能给我推荐一下过滤空气的机器吗？/过滤空气的机器有没有啊？/有没有过滤空气的机器卖？/可以在这里买到过滤空气的机器吗？/能不能介绍一个过滤空气的机器给我？/可以给我介绍一个过滤空气的机器吗？/能不能给我推荐一个过滤空气的机器？/可以推荐一个过滤空气的机器给我？/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>我来买空气净化机器人/我来是买空气净化机器人的/我来买空气净化机器人的/我是来买空气净化机器人的/我来买净化空气的机器人/我想买空气净化机器人/空气净化机器人/净化空气的/能净化空气的/我想要空气净化机器人/我要空气净化机器人/有空气净化机器人吗？/空气净化机器人这里有卖的吗？/你们这里有卖空气净化机器人的吗？/推荐个空气净化机器人/给我推荐个空气净化机器人/介绍个空气净化机器人/介绍空气净化机器人/空气净化器有没有？/有没有空气净化器？/这里有空气净化器吗？/这里有卖空气净化器的吗？/你们这里有空气净化器吗？/你们这里有卖空气净化器的吗？/有没有空气净化器卖呀？/我想买净化空气的机器人/我想要一个净化空气的机器人/我来买净化空气的机器人的/我来买空气净化机器人/我来买空气净化机器人人/我想买空气净化机器人/空气净化机器人/我来买空气净化机器人/我想要空气净化机器人/我要空气净化机器人/推荐个空气净化机器人/我要买空气净化机器人/买空气净化机器人/我要买空气净化机器人/推荐个空气净化机器人/推荐空气净化机器人/空气净化机器人/给我推荐个空气净化机器人/介绍个空气净化机器人/介绍下空气净化机器人/我想买一个空气净化机器人/你们这里可以买空气净化机器人吗？/你能给我推荐一下空气净化机器人吗？/空气净化机器人有没有啊？/有没有空气净化机器人卖？/可以在这里买到空气净化机器人吗？/能不能介绍一个空气净化机器人给我？/可以给我介绍一个空气净化机器人吗？/能不能给我推荐一个空气净化机器人？/可以推荐一个空气净化机器人给我？//我来买净化空气的机器/我来买净化空气的机器人/我想买净化空气的机器/净化空气的机器/我来买净化空气的机器/我想要净化空气的机器/我要净化空气的机器/推荐个净化空气的机器/我要买净化空气的机器/买净化空气的机器/我要买净化空气的机器/推荐个净化空气的机器/推荐净化空气的机器/净化空气的机器/给我推荐个净化空气的机器/介绍个净化空气的机器/介绍下净化空气的机器/我想买一个净化空气的机器/你们这里可以买净化空气的机器吗？/你能给我推荐一下净化空气的机器吗？/净化空气的机器有没有啊？/有没有净化空气的机器卖？/可以在这里买到净化空气的机器吗？/能不能介绍一个净化空气的机器给我？/可以给我介绍一个净化空气的机器吗？/能不能给我推荐一个净化空气的机器？/可以推荐一个净化空气的机器给我？//我来买能让空气变好的机器/我来买能让空气变好的机器人/我想买能让空气变好的机器/能让空气变好的机器/我来买能让空气变好的机器/我想要能让空气变好的机器/我要能让空气变好的机器/推荐个能让空气变好的机器/我要买能让空气变好的机器/买能让空气变好的机器/我要买能让空气变好的机器/推荐个能让空气变好的机器/推荐能让空气变好的机器/能让空气变好的机器/给我推荐个能让空气变好的机器/介绍个能让空气变好的机器/介绍下能让空气变好的机器/我想买一个能让空气变好的机器/你们这里可以买能让空气变好的机器吗？/你能给我推荐一下能让空气变好的机器吗？/能让空气变好的机器有没有啊？/有没有能让空气变好的机器卖？/可以在这里买到能让空气变好的机器吗？/能不能介绍一个能让空气变好的机器给我？/可以给我介绍一个能让空气变好的机器吗？/能不能给我推荐一个能让空气变好的机器？/可以推荐一个能让空气变好的机器给我？//我来买过滤空气的机器/我来买过滤空气的机器人/我想买过滤空气的机器/过滤空气的机器/我来买过滤空气的机器/我想要过滤空气的机器/我要过滤空气的机器/推荐个过滤空气的机器/我要买过滤空气的机器/买过滤空气的机器/我要买过滤空气的机器/推荐个过滤空气的机器/推荐过滤空气的机器/过滤空气的机器/给我推荐个过滤空气的机器/介绍个过滤空气的机器/介绍下过滤空气的机器/我想买一个过滤空气的机器/你们这里可以买过滤空气的机器吗？/你能给我推荐一下过滤空气的机器吗？/过滤空气的机器有没有啊？/有没有过滤空气的机器卖？/可以在这里买到过滤空气的机器吗？/能不能介绍一个过滤空气的机器给我？/可以给我介绍一个过滤空气的机器吗？/能不能给我推荐一个过滤空气的机器？/可以推荐一个过滤空气的机器给我？/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1299,8 +4186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1323,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1343,70 +4230,70 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="174" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>46</v>
+      <c r="F2" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="185.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>52</v>
+        <v>19</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1416,90 +4303,90 @@
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="174" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>10</v>
+      <c r="F6" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="190.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>47</v>
+        <v>20</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1507,28 +4394,40 @@
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{613290AE-B815-482C-9227-4F835E90B755}">
+      <selection activeCell="F12" sqref="F12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{5629F9B3-54EF-42EA-B0A9-15544B8E5C42}" topLeftCell="C1">
+      <selection activeCell="H3" sqref="H3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1536,18 +4435,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="35.25" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="58.875" customWidth="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="75.125" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="93.375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1558,7 +4457,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1566,7 +4465,7 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1578,48 +4477,58 @@
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="275.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{613290AE-B815-482C-9227-4F835E90B755}">
+      <selection activeCell="F3" sqref="F3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{5629F9B3-54EF-42EA-B0A9-15544B8E5C42}">
+      <selection activeCell="F3" sqref="F3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1627,18 +4536,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.875" customWidth="1"/>
-    <col min="2" max="2" width="65.875" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="53.875" customWidth="1"/>
     <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="6" max="6" width="79" customWidth="1"/>
+    <col min="6" max="6" width="96.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1649,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1657,7 +4566,7 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1669,49 +4578,62 @@
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="209.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
+      <c r="F2" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="207" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="242.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="6"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{613290AE-B815-482C-9227-4F835E90B755}">
+      <selection activeCell="C3" sqref="C3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{5629F9B3-54EF-42EA-B0A9-15544B8E5C42}">
+      <selection activeCell="B13" sqref="B13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/update_data/data/ecovacs/dialogue/副本科沃斯门店对话设计.xlsx
+++ b/update_data/data/ecovacs/dialogue/副本科沃斯门店对话设计.xlsx
@@ -13,8 +13,8 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="hongru.chu(褚宏茹) - 个人视图" guid="{5629F9B3-54EF-42EA-B0A9-15544B8E5C42}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="781" activeSheetId="1"/>
     <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{613290AE-B815-482C-9227-4F835E90B755}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" activeSheetId="3"/>
-    <customWorkbookView name="hongru.chu(褚宏茹) - 个人视图" guid="{5629F9B3-54EF-42EA-B0A9-15544B8E5C42}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="781" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -761,66 +761,6 @@
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>便宜一点的扫地机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/我想买便宜点的扫地机/我要买便宜点的扫地机/我要买价格低点的扫地机/我要买便宜的扫地机就行/我当然是买便宜的扫地机了/我要买便宜的扫地机啦/我要买便宜的便宜的扫地机/我要买价格便宜的扫地机/我要买价格低的扫地机/我要便宜一点的扫地机有没有/我需要便宜点的扫地机/你能给我介绍便宜点的扫地机吗/我想买便宜点的扫地机有没有/我想买便宜点的扫地机/我想要价格低点的扫地机/我想要便宜的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格便宜的扫地机了/我要买便宜一点的扫地机/我要买便宜点的扫地机/我就便宜一点的扫地机就行了/买便宜一点的扫地机就可以了/就买便宜一点的扫地机吧/你就给我介绍便宜一点的扫地机吧/你给我介绍便宜一点的扫地机就好了/给我说一下便宜一点的扫地机吧/我不买贵的扫地机/不要贵的扫地机/我贵的扫地机不要/我不想要贵的扫地机/我贵的扫地机不要/我不要贵的扫地机/我不买贵的扫地机/我不要贵的扫地机/贵的扫地机我不要哈/我不想买贵的扫地机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/我想买一款便宜的扫地机/我想买一款性价比高的扫地机/你能给我推荐一款性价比高的扫地机吗/你可以推荐一款性价比高的扫地机给我吗/给我推荐一款价格低的扫地机吧/能不能给我推荐一款价格低点的扫地机啊
-/我想买便宜点的扫地机器人/我要买便宜点的扫地机器人/我要买价格低点的扫地机器人/我要买便宜的扫地机器人就行/我当然是买便宜的扫地机器人了/我要买便宜的扫地机器人啦/我要买便宜的便宜的扫地机器人/我要买价格便宜的扫地机器人/我要买价格低的扫地机器人/我要便宜一点的扫地机器人有没有/我需要便宜点的扫地机器人/你能给我介绍便宜点的扫地机器人吗/我想买便宜点的扫地机器人有没有/我想买便宜点的扫地机器人/我想要价格低点的扫地机器人/我想要便宜的扫地机器人啊/我要买扫地机器人/买价格低点了扫地机器人/我要买价格低的扫地机器人了/我要买需要价格便宜的扫地机器人了/我要买便宜一点的扫地机器人/我要买便宜点的扫地机器人/我就便宜一点的扫地机器人就行了/买便宜一点的扫地机器人就可以了/就买便宜一点的扫地机器人吧/你就给我介绍便宜一点的扫地机器人吧/你给我介绍便宜一点的扫地机器人就好了/给我说一下便宜一点的扫地机器人吧/我不买贵的扫地机器人/不要贵的扫地机器人/我贵的扫地机器人不要/我不想要贵的扫地机器人/我贵的扫地机器人不要/我不要贵的扫地机器人/我不买贵的扫地机器人/我不要贵的扫地机器人/贵的扫地机器人我不要哈/我不想买贵的扫地机器人/我想买一款便宜的扫地机器人/我想买一款性价比高的扫地机器人/你能给我推荐一款性价比高的扫地机器人吗/你可以推荐一款性价比高的扫地机器人给我吗/给我推荐一款价格低的扫地机器人吧/能不能给我推荐一款价格低点的扫地机器人啊//我想买实惠的扫地机/我要买实惠的扫地机/我要买价格低点的扫地机/我要买实惠的扫地机就行/我当然是买实惠的扫地机了/我要买实惠的扫地机啦/我要买实惠的实惠的扫地机/我要买价格实惠的扫地机/我要买价格低的扫地机/我要实惠一点的扫地机有没有/我需要实惠的扫地机/你能给我介绍实惠的扫地机吗/我想买实惠的扫地机有没有/我想买实惠的扫地机/我想要价格低点的扫地机/我想要实惠的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格实惠的扫地机了/我要买实惠一点的扫地机/我要买实惠的扫地机/我就实惠一点的扫地机就行了/买实惠一点的扫地机就可以了/就买实惠一点的扫地机吧/你就给我介绍实惠一点的扫地机吧/你给我介绍实惠一点的扫地机就好了/给我说一下实惠一点的扫地机吧/我想买实惠的扫地机器人/我要买实惠的扫地机器人/我要买价格低点的扫地机器人/我要买实惠的扫地机器人就行/我当然是买实惠的扫地机器人了/我要买实惠的扫地机器人啦/我要买实惠的实惠的扫地机器人/我要买价格实惠的扫地机器人/我要买价格低的扫地机器人/我要实惠一点的扫地机器人有没有/我需要实惠的扫地机器人/你能给我介绍实惠的扫地机器人吗/我想买实惠的扫地机器人有没有/我想买实惠的扫地机器人/我想要价格低点的扫地机器人/我想要实惠的扫地机器人啊/我要买扫地机器人/买价格低点了扫地机器人/我要买价格低的扫地机器人了/我要买需要价格实惠的扫地机器人了/我要买实惠一点的扫地机器人/我要买实惠的扫地机器人/我就实惠一点的扫地机器人就行了/买实惠一点的扫地机器人就可以了/就买实惠一点的扫地机器人吧/你就给我介绍实惠一点的扫地机器人吧/你给我介绍实惠一点的扫地机器人就好了/给我说一下实惠一点的扫地机器人吧/我不买贵的扫地机器人/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>你们最便宜的扫地机介绍一下吧/最便宜的地宝/最便宜的/给我介绍一下最实惠的扫地机/最实惠的给我介绍一下/你们这里有折扣很大的扫地机卖吗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
       </rPr>
       <t>还有吗</t>
     </r>
@@ -894,60 +834,21 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>还有啥样的/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的窗宝么？/你们店里还有其他的窗宝么？/窗宝还有没有其他选择？/窗宝还有没有其他款式？/窗宝还有没有其他型号？/窗宝其他型号有没有？/还有没有窗宝/还有窗宝么？/其他的窗宝呢？/别的窗宝/再给我推荐一个窗宝/再推荐一个窗宝我看看/再推荐一个窗宝我听听/我还想了解其他的窗宝/我还想了解别的窗宝型号的/再介绍一个窗宝/再介绍一款窗宝/还有没有窗宝？/还有其他的窗宝么？/其他的窗宝呢？/就这一款窗宝么？/就这一个窗宝？/有没有更好的窗宝？/有没有配置高一点的窗宝？/有没有比这个好的窗宝/有没有比这个好的窗宝推荐一下/有没有性能更好的窗宝/有没有性能更好的窗宝推荐一下/性能更好的窗宝/我想知道其他的窗宝/换一款窗宝/换一个窗宝/下一个窗宝/再介绍一个其他的窗宝/还有别的擦窗户的么？/你们店里还有其他的擦窗户的么？/擦窗户的还有没有其他选择？/擦窗户的还有没有其他款式？/擦窗户的还有没有其他型号？/擦窗户的其他型号有没有？/还有没有擦窗户的/还有擦窗户的么？/其他的擦窗户的呢？/别的擦窗户的/再给我推荐一个擦窗户的/再推荐一个擦窗户的我看看/再推荐一个擦窗户的我听听/我还想了解其他的擦窗户的/我还想了解别的擦窗户的型号的/再介绍一个擦窗户的/再介绍一款擦窗户的/还有没有擦窗户的？/还有其他的擦窗户的么？/其他的擦窗户的呢？/就这一款擦窗户的么？/就这一个擦窗户的？/有没有更好的擦窗户的？/有没有配置高一点的擦窗户的？/有没有比这个好的擦窗户的/有没有比这个好的擦窗户的推荐一下/有没有性能更好的擦窗户的/有没有性能更好的擦窗户的推荐一下/性能更好的擦窗户的/我想知道其他的擦窗户的/换一款擦窗户的/换一个擦窗户的/下一个擦窗户的/再介绍一个其他的擦窗户的/给我推荐一款窗宝
-</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>还有啥样的/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的沁宝么？/你们店里还有其他的沁宝么？/沁宝还有没有其他选择？/沁宝还有没有其他款式？/沁宝还有没有其他型号？/沁宝其他型号有没有？/还有没有沁宝/还有沁宝么？/其他的沁宝呢？/别的沁宝/再给我推荐一个沁宝/再推荐一个沁宝我看看/再推荐一个沁宝我听听/我还想了解其他的沁宝/我还想了解别的沁宝型号的/再介绍一个沁宝/再介绍一款沁宝/还有没有沁宝？/还有其他的沁宝么？/其他的沁宝呢？/就这一款沁宝么？/就这一个沁宝？/有没有更好的沁宝？/有没有配置高一点的沁宝？/有没有比这个好的沁宝/有没有比这个好的沁宝推荐一下/有没有性能更好的沁宝/有没有性能更好的沁宝推荐一下/性能更好的沁宝/我想知道其他的沁宝/换一款沁宝/换一个沁宝/下一个沁宝/再介绍一个其他的沁宝/还有别的沁宝么？/你们店里还有其他的沁宝么？/沁宝还有没有其他选择？/沁宝还有没有其他款式？/沁宝还有没有其他型号？/沁宝其他型号有没有？/还有没有沁宝/还有沁宝么？/其他的沁宝呢？/别的沁宝/再给我推荐一个沁宝/再推荐一个沁宝我看看/再推荐一个沁宝我听听/我还想了解其他的沁宝/我还想了解别的沁宝型号的/再介绍一个沁宝/再介绍一款沁宝/还有没有沁宝？/还有其他的沁宝么？/其他的沁宝呢？/就这一款沁宝么？/就这一个沁宝？/有没有更好的沁宝？/有没有配置高一点的沁宝？/有没有比这个好的沁宝/有没有比这个好的沁宝推荐一下/有没有性能更好的沁宝/有没有性能更好的沁宝推荐一下/性能更好的沁宝/我想知道其他的沁宝/换一款沁宝/换一个沁宝/下一个沁宝/再介绍一个其他的沁宝/
+    <t xml:space="preserve">还有啥样的/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的擦窗机器人么？/你们店里还有其他的擦窗机器人么？/擦窗机器人还有没有其他选择？/擦窗机器人还有没有其他款式？/擦窗机器人还有没有其他型号？/擦窗机器人其他型号有没有？/还有没有擦窗机器人/还有擦窗机器人么？/其他的擦窗机器人呢？/别的擦窗机器人/再给我推荐一个擦窗机器人/再推荐一个擦窗机器人我看看/再推荐一个擦窗机器人我听听/我还想了解其他的擦窗机器人/我还想了解别的擦窗机器人型号的/再介绍一个擦窗机器人/再介绍一款擦窗机器人/还有没有擦窗机器人？/还有其他的擦窗机器人么？/其他的擦窗机器人呢？/就这一款擦窗机器人么？/就这一个擦窗机器人？/有没有更好的擦窗机器人？/有没有配置高一点的擦窗机器人？/有没有比这个好的擦窗机器人/有没有比这个好的擦窗机器人推荐一下/有没有性能更好的擦窗机器人/有没有性能更好的擦窗机器人推荐一下/性能更好的擦窗机器人/我想知道其他的擦窗机器人/换一款擦窗机器人/换一个擦窗机器人/下一个擦窗机器人/再介绍一个其他的擦窗机器人/还有别的擦窗户的么？/你们店里还有其他的擦窗户的么？/擦窗户的还有没有其他选择？/擦窗户的还有没有其他款式？/擦窗户的还有没有其他型号？/擦窗户的其他型号有没有？/还有没有擦窗户的/还有擦窗户的么？/其他的擦窗户的呢？/别的擦窗户的/再给我推荐一个擦窗户的/再推荐一个擦窗户的我看看/再推荐一个擦窗户的我听听/我还想了解其他的擦窗户的/我还想了解别的擦窗户的型号的/再介绍一个擦窗户的/再介绍一款擦窗户的/还有没有擦窗户的？/还有其他的擦窗户的么？/其他的擦窗户的呢？/就这一款擦窗户的么？/就这一个擦窗户的？/有没有更好的擦窗户的？/有没有配置高一点的擦窗户的？/有没有比这个好的擦窗户的/有没有比这个好的擦窗户的推荐一下/有没有性能更好的擦窗户的/有没有性能更好的擦窗户的推荐一下/性能更好的擦窗户的/我想知道其他的擦窗户的/换一款擦窗户的/换一个擦窗户的/下一个擦窗户的/再介绍一个其他的擦窗户的/给我推荐一款擦窗机器人
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">还有啥样的/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的空气净化机器人么？/你们店里还有其他的空气净化机器人么？/空气净化机器人还有没有其他选择？/空气净化机器人还有没有其他款式？/空气净化机器人还有没有其他型号？/空气净化机器人其他型号有没有？/还有没有空气净化机器人/还有空气净化机器人么？/其他的空气净化机器人呢？/别的空气净化机器人/再给我推荐一个空气净化机器人/再推荐一个空气净化机器人我看看/再推荐一个空气净化机器人我听听/我还想了解其他的空气净化机器人/我还想了解别的空气净化机器人型号的/再介绍一个空气净化机器人/再介绍一款空气净化机器人/还有没有空气净化机器人？/还有其他的空气净化机器人么？/其他的空气净化机器人呢？/就这一款空气净化机器人么？/就这一个空气净化机器人？/有没有更好的空气净化机器人？/有没有配置高一点的空气净化机器人？/有没有比这个好的空气净化机器人/有没有比这个好的空气净化机器人推荐一下/有没有性能更好的空气净化机器人/有没有性能更好的空气净化机器人推荐一下/性能更好的空气净化机器人/我想知道其他的空气净化机器人/换一款空气净化机器人/换一个空气净化机器人/下一个空气净化机器人/再介绍一个其他的空气净化机器人/还有别的空气净化机器人么？/你们店里还有其他的空气净化机器人么？/空气净化机器人还有没有其他选择？/空气净化机器人还有没有其他款式？/空气净化机器人还有没有其他型号？/空气净化机器人其他型号有没有？/还有没有空气净化机器人/还有空气净化机器人么？/其他的空气净化机器人呢？/别的空气净化机器人/再给我推荐一个空气净化机器人/再推荐一个空气净化机器人我看看/再推荐一个空气净化机器人我听听/我还想了解其他的空气净化机器人/我还想了解别的空气净化机器人型号的/再介绍一个空气净化机器人/再介绍一款空气净化机器人/还有没有空气净化机器人？/还有其他的空气净化机器人么？/其他的空气净化机器人呢？/就这一款空气净化机器人么？/就这一个空气净化机器人？/有没有更好的空气净化机器人？/有没有配置高一点的空气净化机器人？/有没有比这个好的空气净化机器人/有没有比这个好的空气净化机器人推荐一下/有没有性能更好的空气净化机器人/有没有性能更好的空气净化机器人推荐一下/性能更好的空气净化机器人/我想知道其他的空气净化机器人/换一款空气净化机器人/换一个空气净化机器人/下一个空气净化机器人/再介绍一个其他的空气净化机器人/
 还有别的净化空气么？/你们店里还有其他的净化空气么？/净化空气还有没有其他选择？/净化空气还有没有其他款式？/净化空气还有没有其他型号？/净化空气其他型号有没有？/还有没有净化空气/还有净化空气么？/其他的净化空气呢？/别的净化空气/再给我推荐一个净化空气/再推荐一个净化空气我看看/再推荐一个净化空气我听听/我还想了解其他的净化空气/我还想了解别的净化空气型号的/再介绍一个净化空气/再介绍一款净化空气/还有没有净化空气？/还有其他的净化空气么？/其他的净化空气呢？/就这一款净化空气么？/就这一个净化空气？/有没有更好的净化空气？/有没有配置高一点的净化空气？/有没有比这个好的净化空气/有没有比这个好的净化空气推荐一下/有没有性能更好的净化空气/有没有性能更好的净化空气推荐一下/性能更好的净化空气/我想知道其他的净化空气/换一款净化空气/换一个净化空气/下一个净化空气/再介绍一个其他的净化空气/
 还有别的清新房间空气的么？/你们店里还有其他的清新房间空气的么？/清新房间空气的还有没有其他选择？/清新房间空气的还有没有其他款式？/清新房间空气的还有没有其他型号？/清新房间空气的其他型号有没有？/还有没有清新房间空气的/还有清新房间空气的么？/其他的清新房间空气的呢？/别的清新房间空气的/再给我推荐一个清新房间空气的/再推荐一个清新房间空气的我看看/再推荐一个清新房间空气的我听听/我还想了解其他的清新房间空气的/我还想了解别的清新房间空气的型号的/再介绍一个清新房间空气的/再介绍一款清新房间空气的/还有没有清新房间空气的？/还有其他的清新房间空气的么？/其他的清新房间空气的呢？/就这一款清新房间空气的么？/就这一个清新房间空气的？/有没有更好的清新房间空气的？/有没有配置高一点的清新房间空气的？/有没有比这个好的清新房间空气的/有没有比这个好的清新房间空气的推荐一下/有没有性能更好的清新房间空气的/有没有性能更好的清新房间空气的推荐一下/性能更好的清新房间空气的/我想知道其他的清新房间空气的/换一款清新房间空气的/换一个清新房间空气的/下一个清新房间空气的/再介绍一个其他的清新房间空气的/
 还有别的湿润房间空气的么？/你们店里还有其他的湿润房间空气的么？/湿润房间空气的还有没有其他选择？/湿润房间空气的还有没有其他款式？/湿润房间空气的还有没有其他型号？/湿润房间空气的其他型号有没有？/还有没有湿润房间空气的 /还有湿润房间空气的么？/其他的湿润房间空气的呢？/别的湿润房间空气的 /再给我推荐一个湿润房间空气的/再推荐一个湿润房间空气的我看看/再推荐一个湿润房间空气的 我听听/我还想了解其他的湿润房间空气的/我还想了解别的湿润房间空气的 型号的/再介绍一个湿润房间空气的/再介绍一款湿润房间空气的/还有没有湿润房间空气的？/还有其他的湿润房间空气的么？/其他的湿润房间空气的呢？/就这一款湿润房间空气的么？/就这一个湿润房间空气的？/有没有更好的湿润房间空气的？/有没有配置高一点的湿润房间空气的？/有没有比这个好的湿润房间空气的/有没有比这个好的湿润房间空气的推荐一下/有没有性能更好的湿润房间空气的/有没有性能更好的湿润房间空气的推荐一下/性能更好的湿润房间空气的/我想知道其他的湿润房间空气的/换一款湿润房间空气的/换一个湿润房间空气的/下一个湿润房间空气的/再介绍一个其他的湿润房间空气的 /
-还有别的除去房间甲醛的么？/你们店里还有其他的除去房间甲醛的么？/除去房间甲醛的还有没有其他选择？/除去房间甲醛的还有没有其他款式？/除去房间甲醛的还有没有其他型号？/除去房间甲醛的其他型号有没有？/还有没有除去房间甲醛的/还有除去房间甲醛的么？/其他的除去房间甲醛的呢？/别的除去房间甲醛的/再给我推荐一个除去房间甲醛的/再推荐一个除去房间甲醛的我看看/再推荐一个除去房间甲醛的我听听/我还想了解其他的除去房间甲醛的/我还想了解别的除去房间甲醛的型号的/再介绍一个除去房间甲醛的/再介绍一款除去房间甲醛的/还有没有除去房间甲醛的？/还有其他的除去房间甲醛的么？/其他的除去房间甲醛的呢？/就这一款除去房间甲醛的么？/就这一个除去房间甲醛的？/有没有更好的除去房间甲醛的？/有没有配置高一点的除去房间甲醛的？/有没有比这个好的除去房间甲醛的/有没有比这个好的除去房间甲醛的推荐一下/有没有性能更好的除去房间甲醛的/有没有性能更好的除去房间甲醛的推荐一下/性能更好的除去房间甲醛的/我想知道其他的除去房间甲醛的/换一款除去房间甲醛的/换一个除去房间甲醛的/下一个除去房间甲醛的/再介绍一个其他的除去房间甲醛的/给我推荐一款沁宝
-</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+还有别的除去房间甲醛的么？/你们店里还有其他的除去房间甲醛的么？/除去房间甲醛的还有没有其他选择？/除去房间甲醛的还有没有其他款式？/除去房间甲醛的还有没有其他型号？/除去房间甲醛的其他型号有没有？/还有没有除去房间甲醛的/还有除去房间甲醛的么？/其他的除去房间甲醛的呢？/别的除去房间甲醛的/再给我推荐一个除去房间甲醛的/再推荐一个除去房间甲醛的我看看/再推荐一个除去房间甲醛的我听听/我还想了解其他的除去房间甲醛的/我还想了解别的除去房间甲醛的型号的/再介绍一个除去房间甲醛的/再介绍一款除去房间甲醛的/还有没有除去房间甲醛的？/还有其他的除去房间甲醛的么？/其他的除去房间甲醛的呢？/就这一款除去房间甲醛的么？/就这一个除去房间甲醛的？/有没有更好的除去房间甲醛的？/有没有配置高一点的除去房间甲醛的？/有没有比这个好的除去房间甲醛的/有没有比这个好的除去房间甲醛的推荐一下/有没有性能更好的除去房间甲醛的/有没有性能更好的除去房间甲醛的推荐一下/性能更好的除去房间甲醛的/我想知道其他的除去房间甲醛的/换一款除去房间甲醛的/换一个除去房间甲醛的/下一个除去房间甲醛的/再介绍一个其他的除去房间甲醛的/给我推荐一款空气净化机器人
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">便宜一点的扫地机/我想买便宜点的扫地机/我要买便宜点的扫地机/我要买价格低点的扫地机/我要买便宜的扫地机就行/我当然是买便宜的扫地机了/我要买便宜的扫地机啦/我要买便宜的便宜的扫地机/我要买价格便宜的扫地机/我要买价格低的扫地机/我要便宜一点的扫地机有没有/我需要便宜点的扫地机/你能给我介绍便宜点的扫地机吗/我想买便宜点的扫地机有没有/我想买便宜点的扫地机/我想要价格低点的扫地机/我想要便宜的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格便宜的扫地机了/我要买便宜一点的扫地机/我要买便宜点的扫地机/我就便宜一点的扫地机就行了/买便宜一点的扫地机就可以了/就买便宜一点的扫地机吧/你就给我介绍便宜一点的扫地机吧/你给我介绍便宜一点的扫地机就好了/给我说一下便宜一点的扫地机吧/我不买贵的扫地机/不要贵的扫地机/我贵的扫地机不要/我不想要贵的扫地机/我贵的扫地机不要/我不要贵的扫地机/我不买贵的扫地机/我不要贵的扫地机/贵的扫地机我不要哈/我不想买贵的扫地机/我想买一款便宜的扫地机/我想买一款性价比高的扫地机/你能给我推荐一款性价比高的扫地机吗/你可以推荐一款性价比高的扫地机给我吗/给我推荐一款价格低的扫地机吧/能不能给我推荐一款价格低点的扫地机啊
+/我想买便宜点的扫地机器人/我要买便宜点的扫地机器人/我要买价格低点的扫地机器人/我要买便宜的扫地机器人就行/我当然是买便宜的扫地机器人了/我要买便宜的扫地机器人啦/我要买便宜的便宜的扫地机器人/我要买价格便宜的扫地机器人/我要买价格低的扫地机器人/我要便宜一点的扫地机器人有没有/我需要便宜点的扫地机器人/你能给我介绍便宜点的扫地机器人吗/我想买便宜点的扫地机器人有没有/我想买便宜点的扫地机器人/我想要价格低点的扫地机器人/我想要便宜的扫地机器人啊/我要买扫地机器人/买价格低点了扫地机器人/我要买价格低的扫地机器人了/我要买需要价格便宜的扫地机器人了/我要买便宜一点的扫地机器人/我要买便宜点的扫地机器人/我就便宜一点的扫地机器人就行了/买便宜一点的扫地机器人就可以了/就买便宜一点的扫地机器人吧/你就给我介绍便宜一点的扫地机器人吧/你给我介绍便宜一点的扫地机器人就好了/给我说一下便宜一点的扫地机器人吧/我不买贵的扫地机器人/不要贵的扫地机器人/我贵的扫地机器人不要/我不想要贵的扫地机器人/我贵的扫地机器人不要/我不要贵的扫地机器人/我不买贵的扫地机器人/我不要贵的扫地机器人/贵的扫地机器人我不要哈/我不想买贵的扫地机器人/我想买一款便宜的扫地机器人/我想买一款性价比高的扫地机器人/你能给我推荐一款性价比高的扫地机器人吗/你可以推荐一款性价比高的扫地机器人给我吗/给我推荐一款价格低的扫地机器人吧/能不能给我推荐一款价格低点的扫地机器人啊//我想买实惠的扫地机/我要买实惠的扫地机/我要买价格低点的扫地机/我要买实惠的扫地机就行/我当然是买实惠的扫地机了/我要买实惠的扫地机啦/我要买实惠的实惠的扫地机/我要买价格实惠的扫地机/我要买价格低的扫地机/我要实惠一点的扫地机有没有/我需要实惠的扫地机/你能给我介绍实惠的扫地机吗/我想买实惠的扫地机有没有/我想买实惠的扫地机/我想要价格低点的扫地机/我想要实惠的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格实惠的扫地机了/我要买实惠一点的扫地机/我要买实惠的扫地机/我就实惠一点的扫地机就行了/买实惠一点的扫地机就可以了/就买实惠一点的扫地机吧/你就给我介绍实惠一点的扫地机吧/你给我介绍实惠一点的扫地机就好了/给我说一下实惠一点的扫地机吧/我想买实惠的扫地机器人/我要买实惠的扫地机器人/我要买价格低点的扫地机器人/我要买实惠的扫地机器人就行/我当然是买实惠的扫地机器人了/我要买实惠的扫地机器人啦/我要买实惠的实惠的扫地机器人/我要买价格实惠的扫地机器人/我要买价格低的扫地机器人/我要实惠一点的扫地机器人有没有/我需要实惠的扫地机器人/你能给我介绍实惠的扫地机器人吗/我想买实惠的扫地机器人有没有/我想买实惠的扫地机器人/我想要价格低点的扫地机器人/我想要实惠的扫地机器人啊/我要买扫地机器人/买价格低点了扫地机器人/我要买价格低的扫地机器人了/我要买需要价格实惠的扫地机器人了/我要买实惠一点的扫地机器人/我要买实惠的扫地机器人/我就实惠一点的扫地机器人就行了/买实惠一点的扫地机器人就可以了/就买实惠一点的扫地机器人吧/你就给我介绍实惠一点的扫地机器人吧/你给我介绍实惠一点的扫地机器人就好了/给我说一下实惠一点的扫地机器人吧/我不买贵的扫地机器人/你们最便宜的扫地机介绍一下吧/最便宜的扫地机器人/最便宜的/给我介绍一下最实惠的扫地机/最实惠的给我介绍一下/你们这里有折扣很大的扫地机卖吗
+</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1155,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0789D63C-071E-467A-8209-91968BBC6FB6}" diskRevisions="1" revisionId="40" version="37">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BAF869C4-A73D-4535-9349-039AA7FE7776}" diskRevisions="1" revisionId="43" version="39">
   <header guid="{03AB2736-FEAA-4E3D-9D27-83C05A1C89C8}" dateTime="2017-12-13T15:33:05" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
@@ -1514,6 +1415,20 @@
       <sheetId val="3"/>
     </sheetIdMap>
   </header>
+  <header guid="{CDAB6DE1-679B-4BCF-AEEF-5BDB2F9E8D09}" dateTime="2017-12-14T14:18:15" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId38" minRId="41" maxRId="42">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BAF869C4-A73D-4535-9349-039AA7FE7776}" dateTime="2017-12-14T14:21:12" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId39" minRId="43">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -3684,6 +3599,158 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog38.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="41" sId="2">
+    <oc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有啥样的/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的窗宝么？/你们店里还有其他的窗宝么？/窗宝还有没有其他选择？/窗宝还有没有其他款式？/窗宝还有没有其他型号？/窗宝其他型号有没有？/还有没有窗宝/还有窗宝么？/其他的窗宝呢？/别的窗宝/再给我推荐一个窗宝/再推荐一个窗宝我看看/再推荐一个窗宝我听听/我还想了解其他的窗宝/我还想了解别的窗宝型号的/再介绍一个窗宝/再介绍一款窗宝/还有没有窗宝？/还有其他的窗宝么？/其他的窗宝呢？/就这一款窗宝么？/就这一个窗宝？/有没有更好的窗宝？/有没有配置高一点的窗宝？/有没有比这个好的窗宝/有没有比这个好的窗宝推荐一下/有没有性能更好的窗宝/有没有性能更好的窗宝推荐一下/性能更好的窗宝/我想知道其他的窗宝/换一款窗宝/换一个窗宝/下一个窗宝/再介绍一个其他的窗宝/还有别的擦窗户的么？/你们店里还有其他的擦窗户的么？/擦窗户的还有没有其他选择？/擦窗户的还有没有其他款式？/擦窗户的还有没有其他型号？/擦窗户的其他型号有没有？/还有没有擦窗户的/还有擦窗户的么？/其他的擦窗户的呢？/别的擦窗户的/再给我推荐一个擦窗户的/再推荐一个擦窗户的我看看/再推荐一个擦窗户的我听听/我还想了解其他的擦窗户的/我还想了解别的擦窗户的型号的/再介绍一个擦窗户的/再介绍一款擦窗户的/还有没有擦窗户的？/还有其他的擦窗户的么？/其他的擦窗户的呢？/就这一款擦窗户的么？/就这一个擦窗户的？/有没有更好的擦窗户的？/有没有配置高一点的擦窗户的？/有没有比这个好的擦窗户的/有没有比这个好的擦窗户的推荐一下/有没有性能更好的擦窗户的/有没有性能更好的擦窗户的推荐一下/性能更好的擦窗户的/我想知道其他的擦窗户的/换一款擦窗户的/换一个擦窗户的/下一个擦窗户的/再介绍一个其他的擦窗户的/给我推荐一款窗宝
+</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F3" t="inlineStr">
+      <is>
+        <t xml:space="preserve">还有啥样的/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的擦窗机器人么？/你们店里还有其他的擦窗机器人么？/擦窗机器人还有没有其他选择？/擦窗机器人还有没有其他款式？/擦窗机器人还有没有其他型号？/擦窗机器人其他型号有没有？/还有没有擦窗机器人/还有擦窗机器人么？/其他的擦窗机器人呢？/别的擦窗机器人/再给我推荐一个擦窗机器人/再推荐一个擦窗机器人我看看/再推荐一个擦窗机器人我听听/我还想了解其他的擦窗机器人/我还想了解别的擦窗机器人型号的/再介绍一个擦窗机器人/再介绍一款擦窗机器人/还有没有擦窗机器人？/还有其他的擦窗机器人么？/其他的擦窗机器人呢？/就这一款擦窗机器人么？/就这一个擦窗机器人？/有没有更好的擦窗机器人？/有没有配置高一点的擦窗机器人？/有没有比这个好的擦窗机器人/有没有比这个好的擦窗机器人推荐一下/有没有性能更好的擦窗机器人/有没有性能更好的擦窗机器人推荐一下/性能更好的擦窗机器人/我想知道其他的擦窗机器人/换一款擦窗机器人/换一个擦窗机器人/下一个擦窗机器人/再介绍一个其他的擦窗机器人/还有别的擦窗户的么？/你们店里还有其他的擦窗户的么？/擦窗户的还有没有其他选择？/擦窗户的还有没有其他款式？/擦窗户的还有没有其他型号？/擦窗户的其他型号有没有？/还有没有擦窗户的/还有擦窗户的么？/其他的擦窗户的呢？/别的擦窗户的/再给我推荐一个擦窗户的/再推荐一个擦窗户的我看看/再推荐一个擦窗户的我听听/我还想了解其他的擦窗户的/我还想了解别的擦窗户的型号的/再介绍一个擦窗户的/再介绍一款擦窗户的/还有没有擦窗户的？/还有其他的擦窗户的么？/其他的擦窗户的呢？/就这一款擦窗户的么？/就这一个擦窗户的？/有没有更好的擦窗户的？/有没有配置高一点的擦窗户的？/有没有比这个好的擦窗户的/有没有比这个好的擦窗户的推荐一下/有没有性能更好的擦窗户的/有没有性能更好的擦窗户的推荐一下/性能更好的擦窗户的/我想知道其他的擦窗户的/换一款擦窗户的/换一个擦窗户的/下一个擦窗户的/再介绍一个其他的擦窗户的/给我推荐一款擦窗机器人
+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="42" sId="3">
+    <oc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还有啥样的/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的沁宝么？/你们店里还有其他的沁宝么？/沁宝还有没有其他选择？/沁宝还有没有其他款式？/沁宝还有没有其他型号？/沁宝其他型号有没有？/还有没有沁宝/还有沁宝么？/其他的沁宝呢？/别的沁宝/再给我推荐一个沁宝/再推荐一个沁宝我看看/再推荐一个沁宝我听听/我还想了解其他的沁宝/我还想了解别的沁宝型号的/再介绍一个沁宝/再介绍一款沁宝/还有没有沁宝？/还有其他的沁宝么？/其他的沁宝呢？/就这一款沁宝么？/就这一个沁宝？/有没有更好的沁宝？/有没有配置高一点的沁宝？/有没有比这个好的沁宝/有没有比这个好的沁宝推荐一下/有没有性能更好的沁宝/有没有性能更好的沁宝推荐一下/性能更好的沁宝/我想知道其他的沁宝/换一款沁宝/换一个沁宝/下一个沁宝/再介绍一个其他的沁宝/还有别的沁宝么？/你们店里还有其他的沁宝么？/沁宝还有没有其他选择？/沁宝还有没有其他款式？/沁宝还有没有其他型号？/沁宝其他型号有没有？/还有没有沁宝/还有沁宝么？/其他的沁宝呢？/别的沁宝/再给我推荐一个沁宝/再推荐一个沁宝我看看/再推荐一个沁宝我听听/我还想了解其他的沁宝/我还想了解别的沁宝型号的/再介绍一个沁宝/再介绍一款沁宝/还有没有沁宝？/还有其他的沁宝么？/其他的沁宝呢？/就这一款沁宝么？/就这一个沁宝？/有没有更好的沁宝？/有没有配置高一点的沁宝？/有没有比这个好的沁宝/有没有比这个好的沁宝推荐一下/有没有性能更好的沁宝/有没有性能更好的沁宝推荐一下/性能更好的沁宝/我想知道其他的沁宝/换一款沁宝/换一个沁宝/下一个沁宝/再介绍一个其他的沁宝/
+还有别的净化空气么？/你们店里还有其他的净化空气么？/净化空气还有没有其他选择？/净化空气还有没有其他款式？/净化空气还有没有其他型号？/净化空气其他型号有没有？/还有没有净化空气/还有净化空气么？/其他的净化空气呢？/别的净化空气/再给我推荐一个净化空气/再推荐一个净化空气我看看/再推荐一个净化空气我听听/我还想了解其他的净化空气/我还想了解别的净化空气型号的/再介绍一个净化空气/再介绍一款净化空气/还有没有净化空气？/还有其他的净化空气么？/其他的净化空气呢？/就这一款净化空气么？/就这一个净化空气？/有没有更好的净化空气？/有没有配置高一点的净化空气？/有没有比这个好的净化空气/有没有比这个好的净化空气推荐一下/有没有性能更好的净化空气/有没有性能更好的净化空气推荐一下/性能更好的净化空气/我想知道其他的净化空气/换一款净化空气/换一个净化空气/下一个净化空气/再介绍一个其他的净化空气/
+还有别的清新房间空气的么？/你们店里还有其他的清新房间空气的么？/清新房间空气的还有没有其他选择？/清新房间空气的还有没有其他款式？/清新房间空气的还有没有其他型号？/清新房间空气的其他型号有没有？/还有没有清新房间空气的/还有清新房间空气的么？/其他的清新房间空气的呢？/别的清新房间空气的/再给我推荐一个清新房间空气的/再推荐一个清新房间空气的我看看/再推荐一个清新房间空气的我听听/我还想了解其他的清新房间空气的/我还想了解别的清新房间空气的型号的/再介绍一个清新房间空气的/再介绍一款清新房间空气的/还有没有清新房间空气的？/还有其他的清新房间空气的么？/其他的清新房间空气的呢？/就这一款清新房间空气的么？/就这一个清新房间空气的？/有没有更好的清新房间空气的？/有没有配置高一点的清新房间空气的？/有没有比这个好的清新房间空气的/有没有比这个好的清新房间空气的推荐一下/有没有性能更好的清新房间空气的/有没有性能更好的清新房间空气的推荐一下/性能更好的清新房间空气的/我想知道其他的清新房间空气的/换一款清新房间空气的/换一个清新房间空气的/下一个清新房间空气的/再介绍一个其他的清新房间空气的/
+还有别的湿润房间空气的么？/你们店里还有其他的湿润房间空气的么？/湿润房间空气的还有没有其他选择？/湿润房间空气的还有没有其他款式？/湿润房间空气的还有没有其他型号？/湿润房间空气的其他型号有没有？/还有没有湿润房间空气的 /还有湿润房间空气的么？/其他的湿润房间空气的呢？/别的湿润房间空气的 /再给我推荐一个湿润房间空气的/再推荐一个湿润房间空气的我看看/再推荐一个湿润房间空气的 我听听/我还想了解其他的湿润房间空气的/我还想了解别的湿润房间空气的 型号的/再介绍一个湿润房间空气的/再介绍一款湿润房间空气的/还有没有湿润房间空气的？/还有其他的湿润房间空气的么？/其他的湿润房间空气的呢？/就这一款湿润房间空气的么？/就这一个湿润房间空气的？/有没有更好的湿润房间空气的？/有没有配置高一点的湿润房间空气的？/有没有比这个好的湿润房间空气的/有没有比这个好的湿润房间空气的推荐一下/有没有性能更好的湿润房间空气的/有没有性能更好的湿润房间空气的推荐一下/性能更好的湿润房间空气的/我想知道其他的湿润房间空气的/换一款湿润房间空气的/换一个湿润房间空气的/下一个湿润房间空气的/再介绍一个其他的湿润房间空气的 /
+还有别的除去房间甲醛的么？/你们店里还有其他的除去房间甲醛的么？/除去房间甲醛的还有没有其他选择？/除去房间甲醛的还有没有其他款式？/除去房间甲醛的还有没有其他型号？/除去房间甲醛的其他型号有没有？/还有没有除去房间甲醛的/还有除去房间甲醛的么？/其他的除去房间甲醛的呢？/别的除去房间甲醛的/再给我推荐一个除去房间甲醛的/再推荐一个除去房间甲醛的我看看/再推荐一个除去房间甲醛的我听听/我还想了解其他的除去房间甲醛的/我还想了解别的除去房间甲醛的型号的/再介绍一个除去房间甲醛的/再介绍一款除去房间甲醛的/还有没有除去房间甲醛的？/还有其他的除去房间甲醛的么？/其他的除去房间甲醛的呢？/就这一款除去房间甲醛的么？/就这一个除去房间甲醛的？/有没有更好的除去房间甲醛的？/有没有配置高一点的除去房间甲醛的？/有没有比这个好的除去房间甲醛的/有没有比这个好的除去房间甲醛的推荐一下/有没有性能更好的除去房间甲醛的/有没有性能更好的除去房间甲醛的推荐一下/性能更好的除去房间甲醛的/我想知道其他的除去房间甲醛的/换一款除去房间甲醛的/换一个除去房间甲醛的/下一个除去房间甲醛的/再介绍一个其他的除去房间甲醛的/给我推荐一款沁宝
+</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F3" t="inlineStr">
+      <is>
+        <t xml:space="preserve">还有啥样的/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的空气净化机器人么？/你们店里还有其他的空气净化机器人么？/空气净化机器人还有没有其他选择？/空气净化机器人还有没有其他款式？/空气净化机器人还有没有其他型号？/空气净化机器人其他型号有没有？/还有没有空气净化机器人/还有空气净化机器人么？/其他的空气净化机器人呢？/别的空气净化机器人/再给我推荐一个空气净化机器人/再推荐一个空气净化机器人我看看/再推荐一个空气净化机器人我听听/我还想了解其他的空气净化机器人/我还想了解别的空气净化机器人型号的/再介绍一个空气净化机器人/再介绍一款空气净化机器人/还有没有空气净化机器人？/还有其他的空气净化机器人么？/其他的空气净化机器人呢？/就这一款空气净化机器人么？/就这一个空气净化机器人？/有没有更好的空气净化机器人？/有没有配置高一点的空气净化机器人？/有没有比这个好的空气净化机器人/有没有比这个好的空气净化机器人推荐一下/有没有性能更好的空气净化机器人/有没有性能更好的空气净化机器人推荐一下/性能更好的空气净化机器人/我想知道其他的空气净化机器人/换一款空气净化机器人/换一个空气净化机器人/下一个空气净化机器人/再介绍一个其他的空气净化机器人/还有别的空气净化机器人么？/你们店里还有其他的空气净化机器人么？/空气净化机器人还有没有其他选择？/空气净化机器人还有没有其他款式？/空气净化机器人还有没有其他型号？/空气净化机器人其他型号有没有？/还有没有空气净化机器人/还有空气净化机器人么？/其他的空气净化机器人呢？/别的空气净化机器人/再给我推荐一个空气净化机器人/再推荐一个空气净化机器人我看看/再推荐一个空气净化机器人我听听/我还想了解其他的空气净化机器人/我还想了解别的空气净化机器人型号的/再介绍一个空气净化机器人/再介绍一款空气净化机器人/还有没有空气净化机器人？/还有其他的空气净化机器人么？/其他的空气净化机器人呢？/就这一款空气净化机器人么？/就这一个空气净化机器人？/有没有更好的空气净化机器人？/有没有配置高一点的空气净化机器人？/有没有比这个好的空气净化机器人/有没有比这个好的空气净化机器人推荐一下/有没有性能更好的空气净化机器人/有没有性能更好的空气净化机器人推荐一下/性能更好的空气净化机器人/我想知道其他的空气净化机器人/换一款空气净化机器人/换一个空气净化机器人/下一个空气净化机器人/再介绍一个其他的空气净化机器人/
+还有别的净化空气么？/你们店里还有其他的净化空气么？/净化空气还有没有其他选择？/净化空气还有没有其他款式？/净化空气还有没有其他型号？/净化空气其他型号有没有？/还有没有净化空气/还有净化空气么？/其他的净化空气呢？/别的净化空气/再给我推荐一个净化空气/再推荐一个净化空气我看看/再推荐一个净化空气我听听/我还想了解其他的净化空气/我还想了解别的净化空气型号的/再介绍一个净化空气/再介绍一款净化空气/还有没有净化空气？/还有其他的净化空气么？/其他的净化空气呢？/就这一款净化空气么？/就这一个净化空气？/有没有更好的净化空气？/有没有配置高一点的净化空气？/有没有比这个好的净化空气/有没有比这个好的净化空气推荐一下/有没有性能更好的净化空气/有没有性能更好的净化空气推荐一下/性能更好的净化空气/我想知道其他的净化空气/换一款净化空气/换一个净化空气/下一个净化空气/再介绍一个其他的净化空气/
+还有别的清新房间空气的么？/你们店里还有其他的清新房间空气的么？/清新房间空气的还有没有其他选择？/清新房间空气的还有没有其他款式？/清新房间空气的还有没有其他型号？/清新房间空气的其他型号有没有？/还有没有清新房间空气的/还有清新房间空气的么？/其他的清新房间空气的呢？/别的清新房间空气的/再给我推荐一个清新房间空气的/再推荐一个清新房间空气的我看看/再推荐一个清新房间空气的我听听/我还想了解其他的清新房间空气的/我还想了解别的清新房间空气的型号的/再介绍一个清新房间空气的/再介绍一款清新房间空气的/还有没有清新房间空气的？/还有其他的清新房间空气的么？/其他的清新房间空气的呢？/就这一款清新房间空气的么？/就这一个清新房间空气的？/有没有更好的清新房间空气的？/有没有配置高一点的清新房间空气的？/有没有比这个好的清新房间空气的/有没有比这个好的清新房间空气的推荐一下/有没有性能更好的清新房间空气的/有没有性能更好的清新房间空气的推荐一下/性能更好的清新房间空气的/我想知道其他的清新房间空气的/换一款清新房间空气的/换一个清新房间空气的/下一个清新房间空气的/再介绍一个其他的清新房间空气的/
+还有别的湿润房间空气的么？/你们店里还有其他的湿润房间空气的么？/湿润房间空气的还有没有其他选择？/湿润房间空气的还有没有其他款式？/湿润房间空气的还有没有其他型号？/湿润房间空气的其他型号有没有？/还有没有湿润房间空气的 /还有湿润房间空气的么？/其他的湿润房间空气的呢？/别的湿润房间空气的 /再给我推荐一个湿润房间空气的/再推荐一个湿润房间空气的我看看/再推荐一个湿润房间空气的 我听听/我还想了解其他的湿润房间空气的/我还想了解别的湿润房间空气的 型号的/再介绍一个湿润房间空气的/再介绍一款湿润房间空气的/还有没有湿润房间空气的？/还有其他的湿润房间空气的么？/其他的湿润房间空气的呢？/就这一款湿润房间空气的么？/就这一个湿润房间空气的？/有没有更好的湿润房间空气的？/有没有配置高一点的湿润房间空气的？/有没有比这个好的湿润房间空气的/有没有比这个好的湿润房间空气的推荐一下/有没有性能更好的湿润房间空气的/有没有性能更好的湿润房间空气的推荐一下/性能更好的湿润房间空气的/我想知道其他的湿润房间空气的/换一款湿润房间空气的/换一个湿润房间空气的/下一个湿润房间空气的/再介绍一个其他的湿润房间空气的 /
+还有别的除去房间甲醛的么？/你们店里还有其他的除去房间甲醛的么？/除去房间甲醛的还有没有其他选择？/除去房间甲醛的还有没有其他款式？/除去房间甲醛的还有没有其他型号？/除去房间甲醛的其他型号有没有？/还有没有除去房间甲醛的/还有除去房间甲醛的么？/其他的除去房间甲醛的呢？/别的除去房间甲醛的/再给我推荐一个除去房间甲醛的/再推荐一个除去房间甲醛的我看看/再推荐一个除去房间甲醛的我听听/我还想了解其他的除去房间甲醛的/我还想了解别的除去房间甲醛的型号的/再介绍一个除去房间甲醛的/再介绍一款除去房间甲醛的/还有没有除去房间甲醛的？/还有其他的除去房间甲醛的么？/其他的除去房间甲醛的呢？/就这一款除去房间甲醛的么？/就这一个除去房间甲醛的？/有没有更好的除去房间甲醛的？/有没有配置高一点的除去房间甲醛的？/有没有比这个好的除去房间甲醛的/有没有比这个好的除去房间甲醛的推荐一下/有没有性能更好的除去房间甲醛的/有没有性能更好的除去房间甲醛的推荐一下/性能更好的除去房间甲醛的/我想知道其他的除去房间甲醛的/换一款除去房间甲醛的/换一个除去房间甲醛的/下一个除去房间甲醛的/再介绍一个其他的除去房间甲醛的/给我推荐一款空气净化机器人
+</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog39.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="43" sId="1">
+    <oc r="F10" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>便宜一点的扫地机</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/我想买便宜点的扫地机/我要买便宜点的扫地机/我要买价格低点的扫地机/我要买便宜的扫地机就行/我当然是买便宜的扫地机了/我要买便宜的扫地机啦/我要买便宜的便宜的扫地机/我要买价格便宜的扫地机/我要买价格低的扫地机/我要便宜一点的扫地机有没有/我需要便宜点的扫地机/你能给我介绍便宜点的扫地机吗/我想买便宜点的扫地机有没有/我想买便宜点的扫地机/我想要价格低点的扫地机/我想要便宜的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格便宜的扫地机了/我要买便宜一点的扫地机/我要买便宜点的扫地机/我就便宜一点的扫地机就行了/买便宜一点的扫地机就可以了/就买便宜一点的扫地机吧/你就给我介绍便宜一点的扫地机吧/你给我介绍便宜一点的扫地机就好了/给我说一下便宜一点的扫地机吧/我不买贵的扫地机/不要贵的扫地机/我贵的扫地机不要/我不想要贵的扫地机/我贵的扫地机不要/我不要贵的扫地机/我不买贵的扫地机/我不要贵的扫地机/贵的扫地机我不要哈/我不想买贵的扫地机</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/我想买一款便宜的扫地机/我想买一款性价比高的扫地机/你能给我推荐一款性价比高的扫地机吗/你可以推荐一款性价比高的扫地机给我吗/给我推荐一款价格低的扫地机吧/能不能给我推荐一款价格低点的扫地机啊
+/我想买便宜点的扫地机器人/我要买便宜点的扫地机器人/我要买价格低点的扫地机器人/我要买便宜的扫地机器人就行/我当然是买便宜的扫地机器人了/我要买便宜的扫地机器人啦/我要买便宜的便宜的扫地机器人/我要买价格便宜的扫地机器人/我要买价格低的扫地机器人/我要便宜一点的扫地机器人有没有/我需要便宜点的扫地机器人/你能给我介绍便宜点的扫地机器人吗/我想买便宜点的扫地机器人有没有/我想买便宜点的扫地机器人/我想要价格低点的扫地机器人/我想要便宜的扫地机器人啊/我要买扫地机器人/买价格低点了扫地机器人/我要买价格低的扫地机器人了/我要买需要价格便宜的扫地机器人了/我要买便宜一点的扫地机器人/我要买便宜点的扫地机器人/我就便宜一点的扫地机器人就行了/买便宜一点的扫地机器人就可以了/就买便宜一点的扫地机器人吧/你就给我介绍便宜一点的扫地机器人吧/你给我介绍便宜一点的扫地机器人就好了/给我说一下便宜一点的扫地机器人吧/我不买贵的扫地机器人/不要贵的扫地机器人/我贵的扫地机器人不要/我不想要贵的扫地机器人/我贵的扫地机器人不要/我不要贵的扫地机器人/我不买贵的扫地机器人/我不要贵的扫地机器人/贵的扫地机器人我不要哈/我不想买贵的扫地机器人/我想买一款便宜的扫地机器人/我想买一款性价比高的扫地机器人/你能给我推荐一款性价比高的扫地机器人吗/你可以推荐一款性价比高的扫地机器人给我吗/给我推荐一款价格低的扫地机器人吧/能不能给我推荐一款价格低点的扫地机器人啊//我想买实惠的扫地机/我要买实惠的扫地机/我要买价格低点的扫地机/我要买实惠的扫地机就行/我当然是买实惠的扫地机了/我要买实惠的扫地机啦/我要买实惠的实惠的扫地机/我要买价格实惠的扫地机/我要买价格低的扫地机/我要实惠一点的扫地机有没有/我需要实惠的扫地机/你能给我介绍实惠的扫地机吗/我想买实惠的扫地机有没有/我想买实惠的扫地机/我想要价格低点的扫地机/我想要实惠的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格实惠的扫地机了/我要买实惠一点的扫地机/我要买实惠的扫地机/我就实惠一点的扫地机就行了/买实惠一点的扫地机就可以了/就买实惠一点的扫地机吧/你就给我介绍实惠一点的扫地机吧/你给我介绍实惠一点的扫地机就好了/给我说一下实惠一点的扫地机吧/我想买实惠的扫地机器人/我要买实惠的扫地机器人/我要买价格低点的扫地机器人/我要买实惠的扫地机器人就行/我当然是买实惠的扫地机器人了/我要买实惠的扫地机器人啦/我要买实惠的实惠的扫地机器人/我要买价格实惠的扫地机器人/我要买价格低的扫地机器人/我要实惠一点的扫地机器人有没有/我需要实惠的扫地机器人/你能给我介绍实惠的扫地机器人吗/我想买实惠的扫地机器人有没有/我想买实惠的扫地机器人/我想要价格低点的扫地机器人/我想要实惠的扫地机器人啊/我要买扫地机器人/买价格低点了扫地机器人/我要买价格低的扫地机器人了/我要买需要价格实惠的扫地机器人了/我要买实惠一点的扫地机器人/我要买实惠的扫地机器人/我就实惠一点的扫地机器人就行了/买实惠一点的扫地机器人就可以了/就买实惠一点的扫地机器人吧/你就给我介绍实惠一点的扫地机器人吧/你给我介绍实惠一点的扫地机器人就好了/给我说一下实惠一点的扫地机器人吧/我不买贵的扫地机器人/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>你们最便宜的扫地机介绍一下吧/最便宜的地宝/最便宜的/给我介绍一下最实惠的扫地机/最实惠的给我介绍一下/你们这里有折扣很大的扫地机卖吗</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F10" t="inlineStr">
+      <is>
+        <t xml:space="preserve">便宜一点的扫地机/我想买便宜点的扫地机/我要买便宜点的扫地机/我要买价格低点的扫地机/我要买便宜的扫地机就行/我当然是买便宜的扫地机了/我要买便宜的扫地机啦/我要买便宜的便宜的扫地机/我要买价格便宜的扫地机/我要买价格低的扫地机/我要便宜一点的扫地机有没有/我需要便宜点的扫地机/你能给我介绍便宜点的扫地机吗/我想买便宜点的扫地机有没有/我想买便宜点的扫地机/我想要价格低点的扫地机/我想要便宜的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格便宜的扫地机了/我要买便宜一点的扫地机/我要买便宜点的扫地机/我就便宜一点的扫地机就行了/买便宜一点的扫地机就可以了/就买便宜一点的扫地机吧/你就给我介绍便宜一点的扫地机吧/你给我介绍便宜一点的扫地机就好了/给我说一下便宜一点的扫地机吧/我不买贵的扫地机/不要贵的扫地机/我贵的扫地机不要/我不想要贵的扫地机/我贵的扫地机不要/我不要贵的扫地机/我不买贵的扫地机/我不要贵的扫地机/贵的扫地机我不要哈/我不想买贵的扫地机/我想买一款便宜的扫地机/我想买一款性价比高的扫地机/你能给我推荐一款性价比高的扫地机吗/你可以推荐一款性价比高的扫地机给我吗/给我推荐一款价格低的扫地机吧/能不能给我推荐一款价格低点的扫地机啊
+/我想买便宜点的扫地机器人/我要买便宜点的扫地机器人/我要买价格低点的扫地机器人/我要买便宜的扫地机器人就行/我当然是买便宜的扫地机器人了/我要买便宜的扫地机器人啦/我要买便宜的便宜的扫地机器人/我要买价格便宜的扫地机器人/我要买价格低的扫地机器人/我要便宜一点的扫地机器人有没有/我需要便宜点的扫地机器人/你能给我介绍便宜点的扫地机器人吗/我想买便宜点的扫地机器人有没有/我想买便宜点的扫地机器人/我想要价格低点的扫地机器人/我想要便宜的扫地机器人啊/我要买扫地机器人/买价格低点了扫地机器人/我要买价格低的扫地机器人了/我要买需要价格便宜的扫地机器人了/我要买便宜一点的扫地机器人/我要买便宜点的扫地机器人/我就便宜一点的扫地机器人就行了/买便宜一点的扫地机器人就可以了/就买便宜一点的扫地机器人吧/你就给我介绍便宜一点的扫地机器人吧/你给我介绍便宜一点的扫地机器人就好了/给我说一下便宜一点的扫地机器人吧/我不买贵的扫地机器人/不要贵的扫地机器人/我贵的扫地机器人不要/我不想要贵的扫地机器人/我贵的扫地机器人不要/我不要贵的扫地机器人/我不买贵的扫地机器人/我不要贵的扫地机器人/贵的扫地机器人我不要哈/我不想买贵的扫地机器人/我想买一款便宜的扫地机器人/我想买一款性价比高的扫地机器人/你能给我推荐一款性价比高的扫地机器人吗/你可以推荐一款性价比高的扫地机器人给我吗/给我推荐一款价格低的扫地机器人吧/能不能给我推荐一款价格低点的扫地机器人啊//我想买实惠的扫地机/我要买实惠的扫地机/我要买价格低点的扫地机/我要买实惠的扫地机就行/我当然是买实惠的扫地机了/我要买实惠的扫地机啦/我要买实惠的实惠的扫地机/我要买价格实惠的扫地机/我要买价格低的扫地机/我要实惠一点的扫地机有没有/我需要实惠的扫地机/你能给我介绍实惠的扫地机吗/我想买实惠的扫地机有没有/我想买实惠的扫地机/我想要价格低点的扫地机/我想要实惠的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格实惠的扫地机了/我要买实惠一点的扫地机/我要买实惠的扫地机/我就实惠一点的扫地机就行了/买实惠一点的扫地机就可以了/就买实惠一点的扫地机吧/你就给我介绍实惠一点的扫地机吧/你给我介绍实惠一点的扫地机就好了/给我说一下实惠一点的扫地机吧/我想买实惠的扫地机器人/我要买实惠的扫地机器人/我要买价格低点的扫地机器人/我要买实惠的扫地机器人就行/我当然是买实惠的扫地机器人了/我要买实惠的扫地机器人啦/我要买实惠的实惠的扫地机器人/我要买价格实惠的扫地机器人/我要买价格低的扫地机器人/我要实惠一点的扫地机器人有没有/我需要实惠的扫地机器人/你能给我介绍实惠的扫地机器人吗/我想买实惠的扫地机器人有没有/我想买实惠的扫地机器人/我想要价格低点的扫地机器人/我想要实惠的扫地机器人啊/我要买扫地机器人/买价格低点了扫地机器人/我要买价格低的扫地机器人了/我要买需要价格实惠的扫地机器人了/我要买实惠一点的扫地机器人/我要买实惠的扫地机器人/我就实惠一点的扫地机器人就行了/买实惠一点的扫地机器人就可以了/就买实惠一点的扫地机器人吧/你就给我介绍实惠一点的扫地机器人吧/你给我介绍实惠一点的扫地机器人就好了/给我说一下实惠一点的扫地机器人吧/我不买贵的扫地机器人/你们最便宜的扫地机介绍一下吧/最便宜的扫地机器人/最便宜的/给我介绍一下最实惠的扫地机/最实惠的给我介绍一下/你们这里有折扣很大的扫地机卖吗
+</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="5" sId="1">
@@ -3893,7 +3960,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -4187,7 +4254,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4266,7 +4333,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>26</v>
@@ -4339,7 +4406,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>26</v>
@@ -4382,7 +4449,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="2" t="s">
@@ -4414,13 +4481,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{613290AE-B815-482C-9227-4F835E90B755}">
-      <selection activeCell="F12" sqref="F12"/>
+    <customSheetView guid="{5629F9B3-54EF-42EA-B0A9-15544B8E5C42}" topLeftCell="C1">
+      <selection activeCell="H3" sqref="H3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{5629F9B3-54EF-42EA-B0A9-15544B8E5C42}" topLeftCell="C1">
-      <selection activeCell="H3" sqref="H3"/>
+    <customSheetView guid="{613290AE-B815-482C-9227-4F835E90B755}">
+      <selection activeCell="F12" sqref="F12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
     </customSheetView>
@@ -4436,7 +4503,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4512,7 +4579,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>30</v>
@@ -4520,11 +4587,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{613290AE-B815-482C-9227-4F835E90B755}">
+    <customSheetView guid="{5629F9B3-54EF-42EA-B0A9-15544B8E5C42}">
       <selection activeCell="F3" sqref="F3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{5629F9B3-54EF-42EA-B0A9-15544B8E5C42}">
+    <customSheetView guid="{613290AE-B815-482C-9227-4F835E90B755}">
       <selection activeCell="F3" sqref="F3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -4614,7 +4681,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>30</v>
@@ -4625,12 +4692,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{5629F9B3-54EF-42EA-B0A9-15544B8E5C42}">
+      <selection activeCell="B13" sqref="B13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{613290AE-B815-482C-9227-4F835E90B755}">
       <selection activeCell="C3" sqref="C3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{5629F9B3-54EF-42EA-B0A9-15544B8E5C42}">
-      <selection activeCell="B13" sqref="B13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/update_data/data/ecovacs/dialogue/副本科沃斯门店对话设计.xlsx
+++ b/update_data/data/ecovacs/dialogue/副本科沃斯门店对话设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="28035" windowHeight="12045"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="28035" windowHeight="12045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="地宝" sheetId="1" r:id="rId1"/>
@@ -77,83 +77,6 @@
   </si>
   <si>
     <r>
-      <t>旺宝诚心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>推荐您，本店在售的，会飞檐走壁的窗宝W855。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>他擦了刮，刮了擦，四段清洁很干净；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>四重安全保证，全无后顾之忧；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>智能记忆功，好放好取；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进口电机，使用寿命长；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轴流式负压风机设计，满足顾客多种介质的擦拭需求。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">您可以在主界面点击搜索了解详情。
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>旺宝给您推荐本店在售的沁宝A650。这款宝宝</t>
     </r>
     <r>
@@ -582,48 +505,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>性能高点的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/性能好的/配置高的/性能高的/我</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>想买性能高点的/性能高点的/性能高的就行/我当然是买性能高的了/买性能高的啦/性能高的性能高的/我要性能高的/我要性能高一点的有没有/我需要性能高点的/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的了/当然买性能好的了/当然是性能高的了/当然需要性能高的了/当然是买性能高一点的/买性能高点的/性能高一点的就行了/买性能高一点的就可以了/就买性能高一点的吧/你就给我介绍性能高一点的吧/你给我介绍性能高一点的就好了/给我说一下性能高一点的吧/不买差的/不要差的/差的不要/不想要差的/差的不要/不要差的/我不买差的/我不要差的/差的我不要哈/我不想买差的/我要买好的/我要买能力强的/我要买高性能的/当然是买性能高的了/给我推荐一款性能好的/我要性能好的/我要配置高的/我想买一款配置高的/能给我推荐一款配置高的吗/能不能给我推荐一款性能高的/可以推荐一款性能高的吗？/我想买性能高的有吗/我想买配置高的/能不能给我推荐一款性能高的/可以推荐一款性能高的给我吗/给我推荐一款性能高的吗/有配置高的给我推荐一下吧/给我推荐一款配置高的吧</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我来买擦窗机器人</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我来买擦窗机器人/擦窗户的机器人有么？/我来买个擦窗户的/擦窗户的有没有？/擦窗户的那种/能擦窗户的/擦玻璃的那种/擦玻璃的机器人有么？/我来买个擦玻璃的/擦玻璃的有没有？/有没有擦窗机器人？/擦窗机器人有吗？这里有擦窗机器人吗？/有没有擦窗机器人卖？/这里有卖擦窗机器人的吗？/推荐个擦窗机器人/推荐擦窗机器人/介绍个擦窗机器人/介绍擦窗机器人/给我推荐个擦窗机器人/我来买个擦窗机器人/擦窗机器人有吗？/有没有擦窗机器人？/有擦窗机器人吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗机器人？/这里能买到擦窗机器人吗？/给我介绍个擦窗机器人？/能不能介绍一个擦窗机器人？/可以给我介绍一个擦窗机器人吗？/有没有擦窗的机器？/擦窗的机器有吗？这里有擦窗的机器吗？/有没有擦窗的机器卖？/这里有卖擦窗的机器的吗？/推荐个擦窗的机器/推荐擦窗的机器/介绍个擦窗的机器/介绍擦窗的机器/给我推荐个擦窗的机器/我来买个擦窗的机器/擦窗的机器有吗？/有没有擦窗的机器？/有擦窗的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗的机器？/这里能买到擦窗的机器吗？/给我介绍个擦窗的机器？/能不能介绍一个擦窗的机器？/可以给我介绍一个擦窗的机器吗？/有没有擦窗户的机器？/擦窗户的机器有吗？这里有擦窗户的机器吗？/有没有擦窗户的机器卖？/这里有卖擦窗户的机器的吗？/推荐个擦窗户的机器/推荐擦窗户的机器/介绍个擦窗户的机器/介绍擦窗户的机器/给我推荐个擦窗户的机器/我来买个擦窗户的机器/擦窗户的机器有吗？/有没有擦窗户的机器？/有擦窗户的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗户的机器？/这里能买到擦窗户的机器吗？/给我介绍个擦窗户的机器？/能不能介绍一个擦窗户的机器？/可以给我介绍一个擦窗户的机器吗？/有没有擦玻璃的机器？/擦玻璃的机器有吗？这里有擦玻璃的机器吗？/有没有擦玻璃的机器卖？/这里有卖擦玻璃的机器的吗？/推荐个擦玻璃的机器/推荐擦玻璃的机器/介绍个擦玻璃的机器/介绍擦玻璃的机器/给我推荐个擦玻璃的机器/我来买个擦玻璃的机器/擦玻璃的机器有吗？/有没有擦玻璃的机器？/有擦玻璃的机器吗？/有擦玻璃的机器人吗？/你们这里有擦玻璃的机器人卖吗？/可不可以在这里买擦玻璃的机器？/这里能买到擦玻璃的机器吗？/给我介绍个擦玻璃的机器？/能不能介绍一个擦玻璃的机器？/可以给我介绍一个擦玻璃的机器吗？/有没有打扫窗户的机器？/打扫窗户的机器有吗？这里有打扫窗户的机器吗？/有没有打扫窗户的机器卖？/这里有卖打扫窗户的机器的吗？/推荐个打扫窗户的机器/推荐打扫窗户的机器/介绍个打扫窗户的机器/介绍打扫窗户的机器/给我推荐个打扫窗户的机器/我来买个打扫窗户的机器/打扫窗户的机器有吗？/有没有打扫窗户的机器？/有打扫窗户的机器吗？/有打扫窗户的机器人吗？/你们这里有打扫窗户的机器人卖吗？/可不可以在这里买打扫窗户的机器？/这里能买到打扫窗户的机器吗？/给我介绍个打扫窗户的机器？/能不能介绍一个打扫窗户的机器？/可以给我介绍一个打扫窗户的机器吗？/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>还有吗</t>
@@ -634,10 +517,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我来买空气净化机器人/我来是买空气净化机器人的/我来买空气净化机器人的/我是来买空气净化机器人的/我来买净化空气的机器人/我想买空气净化机器人/空气净化机器人/净化空气的/能净化空气的/我想要空气净化机器人/我要空气净化机器人/有空气净化机器人吗？/空气净化机器人这里有卖的吗？/你们这里有卖空气净化机器人的吗？/推荐个空气净化机器人/给我推荐个空气净化机器人/介绍个空气净化机器人/介绍空气净化机器人/空气净化器有没有？/有没有空气净化器？/这里有空气净化器吗？/这里有卖空气净化器的吗？/你们这里有空气净化器吗？/你们这里有卖空气净化器的吗？/有没有空气净化器卖呀？/我想买净化空气的机器人/我想要一个净化空气的机器人/我来买净化空气的机器人的/我来买空气净化机器人/我来买空气净化机器人人/我想买空气净化机器人/空气净化机器人/我来买空气净化机器人/我想要空气净化机器人/我要空气净化机器人/推荐个空气净化机器人/我要买空气净化机器人/买空气净化机器人/我要买空气净化机器人/推荐个空气净化机器人/推荐空气净化机器人/空气净化机器人/给我推荐个空气净化机器人/介绍个空气净化机器人/介绍下空气净化机器人/我想买一个空气净化机器人/你们这里可以买空气净化机器人吗？/你能给我推荐一下空气净化机器人吗？/空气净化机器人有没有啊？/有没有空气净化机器人卖？/可以在这里买到空气净化机器人吗？/能不能介绍一个空气净化机器人给我？/可以给我介绍一个空气净化机器人吗？/能不能给我推荐一个空气净化机器人？/可以推荐一个空气净化机器人给我？//我来买净化空气的机器/我来买净化空气的机器人/我想买净化空气的机器/净化空气的机器/我来买净化空气的机器/我想要净化空气的机器/我要净化空气的机器/推荐个净化空气的机器/我要买净化空气的机器/买净化空气的机器/我要买净化空气的机器/推荐个净化空气的机器/推荐净化空气的机器/净化空气的机器/给我推荐个净化空气的机器/介绍个净化空气的机器/介绍下净化空气的机器/我想买一个净化空气的机器/你们这里可以买净化空气的机器吗？/你能给我推荐一下净化空气的机器吗？/净化空气的机器有没有啊？/有没有净化空气的机器卖？/可以在这里买到净化空气的机器吗？/能不能介绍一个净化空气的机器给我？/可以给我介绍一个净化空气的机器吗？/能不能给我推荐一个净化空气的机器？/可以推荐一个净化空气的机器给我？//我来买能让空气变好的机器/我来买能让空气变好的机器人/我想买能让空气变好的机器/能让空气变好的机器/我来买能让空气变好的机器/我想要能让空气变好的机器/我要能让空气变好的机器/推荐个能让空气变好的机器/我要买能让空气变好的机器/买能让空气变好的机器/我要买能让空气变好的机器/推荐个能让空气变好的机器/推荐能让空气变好的机器/能让空气变好的机器/给我推荐个能让空气变好的机器/介绍个能让空气变好的机器/介绍下能让空气变好的机器/我想买一个能让空气变好的机器/你们这里可以买能让空气变好的机器吗？/你能给我推荐一下能让空气变好的机器吗？/能让空气变好的机器有没有啊？/有没有能让空气变好的机器卖？/可以在这里买到能让空气变好的机器吗？/能不能介绍一个能让空气变好的机器给我？/可以给我介绍一个能让空气变好的机器吗？/能不能给我推荐一个能让空气变好的机器？/可以推荐一个能让空气变好的机器给我？//我来买过滤空气的机器/我来买过滤空气的机器人/我想买过滤空气的机器/过滤空气的机器/我来买过滤空气的机器/我想要过滤空气的机器/我要过滤空气的机器/推荐个过滤空气的机器/我要买过滤空气的机器/买过滤空气的机器/我要买过滤空气的机器/推荐个过滤空气的机器/推荐过滤空气的机器/过滤空气的机器/给我推荐个过滤空气的机器/介绍个过滤空气的机器/介绍下过滤空气的机器/我想买一个过滤空气的机器/你们这里可以买过滤空气的机器吗？/你能给我推荐一下过滤空气的机器吗？/过滤空气的机器有没有啊？/有没有过滤空气的机器卖？/可以在这里买到过滤空气的机器吗？/能不能介绍一个过滤空气的机器给我？/可以给我介绍一个过滤空气的机器吗？/能不能给我推荐一个过滤空气的机器？/可以推荐一个过滤空气的机器给我？/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>性能高点的扫地机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -678,89 +557,6 @@
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>性能高点的扫地机/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>我要买性能好的扫地机/我要买配置高的我要买扫地机/我要买性能高的扫地机/我</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>想买性能高点的扫地机/我要买性能高点的扫地机/我要买性能高的扫地机就行/我当然是买性能高的扫地机了/我要买买性能高的扫地机啦/我要买性能高的扫地机/我要性能高的扫地机/我要性能高一点的扫地机有没有/我需要性能高点的扫地机/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机了/我要买当然买性能好的扫地机了/我要买当然是性能高的扫地机了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机就可以了/我就买性能高一点的扫地机吧/你就给我介绍性能高一点的扫地机吧/你给我介绍性能高一点的扫地机就好了/给我说一下性能高一点的扫地机吧/我不买差的扫地机/我不要差的扫地机/我差的扫地机不要/我不想要差的扫地机/我差的扫地机不要/我不要差的扫地机/我不买差的扫地机/我不要差的扫地机/差的扫地机我不要哈/我不想买差的扫地机/我要买好的扫地机/我要买能力强的扫地机/我要买高性能的扫地机/当然是买性能高的扫地机了/给我推荐一款性能好的扫地机/我要性能好的扫地机/我要配置高的扫地机/我想买一款配置高的扫地机/能给我推荐一款配置高的扫地机吗/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机吗？/我想买性能高的扫地机有吗/我想买配置高的扫地机/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机给我吗/给我推荐一款性能高的扫地机吗/有配置高的扫地机给我推荐一下吧/给我推荐一款配置高的扫地机吧/我要买性能好的扫地机器人/我要买配置高的我要买扫地机器人/我要买性能高的扫地机器人/我想买性能高点的扫地机器人/我要买性能高点的扫地机器人/我要买性能高的扫地机器人就行/我当然是买性能高的扫地机器人了/我要买买性能高的扫地机器人啦/我要买性能高的扫地机器人/我要性能高的扫地机器人/我要性能高一点的扫地机器人有没有/我需要性能高点的扫地机器人/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机器人了/我要买当然买性能好的扫地机器人了/我要买当然是性能高的扫地机器人了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机器人就可以了/我就买性能高一点的扫地机器人吧/你就给我介绍性能高一点的扫地机器人吧/你给我介绍性能高一点的扫地机器人就好了/给我说一下性能高一点的扫地机器人吧/我不买差的扫地机器人/我不要差的扫地机器人/我差的扫地机器人不要/我不想要差的扫地机器人/我差的扫地机器人不要/我不要差的扫地机器人/我不买差的扫地机器人/我不要差的扫地机器人/差的扫地机器人我不要哈/我不想买差的扫地机器人/我要买好的扫地机器人/我要买能力强的扫地机器人/我要买高性能的扫地机器人/当然是买性能高的扫地机器人了/给我推荐一款性能好的扫地机器人/我要性能好的扫地机器人/我要配置高的扫地机器人/我想买一款配置高的扫地机器人/能给我推荐一款配置高的扫地机器人吗/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人吗？/我想买性能高的扫地机器人有吗/我想买配置高的扫地机器人/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人给我吗/给我推荐一款性能高的扫地机器人吗/有配置高的扫地机器人给我推荐一下吧/给我推荐一款配置高的扫地机器人吧//我想买好的扫地机/我要买好的扫地机/我要买好的扫地机就行/我当然是买好的扫地机了/我要买好的扫地机啦/我要买好的好的扫地机/我要买好的扫地机/我要好一点的扫地机有没有/我需要好的扫地机/你能给我介绍好的扫地机吗/我想买好的扫地机有没有/我想买好的扫地机 /我想要好的扫地机啊/我要买需要好的扫地机了/我要买好一点的扫地机/我要买好的扫地机/我就好一点的扫地机就行了/买好一点的扫地机就可以了/就买好一点的扫地机吧/你就给我介绍好一点的扫地机吧/你给我介绍好一点的扫地机就好了/给我说一下好一点的扫地机吧/我想买好的扫地机器人/我要买好的扫地机器人/我要买好的扫地机器人就行/我当然是买好的扫地机器人了/我要买好的扫地机器人啦/我要买好的好的扫地机器人/我要买好的扫地机器人 /我要好一点的扫地机器人有没有/我需要好的扫地机器人/你能给我介绍好的扫地机器人吗/我想买好的扫地机器人有没有/我想买好的扫地机器人/我想好点的扫地机器人/我想要好的扫地机器人啊/我要买扫地机器人/我要买好的扫地机器人了/我要买需要好的扫地机器人了/我要买好一点的扫地机器人/我要买好的扫地机器人/我就好一点的扫地机器人就行了/买好一点的扫地机器人就可以了/就买好一点的扫地机器人吧/你就给我介绍好一点的扫地机器人吧/你给我介绍好一点的扫地机器人就好了/给我说一下好一点的扫地机器人吧/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>给我介绍最贵的扫地机/给我介绍一下配置最高的DG36/给我介绍一下你们最好的扫地机器人/介绍最好的扫地机/</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>便宜一点的/既便宜又实惠的/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>便宜的/我想买便宜点的/便宜点的/价格低点的/便宜的就行/我当然是买便宜的了/买便宜的啦/便宜的便宜的/价格便宜的/价格低的/我要便宜一点的有没有/我需要便宜点的/你能给我介绍便宜点的吗/我想买便宜点的有没有/我想买便宜点的/我想要价格低点的/我想要便宜的啊/当然是便宜的了/当然买价格低点了/当然是价格低的了/当然需要价格便宜的了/当然是买便宜一点的/买便宜点的/我就便宜一点的就行了/买便宜一点的就可以了/就买便宜一点的吧/你就给我介绍便宜一点的吧/你给我介绍便宜一点的就好了/给我说一下便宜一点的吧/不买贵的/不要贵的/贵的不要/不想要贵的/贵的不要/不要贵的/我不买贵的/我不要贵的/贵的我不要哈/我不想买贵的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/性价比高的/我想买一款便宜的/我想买一款性价比高的/你能给我推荐一款性价比高的吗/你可以推荐一款性价比高的给我吗/给我推荐一款价格低的吧/能不能给我推荐一款价格低点的啊</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
       </rPr>
       <t>还有吗</t>
     </r>
@@ -834,21 +630,311 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">还有啥样的/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的擦窗机器人么？/你们店里还有其他的擦窗机器人么？/擦窗机器人还有没有其他选择？/擦窗机器人还有没有其他款式？/擦窗机器人还有没有其他型号？/擦窗机器人其他型号有没有？/还有没有擦窗机器人/还有擦窗机器人么？/其他的擦窗机器人呢？/别的擦窗机器人/再给我推荐一个擦窗机器人/再推荐一个擦窗机器人我看看/再推荐一个擦窗机器人我听听/我还想了解其他的擦窗机器人/我还想了解别的擦窗机器人型号的/再介绍一个擦窗机器人/再介绍一款擦窗机器人/还有没有擦窗机器人？/还有其他的擦窗机器人么？/其他的擦窗机器人呢？/就这一款擦窗机器人么？/就这一个擦窗机器人？/有没有更好的擦窗机器人？/有没有配置高一点的擦窗机器人？/有没有比这个好的擦窗机器人/有没有比这个好的擦窗机器人推荐一下/有没有性能更好的擦窗机器人/有没有性能更好的擦窗机器人推荐一下/性能更好的擦窗机器人/我想知道其他的擦窗机器人/换一款擦窗机器人/换一个擦窗机器人/下一个擦窗机器人/再介绍一个其他的擦窗机器人/还有别的擦窗户的么？/你们店里还有其他的擦窗户的么？/擦窗户的还有没有其他选择？/擦窗户的还有没有其他款式？/擦窗户的还有没有其他型号？/擦窗户的其他型号有没有？/还有没有擦窗户的/还有擦窗户的么？/其他的擦窗户的呢？/别的擦窗户的/再给我推荐一个擦窗户的/再推荐一个擦窗户的我看看/再推荐一个擦窗户的我听听/我还想了解其他的擦窗户的/我还想了解别的擦窗户的型号的/再介绍一个擦窗户的/再介绍一款擦窗户的/还有没有擦窗户的？/还有其他的擦窗户的么？/其他的擦窗户的呢？/就这一款擦窗户的么？/就这一个擦窗户的？/有没有更好的擦窗户的？/有没有配置高一点的擦窗户的？/有没有比这个好的擦窗户的/有没有比这个好的擦窗户的推荐一下/有没有性能更好的擦窗户的/有没有性能更好的擦窗户的推荐一下/性能更好的擦窗户的/我想知道其他的擦窗户的/换一款擦窗户的/换一个擦窗户的/下一个擦窗户的/再介绍一个其他的擦窗户的/给我推荐一款擦窗机器人
+    <t xml:space="preserve">便宜一点的扫地机/我想买便宜点的扫地机/我要买便宜点的扫地机/我要买价格低点的扫地机/我要买便宜的扫地机就行/我当然是买便宜的扫地机了/我要买便宜的扫地机啦/我要买便宜的便宜的扫地机/我要买价格便宜的扫地机/我要买价格低的扫地机/我要便宜一点的扫地机有没有/我需要便宜点的扫地机/你能给我介绍便宜点的扫地机吗/我想买便宜点的扫地机有没有/我想买便宜点的扫地机/我想要价格低点的扫地机/我想要便宜的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格便宜的扫地机了/我要买便宜一点的扫地机/我要买便宜点的扫地机/我就便宜一点的扫地机就行了/买便宜一点的扫地机就可以了/就买便宜一点的扫地机吧/你就给我介绍便宜一点的扫地机吧/你给我介绍便宜一点的扫地机就好了/给我说一下便宜一点的扫地机吧/我不买贵的扫地机/不要贵的扫地机/我贵的扫地机不要/我不想要贵的扫地机/我贵的扫地机不要/我不要贵的扫地机/我不买贵的扫地机/我不要贵的扫地机/贵的扫地机我不要哈/我不想买贵的扫地机/我想买一款便宜的扫地机/我想买一款性价比高的扫地机/你能给我推荐一款性价比高的扫地机吗/你可以推荐一款性价比高的扫地机给我吗/给我推荐一款价格低的扫地机吧/能不能给我推荐一款价格低点的扫地机啊
+/我想买便宜点的扫地机器人/我要买便宜点的扫地机器人/我要买价格低点的扫地机器人/我要买便宜的扫地机器人就行/我当然是买便宜的扫地机器人了/我要买便宜的扫地机器人啦/我要买便宜的便宜的扫地机器人/我要买价格便宜的扫地机器人/我要买价格低的扫地机器人/我要便宜一点的扫地机器人有没有/我需要便宜点的扫地机器人/你能给我介绍便宜点的扫地机器人吗/我想买便宜点的扫地机器人有没有/我想买便宜点的扫地机器人/我想要价格低点的扫地机器人/我想要便宜的扫地机器人啊/我要买扫地机器人/买价格低点了扫地机器人/我要买价格低的扫地机器人了/我要买需要价格便宜的扫地机器人了/我要买便宜一点的扫地机器人/我要买便宜点的扫地机器人/我就便宜一点的扫地机器人就行了/买便宜一点的扫地机器人就可以了/就买便宜一点的扫地机器人吧/你就给我介绍便宜一点的扫地机器人吧/你给我介绍便宜一点的扫地机器人就好了/给我说一下便宜一点的扫地机器人吧/我不买贵的扫地机器人/不要贵的扫地机器人/我贵的扫地机器人不要/我不想要贵的扫地机器人/我贵的扫地机器人不要/我不要贵的扫地机器人/我不买贵的扫地机器人/我不要贵的扫地机器人/贵的扫地机器人我不要哈/我不想买贵的扫地机器人/我想买一款便宜的扫地机器人/我想买一款性价比高的扫地机器人/你能给我推荐一款性价比高的扫地机器人吗/你可以推荐一款性价比高的扫地机器人给我吗/给我推荐一款价格低的扫地机器人吧/能不能给我推荐一款价格低点的扫地机器人啊//我想买实惠的扫地机/我要买实惠的扫地机/我要买价格低点的扫地机/我要买实惠的扫地机就行/我当然是买实惠的扫地机了/我要买实惠的扫地机啦/我要买实惠的实惠的扫地机/我要买价格实惠的扫地机/我要买价格低的扫地机/我要实惠一点的扫地机有没有/我需要实惠的扫地机/你能给我介绍实惠的扫地机吗/我想买实惠的扫地机有没有/我想买实惠的扫地机/我想要价格低点的扫地机/我想要实惠的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格实惠的扫地机了/我要买实惠一点的扫地机/我要买实惠的扫地机/我就实惠一点的扫地机就行了/买实惠一点的扫地机就可以了/就买实惠一点的扫地机吧/你就给我介绍实惠一点的扫地机吧/你给我介绍实惠一点的扫地机就好了/给我说一下实惠一点的扫地机吧/我想买实惠的扫地机器人/我要买实惠的扫地机器人/我要买价格低点的扫地机器人/我要买实惠的扫地机器人就行/我当然是买实惠的扫地机器人了/我要买实惠的扫地机器人啦/我要买实惠的实惠的扫地机器人/我要买价格实惠的扫地机器人/我要买价格低的扫地机器人/我要实惠一点的扫地机器人有没有/我需要实惠的扫地机器人/你能给我介绍实惠的扫地机器人吗/我想买实惠的扫地机器人有没有/我想买实惠的扫地机器人/我想要价格低点的扫地机器人/我想要实惠的扫地机器人啊/我要买扫地机器人/买价格低点了扫地机器人/我要买价格低的扫地机器人了/我要买需要价格实惠的扫地机器人了/我要买实惠一点的扫地机器人/我要买实惠的扫地机器人/我就实惠一点的扫地机器人就行了/买实惠一点的扫地机器人就可以了/就买实惠一点的扫地机器人吧/你就给我介绍实惠一点的扫地机器人吧/你给我介绍实惠一点的扫地机器人就好了/给我说一下实惠一点的扫地机器人吧/我不买贵的扫地机器人/你们最便宜的扫地机介绍一下吧/最便宜的扫地机器人/最便宜的/给我介绍一下最实惠的扫地机/最实惠的给我介绍一下/你们这里有折扣很大的扫地机卖吗
 </t>
   </si>
   <si>
-    <t xml:space="preserve">还有啥样的/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的空气净化机器人么？/你们店里还有其他的空气净化机器人么？/空气净化机器人还有没有其他选择？/空气净化机器人还有没有其他款式？/空气净化机器人还有没有其他型号？/空气净化机器人其他型号有没有？/还有没有空气净化机器人/还有空气净化机器人么？/其他的空气净化机器人呢？/别的空气净化机器人/再给我推荐一个空气净化机器人/再推荐一个空气净化机器人我看看/再推荐一个空气净化机器人我听听/我还想了解其他的空气净化机器人/我还想了解别的空气净化机器人型号的/再介绍一个空气净化机器人/再介绍一款空气净化机器人/还有没有空气净化机器人？/还有其他的空气净化机器人么？/其他的空气净化机器人呢？/就这一款空气净化机器人么？/就这一个空气净化机器人？/有没有更好的空气净化机器人？/有没有配置高一点的空气净化机器人？/有没有比这个好的空气净化机器人/有没有比这个好的空气净化机器人推荐一下/有没有性能更好的空气净化机器人/有没有性能更好的空气净化机器人推荐一下/性能更好的空气净化机器人/我想知道其他的空气净化机器人/换一款空气净化机器人/换一个空气净化机器人/下一个空气净化机器人/再介绍一个其他的空气净化机器人/还有别的空气净化机器人么？/你们店里还有其他的空气净化机器人么？/空气净化机器人还有没有其他选择？/空气净化机器人还有没有其他款式？/空气净化机器人还有没有其他型号？/空气净化机器人其他型号有没有？/还有没有空气净化机器人/还有空气净化机器人么？/其他的空气净化机器人呢？/别的空气净化机器人/再给我推荐一个空气净化机器人/再推荐一个空气净化机器人我看看/再推荐一个空气净化机器人我听听/我还想了解其他的空气净化机器人/我还想了解别的空气净化机器人型号的/再介绍一个空气净化机器人/再介绍一款空气净化机器人/还有没有空气净化机器人？/还有其他的空气净化机器人么？/其他的空气净化机器人呢？/就这一款空气净化机器人么？/就这一个空气净化机器人？/有没有更好的空气净化机器人？/有没有配置高一点的空气净化机器人？/有没有比这个好的空气净化机器人/有没有比这个好的空气净化机器人推荐一下/有没有性能更好的空气净化机器人/有没有性能更好的空气净化机器人推荐一下/性能更好的空气净化机器人/我想知道其他的空气净化机器人/换一款空气净化机器人/换一个空气净化机器人/下一个空气净化机器人/再介绍一个其他的空气净化机器人/
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>性能高点的扫地机/买个使用寿命长的扫地机/买个能用时间长的扫地机/买个可以长时间使用的扫地机/买个耐用的扫地机/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我要买性能好的扫地机/我要买配置高的我要买扫地机/我要买性能高的扫地机/我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>想买性能高点的扫地机/我要买性能高点的扫地机/我要买性能高的扫地机就行/我当然是买性能高的扫地机了/我要买买性能高的扫地机啦/我要买性能高的扫地机/我要性能高的扫地机/我要性能高一点的扫地机有没有/我需要性能高点的扫地机/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机了/我要买当然买性能好的扫地机了/我要买当然是性能高的扫地机了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机就可以了/我就买性能高一点的扫地机吧/你就给我介绍性能高一点的扫地机吧/你给我介绍性能高一点的扫地机就好了/给我说一下性能高一点的扫地机吧/我不买差的扫地机/我不要差的扫地机/我差的扫地机不要/我不想要差的扫地机/我差的扫地机不要/我不要差的扫地机/我不买差的扫地机/我不要差的扫地机/差的扫地机我不要哈/我不想买差的扫地机/我要买好的扫地机/我要买能力强的扫地机/我要买高性能的扫地机/当然是买性能高的扫地机了/给我推荐一款性能好的扫地机/我要性能好的扫地机/我要配置高的扫地机/我想买一款配置高的扫地机/能给我推荐一款配置高的扫地机吗/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机吗？/我想买性能高的扫地机有吗/我想买配置高的扫地机/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机给我吗/给我推荐一款性能高的扫地机吗/有配置高的扫地机给我推荐一下吧/给我推荐一款配置高的扫地机吧/我要买性能好的扫地机器人/我要买配置高的我要买扫地机器人/我要买性能高的扫地机器人/我想买性能高点的扫地机器人/我要买性能高点的扫地机器人/我要买性能高的扫地机器人就行/我当然是买性能高的扫地机器人了/我要买买性能高的扫地机器人啦/我要买性能高的扫地机器人/我要性能高的扫地机器人/我要性能高一点的扫地机器人有没有/我需要性能高点的扫地机器人/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机器人了/我要买当然买性能好的扫地机器人了/我要买当然是性能高的扫地机器人了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机器人就可以了/我就买性能高一点的扫地机器人吧/你就给我介绍性能高一点的扫地机器人吧/你给我介绍性能高一点的扫地机器人就好了/给我说一下性能高一点的扫地机器人吧/我不买差的扫地机器人/我不要差的扫地机器人/我差的扫地机器人不要/我不想要差的扫地机器人/我差的扫地机器人不要/我不要差的扫地机器人/我不买差的扫地机器人/我不要差的扫地机器人/差的扫地机器人我不要哈/我不想买差的扫地机器人/我要买好的扫地机器人/我要买能力强的扫地机器人/我要买高性能的扫地机器人/当然是买性能高的扫地机器人了/给我推荐一款性能好的扫地机器人/我要性能好的扫地机器人/我要配置高的扫地机器人/我想买一款配置高的扫地机器人/能给我推荐一款配置高的扫地机器人吗/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人吗？/我想买性能高的扫地机器人有吗/我想买配置高的扫地机器人/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人给我吗/给我推荐一款性能高的扫地机器人吗/有配置高的扫地机器人给我推荐一下吧/给我推荐一款配置高的扫地机器人吧//我想买好的扫地机/我要买好的扫地机/我要买好的扫地机就行/我当然是买好的扫地机了/我要买好的扫地机啦/我要买好的好的扫地机/我要买好的扫地机/我要好一点的扫地机有没有/我需要好的扫地机/你能给我介绍好的扫地机吗/我想买好的扫地机有没有/我想买好的扫地机 /我想要好的扫地机啊/我要买需要好的扫地机了/我要买好一点的扫地机/我要买好的扫地机/我就好一点的扫地机就行了/买好一点的扫地机就可以了/就买好一点的扫地机吧/你就给我介绍好一点的扫地机吧/你给我介绍好一点的扫地机就好了/给我说一下好一点的扫地机吧/我想买好的扫地机器人/我要买好的扫地机器人/我要买好的扫地机器人就行/我当然是买好的扫地机器人了/我要买好的扫地机器人啦/我要买好的好的扫地机器人/我要买好的扫地机器人 /我要好一点的扫地机器人有没有/我需要好的扫地机器人/你能给我介绍好的扫地机器人吗/我想买好的扫地机器人有没有/我想买好的扫地机器人/我想好点的扫地机器人/我想要好的扫地机器人啊/我要买扫地机器人/我要买好的扫地机器人了/我要买需要好的扫地机器人了/我要买好一点的扫地机器人/我要买好的扫地机器人/我就好一点的扫地机器人就行了/买好一点的扫地机器人就可以了/就买好一点的扫地机器人吧/你就给我介绍好一点的扫地机器人吧/你给我介绍好一点的扫地机器人就好了/给我说一下好一点的扫地机器人吧/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>给我介绍最贵的扫地机/给我介绍一下配置最高的DG36/给我介绍一下你们最好的扫地机器人/介绍最好的扫地机/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>买个好的擦窗机器人/我来买个好的擦窗机器人/我想买个好用的擦窗机器/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我来买擦窗机器人/擦窗户的机器人有么？/我来买个擦窗户的/擦窗户的有没有？/擦窗户的那种/能擦窗户的/擦玻璃的那种/擦玻璃的机器人有么？/我来买个擦玻璃的/擦玻璃的有没有？/有没有擦窗机器人？/擦窗机器人有吗？这里有擦窗机器人吗？/有没有擦窗机器人卖？/这里有卖擦窗机器人的吗？/推荐个擦窗机器人/推荐擦窗机器人/介绍个擦窗机器人/介绍擦窗机器人/给我推荐个擦窗机器人/我来买个擦窗机器人/擦窗机器人有吗？/有没有擦窗机器人？/有擦窗机器人吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗机器人？/这里能买到擦窗机器人吗？/给我介绍个擦窗机器人？/能不能介绍一个擦窗机器人？/可以给我介绍一个擦窗机器人吗？/有没有擦窗的机器？/擦窗的机器有吗？这里有擦窗的机器吗？/有没有擦窗的机器卖？/这里有卖擦窗的机器的吗？/推荐个擦窗的机器/推荐擦窗的机器/介绍个擦窗的机器/介绍擦窗的机器/给我推荐个擦窗的机器/我来买个擦窗的机器/擦窗的机器有吗？/有没有擦窗的机器？/有擦窗的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗的机器？/这里能买到擦窗的机器吗？/给我介绍个擦窗的机器？/能不能介绍一个擦窗的机器？/可以给我介绍一个擦窗的机器吗？/有没有擦窗户的机器？/擦窗户的机器有吗？这里有擦窗户的机器吗？/有没有擦窗户的机器卖？/这里有卖擦窗户的机器的吗？/推荐个擦窗户的机器/推荐擦窗户的机器/介绍个擦窗户的机器/介绍擦窗户的机器/给我推荐个擦窗户的机器/我来买个擦窗户的机器/擦窗户的机器有吗？/有没有擦窗户的机器？/有擦窗户的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗户的机器？/这里能买到擦窗户的机器吗？/给我介绍个擦窗户的机器？/能不能介绍一个擦窗户的机器？/可以给我介绍一个擦窗户的机器吗？/有没有擦玻璃的机器？/擦玻璃的机器有吗？这里有擦玻璃的机器吗？/有没有擦玻璃的机器卖？/这里有卖擦玻璃的机器的吗？/推荐个擦玻璃的机器/推荐擦玻璃的机器/介绍个擦玻璃的机器/介绍擦玻璃的机器/给我推荐个擦玻璃的机器/我来买个擦玻璃的机器/擦玻璃的机器有吗？/有没有擦玻璃的机器？/有擦玻璃的机器吗？/有擦玻璃的机器人吗？/你们这里有擦玻璃的机器人卖吗？/可不可以在这里买擦玻璃的机器？/这里能买到擦玻璃的机器吗？/给我介绍个擦玻璃的机器？/能不能介绍一个擦玻璃的机器？/可以给我介绍一个擦玻璃的机器吗？/有没有打扫窗户的机器？/打扫窗户的机器有吗？这里有打扫窗户的机器吗？/有没有打扫窗户的机器卖？/这里有卖打扫窗户的机器的吗？/推荐个打扫窗户的机器/推荐打扫窗户的机器/介绍个打扫窗户的机器/介绍打扫窗户的机器/给我推荐个打扫窗户的机器/我来买个打扫窗户的机器/打扫窗户的机器有吗？/有没有打扫窗户的机器？/有打扫窗户的机器吗？/有打扫窗户的机器人吗？/你们这里有打扫窗户的机器人卖吗？/可不可以在这里买打扫窗户的机器？/这里能买到打扫窗户的机器吗？/给我介绍个打扫窗户的机器？/能不能介绍一个打扫窗户的机器？/可以给我介绍一个打扫窗户的机器吗？/</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我就想买个空气净化机器人/我就想买个空气净化的/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我来买空气净化机器人/我来是买空气净化机器人的/我来买空气净化机器人的/我是来买空气净化机器人的/我来买净化空气的机器人/我想买空气净化机器人/空气净化机器人/净化空气的/能净化空气的/我想要空气净化机器人/我要空气净化机器人/有空气净化机器人吗？/空气净化机器人这里有卖的吗？/你们这里有卖空气净化机器人的吗？/推荐个空气净化机器人/给我推荐个空气净化机器人/介绍个空气净化机器人/介绍空气净化机器人/空气净化器有没有？/有没有空气净化器？/这里有空气净化器吗？/这里有卖空气净化器的吗？/你们这里有空气净化器吗？/你们这里有卖空气净化器的吗？/有没有空气净化器卖呀？/我想买净化空气的机器人/我想要一个净化空气的机器人/我来买净化空气的机器人的/我来买空气净化机器人/我来买空气净化机器人人/我想买空气净化机器人/空气净化机器人/我来买空气净化机器人/我想要空气净化机器人/我要空气净化机器人/推荐个空气净化机器人/我要买空气净化机器人/买空气净化机器人/我要买空气净化机器人/推荐个空气净化机器人/推荐空气净化机器人/空气净化机器人/给我推荐个空气净化机器人/介绍个空气净化机器人/介绍下空气净化机器人/我想买一个空气净化机器人/你们这里可以买空气净化机器人吗？/你能给我推荐一下空气净化机器人吗？/空气净化机器人有没有啊？/有没有空气净化机器人卖？/可以在这里买到空气净化机器人吗？/能不能介绍一个空气净化机器人给我？/可以给我介绍一个空气净化机器人吗？/能不能给我推荐一个空气净化机器人？/可以推荐一个空气净化机器人给我？//我来买净化空气的机器/我来买净化空气的机器人/我想买净化空气的机器/净化空气的机器/我来买净化空气的机器/我想要净化空气的机器/我要净化空气的机器/推荐个净化空气的机器/我要买净化空气的机器/买净化空气的机器/我要买净化空气的机器/推荐个净化空气的机器/推荐净化空气的机器/净化空气的机器/给我推荐个净化空气的机器/介绍个净化空气的机器/介绍下净化空气的机器/我想买一个净化空气的机器/你们这里可以买净化空气的机器吗？/你能给我推荐一下净化空气的机器吗？/净化空气的机器有没有啊？/有没有净化空气的机器卖？/可以在这里买到净化空气的机器吗？/能不能介绍一个净化空气的机器给我？/可以给我介绍一个净化空气的机器吗？/能不能给我推荐一个净化空气的机器？/可以推荐一个净化空气的机器给我？//我来买能让空气变好的机器/我来买能让空气变好的机器人/我想买能让空气变好的机器/能让空气变好的机器/我来买能让空气变好的机器/我想要能让空气变好的机器/我要能让空气变好的机器/推荐个能让空气变好的机器/我要买能让空气变好的机器/买能让空气变好的机器/我要买能让空气变好的机器/推荐个能让空气变好的机器/推荐能让空气变好的机器/能让空气变好的机器/给我推荐个能让空气变好的机器/介绍个能让空气变好的机器/介绍下能让空气变好的机器/我想买一个能让空气变好的机器/你们这里可以买能让空气变好的机器吗？/你能给我推荐一下能让空气变好的机器吗？/能让空气变好的机器有没有啊？/有没有能让空气变好的机器卖？/可以在这里买到能让空气变好的机器吗？/能不能介绍一个能让空气变好的机器给我？/可以给我介绍一个能让空气变好的机器吗？/能不能给我推荐一个能让空气变好的机器？/可以推荐一个能让空气变好的机器给我？//我来买过滤空气的机器/我来买过滤空气的机器人/我想买过滤空气的机器/过滤空气的机器/我来买过滤空气的机器/我想要过滤空气的机器/我要过滤空气的机器/推荐个过滤空气的机器/我要买过滤空气的机器/买过滤空气的机器/我要买过滤空气的机器/推荐个过滤空气的机器/推荐过滤空气的机器/过滤空气的机器/给我推荐个过滤空气的机器/介绍个过滤空气的机器/介绍下过滤空气的机器/我想买一个过滤空气的机器/你们这里可以买过滤空气的机器吗？/你能给我推荐一下过滤空气的机器吗？/过滤空气的机器有没有啊？/有没有过滤空气的机器卖？/可以在这里买到过滤空气的机器吗？/能不能介绍一个过滤空气的机器给我？/可以给我介绍一个过滤空气的机器吗？/能不能给我推荐一个过滤空气的机器？/可以推荐一个过滤空气的机器给我？/</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可有其他类型的/可有其他形状的/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">还有啥样的/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的擦窗机器人么？/你们店里还有其他的擦窗机器人么？/擦窗机器人还有没有其他选择？/擦窗机器人还有没有其他款式？/擦窗机器人还有没有其他型号？/擦窗机器人其他型号有没有？/还有没有擦窗机器人/还有擦窗机器人么？/其他的擦窗机器人呢？/别的擦窗机器人/再给我推荐一个擦窗机器人/再推荐一个擦窗机器人我看看/再推荐一个擦窗机器人我听听/我还想了解其他的擦窗机器人/我还想了解别的擦窗机器人型号的/再介绍一个擦窗机器人/再介绍一款擦窗机器人/还有没有擦窗机器人？/还有其他的擦窗机器人么？/其他的擦窗机器人呢？/就这一款擦窗机器人么？/就这一个擦窗机器人？/有没有更好的擦窗机器人？/有没有配置高一点的擦窗机器人？/有没有比这个好的擦窗机器人/有没有比这个好的擦窗机器人推荐一下/有没有性能更好的擦窗机器人/有没有性能更好的擦窗机器人推荐一下/性能更好的擦窗机器人/我想知道其他的擦窗机器人/换一款擦窗机器人/换一个擦窗机器人/下一个擦窗机器人/再介绍一个其他的擦窗机器人/还有别的擦窗户的么？/你们店里还有其他的擦窗户的么？/擦窗户的还有没有其他选择？/擦窗户的还有没有其他款式？/擦窗户的还有没有其他型号？/擦窗户的其他型号有没有？/还有没有擦窗户的/还有擦窗户的么？/其他的擦窗户的呢？/别的擦窗户的/再给我推荐一个擦窗户的/再推荐一个擦窗户的我看看/再推荐一个擦窗户的我听听/我还想了解其他的擦窗户的/我还想了解别的擦窗户的型号的/再介绍一个擦窗户的/再介绍一款擦窗户的/还有没有擦窗户的？/还有其他的擦窗户的么？/其他的擦窗户的呢？/就这一款擦窗户的么？/就这一个擦窗户的？/有没有更好的擦窗户的？/有没有配置高一点的擦窗户的？/有没有比这个好的擦窗户的/有没有比这个好的擦窗户的推荐一下/有没有性能更好的擦窗户的/有没有性能更好的擦窗户的推荐一下/性能更好的擦窗户的/我想知道其他的擦窗户的/换一款擦窗户的/换一个擦窗户的/下一个擦窗户的/再介绍一个其他的擦窗户的/给我推荐一款擦窗机器人
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可有其他类型的/可有其他形状的/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">还有啥样的/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的空气净化机器人么？/你们店里还有其他的空气净化机器人么？/空气净化机器人还有没有其他选择？/空气净化机器人还有没有其他款式？/空气净化机器人还有没有其他型号？/空气净化机器人其他型号有没有？/还有没有空气净化机器人/还有空气净化机器人么？/其他的空气净化机器人呢？/别的空气净化机器人/再给我推荐一个空气净化机器人/再推荐一个空气净化机器人我看看/再推荐一个空气净化机器人我听听/我还想了解其他的空气净化机器人/我还想了解别的空气净化机器人型号的/再介绍一个空气净化机器人/再介绍一款空气净化机器人/还有没有空气净化机器人？/还有其他的空气净化机器人么？/其他的空气净化机器人呢？/就这一款空气净化机器人么？/就这一个空气净化机器人？/有没有更好的空气净化机器人？/有没有配置高一点的空气净化机器人？/有没有比这个好的空气净化机器人/有没有比这个好的空气净化机器人推荐一下/有没有性能更好的空气净化机器人/有没有性能更好的空气净化机器人推荐一下/性能更好的空气净化机器人/我想知道其他的空气净化机器人/换一款空气净化机器人/换一个空气净化机器人/下一个空气净化机器人/再介绍一个其他的空气净化机器人/还有别的空气净化机器人么？/你们店里还有其他的空气净化机器人么？/空气净化机器人还有没有其他选择？/空气净化机器人还有没有其他款式？/空气净化机器人还有没有其他型号？/空气净化机器人其他型号有没有？/还有没有空气净化机器人/还有空气净化机器人么？/其他的空气净化机器人呢？/别的空气净化机器人/再给我推荐一个空气净化机器人/再推荐一个空气净化机器人我看看/再推荐一个空气净化机器人我听听/我还想了解其他的空气净化机器人/我还想了解别的空气净化机器人型号的/再介绍一个空气净化机器人/再介绍一款空气净化机器人/还有没有空气净化机器人？/还有其他的空气净化机器人么？/其他的空气净化机器人呢？/就这一款空气净化机器人么？/就这一个空气净化机器人？/有没有更好的空气净化机器人？/有没有配置高一点的空气净化机器人？/有没有比这个好的空气净化机器人/有没有比这个好的空气净化机器人推荐一下/有没有性能更好的空气净化机器人/有没有性能更好的空气净化机器人推荐一下/性能更好的空气净化机器人/我想知道其他的空气净化机器人/换一款空气净化机器人/换一个空气净化机器人/下一个空气净化机器人/再介绍一个其他的空气净化机器人/
 还有别的净化空气么？/你们店里还有其他的净化空气么？/净化空气还有没有其他选择？/净化空气还有没有其他款式？/净化空气还有没有其他型号？/净化空气其他型号有没有？/还有没有净化空气/还有净化空气么？/其他的净化空气呢？/别的净化空气/再给我推荐一个净化空气/再推荐一个净化空气我看看/再推荐一个净化空气我听听/我还想了解其他的净化空气/我还想了解别的净化空气型号的/再介绍一个净化空气/再介绍一款净化空气/还有没有净化空气？/还有其他的净化空气么？/其他的净化空气呢？/就这一款净化空气么？/就这一个净化空气？/有没有更好的净化空气？/有没有配置高一点的净化空气？/有没有比这个好的净化空气/有没有比这个好的净化空气推荐一下/有没有性能更好的净化空气/有没有性能更好的净化空气推荐一下/性能更好的净化空气/我想知道其他的净化空气/换一款净化空气/换一个净化空气/下一个净化空气/再介绍一个其他的净化空气/
 还有别的清新房间空气的么？/你们店里还有其他的清新房间空气的么？/清新房间空气的还有没有其他选择？/清新房间空气的还有没有其他款式？/清新房间空气的还有没有其他型号？/清新房间空气的其他型号有没有？/还有没有清新房间空气的/还有清新房间空气的么？/其他的清新房间空气的呢？/别的清新房间空气的/再给我推荐一个清新房间空气的/再推荐一个清新房间空气的我看看/再推荐一个清新房间空气的我听听/我还想了解其他的清新房间空气的/我还想了解别的清新房间空气的型号的/再介绍一个清新房间空气的/再介绍一款清新房间空气的/还有没有清新房间空气的？/还有其他的清新房间空气的么？/其他的清新房间空气的呢？/就这一款清新房间空气的么？/就这一个清新房间空气的？/有没有更好的清新房间空气的？/有没有配置高一点的清新房间空气的？/有没有比这个好的清新房间空气的/有没有比这个好的清新房间空气的推荐一下/有没有性能更好的清新房间空气的/有没有性能更好的清新房间空气的推荐一下/性能更好的清新房间空气的/我想知道其他的清新房间空气的/换一款清新房间空气的/换一个清新房间空气的/下一个清新房间空气的/再介绍一个其他的清新房间空气的/
 还有别的湿润房间空气的么？/你们店里还有其他的湿润房间空气的么？/湿润房间空气的还有没有其他选择？/湿润房间空气的还有没有其他款式？/湿润房间空气的还有没有其他型号？/湿润房间空气的其他型号有没有？/还有没有湿润房间空气的 /还有湿润房间空气的么？/其他的湿润房间空气的呢？/别的湿润房间空气的 /再给我推荐一个湿润房间空气的/再推荐一个湿润房间空气的我看看/再推荐一个湿润房间空气的 我听听/我还想了解其他的湿润房间空气的/我还想了解别的湿润房间空气的 型号的/再介绍一个湿润房间空气的/再介绍一款湿润房间空气的/还有没有湿润房间空气的？/还有其他的湿润房间空气的么？/其他的湿润房间空气的呢？/就这一款湿润房间空气的么？/就这一个湿润房间空气的？/有没有更好的湿润房间空气的？/有没有配置高一点的湿润房间空气的？/有没有比这个好的湿润房间空气的/有没有比这个好的湿润房间空气的推荐一下/有没有性能更好的湿润房间空气的/有没有性能更好的湿润房间空气的推荐一下/性能更好的湿润房间空气的/我想知道其他的湿润房间空气的/换一款湿润房间空气的/换一个湿润房间空气的/下一个湿润房间空气的/再介绍一个其他的湿润房间空气的 /
 还有别的除去房间甲醛的么？/你们店里还有其他的除去房间甲醛的么？/除去房间甲醛的还有没有其他选择？/除去房间甲醛的还有没有其他款式？/除去房间甲醛的还有没有其他型号？/除去房间甲醛的其他型号有没有？/还有没有除去房间甲醛的/还有除去房间甲醛的么？/其他的除去房间甲醛的呢？/别的除去房间甲醛的/再给我推荐一个除去房间甲醛的/再推荐一个除去房间甲醛的我看看/再推荐一个除去房间甲醛的我听听/我还想了解其他的除去房间甲醛的/我还想了解别的除去房间甲醛的型号的/再介绍一个除去房间甲醛的/再介绍一款除去房间甲醛的/还有没有除去房间甲醛的？/还有其他的除去房间甲醛的么？/其他的除去房间甲醛的呢？/就这一款除去房间甲醛的么？/就这一个除去房间甲醛的？/有没有更好的除去房间甲醛的？/有没有配置高一点的除去房间甲醛的？/有没有比这个好的除去房间甲醛的/有没有比这个好的除去房间甲醛的推荐一下/有没有性能更好的除去房间甲醛的/有没有性能更好的除去房间甲醛的推荐一下/性能更好的除去房间甲醛的/我想知道其他的除去房间甲醛的/换一款除去房间甲醛的/换一个除去房间甲醛的/下一个除去房间甲醛的/再介绍一个其他的除去房间甲醛的/给我推荐一款空气净化机器人
 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">便宜一点的扫地机/我想买便宜点的扫地机/我要买便宜点的扫地机/我要买价格低点的扫地机/我要买便宜的扫地机就行/我当然是买便宜的扫地机了/我要买便宜的扫地机啦/我要买便宜的便宜的扫地机/我要买价格便宜的扫地机/我要买价格低的扫地机/我要便宜一点的扫地机有没有/我需要便宜点的扫地机/你能给我介绍便宜点的扫地机吗/我想买便宜点的扫地机有没有/我想买便宜点的扫地机/我想要价格低点的扫地机/我想要便宜的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格便宜的扫地机了/我要买便宜一点的扫地机/我要买便宜点的扫地机/我就便宜一点的扫地机就行了/买便宜一点的扫地机就可以了/就买便宜一点的扫地机吧/你就给我介绍便宜一点的扫地机吧/你给我介绍便宜一点的扫地机就好了/给我说一下便宜一点的扫地机吧/我不买贵的扫地机/不要贵的扫地机/我贵的扫地机不要/我不想要贵的扫地机/我贵的扫地机不要/我不要贵的扫地机/我不买贵的扫地机/我不要贵的扫地机/贵的扫地机我不要哈/我不想买贵的扫地机/我想买一款便宜的扫地机/我想买一款性价比高的扫地机/你能给我推荐一款性价比高的扫地机吗/你可以推荐一款性价比高的扫地机给我吗/给我推荐一款价格低的扫地机吧/能不能给我推荐一款价格低点的扫地机啊
-/我想买便宜点的扫地机器人/我要买便宜点的扫地机器人/我要买价格低点的扫地机器人/我要买便宜的扫地机器人就行/我当然是买便宜的扫地机器人了/我要买便宜的扫地机器人啦/我要买便宜的便宜的扫地机器人/我要买价格便宜的扫地机器人/我要买价格低的扫地机器人/我要便宜一点的扫地机器人有没有/我需要便宜点的扫地机器人/你能给我介绍便宜点的扫地机器人吗/我想买便宜点的扫地机器人有没有/我想买便宜点的扫地机器人/我想要价格低点的扫地机器人/我想要便宜的扫地机器人啊/我要买扫地机器人/买价格低点了扫地机器人/我要买价格低的扫地机器人了/我要买需要价格便宜的扫地机器人了/我要买便宜一点的扫地机器人/我要买便宜点的扫地机器人/我就便宜一点的扫地机器人就行了/买便宜一点的扫地机器人就可以了/就买便宜一点的扫地机器人吧/你就给我介绍便宜一点的扫地机器人吧/你给我介绍便宜一点的扫地机器人就好了/给我说一下便宜一点的扫地机器人吧/我不买贵的扫地机器人/不要贵的扫地机器人/我贵的扫地机器人不要/我不想要贵的扫地机器人/我贵的扫地机器人不要/我不要贵的扫地机器人/我不买贵的扫地机器人/我不要贵的扫地机器人/贵的扫地机器人我不要哈/我不想买贵的扫地机器人/我想买一款便宜的扫地机器人/我想买一款性价比高的扫地机器人/你能给我推荐一款性价比高的扫地机器人吗/你可以推荐一款性价比高的扫地机器人给我吗/给我推荐一款价格低的扫地机器人吧/能不能给我推荐一款价格低点的扫地机器人啊//我想买实惠的扫地机/我要买实惠的扫地机/我要买价格低点的扫地机/我要买实惠的扫地机就行/我当然是买实惠的扫地机了/我要买实惠的扫地机啦/我要买实惠的实惠的扫地机/我要买价格实惠的扫地机/我要买价格低的扫地机/我要实惠一点的扫地机有没有/我需要实惠的扫地机/你能给我介绍实惠的扫地机吗/我想买实惠的扫地机有没有/我想买实惠的扫地机/我想要价格低点的扫地机/我想要实惠的扫地机啊/我要买扫地机/买价格低点了扫地机/我要买价格低的扫地机了/我要买需要价格实惠的扫地机了/我要买实惠一点的扫地机/我要买实惠的扫地机/我就实惠一点的扫地机就行了/买实惠一点的扫地机就可以了/就买实惠一点的扫地机吧/你就给我介绍实惠一点的扫地机吧/你给我介绍实惠一点的扫地机就好了/给我说一下实惠一点的扫地机吧/我想买实惠的扫地机器人/我要买实惠的扫地机器人/我要买价格低点的扫地机器人/我要买实惠的扫地机器人就行/我当然是买实惠的扫地机器人了/我要买实惠的扫地机器人啦/我要买实惠的实惠的扫地机器人/我要买价格实惠的扫地机器人/我要买价格低的扫地机器人/我要实惠一点的扫地机器人有没有/我需要实惠的扫地机器人/你能给我介绍实惠的扫地机器人吗/我想买实惠的扫地机器人有没有/我想买实惠的扫地机器人/我想要价格低点的扫地机器人/我想要实惠的扫地机器人啊/我要买扫地机器人/买价格低点了扫地机器人/我要买价格低的扫地机器人了/我要买需要价格实惠的扫地机器人了/我要买实惠一点的扫地机器人/我要买实惠的扫地机器人/我就实惠一点的扫地机器人就行了/买实惠一点的扫地机器人就可以了/就买实惠一点的扫地机器人吧/你就给我介绍实惠一点的扫地机器人吧/你给我介绍实惠一点的扫地机器人就好了/给我说一下实惠一点的扫地机器人吧/我不买贵的扫地机器人/你们最便宜的扫地机介绍一下吧/最便宜的扫地机器人/最便宜的/给我介绍一下最实惠的扫地机/最实惠的给我介绍一下/你们这里有折扣很大的扫地机卖吗
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>便宜一点的/既便宜又实惠的/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>便宜的/我想买便宜点的/便宜点的/价格低点的/便宜的就行/我当然是买便宜的了/买便宜的啦/便宜的便宜的/价格便宜的/价格低的/我要便宜一点的有没有/我需要便宜点的/你能给我介绍便宜点的吗/我想买便宜点的有没有/我想买便宜点的/我想要价格低点的/我想要便宜的啊/当然是便宜的了/当然买价格低点了/当然是价格低的了/当然需要价格便宜的了/当然是买便宜一点的/买便宜点的/我就便宜一点的就行了/买便宜一点的就可以了/就买便宜一点的吧/你就给我介绍便宜一点的吧/你给我介绍便宜一点的就好了/给我说一下便宜一点的吧/不买贵的/不要贵的/贵的不要/不想要贵的/贵的不要/不要贵的/我不买贵的/我不要贵的/贵的我不要哈/我不想买贵的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/性价比高的/我想买一款便宜的/我想买一款性价比高的/你能给我推荐一款性价比高的吗/你可以推荐一款性价比高的给我吗/给我推荐一款价格低的吧/能不能给我推荐一款价格低点的啊</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>性能高点的/耐用的/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>性能好的/配置高的/性能高的/我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>想买性能高点的/性能高点的/性能高的就行/我当然是买性能高的了/买性能高的啦/性能高的性能高的/我要性能高的/我要性能高一点的有没有/我需要性能高点的/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的了/当然买性能好的了/当然是性能高的了/当然需要性能高的了/当然是买性能高一点的/买性能高点的/性能高一点的就行了/买性能高一点的就可以了/就买性能高一点的吧/你就给我介绍性能高一点的吧/你给我介绍性能高一点的就好了/给我说一下性能高一点的吧/不买差的/不要差的/差的不要/不想要差的/差的不要/不要差的/我不买差的/我不要差的/差的我不要哈/我不想买差的/我要买好的/我要买能力强的/我要买高性能的/当然是买性能高的了/给我推荐一款性能好的/我要性能好的/我要配置高的/我想买一款配置高的/能给我推荐一款配置高的吗/能不能给我推荐一款性能高的/可以推荐一款性能高的吗？/我想买性能高的有吗/我想买配置高的/能不能给我推荐一款性能高的/可以推荐一款性能高的给我吗/给我推荐一款性能高的吗/有配置高的给我推荐一下吧/给我推荐一款配置高的吧</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>旺宝诚心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推荐您，本店在售的，会飞檐走壁的窗宝W855。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>他擦了刮，刮了擦，四段清洁很干净；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四重安全保证，全无后顾之忧；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智能记忆功能，好放好取；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进口电机，使用寿命长；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轴流式负压风机设计，满足顾客多种介质的擦拭需求。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">您可以在主界面点击搜索了解详情。
 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1078,7 +1164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1109,9 +1195,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1120,10 +1203,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1155,7 +1234,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BAF869C4-A73D-4535-9349-039AA7FE7776}" diskRevisions="1" revisionId="43" version="39">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{29CF6213-8653-4E57-8654-931AE97C14C1}" diskRevisions="1" revisionId="57" version="51">
   <header guid="{03AB2736-FEAA-4E3D-9D27-83C05A1C89C8}" dateTime="2017-12-13T15:33:05" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
@@ -1429,6 +1508,90 @@
       <sheetId val="3"/>
     </sheetIdMap>
   </header>
+  <header guid="{909B7FA2-85BA-485A-9104-3FFF89BFED80}" dateTime="2017-12-22T13:42:07" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId40" minRId="44">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0371ACA3-E84A-439D-B50E-A98EEE8ACA89}" dateTime="2017-12-22T13:42:44" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId41" minRId="45">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E4646AFF-0C13-47AB-A5DE-65AD9E52EC3F}" dateTime="2017-12-22T13:43:14" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId42" minRId="46">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C1E8E7FC-1F51-48AA-BB0A-170DE38718CD}" dateTime="2017-12-22T13:44:10" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId43" minRId="47">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CD893D51-1AF7-4949-B09E-DACFF0C369F0}" dateTime="2017-12-22T13:44:17" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId44" minRId="48">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E0972D11-0AAE-4347-BAA8-A140DD1F57A6}" dateTime="2017-12-22T13:44:29" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId45" minRId="49">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{83685EFB-C7AC-4038-8389-D3ABC5D17387}" dateTime="2017-12-22T13:45:15" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId46" minRId="50">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{40E1842D-EC66-4D59-B1F4-C4E5648E8D87}" dateTime="2017-12-22T13:45:21" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId47" minRId="51">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1A15BA0A-40BE-4C6F-BF34-4B0F79E879E7}" dateTime="2017-12-22T13:45:56" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId48" minRId="52">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6A90274F-F7D9-41AB-B8B6-0D4B3FBB8007}" dateTime="2017-12-22T13:46:14" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId49" minRId="53" maxRId="54">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{57F08A34-4620-45A5-9E0A-A7B9D3ACF7F7}" dateTime="2017-12-22T13:47:28" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId50" minRId="55" maxRId="56">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{29CF6213-8653-4E57-8654-931AE97C14C1}" dateTime="2017-12-25T10:43:14" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId51" minRId="57">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -3825,6 +3988,564 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog40.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="44" sId="1">
+    <oc r="F12" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>性能高点的扫地机/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我要买性能好的扫地机/我要买配置高的我要买扫地机/我要买性能高的扫地机/我</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>想买性能高点的扫地机/我要买性能高点的扫地机/我要买性能高的扫地机就行/我当然是买性能高的扫地机了/我要买买性能高的扫地机啦/我要买性能高的扫地机/我要性能高的扫地机/我要性能高一点的扫地机有没有/我需要性能高点的扫地机/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机了/我要买当然买性能好的扫地机了/我要买当然是性能高的扫地机了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机就可以了/我就买性能高一点的扫地机吧/你就给我介绍性能高一点的扫地机吧/你给我介绍性能高一点的扫地机就好了/给我说一下性能高一点的扫地机吧/我不买差的扫地机/我不要差的扫地机/我差的扫地机不要/我不想要差的扫地机/我差的扫地机不要/我不要差的扫地机/我不买差的扫地机/我不要差的扫地机/差的扫地机我不要哈/我不想买差的扫地机/我要买好的扫地机/我要买能力强的扫地机/我要买高性能的扫地机/当然是买性能高的扫地机了/给我推荐一款性能好的扫地机/我要性能好的扫地机/我要配置高的扫地机/我想买一款配置高的扫地机/能给我推荐一款配置高的扫地机吗/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机吗？/我想买性能高的扫地机有吗/我想买配置高的扫地机/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机给我吗/给我推荐一款性能高的扫地机吗/有配置高的扫地机给我推荐一下吧/给我推荐一款配置高的扫地机吧/我要买性能好的扫地机器人/我要买配置高的我要买扫地机器人/我要买性能高的扫地机器人/我想买性能高点的扫地机器人/我要买性能高点的扫地机器人/我要买性能高的扫地机器人就行/我当然是买性能高的扫地机器人了/我要买买性能高的扫地机器人啦/我要买性能高的扫地机器人/我要性能高的扫地机器人/我要性能高一点的扫地机器人有没有/我需要性能高点的扫地机器人/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机器人了/我要买当然买性能好的扫地机器人了/我要买当然是性能高的扫地机器人了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机器人就可以了/我就买性能高一点的扫地机器人吧/你就给我介绍性能高一点的扫地机器人吧/你给我介绍性能高一点的扫地机器人就好了/给我说一下性能高一点的扫地机器人吧/我不买差的扫地机器人/我不要差的扫地机器人/我差的扫地机器人不要/我不想要差的扫地机器人/我差的扫地机器人不要/我不要差的扫地机器人/我不买差的扫地机器人/我不要差的扫地机器人/差的扫地机器人我不要哈/我不想买差的扫地机器人/我要买好的扫地机器人/我要买能力强的扫地机器人/我要买高性能的扫地机器人/当然是买性能高的扫地机器人了/给我推荐一款性能好的扫地机器人/我要性能好的扫地机器人/我要配置高的扫地机器人/我想买一款配置高的扫地机器人/能给我推荐一款配置高的扫地机器人吗/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人吗？/我想买性能高的扫地机器人有吗/我想买配置高的扫地机器人/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人给我吗/给我推荐一款性能高的扫地机器人吗/有配置高的扫地机器人给我推荐一下吧/给我推荐一款配置高的扫地机器人吧//我想买好的扫地机/我要买好的扫地机/我要买好的扫地机就行/我当然是买好的扫地机了/我要买好的扫地机啦/我要买好的好的扫地机/我要买好的扫地机/我要好一点的扫地机有没有/我需要好的扫地机/你能给我介绍好的扫地机吗/我想买好的扫地机有没有/我想买好的扫地机 /我想要好的扫地机啊/我要买需要好的扫地机了/我要买好一点的扫地机/我要买好的扫地机/我就好一点的扫地机就行了/买好一点的扫地机就可以了/就买好一点的扫地机吧/你就给我介绍好一点的扫地机吧/你给我介绍好一点的扫地机就好了/给我说一下好一点的扫地机吧/我想买好的扫地机器人/我要买好的扫地机器人/我要买好的扫地机器人就行/我当然是买好的扫地机器人了/我要买好的扫地机器人啦/我要买好的好的扫地机器人/我要买好的扫地机器人 /我要好一点的扫地机器人有没有/我需要好的扫地机器人/你能给我介绍好的扫地机器人吗/我想买好的扫地机器人有没有/我想买好的扫地机器人/我想好点的扫地机器人/我想要好的扫地机器人啊/我要买扫地机器人/我要买好的扫地机器人了/我要买需要好的扫地机器人了/我要买好一点的扫地机器人/我要买好的扫地机器人/我就好一点的扫地机器人就行了/买好一点的扫地机器人就可以了/就买好一点的扫地机器人吧/你就给我介绍好一点的扫地机器人吧/你给我介绍好一点的扫地机器人就好了/给我说一下好一点的扫地机器人吧/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给我介绍最贵的扫地机/给我介绍一下配置最高的DG36/给我介绍一下你们最好的扫地机器人/介绍最好的扫地机/</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F12" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>性能高点的扫地机/买个使用寿命长的扫地机/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我要买性能好的扫地机/我要买配置高的我要买扫地机/我要买性能高的扫地机/我</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>想买性能高点的扫地机/我要买性能高点的扫地机/我要买性能高的扫地机就行/我当然是买性能高的扫地机了/我要买买性能高的扫地机啦/我要买性能高的扫地机/我要性能高的扫地机/我要性能高一点的扫地机有没有/我需要性能高点的扫地机/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机了/我要买当然买性能好的扫地机了/我要买当然是性能高的扫地机了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机就可以了/我就买性能高一点的扫地机吧/你就给我介绍性能高一点的扫地机吧/你给我介绍性能高一点的扫地机就好了/给我说一下性能高一点的扫地机吧/我不买差的扫地机/我不要差的扫地机/我差的扫地机不要/我不想要差的扫地机/我差的扫地机不要/我不要差的扫地机/我不买差的扫地机/我不要差的扫地机/差的扫地机我不要哈/我不想买差的扫地机/我要买好的扫地机/我要买能力强的扫地机/我要买高性能的扫地机/当然是买性能高的扫地机了/给我推荐一款性能好的扫地机/我要性能好的扫地机/我要配置高的扫地机/我想买一款配置高的扫地机/能给我推荐一款配置高的扫地机吗/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机吗？/我想买性能高的扫地机有吗/我想买配置高的扫地机/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机给我吗/给我推荐一款性能高的扫地机吗/有配置高的扫地机给我推荐一下吧/给我推荐一款配置高的扫地机吧/我要买性能好的扫地机器人/我要买配置高的我要买扫地机器人/我要买性能高的扫地机器人/我想买性能高点的扫地机器人/我要买性能高点的扫地机器人/我要买性能高的扫地机器人就行/我当然是买性能高的扫地机器人了/我要买买性能高的扫地机器人啦/我要买性能高的扫地机器人/我要性能高的扫地机器人/我要性能高一点的扫地机器人有没有/我需要性能高点的扫地机器人/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机器人了/我要买当然买性能好的扫地机器人了/我要买当然是性能高的扫地机器人了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机器人就可以了/我就买性能高一点的扫地机器人吧/你就给我介绍性能高一点的扫地机器人吧/你给我介绍性能高一点的扫地机器人就好了/给我说一下性能高一点的扫地机器人吧/我不买差的扫地机器人/我不要差的扫地机器人/我差的扫地机器人不要/我不想要差的扫地机器人/我差的扫地机器人不要/我不要差的扫地机器人/我不买差的扫地机器人/我不要差的扫地机器人/差的扫地机器人我不要哈/我不想买差的扫地机器人/我要买好的扫地机器人/我要买能力强的扫地机器人/我要买高性能的扫地机器人/当然是买性能高的扫地机器人了/给我推荐一款性能好的扫地机器人/我要性能好的扫地机器人/我要配置高的扫地机器人/我想买一款配置高的扫地机器人/能给我推荐一款配置高的扫地机器人吗/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人吗？/我想买性能高的扫地机器人有吗/我想买配置高的扫地机器人/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人给我吗/给我推荐一款性能高的扫地机器人吗/有配置高的扫地机器人给我推荐一下吧/给我推荐一款配置高的扫地机器人吧//我想买好的扫地机/我要买好的扫地机/我要买好的扫地机就行/我当然是买好的扫地机了/我要买好的扫地机啦/我要买好的好的扫地机/我要买好的扫地机/我要好一点的扫地机有没有/我需要好的扫地机/你能给我介绍好的扫地机吗/我想买好的扫地机有没有/我想买好的扫地机 /我想要好的扫地机啊/我要买需要好的扫地机了/我要买好一点的扫地机/我要买好的扫地机/我就好一点的扫地机就行了/买好一点的扫地机就可以了/就买好一点的扫地机吧/你就给我介绍好一点的扫地机吧/你给我介绍好一点的扫地机就好了/给我说一下好一点的扫地机吧/我想买好的扫地机器人/我要买好的扫地机器人/我要买好的扫地机器人就行/我当然是买好的扫地机器人了/我要买好的扫地机器人啦/我要买好的好的扫地机器人/我要买好的扫地机器人 /我要好一点的扫地机器人有没有/我需要好的扫地机器人/你能给我介绍好的扫地机器人吗/我想买好的扫地机器人有没有/我想买好的扫地机器人/我想好点的扫地机器人/我想要好的扫地机器人啊/我要买扫地机器人/我要买好的扫地机器人了/我要买需要好的扫地机器人了/我要买好一点的扫地机器人/我要买好的扫地机器人/我就好一点的扫地机器人就行了/买好一点的扫地机器人就可以了/就买好一点的扫地机器人吧/你就给我介绍好一点的扫地机器人吧/你给我介绍好一点的扫地机器人就好了/给我说一下好一点的扫地机器人吧/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给我介绍最贵的扫地机/给我介绍一下配置最高的DG36/给我介绍一下你们最好的扫地机器人/介绍最好的扫地机/</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog41.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="45" sId="1">
+    <oc r="F12" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>性能高点的扫地机/买个使用寿命长的扫地机/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我要买性能好的扫地机/我要买配置高的我要买扫地机/我要买性能高的扫地机/我</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>想买性能高点的扫地机/我要买性能高点的扫地机/我要买性能高的扫地机就行/我当然是买性能高的扫地机了/我要买买性能高的扫地机啦/我要买性能高的扫地机/我要性能高的扫地机/我要性能高一点的扫地机有没有/我需要性能高点的扫地机/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机了/我要买当然买性能好的扫地机了/我要买当然是性能高的扫地机了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机就可以了/我就买性能高一点的扫地机吧/你就给我介绍性能高一点的扫地机吧/你给我介绍性能高一点的扫地机就好了/给我说一下性能高一点的扫地机吧/我不买差的扫地机/我不要差的扫地机/我差的扫地机不要/我不想要差的扫地机/我差的扫地机不要/我不要差的扫地机/我不买差的扫地机/我不要差的扫地机/差的扫地机我不要哈/我不想买差的扫地机/我要买好的扫地机/我要买能力强的扫地机/我要买高性能的扫地机/当然是买性能高的扫地机了/给我推荐一款性能好的扫地机/我要性能好的扫地机/我要配置高的扫地机/我想买一款配置高的扫地机/能给我推荐一款配置高的扫地机吗/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机吗？/我想买性能高的扫地机有吗/我想买配置高的扫地机/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机给我吗/给我推荐一款性能高的扫地机吗/有配置高的扫地机给我推荐一下吧/给我推荐一款配置高的扫地机吧/我要买性能好的扫地机器人/我要买配置高的我要买扫地机器人/我要买性能高的扫地机器人/我想买性能高点的扫地机器人/我要买性能高点的扫地机器人/我要买性能高的扫地机器人就行/我当然是买性能高的扫地机器人了/我要买买性能高的扫地机器人啦/我要买性能高的扫地机器人/我要性能高的扫地机器人/我要性能高一点的扫地机器人有没有/我需要性能高点的扫地机器人/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机器人了/我要买当然买性能好的扫地机器人了/我要买当然是性能高的扫地机器人了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机器人就可以了/我就买性能高一点的扫地机器人吧/你就给我介绍性能高一点的扫地机器人吧/你给我介绍性能高一点的扫地机器人就好了/给我说一下性能高一点的扫地机器人吧/我不买差的扫地机器人/我不要差的扫地机器人/我差的扫地机器人不要/我不想要差的扫地机器人/我差的扫地机器人不要/我不要差的扫地机器人/我不买差的扫地机器人/我不要差的扫地机器人/差的扫地机器人我不要哈/我不想买差的扫地机器人/我要买好的扫地机器人/我要买能力强的扫地机器人/我要买高性能的扫地机器人/当然是买性能高的扫地机器人了/给我推荐一款性能好的扫地机器人/我要性能好的扫地机器人/我要配置高的扫地机器人/我想买一款配置高的扫地机器人/能给我推荐一款配置高的扫地机器人吗/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人吗？/我想买性能高的扫地机器人有吗/我想买配置高的扫地机器人/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人给我吗/给我推荐一款性能高的扫地机器人吗/有配置高的扫地机器人给我推荐一下吧/给我推荐一款配置高的扫地机器人吧//我想买好的扫地机/我要买好的扫地机/我要买好的扫地机就行/我当然是买好的扫地机了/我要买好的扫地机啦/我要买好的好的扫地机/我要买好的扫地机/我要好一点的扫地机有没有/我需要好的扫地机/你能给我介绍好的扫地机吗/我想买好的扫地机有没有/我想买好的扫地机 /我想要好的扫地机啊/我要买需要好的扫地机了/我要买好一点的扫地机/我要买好的扫地机/我就好一点的扫地机就行了/买好一点的扫地机就可以了/就买好一点的扫地机吧/你就给我介绍好一点的扫地机吧/你给我介绍好一点的扫地机就好了/给我说一下好一点的扫地机吧/我想买好的扫地机器人/我要买好的扫地机器人/我要买好的扫地机器人就行/我当然是买好的扫地机器人了/我要买好的扫地机器人啦/我要买好的好的扫地机器人/我要买好的扫地机器人 /我要好一点的扫地机器人有没有/我需要好的扫地机器人/你能给我介绍好的扫地机器人吗/我想买好的扫地机器人有没有/我想买好的扫地机器人/我想好点的扫地机器人/我想要好的扫地机器人啊/我要买扫地机器人/我要买好的扫地机器人了/我要买需要好的扫地机器人了/我要买好一点的扫地机器人/我要买好的扫地机器人/我就好一点的扫地机器人就行了/买好一点的扫地机器人就可以了/就买好一点的扫地机器人吧/你就给我介绍好一点的扫地机器人吧/你给我介绍好一点的扫地机器人就好了/给我说一下好一点的扫地机器人吧/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给我介绍最贵的扫地机/给我介绍一下配置最高的DG36/给我介绍一下你们最好的扫地机器人/介绍最好的扫地机/</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F12" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>性能高点的扫地机/买个使用寿命长的扫地机/买个能用时间长的扫地机/买个可以长时间使用的扫地机/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我要买性能好的扫地机/我要买配置高的我要买扫地机/我要买性能高的扫地机/我</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>想买性能高点的扫地机/我要买性能高点的扫地机/我要买性能高的扫地机就行/我当然是买性能高的扫地机了/我要买买性能高的扫地机啦/我要买性能高的扫地机/我要性能高的扫地机/我要性能高一点的扫地机有没有/我需要性能高点的扫地机/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机了/我要买当然买性能好的扫地机了/我要买当然是性能高的扫地机了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机就可以了/我就买性能高一点的扫地机吧/你就给我介绍性能高一点的扫地机吧/你给我介绍性能高一点的扫地机就好了/给我说一下性能高一点的扫地机吧/我不买差的扫地机/我不要差的扫地机/我差的扫地机不要/我不想要差的扫地机/我差的扫地机不要/我不要差的扫地机/我不买差的扫地机/我不要差的扫地机/差的扫地机我不要哈/我不想买差的扫地机/我要买好的扫地机/我要买能力强的扫地机/我要买高性能的扫地机/当然是买性能高的扫地机了/给我推荐一款性能好的扫地机/我要性能好的扫地机/我要配置高的扫地机/我想买一款配置高的扫地机/能给我推荐一款配置高的扫地机吗/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机吗？/我想买性能高的扫地机有吗/我想买配置高的扫地机/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机给我吗/给我推荐一款性能高的扫地机吗/有配置高的扫地机给我推荐一下吧/给我推荐一款配置高的扫地机吧/我要买性能好的扫地机器人/我要买配置高的我要买扫地机器人/我要买性能高的扫地机器人/我想买性能高点的扫地机器人/我要买性能高点的扫地机器人/我要买性能高的扫地机器人就行/我当然是买性能高的扫地机器人了/我要买买性能高的扫地机器人啦/我要买性能高的扫地机器人/我要性能高的扫地机器人/我要性能高一点的扫地机器人有没有/我需要性能高点的扫地机器人/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机器人了/我要买当然买性能好的扫地机器人了/我要买当然是性能高的扫地机器人了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机器人就可以了/我就买性能高一点的扫地机器人吧/你就给我介绍性能高一点的扫地机器人吧/你给我介绍性能高一点的扫地机器人就好了/给我说一下性能高一点的扫地机器人吧/我不买差的扫地机器人/我不要差的扫地机器人/我差的扫地机器人不要/我不想要差的扫地机器人/我差的扫地机器人不要/我不要差的扫地机器人/我不买差的扫地机器人/我不要差的扫地机器人/差的扫地机器人我不要哈/我不想买差的扫地机器人/我要买好的扫地机器人/我要买能力强的扫地机器人/我要买高性能的扫地机器人/当然是买性能高的扫地机器人了/给我推荐一款性能好的扫地机器人/我要性能好的扫地机器人/我要配置高的扫地机器人/我想买一款配置高的扫地机器人/能给我推荐一款配置高的扫地机器人吗/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人吗？/我想买性能高的扫地机器人有吗/我想买配置高的扫地机器人/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人给我吗/给我推荐一款性能高的扫地机器人吗/有配置高的扫地机器人给我推荐一下吧/给我推荐一款配置高的扫地机器人吧//我想买好的扫地机/我要买好的扫地机/我要买好的扫地机就行/我当然是买好的扫地机了/我要买好的扫地机啦/我要买好的好的扫地机/我要买好的扫地机/我要好一点的扫地机有没有/我需要好的扫地机/你能给我介绍好的扫地机吗/我想买好的扫地机有没有/我想买好的扫地机 /我想要好的扫地机啊/我要买需要好的扫地机了/我要买好一点的扫地机/我要买好的扫地机/我就好一点的扫地机就行了/买好一点的扫地机就可以了/就买好一点的扫地机吧/你就给我介绍好一点的扫地机吧/你给我介绍好一点的扫地机就好了/给我说一下好一点的扫地机吧/我想买好的扫地机器人/我要买好的扫地机器人/我要买好的扫地机器人就行/我当然是买好的扫地机器人了/我要买好的扫地机器人啦/我要买好的好的扫地机器人/我要买好的扫地机器人 /我要好一点的扫地机器人有没有/我需要好的扫地机器人/你能给我介绍好的扫地机器人吗/我想买好的扫地机器人有没有/我想买好的扫地机器人/我想好点的扫地机器人/我想要好的扫地机器人啊/我要买扫地机器人/我要买好的扫地机器人了/我要买需要好的扫地机器人了/我要买好一点的扫地机器人/我要买好的扫地机器人/我就好一点的扫地机器人就行了/买好一点的扫地机器人就可以了/就买好一点的扫地机器人吧/你就给我介绍好一点的扫地机器人吧/你给我介绍好一点的扫地机器人就好了/给我说一下好一点的扫地机器人吧/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给我介绍最贵的扫地机/给我介绍一下配置最高的DG36/给我介绍一下你们最好的扫地机器人/介绍最好的扫地机/</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog42.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="46" sId="1">
+    <oc r="F12" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>性能高点的扫地机/买个使用寿命长的扫地机/买个能用时间长的扫地机/买个可以长时间使用的扫地机/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我要买性能好的扫地机/我要买配置高的我要买扫地机/我要买性能高的扫地机/我</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>想买性能高点的扫地机/我要买性能高点的扫地机/我要买性能高的扫地机就行/我当然是买性能高的扫地机了/我要买买性能高的扫地机啦/我要买性能高的扫地机/我要性能高的扫地机/我要性能高一点的扫地机有没有/我需要性能高点的扫地机/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机了/我要买当然买性能好的扫地机了/我要买当然是性能高的扫地机了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机就可以了/我就买性能高一点的扫地机吧/你就给我介绍性能高一点的扫地机吧/你给我介绍性能高一点的扫地机就好了/给我说一下性能高一点的扫地机吧/我不买差的扫地机/我不要差的扫地机/我差的扫地机不要/我不想要差的扫地机/我差的扫地机不要/我不要差的扫地机/我不买差的扫地机/我不要差的扫地机/差的扫地机我不要哈/我不想买差的扫地机/我要买好的扫地机/我要买能力强的扫地机/我要买高性能的扫地机/当然是买性能高的扫地机了/给我推荐一款性能好的扫地机/我要性能好的扫地机/我要配置高的扫地机/我想买一款配置高的扫地机/能给我推荐一款配置高的扫地机吗/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机吗？/我想买性能高的扫地机有吗/我想买配置高的扫地机/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机给我吗/给我推荐一款性能高的扫地机吗/有配置高的扫地机给我推荐一下吧/给我推荐一款配置高的扫地机吧/我要买性能好的扫地机器人/我要买配置高的我要买扫地机器人/我要买性能高的扫地机器人/我想买性能高点的扫地机器人/我要买性能高点的扫地机器人/我要买性能高的扫地机器人就行/我当然是买性能高的扫地机器人了/我要买买性能高的扫地机器人啦/我要买性能高的扫地机器人/我要性能高的扫地机器人/我要性能高一点的扫地机器人有没有/我需要性能高点的扫地机器人/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机器人了/我要买当然买性能好的扫地机器人了/我要买当然是性能高的扫地机器人了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机器人就可以了/我就买性能高一点的扫地机器人吧/你就给我介绍性能高一点的扫地机器人吧/你给我介绍性能高一点的扫地机器人就好了/给我说一下性能高一点的扫地机器人吧/我不买差的扫地机器人/我不要差的扫地机器人/我差的扫地机器人不要/我不想要差的扫地机器人/我差的扫地机器人不要/我不要差的扫地机器人/我不买差的扫地机器人/我不要差的扫地机器人/差的扫地机器人我不要哈/我不想买差的扫地机器人/我要买好的扫地机器人/我要买能力强的扫地机器人/我要买高性能的扫地机器人/当然是买性能高的扫地机器人了/给我推荐一款性能好的扫地机器人/我要性能好的扫地机器人/我要配置高的扫地机器人/我想买一款配置高的扫地机器人/能给我推荐一款配置高的扫地机器人吗/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人吗？/我想买性能高的扫地机器人有吗/我想买配置高的扫地机器人/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人给我吗/给我推荐一款性能高的扫地机器人吗/有配置高的扫地机器人给我推荐一下吧/给我推荐一款配置高的扫地机器人吧//我想买好的扫地机/我要买好的扫地机/我要买好的扫地机就行/我当然是买好的扫地机了/我要买好的扫地机啦/我要买好的好的扫地机/我要买好的扫地机/我要好一点的扫地机有没有/我需要好的扫地机/你能给我介绍好的扫地机吗/我想买好的扫地机有没有/我想买好的扫地机 /我想要好的扫地机啊/我要买需要好的扫地机了/我要买好一点的扫地机/我要买好的扫地机/我就好一点的扫地机就行了/买好一点的扫地机就可以了/就买好一点的扫地机吧/你就给我介绍好一点的扫地机吧/你给我介绍好一点的扫地机就好了/给我说一下好一点的扫地机吧/我想买好的扫地机器人/我要买好的扫地机器人/我要买好的扫地机器人就行/我当然是买好的扫地机器人了/我要买好的扫地机器人啦/我要买好的好的扫地机器人/我要买好的扫地机器人 /我要好一点的扫地机器人有没有/我需要好的扫地机器人/你能给我介绍好的扫地机器人吗/我想买好的扫地机器人有没有/我想买好的扫地机器人/我想好点的扫地机器人/我想要好的扫地机器人啊/我要买扫地机器人/我要买好的扫地机器人了/我要买需要好的扫地机器人了/我要买好一点的扫地机器人/我要买好的扫地机器人/我就好一点的扫地机器人就行了/买好一点的扫地机器人就可以了/就买好一点的扫地机器人吧/你就给我介绍好一点的扫地机器人吧/你给我介绍好一点的扫地机器人就好了/给我说一下好一点的扫地机器人吧/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给我介绍最贵的扫地机/给我介绍一下配置最高的DG36/给我介绍一下你们最好的扫地机器人/介绍最好的扫地机/</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F12" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>性能高点的扫地机/买个使用寿命长的扫地机/买个能用时间长的扫地机/买个可以长时间使用的扫地机/买个耐用的扫地机/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我要买性能好的扫地机/我要买配置高的我要买扫地机/我要买性能高的扫地机/我</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>想买性能高点的扫地机/我要买性能高点的扫地机/我要买性能高的扫地机就行/我当然是买性能高的扫地机了/我要买买性能高的扫地机啦/我要买性能高的扫地机/我要性能高的扫地机/我要性能高一点的扫地机有没有/我需要性能高点的扫地机/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机了/我要买当然买性能好的扫地机了/我要买当然是性能高的扫地机了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机就可以了/我就买性能高一点的扫地机吧/你就给我介绍性能高一点的扫地机吧/你给我介绍性能高一点的扫地机就好了/给我说一下性能高一点的扫地机吧/我不买差的扫地机/我不要差的扫地机/我差的扫地机不要/我不想要差的扫地机/我差的扫地机不要/我不要差的扫地机/我不买差的扫地机/我不要差的扫地机/差的扫地机我不要哈/我不想买差的扫地机/我要买好的扫地机/我要买能力强的扫地机/我要买高性能的扫地机/当然是买性能高的扫地机了/给我推荐一款性能好的扫地机/我要性能好的扫地机/我要配置高的扫地机/我想买一款配置高的扫地机/能给我推荐一款配置高的扫地机吗/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机吗？/我想买性能高的扫地机有吗/我想买配置高的扫地机/能不能给我推荐一款性能高的扫地机/可以推荐一款性能高的扫地机给我吗/给我推荐一款性能高的扫地机吗/有配置高的扫地机给我推荐一下吧/给我推荐一款配置高的扫地机吧/我要买性能好的扫地机器人/我要买配置高的我要买扫地机器人/我要买性能高的扫地机器人/我想买性能高点的扫地机器人/我要买性能高点的扫地机器人/我要买性能高的扫地机器人就行/我当然是买性能高的扫地机器人了/我要买买性能高的扫地机器人啦/我要买性能高的扫地机器人/我要性能高的扫地机器人/我要性能高一点的扫地机器人有没有/我需要性能高点的扫地机器人/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的扫地机器人了/我要买当然买性能好的扫地机器人了/我要买当然是性能高的扫地机器人了/我要买当然需要性能高的了/我要买当然是买性能高一点的/我要买性能高点的/我要买性能高一点的就行了/我要买性能高一点的扫地机器人就可以了/我就买性能高一点的扫地机器人吧/你就给我介绍性能高一点的扫地机器人吧/你给我介绍性能高一点的扫地机器人就好了/给我说一下性能高一点的扫地机器人吧/我不买差的扫地机器人/我不要差的扫地机器人/我差的扫地机器人不要/我不想要差的扫地机器人/我差的扫地机器人不要/我不要差的扫地机器人/我不买差的扫地机器人/我不要差的扫地机器人/差的扫地机器人我不要哈/我不想买差的扫地机器人/我要买好的扫地机器人/我要买能力强的扫地机器人/我要买高性能的扫地机器人/当然是买性能高的扫地机器人了/给我推荐一款性能好的扫地机器人/我要性能好的扫地机器人/我要配置高的扫地机器人/我想买一款配置高的扫地机器人/能给我推荐一款配置高的扫地机器人吗/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人吗？/我想买性能高的扫地机器人有吗/我想买配置高的扫地机器人/能不能给我推荐一款性能高的扫地机器人/可以推荐一款性能高的扫地机器人给我吗/给我推荐一款性能高的扫地机器人吗/有配置高的扫地机器人给我推荐一下吧/给我推荐一款配置高的扫地机器人吧//我想买好的扫地机/我要买好的扫地机/我要买好的扫地机就行/我当然是买好的扫地机了/我要买好的扫地机啦/我要买好的好的扫地机/我要买好的扫地机/我要好一点的扫地机有没有/我需要好的扫地机/你能给我介绍好的扫地机吗/我想买好的扫地机有没有/我想买好的扫地机 /我想要好的扫地机啊/我要买需要好的扫地机了/我要买好一点的扫地机/我要买好的扫地机/我就好一点的扫地机就行了/买好一点的扫地机就可以了/就买好一点的扫地机吧/你就给我介绍好一点的扫地机吧/你给我介绍好一点的扫地机就好了/给我说一下好一点的扫地机吧/我想买好的扫地机器人/我要买好的扫地机器人/我要买好的扫地机器人就行/我当然是买好的扫地机器人了/我要买好的扫地机器人啦/我要买好的好的扫地机器人/我要买好的扫地机器人 /我要好一点的扫地机器人有没有/我需要好的扫地机器人/你能给我介绍好的扫地机器人吗/我想买好的扫地机器人有没有/我想买好的扫地机器人/我想好点的扫地机器人/我想要好的扫地机器人啊/我要买扫地机器人/我要买好的扫地机器人了/我要买需要好的扫地机器人了/我要买好一点的扫地机器人/我要买好的扫地机器人/我就好一点的扫地机器人就行了/买好一点的扫地机器人就可以了/就买好一点的扫地机器人吧/你就给我介绍好一点的扫地机器人吧/你给我介绍好一点的扫地机器人就好了/给我说一下好一点的扫地机器人吧/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给我介绍最贵的扫地机/给我介绍一下配置最高的DG36/给我介绍一下你们最好的扫地机器人/介绍最好的扫地机/</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog43.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="47" sId="2">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <t>我来买擦窗机器人/擦窗户的机器人有么？/我来买个擦窗户的/擦窗户的有没有？/擦窗户的那种/能擦窗户的/擦玻璃的那种/擦玻璃的机器人有么？/我来买个擦玻璃的/擦玻璃的有没有？/有没有擦窗机器人？/擦窗机器人有吗？这里有擦窗机器人吗？/有没有擦窗机器人卖？/这里有卖擦窗机器人的吗？/推荐个擦窗机器人/推荐擦窗机器人/介绍个擦窗机器人/介绍擦窗机器人/给我推荐个擦窗机器人/我来买个擦窗机器人/擦窗机器人有吗？/有没有擦窗机器人？/有擦窗机器人吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗机器人？/这里能买到擦窗机器人吗？/给我介绍个擦窗机器人？/能不能介绍一个擦窗机器人？/可以给我介绍一个擦窗机器人吗？/有没有擦窗的机器？/擦窗的机器有吗？这里有擦窗的机器吗？/有没有擦窗的机器卖？/这里有卖擦窗的机器的吗？/推荐个擦窗的机器/推荐擦窗的机器/介绍个擦窗的机器/介绍擦窗的机器/给我推荐个擦窗的机器/我来买个擦窗的机器/擦窗的机器有吗？/有没有擦窗的机器？/有擦窗的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗的机器？/这里能买到擦窗的机器吗？/给我介绍个擦窗的机器？/能不能介绍一个擦窗的机器？/可以给我介绍一个擦窗的机器吗？/有没有擦窗户的机器？/擦窗户的机器有吗？这里有擦窗户的机器吗？/有没有擦窗户的机器卖？/这里有卖擦窗户的机器的吗？/推荐个擦窗户的机器/推荐擦窗户的机器/介绍个擦窗户的机器/介绍擦窗户的机器/给我推荐个擦窗户的机器/我来买个擦窗户的机器/擦窗户的机器有吗？/有没有擦窗户的机器？/有擦窗户的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗户的机器？/这里能买到擦窗户的机器吗？/给我介绍个擦窗户的机器？/能不能介绍一个擦窗户的机器？/可以给我介绍一个擦窗户的机器吗？/有没有擦玻璃的机器？/擦玻璃的机器有吗？这里有擦玻璃的机器吗？/有没有擦玻璃的机器卖？/这里有卖擦玻璃的机器的吗？/推荐个擦玻璃的机器/推荐擦玻璃的机器/介绍个擦玻璃的机器/介绍擦玻璃的机器/给我推荐个擦玻璃的机器/我来买个擦玻璃的机器/擦玻璃的机器有吗？/有没有擦玻璃的机器？/有擦玻璃的机器吗？/有擦玻璃的机器人吗？/你们这里有擦玻璃的机器人卖吗？/可不可以在这里买擦玻璃的机器？/这里能买到擦玻璃的机器吗？/给我介绍个擦玻璃的机器？/能不能介绍一个擦玻璃的机器？/可以给我介绍一个擦玻璃的机器吗？/有没有打扫窗户的机器？/打扫窗户的机器有吗？这里有打扫窗户的机器吗？/有没有打扫窗户的机器卖？/这里有卖打扫窗户的机器的吗？/推荐个打扫窗户的机器/推荐打扫窗户的机器/介绍个打扫窗户的机器/介绍打扫窗户的机器/给我推荐个打扫窗户的机器/我来买个打扫窗户的机器/打扫窗户的机器有吗？/有没有打扫窗户的机器？/有打扫窗户的机器吗？/有打扫窗户的机器人吗？/你们这里有打扫窗户的机器人卖吗？/可不可以在这里买打扫窗户的机器？/这里能买到打扫窗户的机器吗？/给我介绍个打扫窗户的机器？/能不能介绍一个打扫窗户的机器？/可以给我介绍一个打扫窗户的机器吗？/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>买个好的擦窗机器人/我来买个好的擦窗机器人/我想买个好用的擦窗我来买擦窗机器人/擦窗户的机器人有么？/我来买个擦窗户的/擦窗户的有没有？/擦窗户的那种/能擦窗户的/擦玻璃的那种/擦玻璃的机器人有么？/我来买个擦玻璃的/擦玻璃的有没有？/有没有擦窗机器人？/擦窗机器人有吗？这里有擦窗机器人吗？/有没有擦窗机器人卖？/这里有卖擦窗机器人的吗？/推荐个擦窗机器人/推荐擦窗机器人/介绍个擦窗机器人/介绍擦窗机器人/给我推荐个擦窗机器人/我来买个擦窗机器人/擦窗机器人有吗？/有没有擦窗机器人？/有擦窗机器人吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗机器人？/这里能买到擦窗机器人吗？/给我介绍个擦窗机器人？/能不能介绍一个擦窗机器人？/可以给我介绍一个擦窗机器人吗？/有没有擦窗的机器？/擦窗的机器有吗？这里有擦窗的机器吗？/有没有擦窗的机器卖？/这里有卖擦窗的机器的吗？/推荐个擦窗的机器/推荐擦窗的机器/介绍个擦窗的机器/介绍擦窗的机器/给我推荐个擦窗的机器/我来买个擦窗的机器/擦窗的机器有吗？/有没有擦窗的机器？/有擦窗的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗的机器？/这里能买到擦窗的机器吗？/给我介绍个擦窗的机器？/能不能介绍一个擦窗的机器？/可以给我介绍一个擦窗的机器吗？/有没有擦窗户的机器？/擦窗户的机器有吗？这里有擦窗户的机器吗？/有没有擦窗户的机器卖？/这里有卖擦窗户的机器的吗？/推荐个擦窗户的机器/推荐擦窗户的机器/介绍个擦窗户的机器/介绍擦窗户的机器/给我推荐个擦窗户的机器/我来买个擦窗户的机器/擦窗户的机器有吗？/有没有擦窗户的机器？/有擦窗户的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗户的机器？/这里能买到擦窗户的机器吗？/给我介绍个擦窗户的机器？/能不能介绍一个擦窗户的机器？/可以给我介绍一个擦窗户的机器吗？/有没有擦玻璃的机器？/擦玻璃的机器有吗？这里有擦玻璃的机器吗？/有没有擦玻璃的机器卖？/这里有卖擦玻璃的机器的吗？/推荐个擦玻璃的机器/推荐擦玻璃的机器/介绍个擦玻璃的机器/介绍擦玻璃的机器/给我推荐个擦玻璃的机器/我来买个擦玻璃的机器/擦玻璃的机器有吗？/有没有擦玻璃的机器？/有擦玻璃的机器吗？/有擦玻璃的机器人吗？/你们这里有擦玻璃的机器人卖吗？/可不可以在这里买擦玻璃的机器？/这里能买到擦玻璃的机器吗？/给我介绍个擦玻璃的机器？/能不能介绍一个擦玻璃的机器？/可以给我介绍一个擦玻璃的机器吗？/有没有打扫窗户的机器？/打扫窗户的机器有吗？这里有打扫窗户的机器吗？/有没有打扫窗户的机器卖？/这里有卖打扫窗户的机器的吗？/推荐个打扫窗户的机器/推荐打扫窗户的机器/介绍个打扫窗户的机器/介绍打扫窗户的机器/给我推荐个打扫窗户的机器/我来买个打扫窗户的机器/打扫窗户的机器有吗？/有没有打扫窗户的机器？/有打扫窗户的机器吗？/有打扫窗户的机器人吗？/你们这里有打扫窗户的机器人卖吗？/可不可以在这里买打扫窗户的机器？/这里能买到打扫窗户的机器吗？/给我介绍个打扫窗户的机器？/能不能介绍一个打扫窗户的机器？/可以给我介绍一个打扫窗户的机器吗？/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog44.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="48" sId="2">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <t>买个好的擦窗机器人/我来买个好的擦窗机器人/我想买个好用的擦窗我来买擦窗机器人/擦窗户的机器人有么？/我来买个擦窗户的/擦窗户的有没有？/擦窗户的那种/能擦窗户的/擦玻璃的那种/擦玻璃的机器人有么？/我来买个擦玻璃的/擦玻璃的有没有？/有没有擦窗机器人？/擦窗机器人有吗？这里有擦窗机器人吗？/有没有擦窗机器人卖？/这里有卖擦窗机器人的吗？/推荐个擦窗机器人/推荐擦窗机器人/介绍个擦窗机器人/介绍擦窗机器人/给我推荐个擦窗机器人/我来买个擦窗机器人/擦窗机器人有吗？/有没有擦窗机器人？/有擦窗机器人吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗机器人？/这里能买到擦窗机器人吗？/给我介绍个擦窗机器人？/能不能介绍一个擦窗机器人？/可以给我介绍一个擦窗机器人吗？/有没有擦窗的机器？/擦窗的机器有吗？这里有擦窗的机器吗？/有没有擦窗的机器卖？/这里有卖擦窗的机器的吗？/推荐个擦窗的机器/推荐擦窗的机器/介绍个擦窗的机器/介绍擦窗的机器/给我推荐个擦窗的机器/我来买个擦窗的机器/擦窗的机器有吗？/有没有擦窗的机器？/有擦窗的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗的机器？/这里能买到擦窗的机器吗？/给我介绍个擦窗的机器？/能不能介绍一个擦窗的机器？/可以给我介绍一个擦窗的机器吗？/有没有擦窗户的机器？/擦窗户的机器有吗？这里有擦窗户的机器吗？/有没有擦窗户的机器卖？/这里有卖擦窗户的机器的吗？/推荐个擦窗户的机器/推荐擦窗户的机器/介绍个擦窗户的机器/介绍擦窗户的机器/给我推荐个擦窗户的机器/我来买个擦窗户的机器/擦窗户的机器有吗？/有没有擦窗户的机器？/有擦窗户的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗户的机器？/这里能买到擦窗户的机器吗？/给我介绍个擦窗户的机器？/能不能介绍一个擦窗户的机器？/可以给我介绍一个擦窗户的机器吗？/有没有擦玻璃的机器？/擦玻璃的机器有吗？这里有擦玻璃的机器吗？/有没有擦玻璃的机器卖？/这里有卖擦玻璃的机器的吗？/推荐个擦玻璃的机器/推荐擦玻璃的机器/介绍个擦玻璃的机器/介绍擦玻璃的机器/给我推荐个擦玻璃的机器/我来买个擦玻璃的机器/擦玻璃的机器有吗？/有没有擦玻璃的机器？/有擦玻璃的机器吗？/有擦玻璃的机器人吗？/你们这里有擦玻璃的机器人卖吗？/可不可以在这里买擦玻璃的机器？/这里能买到擦玻璃的机器吗？/给我介绍个擦玻璃的机器？/能不能介绍一个擦玻璃的机器？/可以给我介绍一个擦玻璃的机器吗？/有没有打扫窗户的机器？/打扫窗户的机器有吗？这里有打扫窗户的机器吗？/有没有打扫窗户的机器卖？/这里有卖打扫窗户的机器的吗？/推荐个打扫窗户的机器/推荐打扫窗户的机器/介绍个打扫窗户的机器/介绍打扫窗户的机器/给我推荐个打扫窗户的机器/我来买个打扫窗户的机器/打扫窗户的机器有吗？/有没有打扫窗户的机器？/有打扫窗户的机器吗？/有打扫窗户的机器人吗？/你们这里有打扫窗户的机器人卖吗？/可不可以在这里买打扫窗户的机器？/这里能买到打扫窗户的机器吗？/给我介绍个打扫窗户的机器？/能不能介绍一个打扫窗户的机器？/可以给我介绍一个打扫窗户的机器吗？/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>买个好的擦窗机器人/我来买个好的擦窗机器人/我想买个好用的擦窗机器/我来买擦窗机器人/擦窗户的机器人有么？/我来买个擦窗户的/擦窗户的有没有？/擦窗户的那种/能擦窗户的/擦玻璃的那种/擦玻璃的机器人有么？/我来买个擦玻璃的/擦玻璃的有没有？/有没有擦窗机器人？/擦窗机器人有吗？这里有擦窗机器人吗？/有没有擦窗机器人卖？/这里有卖擦窗机器人的吗？/推荐个擦窗机器人/推荐擦窗机器人/介绍个擦窗机器人/介绍擦窗机器人/给我推荐个擦窗机器人/我来买个擦窗机器人/擦窗机器人有吗？/有没有擦窗机器人？/有擦窗机器人吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗机器人？/这里能买到擦窗机器人吗？/给我介绍个擦窗机器人？/能不能介绍一个擦窗机器人？/可以给我介绍一个擦窗机器人吗？/有没有擦窗的机器？/擦窗的机器有吗？这里有擦窗的机器吗？/有没有擦窗的机器卖？/这里有卖擦窗的机器的吗？/推荐个擦窗的机器/推荐擦窗的机器/介绍个擦窗的机器/介绍擦窗的机器/给我推荐个擦窗的机器/我来买个擦窗的机器/擦窗的机器有吗？/有没有擦窗的机器？/有擦窗的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗的机器？/这里能买到擦窗的机器吗？/给我介绍个擦窗的机器？/能不能介绍一个擦窗的机器？/可以给我介绍一个擦窗的机器吗？/有没有擦窗户的机器？/擦窗户的机器有吗？这里有擦窗户的机器吗？/有没有擦窗户的机器卖？/这里有卖擦窗户的机器的吗？/推荐个擦窗户的机器/推荐擦窗户的机器/介绍个擦窗户的机器/介绍擦窗户的机器/给我推荐个擦窗户的机器/我来买个擦窗户的机器/擦窗户的机器有吗？/有没有擦窗户的机器？/有擦窗户的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗户的机器？/这里能买到擦窗户的机器吗？/给我介绍个擦窗户的机器？/能不能介绍一个擦窗户的机器？/可以给我介绍一个擦窗户的机器吗？/有没有擦玻璃的机器？/擦玻璃的机器有吗？这里有擦玻璃的机器吗？/有没有擦玻璃的机器卖？/这里有卖擦玻璃的机器的吗？/推荐个擦玻璃的机器/推荐擦玻璃的机器/介绍个擦玻璃的机器/介绍擦玻璃的机器/给我推荐个擦玻璃的机器/我来买个擦玻璃的机器/擦玻璃的机器有吗？/有没有擦玻璃的机器？/有擦玻璃的机器吗？/有擦玻璃的机器人吗？/你们这里有擦玻璃的机器人卖吗？/可不可以在这里买擦玻璃的机器？/这里能买到擦玻璃的机器吗？/给我介绍个擦玻璃的机器？/能不能介绍一个擦玻璃的机器？/可以给我介绍一个擦玻璃的机器吗？/有没有打扫窗户的机器？/打扫窗户的机器有吗？这里有打扫窗户的机器吗？/有没有打扫窗户的机器卖？/这里有卖打扫窗户的机器的吗？/推荐个打扫窗户的机器/推荐打扫窗户的机器/介绍个打扫窗户的机器/介绍打扫窗户的机器/给我推荐个打扫窗户的机器/我来买个打扫窗户的机器/打扫窗户的机器有吗？/有没有打扫窗户的机器？/有打扫窗户的机器吗？/有打扫窗户的机器人吗？/你们这里有打扫窗户的机器人卖吗？/可不可以在这里买打扫窗户的机器？/这里能买到打扫窗户的机器吗？/给我介绍个打扫窗户的机器？/能不能介绍一个打扫窗户的机器？/可以给我介绍一个打扫窗户的机器吗？/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog45.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="49" sId="2" odxf="1" dxf="1">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <t>买个好的擦窗机器人/我来买个好的擦窗机器人/我想买个好用的擦窗机器/我来买擦窗机器人/擦窗户的机器人有么？/我来买个擦窗户的/擦窗户的有没有？/擦窗户的那种/能擦窗户的/擦玻璃的那种/擦玻璃的机器人有么？/我来买个擦玻璃的/擦玻璃的有没有？/有没有擦窗机器人？/擦窗机器人有吗？这里有擦窗机器人吗？/有没有擦窗机器人卖？/这里有卖擦窗机器人的吗？/推荐个擦窗机器人/推荐擦窗机器人/介绍个擦窗机器人/介绍擦窗机器人/给我推荐个擦窗机器人/我来买个擦窗机器人/擦窗机器人有吗？/有没有擦窗机器人？/有擦窗机器人吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗机器人？/这里能买到擦窗机器人吗？/给我介绍个擦窗机器人？/能不能介绍一个擦窗机器人？/可以给我介绍一个擦窗机器人吗？/有没有擦窗的机器？/擦窗的机器有吗？这里有擦窗的机器吗？/有没有擦窗的机器卖？/这里有卖擦窗的机器的吗？/推荐个擦窗的机器/推荐擦窗的机器/介绍个擦窗的机器/介绍擦窗的机器/给我推荐个擦窗的机器/我来买个擦窗的机器/擦窗的机器有吗？/有没有擦窗的机器？/有擦窗的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗的机器？/这里能买到擦窗的机器吗？/给我介绍个擦窗的机器？/能不能介绍一个擦窗的机器？/可以给我介绍一个擦窗的机器吗？/有没有擦窗户的机器？/擦窗户的机器有吗？这里有擦窗户的机器吗？/有没有擦窗户的机器卖？/这里有卖擦窗户的机器的吗？/推荐个擦窗户的机器/推荐擦窗户的机器/介绍个擦窗户的机器/介绍擦窗户的机器/给我推荐个擦窗户的机器/我来买个擦窗户的机器/擦窗户的机器有吗？/有没有擦窗户的机器？/有擦窗户的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗户的机器？/这里能买到擦窗户的机器吗？/给我介绍个擦窗户的机器？/能不能介绍一个擦窗户的机器？/可以给我介绍一个擦窗户的机器吗？/有没有擦玻璃的机器？/擦玻璃的机器有吗？这里有擦玻璃的机器吗？/有没有擦玻璃的机器卖？/这里有卖擦玻璃的机器的吗？/推荐个擦玻璃的机器/推荐擦玻璃的机器/介绍个擦玻璃的机器/介绍擦玻璃的机器/给我推荐个擦玻璃的机器/我来买个擦玻璃的机器/擦玻璃的机器有吗？/有没有擦玻璃的机器？/有擦玻璃的机器吗？/有擦玻璃的机器人吗？/你们这里有擦玻璃的机器人卖吗？/可不可以在这里买擦玻璃的机器？/这里能买到擦玻璃的机器吗？/给我介绍个擦玻璃的机器？/能不能介绍一个擦玻璃的机器？/可以给我介绍一个擦玻璃的机器吗？/有没有打扫窗户的机器？/打扫窗户的机器有吗？这里有打扫窗户的机器吗？/有没有打扫窗户的机器卖？/这里有卖打扫窗户的机器的吗？/推荐个打扫窗户的机器/推荐打扫窗户的机器/介绍个打扫窗户的机器/介绍打扫窗户的机器/给我推荐个打扫窗户的机器/我来买个打扫窗户的机器/打扫窗户的机器有吗？/有没有打扫窗户的机器？/有打扫窗户的机器吗？/有打扫窗户的机器人吗？/你们这里有打扫窗户的机器人卖吗？/可不可以在这里买打扫窗户的机器？/这里能买到打扫窗户的机器吗？/给我介绍个打扫窗户的机器？/能不能介绍一个打扫窗户的机器？/可以给我介绍一个打扫窗户的机器吗？/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>买个好的擦窗机器人/我来买个好的擦窗机器人/我想买个好用的擦窗机器/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我来买擦窗机器人/擦窗户的机器人有么？/我来买个擦窗户的/擦窗户的有没有？/擦窗户的那种/能擦窗户的/擦玻璃的那种/擦玻璃的机器人有么？/我来买个擦玻璃的/擦玻璃的有没有？/有没有擦窗机器人？/擦窗机器人有吗？这里有擦窗机器人吗？/有没有擦窗机器人卖？/这里有卖擦窗机器人的吗？/推荐个擦窗机器人/推荐擦窗机器人/介绍个擦窗机器人/介绍擦窗机器人/给我推荐个擦窗机器人/我来买个擦窗机器人/擦窗机器人有吗？/有没有擦窗机器人？/有擦窗机器人吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗机器人？/这里能买到擦窗机器人吗？/给我介绍个擦窗机器人？/能不能介绍一个擦窗机器人？/可以给我介绍一个擦窗机器人吗？/有没有擦窗的机器？/擦窗的机器有吗？这里有擦窗的机器吗？/有没有擦窗的机器卖？/这里有卖擦窗的机器的吗？/推荐个擦窗的机器/推荐擦窗的机器/介绍个擦窗的机器/介绍擦窗的机器/给我推荐个擦窗的机器/我来买个擦窗的机器/擦窗的机器有吗？/有没有擦窗的机器？/有擦窗的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗的机器？/这里能买到擦窗的机器吗？/给我介绍个擦窗的机器？/能不能介绍一个擦窗的机器？/可以给我介绍一个擦窗的机器吗？/有没有擦窗户的机器？/擦窗户的机器有吗？这里有擦窗户的机器吗？/有没有擦窗户的机器卖？/这里有卖擦窗户的机器的吗？/推荐个擦窗户的机器/推荐擦窗户的机器/介绍个擦窗户的机器/介绍擦窗户的机器/给我推荐个擦窗户的机器/我来买个擦窗户的机器/擦窗户的机器有吗？/有没有擦窗户的机器？/有擦窗户的机器吗？/有擦窗户的机器人吗？/你们这里有擦窗户的机器人卖吗？/可不可以在这里买擦窗户的机器？/这里能买到擦窗户的机器吗？/给我介绍个擦窗户的机器？/能不能介绍一个擦窗户的机器？/可以给我介绍一个擦窗户的机器吗？/有没有擦玻璃的机器？/擦玻璃的机器有吗？这里有擦玻璃的机器吗？/有没有擦玻璃的机器卖？/这里有卖擦玻璃的机器的吗？/推荐个擦玻璃的机器/推荐擦玻璃的机器/介绍个擦玻璃的机器/介绍擦玻璃的机器/给我推荐个擦玻璃的机器/我来买个擦玻璃的机器/擦玻璃的机器有吗？/有没有擦玻璃的机器？/有擦玻璃的机器吗？/有擦玻璃的机器人吗？/你们这里有擦玻璃的机器人卖吗？/可不可以在这里买擦玻璃的机器？/这里能买到擦玻璃的机器吗？/给我介绍个擦玻璃的机器？/能不能介绍一个擦玻璃的机器？/可以给我介绍一个擦玻璃的机器吗？/有没有打扫窗户的机器？/打扫窗户的机器有吗？这里有打扫窗户的机器吗？/有没有打扫窗户的机器卖？/这里有卖打扫窗户的机器的吗？/推荐个打扫窗户的机器/推荐打扫窗户的机器/介绍个打扫窗户的机器/介绍打扫窗户的机器/给我推荐个打扫窗户的机器/我来买个打扫窗户的机器/打扫窗户的机器有吗？/有没有打扫窗户的机器？/有打扫窗户的机器吗？/有打扫窗户的机器人吗？/你们这里有打扫窗户的机器人卖吗？/可不可以在这里买打扫窗户的机器？/这里能买到打扫窗户的机器吗？/给我介绍个打扫窗户的机器？/能不能介绍一个打扫窗户的机器？/可以给我介绍一个打扫窗户的机器吗？/</t>
+        </r>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog46.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="50" sId="3">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <t>我来买空气净化机器人/我来是买空气净化机器人的/我来买空气净化机器人的/我是来买空气净化机器人的/我来买净化空气的机器人/我想买空气净化机器人/空气净化机器人/净化空气的/能净化空气的/我想要空气净化机器人/我要空气净化机器人/有空气净化机器人吗？/空气净化机器人这里有卖的吗？/你们这里有卖空气净化机器人的吗？/推荐个空气净化机器人/给我推荐个空气净化机器人/介绍个空气净化机器人/介绍空气净化机器人/空气净化器有没有？/有没有空气净化器？/这里有空气净化器吗？/这里有卖空气净化器的吗？/你们这里有空气净化器吗？/你们这里有卖空气净化器的吗？/有没有空气净化器卖呀？/我想买净化空气的机器人/我想要一个净化空气的机器人/我来买净化空气的机器人的/我来买空气净化机器人/我来买空气净化机器人人/我想买空气净化机器人/空气净化机器人/我来买空气净化机器人/我想要空气净化机器人/我要空气净化机器人/推荐个空气净化机器人/我要买空气净化机器人/买空气净化机器人/我要买空气净化机器人/推荐个空气净化机器人/推荐空气净化机器人/空气净化机器人/给我推荐个空气净化机器人/介绍个空气净化机器人/介绍下空气净化机器人/我想买一个空气净化机器人/你们这里可以买空气净化机器人吗？/你能给我推荐一下空气净化机器人吗？/空气净化机器人有没有啊？/有没有空气净化机器人卖？/可以在这里买到空气净化机器人吗？/能不能介绍一个空气净化机器人给我？/可以给我介绍一个空气净化机器人吗？/能不能给我推荐一个空气净化机器人？/可以推荐一个空气净化机器人给我？//我来买净化空气的机器/我来买净化空气的机器人/我想买净化空气的机器/净化空气的机器/我来买净化空气的机器/我想要净化空气的机器/我要净化空气的机器/推荐个净化空气的机器/我要买净化空气的机器/买净化空气的机器/我要买净化空气的机器/推荐个净化空气的机器/推荐净化空气的机器/净化空气的机器/给我推荐个净化空气的机器/介绍个净化空气的机器/介绍下净化空气的机器/我想买一个净化空气的机器/你们这里可以买净化空气的机器吗？/你能给我推荐一下净化空气的机器吗？/净化空气的机器有没有啊？/有没有净化空气的机器卖？/可以在这里买到净化空气的机器吗？/能不能介绍一个净化空气的机器给我？/可以给我介绍一个净化空气的机器吗？/能不能给我推荐一个净化空气的机器？/可以推荐一个净化空气的机器给我？//我来买能让空气变好的机器/我来买能让空气变好的机器人/我想买能让空气变好的机器/能让空气变好的机器/我来买能让空气变好的机器/我想要能让空气变好的机器/我要能让空气变好的机器/推荐个能让空气变好的机器/我要买能让空气变好的机器/买能让空气变好的机器/我要买能让空气变好的机器/推荐个能让空气变好的机器/推荐能让空气变好的机器/能让空气变好的机器/给我推荐个能让空气变好的机器/介绍个能让空气变好的机器/介绍下能让空气变好的机器/我想买一个能让空气变好的机器/你们这里可以买能让空气变好的机器吗？/你能给我推荐一下能让空气变好的机器吗？/能让空气变好的机器有没有啊？/有没有能让空气变好的机器卖？/可以在这里买到能让空气变好的机器吗？/能不能介绍一个能让空气变好的机器给我？/可以给我介绍一个能让空气变好的机器吗？/能不能给我推荐一个能让空气变好的机器？/可以推荐一个能让空气变好的机器给我？//我来买过滤空气的机器/我来买过滤空气的机器人/我想买过滤空气的机器/过滤空气的机器/我来买过滤空气的机器/我想要过滤空气的机器/我要过滤空气的机器/推荐个过滤空气的机器/我要买过滤空气的机器/买过滤空气的机器/我要买过滤空气的机器/推荐个过滤空气的机器/推荐过滤空气的机器/过滤空气的机器/给我推荐个过滤空气的机器/介绍个过滤空气的机器/介绍下过滤空气的机器/我想买一个过滤空气的机器/你们这里可以买过滤空气的机器吗？/你能给我推荐一下过滤空气的机器吗？/过滤空气的机器有没有啊？/有没有过滤空气的机器卖？/可以在这里买到过滤空气的机器吗？/能不能介绍一个过滤空气的机器给我？/可以给我介绍一个过滤空气的机器吗？/能不能给我推荐一个过滤空气的机器？/可以推荐一个过滤空气的机器给我？/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>我就想买个空气净化机器人/我就想买个空气净化的/我来买空气净化机器人/我来是买空气净化机器人的/我来买空气净化机器人的/我是来买空气净化机器人的/我来买净化空气的机器人/我想买空气净化机器人/空气净化机器人/净化空气的/能净化空气的/我想要空气净化机器人/我要空气净化机器人/有空气净化机器人吗？/空气净化机器人这里有卖的吗？/你们这里有卖空气净化机器人的吗？/推荐个空气净化机器人/给我推荐个空气净化机器人/介绍个空气净化机器人/介绍空气净化机器人/空气净化器有没有？/有没有空气净化器？/这里有空气净化器吗？/这里有卖空气净化器的吗？/你们这里有空气净化器吗？/你们这里有卖空气净化器的吗？/有没有空气净化器卖呀？/我想买净化空气的机器人/我想要一个净化空气的机器人/我来买净化空气的机器人的/我来买空气净化机器人/我来买空气净化机器人人/我想买空气净化机器人/空气净化机器人/我来买空气净化机器人/我想要空气净化机器人/我要空气净化机器人/推荐个空气净化机器人/我要买空气净化机器人/买空气净化机器人/我要买空气净化机器人/推荐个空气净化机器人/推荐空气净化机器人/空气净化机器人/给我推荐个空气净化机器人/介绍个空气净化机器人/介绍下空气净化机器人/我想买一个空气净化机器人/你们这里可以买空气净化机器人吗？/你能给我推荐一下空气净化机器人吗？/空气净化机器人有没有啊？/有没有空气净化机器人卖？/可以在这里买到空气净化机器人吗？/能不能介绍一个空气净化机器人给我？/可以给我介绍一个空气净化机器人吗？/能不能给我推荐一个空气净化机器人？/可以推荐一个空气净化机器人给我？//我来买净化空气的机器/我来买净化空气的机器人/我想买净化空气的机器/净化空气的机器/我来买净化空气的机器/我想要净化空气的机器/我要净化空气的机器/推荐个净化空气的机器/我要买净化空气的机器/买净化空气的机器/我要买净化空气的机器/推荐个净化空气的机器/推荐净化空气的机器/净化空气的机器/给我推荐个净化空气的机器/介绍个净化空气的机器/介绍下净化空气的机器/我想买一个净化空气的机器/你们这里可以买净化空气的机器吗？/你能给我推荐一下净化空气的机器吗？/净化空气的机器有没有啊？/有没有净化空气的机器卖？/可以在这里买到净化空气的机器吗？/能不能介绍一个净化空气的机器给我？/可以给我介绍一个净化空气的机器吗？/能不能给我推荐一个净化空气的机器？/可以推荐一个净化空气的机器给我？//我来买能让空气变好的机器/我来买能让空气变好的机器人/我想买能让空气变好的机器/能让空气变好的机器/我来买能让空气变好的机器/我想要能让空气变好的机器/我要能让空气变好的机器/推荐个能让空气变好的机器/我要买能让空气变好的机器/买能让空气变好的机器/我要买能让空气变好的机器/推荐个能让空气变好的机器/推荐能让空气变好的机器/能让空气变好的机器/给我推荐个能让空气变好的机器/介绍个能让空气变好的机器/介绍下能让空气变好的机器/我想买一个能让空气变好的机器/你们这里可以买能让空气变好的机器吗？/你能给我推荐一下能让空气变好的机器吗？/能让空气变好的机器有没有啊？/有没有能让空气变好的机器卖？/可以在这里买到能让空气变好的机器吗？/能不能介绍一个能让空气变好的机器给我？/可以给我介绍一个能让空气变好的机器吗？/能不能给我推荐一个能让空气变好的机器？/可以推荐一个能让空气变好的机器给我？//我来买过滤空气的机器/我来买过滤空气的机器人/我想买过滤空气的机器/过滤空气的机器/我来买过滤空气的机器/我想要过滤空气的机器/我要过滤空气的机器/推荐个过滤空气的机器/我要买过滤空气的机器/买过滤空气的机器/我要买过滤空气的机器/推荐个过滤空气的机器/推荐过滤空气的机器/过滤空气的机器/给我推荐个过滤空气的机器/介绍个过滤空气的机器/介绍下过滤空气的机器/我想买一个过滤空气的机器/你们这里可以买过滤空气的机器吗？/你能给我推荐一下过滤空气的机器吗？/过滤空气的机器有没有啊？/有没有过滤空气的机器卖？/可以在这里买到过滤空气的机器吗？/能不能介绍一个过滤空气的机器给我？/可以给我介绍一个过滤空气的机器吗？/能不能给我推荐一个过滤空气的机器？/可以推荐一个过滤空气的机器给我？/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog47.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="51" sId="3" odxf="1" dxf="1">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <t>我就想买个空气净化机器人/我就想买个空气净化的/我来买空气净化机器人/我来是买空气净化机器人的/我来买空气净化机器人的/我是来买空气净化机器人的/我来买净化空气的机器人/我想买空气净化机器人/空气净化机器人/净化空气的/能净化空气的/我想要空气净化机器人/我要空气净化机器人/有空气净化机器人吗？/空气净化机器人这里有卖的吗？/你们这里有卖空气净化机器人的吗？/推荐个空气净化机器人/给我推荐个空气净化机器人/介绍个空气净化机器人/介绍空气净化机器人/空气净化器有没有？/有没有空气净化器？/这里有空气净化器吗？/这里有卖空气净化器的吗？/你们这里有空气净化器吗？/你们这里有卖空气净化器的吗？/有没有空气净化器卖呀？/我想买净化空气的机器人/我想要一个净化空气的机器人/我来买净化空气的机器人的/我来买空气净化机器人/我来买空气净化机器人人/我想买空气净化机器人/空气净化机器人/我来买空气净化机器人/我想要空气净化机器人/我要空气净化机器人/推荐个空气净化机器人/我要买空气净化机器人/买空气净化机器人/我要买空气净化机器人/推荐个空气净化机器人/推荐空气净化机器人/空气净化机器人/给我推荐个空气净化机器人/介绍个空气净化机器人/介绍下空气净化机器人/我想买一个空气净化机器人/你们这里可以买空气净化机器人吗？/你能给我推荐一下空气净化机器人吗？/空气净化机器人有没有啊？/有没有空气净化机器人卖？/可以在这里买到空气净化机器人吗？/能不能介绍一个空气净化机器人给我？/可以给我介绍一个空气净化机器人吗？/能不能给我推荐一个空气净化机器人？/可以推荐一个空气净化机器人给我？//我来买净化空气的机器/我来买净化空气的机器人/我想买净化空气的机器/净化空气的机器/我来买净化空气的机器/我想要净化空气的机器/我要净化空气的机器/推荐个净化空气的机器/我要买净化空气的机器/买净化空气的机器/我要买净化空气的机器/推荐个净化空气的机器/推荐净化空气的机器/净化空气的机器/给我推荐个净化空气的机器/介绍个净化空气的机器/介绍下净化空气的机器/我想买一个净化空气的机器/你们这里可以买净化空气的机器吗？/你能给我推荐一下净化空气的机器吗？/净化空气的机器有没有啊？/有没有净化空气的机器卖？/可以在这里买到净化空气的机器吗？/能不能介绍一个净化空气的机器给我？/可以给我介绍一个净化空气的机器吗？/能不能给我推荐一个净化空气的机器？/可以推荐一个净化空气的机器给我？//我来买能让空气变好的机器/我来买能让空气变好的机器人/我想买能让空气变好的机器/能让空气变好的机器/我来买能让空气变好的机器/我想要能让空气变好的机器/我要能让空气变好的机器/推荐个能让空气变好的机器/我要买能让空气变好的机器/买能让空气变好的机器/我要买能让空气变好的机器/推荐个能让空气变好的机器/推荐能让空气变好的机器/能让空气变好的机器/给我推荐个能让空气变好的机器/介绍个能让空气变好的机器/介绍下能让空气变好的机器/我想买一个能让空气变好的机器/你们这里可以买能让空气变好的机器吗？/你能给我推荐一下能让空气变好的机器吗？/能让空气变好的机器有没有啊？/有没有能让空气变好的机器卖？/可以在这里买到能让空气变好的机器吗？/能不能介绍一个能让空气变好的机器给我？/可以给我介绍一个能让空气变好的机器吗？/能不能给我推荐一个能让空气变好的机器？/可以推荐一个能让空气变好的机器给我？//我来买过滤空气的机器/我来买过滤空气的机器人/我想买过滤空气的机器/过滤空气的机器/我来买过滤空气的机器/我想要过滤空气的机器/我要过滤空气的机器/推荐个过滤空气的机器/我要买过滤空气的机器/买过滤空气的机器/我要买过滤空气的机器/推荐个过滤空气的机器/推荐过滤空气的机器/过滤空气的机器/给我推荐个过滤空气的机器/介绍个过滤空气的机器/介绍下过滤空气的机器/我想买一个过滤空气的机器/你们这里可以买过滤空气的机器吗？/你能给我推荐一下过滤空气的机器吗？/过滤空气的机器有没有啊？/有没有过滤空气的机器卖？/可以在这里买到过滤空气的机器吗？/能不能介绍一个过滤空气的机器给我？/可以给我介绍一个过滤空气的机器吗？/能不能给我推荐一个过滤空气的机器？/可以推荐一个过滤空气的机器给我？/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我就想买个空气净化机器人/我就想买个空气净化的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我来买空气净化机器人/我来是买空气净化机器人的/我来买空气净化机器人的/我是来买空气净化机器人的/我来买净化空气的机器人/我想买空气净化机器人/空气净化机器人/净化空气的/能净化空气的/我想要空气净化机器人/我要空气净化机器人/有空气净化机器人吗？/空气净化机器人这里有卖的吗？/你们这里有卖空气净化机器人的吗？/推荐个空气净化机器人/给我推荐个空气净化机器人/介绍个空气净化机器人/介绍空气净化机器人/空气净化器有没有？/有没有空气净化器？/这里有空气净化器吗？/这里有卖空气净化器的吗？/你们这里有空气净化器吗？/你们这里有卖空气净化器的吗？/有没有空气净化器卖呀？/我想买净化空气的机器人/我想要一个净化空气的机器人/我来买净化空气的机器人的/我来买空气净化机器人/我来买空气净化机器人人/我想买空气净化机器人/空气净化机器人/我来买空气净化机器人/我想要空气净化机器人/我要空气净化机器人/推荐个空气净化机器人/我要买空气净化机器人/买空气净化机器人/我要买空气净化机器人/推荐个空气净化机器人/推荐空气净化机器人/空气净化机器人/给我推荐个空气净化机器人/介绍个空气净化机器人/介绍下空气净化机器人/我想买一个空气净化机器人/你们这里可以买空气净化机器人吗？/你能给我推荐一下空气净化机器人吗？/空气净化机器人有没有啊？/有没有空气净化机器人卖？/可以在这里买到空气净化机器人吗？/能不能介绍一个空气净化机器人给我？/可以给我介绍一个空气净化机器人吗？/能不能给我推荐一个空气净化机器人？/可以推荐一个空气净化机器人给我？//我来买净化空气的机器/我来买净化空气的机器人/我想买净化空气的机器/净化空气的机器/我来买净化空气的机器/我想要净化空气的机器/我要净化空气的机器/推荐个净化空气的机器/我要买净化空气的机器/买净化空气的机器/我要买净化空气的机器/推荐个净化空气的机器/推荐净化空气的机器/净化空气的机器/给我推荐个净化空气的机器/介绍个净化空气的机器/介绍下净化空气的机器/我想买一个净化空气的机器/你们这里可以买净化空气的机器吗？/你能给我推荐一下净化空气的机器吗？/净化空气的机器有没有啊？/有没有净化空气的机器卖？/可以在这里买到净化空气的机器吗？/能不能介绍一个净化空气的机器给我？/可以给我介绍一个净化空气的机器吗？/能不能给我推荐一个净化空气的机器？/可以推荐一个净化空气的机器给我？//我来买能让空气变好的机器/我来买能让空气变好的机器人/我想买能让空气变好的机器/能让空气变好的机器/我来买能让空气变好的机器/我想要能让空气变好的机器/我要能让空气变好的机器/推荐个能让空气变好的机器/我要买能让空气变好的机器/买能让空气变好的机器/我要买能让空气变好的机器/推荐个能让空气变好的机器/推荐能让空气变好的机器/能让空气变好的机器/给我推荐个能让空气变好的机器/介绍个能让空气变好的机器/介绍下能让空气变好的机器/我想买一个能让空气变好的机器/你们这里可以买能让空气变好的机器吗？/你能给我推荐一下能让空气变好的机器吗？/能让空气变好的机器有没有啊？/有没有能让空气变好的机器卖？/可以在这里买到能让空气变好的机器吗？/能不能介绍一个能让空气变好的机器给我？/可以给我介绍一个能让空气变好的机器吗？/能不能给我推荐一个能让空气变好的机器？/可以推荐一个能让空气变好的机器给我？//我来买过滤空气的机器/我来买过滤空气的机器人/我想买过滤空气的机器/过滤空气的机器/我来买过滤空气的机器/我想要过滤空气的机器/我要过滤空气的机器/推荐个过滤空气的机器/我要买过滤空气的机器/买过滤空气的机器/我要买过滤空气的机器/推荐个过滤空气的机器/推荐过滤空气的机器/过滤空气的机器/给我推荐个过滤空气的机器/介绍个过滤空气的机器/介绍下过滤空气的机器/我想买一个过滤空气的机器/你们这里可以买过滤空气的机器吗？/你能给我推荐一下过滤空气的机器吗？/过滤空气的机器有没有啊？/有没有过滤空气的机器卖？/可以在这里买到过滤空气的机器吗？/能不能介绍一个过滤空气的机器给我？/可以给我介绍一个过滤空气的机器吗？/能不能给我推荐一个过滤空气的机器？/可以推荐一个过滤空气的机器给我？/</t>
+        </r>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog48.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="52" sId="2">
+    <oc r="F3" t="inlineStr">
+      <is>
+        <t xml:space="preserve">还有啥样的/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的擦窗机器人么？/你们店里还有其他的擦窗机器人么？/擦窗机器人还有没有其他选择？/擦窗机器人还有没有其他款式？/擦窗机器人还有没有其他型号？/擦窗机器人其他型号有没有？/还有没有擦窗机器人/还有擦窗机器人么？/其他的擦窗机器人呢？/别的擦窗机器人/再给我推荐一个擦窗机器人/再推荐一个擦窗机器人我看看/再推荐一个擦窗机器人我听听/我还想了解其他的擦窗机器人/我还想了解别的擦窗机器人型号的/再介绍一个擦窗机器人/再介绍一款擦窗机器人/还有没有擦窗机器人？/还有其他的擦窗机器人么？/其他的擦窗机器人呢？/就这一款擦窗机器人么？/就这一个擦窗机器人？/有没有更好的擦窗机器人？/有没有配置高一点的擦窗机器人？/有没有比这个好的擦窗机器人/有没有比这个好的擦窗机器人推荐一下/有没有性能更好的擦窗机器人/有没有性能更好的擦窗机器人推荐一下/性能更好的擦窗机器人/我想知道其他的擦窗机器人/换一款擦窗机器人/换一个擦窗机器人/下一个擦窗机器人/再介绍一个其他的擦窗机器人/还有别的擦窗户的么？/你们店里还有其他的擦窗户的么？/擦窗户的还有没有其他选择？/擦窗户的还有没有其他款式？/擦窗户的还有没有其他型号？/擦窗户的其他型号有没有？/还有没有擦窗户的/还有擦窗户的么？/其他的擦窗户的呢？/别的擦窗户的/再给我推荐一个擦窗户的/再推荐一个擦窗户的我看看/再推荐一个擦窗户的我听听/我还想了解其他的擦窗户的/我还想了解别的擦窗户的型号的/再介绍一个擦窗户的/再介绍一款擦窗户的/还有没有擦窗户的？/还有其他的擦窗户的么？/其他的擦窗户的呢？/就这一款擦窗户的么？/就这一个擦窗户的？/有没有更好的擦窗户的？/有没有配置高一点的擦窗户的？/有没有比这个好的擦窗户的/有没有比这个好的擦窗户的推荐一下/有没有性能更好的擦窗户的/有没有性能更好的擦窗户的推荐一下/性能更好的擦窗户的/我想知道其他的擦窗户的/换一款擦窗户的/换一个擦窗户的/下一个擦窗户的/再介绍一个其他的擦窗户的/给我推荐一款擦窗机器人
+</t>
+      </is>
+    </oc>
+    <nc r="F3" t="inlineStr">
+      <is>
+        <t xml:space="preserve">可有其他类型的/可有其他形状的/还有啥样的/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的擦窗机器人么？/你们店里还有其他的擦窗机器人么？/擦窗机器人还有没有其他选择？/擦窗机器人还有没有其他款式？/擦窗机器人还有没有其他型号？/擦窗机器人其他型号有没有？/还有没有擦窗机器人/还有擦窗机器人么？/其他的擦窗机器人呢？/别的擦窗机器人/再给我推荐一个擦窗机器人/再推荐一个擦窗机器人我看看/再推荐一个擦窗机器人我听听/我还想了解其他的擦窗机器人/我还想了解别的擦窗机器人型号的/再介绍一个擦窗机器人/再介绍一款擦窗机器人/还有没有擦窗机器人？/还有其他的擦窗机器人么？/其他的擦窗机器人呢？/就这一款擦窗机器人么？/就这一个擦窗机器人？/有没有更好的擦窗机器人？/有没有配置高一点的擦窗机器人？/有没有比这个好的擦窗机器人/有没有比这个好的擦窗机器人推荐一下/有没有性能更好的擦窗机器人/有没有性能更好的擦窗机器人推荐一下/性能更好的擦窗机器人/我想知道其他的擦窗机器人/换一款擦窗机器人/换一个擦窗机器人/下一个擦窗机器人/再介绍一个其他的擦窗机器人/还有别的擦窗户的么？/你们店里还有其他的擦窗户的么？/擦窗户的还有没有其他选择？/擦窗户的还有没有其他款式？/擦窗户的还有没有其他型号？/擦窗户的其他型号有没有？/还有没有擦窗户的/还有擦窗户的么？/其他的擦窗户的呢？/别的擦窗户的/再给我推荐一个擦窗户的/再推荐一个擦窗户的我看看/再推荐一个擦窗户的我听听/我还想了解其他的擦窗户的/我还想了解别的擦窗户的型号的/再介绍一个擦窗户的/再介绍一款擦窗户的/还有没有擦窗户的？/还有其他的擦窗户的么？/其他的擦窗户的呢？/就这一款擦窗户的么？/就这一个擦窗户的？/有没有更好的擦窗户的？/有没有配置高一点的擦窗户的？/有没有比这个好的擦窗户的/有没有比这个好的擦窗户的推荐一下/有没有性能更好的擦窗户的/有没有性能更好的擦窗户的推荐一下/性能更好的擦窗户的/我想知道其他的擦窗户的/换一款擦窗户的/换一个擦窗户的/下一个擦窗户的/再介绍一个其他的擦窗户的/给我推荐一款擦窗机器人
+</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog49.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="53" sId="2">
+    <oc r="F3" t="inlineStr">
+      <is>
+        <t xml:space="preserve">可有其他类型的/可有其他形状的/还有啥样的/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的擦窗机器人么？/你们店里还有其他的擦窗机器人么？/擦窗机器人还有没有其他选择？/擦窗机器人还有没有其他款式？/擦窗机器人还有没有其他型号？/擦窗机器人其他型号有没有？/还有没有擦窗机器人/还有擦窗机器人么？/其他的擦窗机器人呢？/别的擦窗机器人/再给我推荐一个擦窗机器人/再推荐一个擦窗机器人我看看/再推荐一个擦窗机器人我听听/我还想了解其他的擦窗机器人/我还想了解别的擦窗机器人型号的/再介绍一个擦窗机器人/再介绍一款擦窗机器人/还有没有擦窗机器人？/还有其他的擦窗机器人么？/其他的擦窗机器人呢？/就这一款擦窗机器人么？/就这一个擦窗机器人？/有没有更好的擦窗机器人？/有没有配置高一点的擦窗机器人？/有没有比这个好的擦窗机器人/有没有比这个好的擦窗机器人推荐一下/有没有性能更好的擦窗机器人/有没有性能更好的擦窗机器人推荐一下/性能更好的擦窗机器人/我想知道其他的擦窗机器人/换一款擦窗机器人/换一个擦窗机器人/下一个擦窗机器人/再介绍一个其他的擦窗机器人/还有别的擦窗户的么？/你们店里还有其他的擦窗户的么？/擦窗户的还有没有其他选择？/擦窗户的还有没有其他款式？/擦窗户的还有没有其他型号？/擦窗户的其他型号有没有？/还有没有擦窗户的/还有擦窗户的么？/其他的擦窗户的呢？/别的擦窗户的/再给我推荐一个擦窗户的/再推荐一个擦窗户的我看看/再推荐一个擦窗户的我听听/我还想了解其他的擦窗户的/我还想了解别的擦窗户的型号的/再介绍一个擦窗户的/再介绍一款擦窗户的/还有没有擦窗户的？/还有其他的擦窗户的么？/其他的擦窗户的呢？/就这一款擦窗户的么？/就这一个擦窗户的？/有没有更好的擦窗户的？/有没有配置高一点的擦窗户的？/有没有比这个好的擦窗户的/有没有比这个好的擦窗户的推荐一下/有没有性能更好的擦窗户的/有没有性能更好的擦窗户的推荐一下/性能更好的擦窗户的/我想知道其他的擦窗户的/换一款擦窗户的/换一个擦窗户的/下一个擦窗户的/再介绍一个其他的擦窗户的/给我推荐一款擦窗机器人
+</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>可有其他类型的/可有其他形状的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有啥样的/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的擦窗机器人么？/你们店里还有其他的擦窗机器人么？/擦窗机器人还有没有其他选择？/擦窗机器人还有没有其他款式？/擦窗机器人还有没有其他型号？/擦窗机器人其他型号有没有？/还有没有擦窗机器人/还有擦窗机器人么？/其他的擦窗机器人呢？/别的擦窗机器人/再给我推荐一个擦窗机器人/再推荐一个擦窗机器人我看看/再推荐一个擦窗机器人我听听/我还想了解其他的擦窗机器人/我还想了解别的擦窗机器人型号的/再介绍一个擦窗机器人/再介绍一款擦窗机器人/还有没有擦窗机器人？/还有其他的擦窗机器人么？/其他的擦窗机器人呢？/就这一款擦窗机器人么？/就这一个擦窗机器人？/有没有更好的擦窗机器人？/有没有配置高一点的擦窗机器人？/有没有比这个好的擦窗机器人/有没有比这个好的擦窗机器人推荐一下/有没有性能更好的擦窗机器人/有没有性能更好的擦窗机器人推荐一下/性能更好的擦窗机器人/我想知道其他的擦窗机器人/换一款擦窗机器人/换一个擦窗机器人/下一个擦窗机器人/再介绍一个其他的擦窗机器人/还有别的擦窗户的么？/你们店里还有其他的擦窗户的么？/擦窗户的还有没有其他选择？/擦窗户的还有没有其他款式？/擦窗户的还有没有其他型号？/擦窗户的其他型号有没有？/还有没有擦窗户的/还有擦窗户的么？/其他的擦窗户的呢？/别的擦窗户的/再给我推荐一个擦窗户的/再推荐一个擦窗户的我看看/再推荐一个擦窗户的我听听/我还想了解其他的擦窗户的/我还想了解别的擦窗户的型号的/再介绍一个擦窗户的/再介绍一款擦窗户的/还有没有擦窗户的？/还有其他的擦窗户的么？/其他的擦窗户的呢？/就这一款擦窗户的么？/就这一个擦窗户的？/有没有更好的擦窗户的？/有没有配置高一点的擦窗户的？/有没有比这个好的擦窗户的/有没有比这个好的擦窗户的推荐一下/有没有性能更好的擦窗户的/有没有性能更好的擦窗户的推荐一下/性能更好的擦窗户的/我想知道其他的擦窗户的/换一款擦窗户的/换一个擦窗户的/下一个擦窗户的/再介绍一个其他的擦窗户的/给我推荐一款擦窗机器人
+</t>
+        </r>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="54" sId="3">
+    <oc r="F3" t="inlineStr">
+      <is>
+        <t xml:space="preserve">还有啥样的/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的空气净化机器人么？/你们店里还有其他的空气净化机器人么？/空气净化机器人还有没有其他选择？/空气净化机器人还有没有其他款式？/空气净化机器人还有没有其他型号？/空气净化机器人其他型号有没有？/还有没有空气净化机器人/还有空气净化机器人么？/其他的空气净化机器人呢？/别的空气净化机器人/再给我推荐一个空气净化机器人/再推荐一个空气净化机器人我看看/再推荐一个空气净化机器人我听听/我还想了解其他的空气净化机器人/我还想了解别的空气净化机器人型号的/再介绍一个空气净化机器人/再介绍一款空气净化机器人/还有没有空气净化机器人？/还有其他的空气净化机器人么？/其他的空气净化机器人呢？/就这一款空气净化机器人么？/就这一个空气净化机器人？/有没有更好的空气净化机器人？/有没有配置高一点的空气净化机器人？/有没有比这个好的空气净化机器人/有没有比这个好的空气净化机器人推荐一下/有没有性能更好的空气净化机器人/有没有性能更好的空气净化机器人推荐一下/性能更好的空气净化机器人/我想知道其他的空气净化机器人/换一款空气净化机器人/换一个空气净化机器人/下一个空气净化机器人/再介绍一个其他的空气净化机器人/还有别的空气净化机器人么？/你们店里还有其他的空气净化机器人么？/空气净化机器人还有没有其他选择？/空气净化机器人还有没有其他款式？/空气净化机器人还有没有其他型号？/空气净化机器人其他型号有没有？/还有没有空气净化机器人/还有空气净化机器人么？/其他的空气净化机器人呢？/别的空气净化机器人/再给我推荐一个空气净化机器人/再推荐一个空气净化机器人我看看/再推荐一个空气净化机器人我听听/我还想了解其他的空气净化机器人/我还想了解别的空气净化机器人型号的/再介绍一个空气净化机器人/再介绍一款空气净化机器人/还有没有空气净化机器人？/还有其他的空气净化机器人么？/其他的空气净化机器人呢？/就这一款空气净化机器人么？/就这一个空气净化机器人？/有没有更好的空气净化机器人？/有没有配置高一点的空气净化机器人？/有没有比这个好的空气净化机器人/有没有比这个好的空气净化机器人推荐一下/有没有性能更好的空气净化机器人/有没有性能更好的空气净化机器人推荐一下/性能更好的空气净化机器人/我想知道其他的空气净化机器人/换一款空气净化机器人/换一个空气净化机器人/下一个空气净化机器人/再介绍一个其他的空气净化机器人/
+还有别的净化空气么？/你们店里还有其他的净化空气么？/净化空气还有没有其他选择？/净化空气还有没有其他款式？/净化空气还有没有其他型号？/净化空气其他型号有没有？/还有没有净化空气/还有净化空气么？/其他的净化空气呢？/别的净化空气/再给我推荐一个净化空气/再推荐一个净化空气我看看/再推荐一个净化空气我听听/我还想了解其他的净化空气/我还想了解别的净化空气型号的/再介绍一个净化空气/再介绍一款净化空气/还有没有净化空气？/还有其他的净化空气么？/其他的净化空气呢？/就这一款净化空气么？/就这一个净化空气？/有没有更好的净化空气？/有没有配置高一点的净化空气？/有没有比这个好的净化空气/有没有比这个好的净化空气推荐一下/有没有性能更好的净化空气/有没有性能更好的净化空气推荐一下/性能更好的净化空气/我想知道其他的净化空气/换一款净化空气/换一个净化空气/下一个净化空气/再介绍一个其他的净化空气/
+还有别的清新房间空气的么？/你们店里还有其他的清新房间空气的么？/清新房间空气的还有没有其他选择？/清新房间空气的还有没有其他款式？/清新房间空气的还有没有其他型号？/清新房间空气的其他型号有没有？/还有没有清新房间空气的/还有清新房间空气的么？/其他的清新房间空气的呢？/别的清新房间空气的/再给我推荐一个清新房间空气的/再推荐一个清新房间空气的我看看/再推荐一个清新房间空气的我听听/我还想了解其他的清新房间空气的/我还想了解别的清新房间空气的型号的/再介绍一个清新房间空气的/再介绍一款清新房间空气的/还有没有清新房间空气的？/还有其他的清新房间空气的么？/其他的清新房间空气的呢？/就这一款清新房间空气的么？/就这一个清新房间空气的？/有没有更好的清新房间空气的？/有没有配置高一点的清新房间空气的？/有没有比这个好的清新房间空气的/有没有比这个好的清新房间空气的推荐一下/有没有性能更好的清新房间空气的/有没有性能更好的清新房间空气的推荐一下/性能更好的清新房间空气的/我想知道其他的清新房间空气的/换一款清新房间空气的/换一个清新房间空气的/下一个清新房间空气的/再介绍一个其他的清新房间空气的/
+还有别的湿润房间空气的么？/你们店里还有其他的湿润房间空气的么？/湿润房间空气的还有没有其他选择？/湿润房间空气的还有没有其他款式？/湿润房间空气的还有没有其他型号？/湿润房间空气的其他型号有没有？/还有没有湿润房间空气的 /还有湿润房间空气的么？/其他的湿润房间空气的呢？/别的湿润房间空气的 /再给我推荐一个湿润房间空气的/再推荐一个湿润房间空气的我看看/再推荐一个湿润房间空气的 我听听/我还想了解其他的湿润房间空气的/我还想了解别的湿润房间空气的 型号的/再介绍一个湿润房间空气的/再介绍一款湿润房间空气的/还有没有湿润房间空气的？/还有其他的湿润房间空气的么？/其他的湿润房间空气的呢？/就这一款湿润房间空气的么？/就这一个湿润房间空气的？/有没有更好的湿润房间空气的？/有没有配置高一点的湿润房间空气的？/有没有比这个好的湿润房间空气的/有没有比这个好的湿润房间空气的推荐一下/有没有性能更好的湿润房间空气的/有没有性能更好的湿润房间空气的推荐一下/性能更好的湿润房间空气的/我想知道其他的湿润房间空气的/换一款湿润房间空气的/换一个湿润房间空气的/下一个湿润房间空气的/再介绍一个其他的湿润房间空气的 /
+还有别的除去房间甲醛的么？/你们店里还有其他的除去房间甲醛的么？/除去房间甲醛的还有没有其他选择？/除去房间甲醛的还有没有其他款式？/除去房间甲醛的还有没有其他型号？/除去房间甲醛的其他型号有没有？/还有没有除去房间甲醛的/还有除去房间甲醛的么？/其他的除去房间甲醛的呢？/别的除去房间甲醛的/再给我推荐一个除去房间甲醛的/再推荐一个除去房间甲醛的我看看/再推荐一个除去房间甲醛的我听听/我还想了解其他的除去房间甲醛的/我还想了解别的除去房间甲醛的型号的/再介绍一个除去房间甲醛的/再介绍一款除去房间甲醛的/还有没有除去房间甲醛的？/还有其他的除去房间甲醛的么？/其他的除去房间甲醛的呢？/就这一款除去房间甲醛的么？/就这一个除去房间甲醛的？/有没有更好的除去房间甲醛的？/有没有配置高一点的除去房间甲醛的？/有没有比这个好的除去房间甲醛的/有没有比这个好的除去房间甲醛的推荐一下/有没有性能更好的除去房间甲醛的/有没有性能更好的除去房间甲醛的推荐一下/性能更好的除去房间甲醛的/我想知道其他的除去房间甲醛的/换一款除去房间甲醛的/换一个除去房间甲醛的/下一个除去房间甲醛的/再介绍一个其他的除去房间甲醛的/给我推荐一款空气净化机器人
+</t>
+      </is>
+    </oc>
+    <nc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>可有其他类型的/可有其他形状的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">还有啥样的/别的形状的有吗/有别的形状的吗/还有别的形状的吗/有没有别的形状的/别的形状的有没有/可有其他类型的/有没有其他类型的/其他类型的有没有/还有吗/还有别的么？/你们店里还有其他的么？/还有没有其他选择？/还有没有其他款式？/还有没有其他型号？/其他型号有没有？/还有没有/还有么？/其他的呢？/别的/再给我推荐一个/再推荐一个我看看/再推荐一个我听听/我还想了解其他的/我还想了解别的型号的/再介绍一个/再介绍一款/还有没有？/还有其他的么？/其他的呢？/就这一款么？/就这一个？/有没有更好的？/有没有配置高一点的？/有没有比这个好的/有没有比这个好的推荐一下/有没有性能更好的/有没有性能更好的推荐一下/性能更好的/我想知道其他的/换一款/换一个/下一个/再介绍一个其他的/还有别的空气净化机器人么？/你们店里还有其他的空气净化机器人么？/空气净化机器人还有没有其他选择？/空气净化机器人还有没有其他款式？/空气净化机器人还有没有其他型号？/空气净化机器人其他型号有没有？/还有没有空气净化机器人/还有空气净化机器人么？/其他的空气净化机器人呢？/别的空气净化机器人/再给我推荐一个空气净化机器人/再推荐一个空气净化机器人我看看/再推荐一个空气净化机器人我听听/我还想了解其他的空气净化机器人/我还想了解别的空气净化机器人型号的/再介绍一个空气净化机器人/再介绍一款空气净化机器人/还有没有空气净化机器人？/还有其他的空气净化机器人么？/其他的空气净化机器人呢？/就这一款空气净化机器人么？/就这一个空气净化机器人？/有没有更好的空气净化机器人？/有没有配置高一点的空气净化机器人？/有没有比这个好的空气净化机器人/有没有比这个好的空气净化机器人推荐一下/有没有性能更好的空气净化机器人/有没有性能更好的空气净化机器人推荐一下/性能更好的空气净化机器人/我想知道其他的空气净化机器人/换一款空气净化机器人/换一个空气净化机器人/下一个空气净化机器人/再介绍一个其他的空气净化机器人/还有别的空气净化机器人么？/你们店里还有其他的空气净化机器人么？/空气净化机器人还有没有其他选择？/空气净化机器人还有没有其他款式？/空气净化机器人还有没有其他型号？/空气净化机器人其他型号有没有？/还有没有空气净化机器人/还有空气净化机器人么？/其他的空气净化机器人呢？/别的空气净化机器人/再给我推荐一个空气净化机器人/再推荐一个空气净化机器人我看看/再推荐一个空气净化机器人我听听/我还想了解其他的空气净化机器人/我还想了解别的空气净化机器人型号的/再介绍一个空气净化机器人/再介绍一款空气净化机器人/还有没有空气净化机器人？/还有其他的空气净化机器人么？/其他的空气净化机器人呢？/就这一款空气净化机器人么？/就这一个空气净化机器人？/有没有更好的空气净化机器人？/有没有配置高一点的空气净化机器人？/有没有比这个好的空气净化机器人/有没有比这个好的空气净化机器人推荐一下/有没有性能更好的空气净化机器人/有没有性能更好的空气净化机器人推荐一下/性能更好的空气净化机器人/我想知道其他的空气净化机器人/换一款空气净化机器人/换一个空气净化机器人/下一个空气净化机器人/再介绍一个其他的空气净化机器人/
+还有别的净化空气么？/你们店里还有其他的净化空气么？/净化空气还有没有其他选择？/净化空气还有没有其他款式？/净化空气还有没有其他型号？/净化空气其他型号有没有？/还有没有净化空气/还有净化空气么？/其他的净化空气呢？/别的净化空气/再给我推荐一个净化空气/再推荐一个净化空气我看看/再推荐一个净化空气我听听/我还想了解其他的净化空气/我还想了解别的净化空气型号的/再介绍一个净化空气/再介绍一款净化空气/还有没有净化空气？/还有其他的净化空气么？/其他的净化空气呢？/就这一款净化空气么？/就这一个净化空气？/有没有更好的净化空气？/有没有配置高一点的净化空气？/有没有比这个好的净化空气/有没有比这个好的净化空气推荐一下/有没有性能更好的净化空气/有没有性能更好的净化空气推荐一下/性能更好的净化空气/我想知道其他的净化空气/换一款净化空气/换一个净化空气/下一个净化空气/再介绍一个其他的净化空气/
+还有别的清新房间空气的么？/你们店里还有其他的清新房间空气的么？/清新房间空气的还有没有其他选择？/清新房间空气的还有没有其他款式？/清新房间空气的还有没有其他型号？/清新房间空气的其他型号有没有？/还有没有清新房间空气的/还有清新房间空气的么？/其他的清新房间空气的呢？/别的清新房间空气的/再给我推荐一个清新房间空气的/再推荐一个清新房间空气的我看看/再推荐一个清新房间空气的我听听/我还想了解其他的清新房间空气的/我还想了解别的清新房间空气的型号的/再介绍一个清新房间空气的/再介绍一款清新房间空气的/还有没有清新房间空气的？/还有其他的清新房间空气的么？/其他的清新房间空气的呢？/就这一款清新房间空气的么？/就这一个清新房间空气的？/有没有更好的清新房间空气的？/有没有配置高一点的清新房间空气的？/有没有比这个好的清新房间空气的/有没有比这个好的清新房间空气的推荐一下/有没有性能更好的清新房间空气的/有没有性能更好的清新房间空气的推荐一下/性能更好的清新房间空气的/我想知道其他的清新房间空气的/换一款清新房间空气的/换一个清新房间空气的/下一个清新房间空气的/再介绍一个其他的清新房间空气的/
+还有别的湿润房间空气的么？/你们店里还有其他的湿润房间空气的么？/湿润房间空气的还有没有其他选择？/湿润房间空气的还有没有其他款式？/湿润房间空气的还有没有其他型号？/湿润房间空气的其他型号有没有？/还有没有湿润房间空气的 /还有湿润房间空气的么？/其他的湿润房间空气的呢？/别的湿润房间空气的 /再给我推荐一个湿润房间空气的/再推荐一个湿润房间空气的我看看/再推荐一个湿润房间空气的 我听听/我还想了解其他的湿润房间空气的/我还想了解别的湿润房间空气的 型号的/再介绍一个湿润房间空气的/再介绍一款湿润房间空气的/还有没有湿润房间空气的？/还有其他的湿润房间空气的么？/其他的湿润房间空气的呢？/就这一款湿润房间空气的么？/就这一个湿润房间空气的？/有没有更好的湿润房间空气的？/有没有配置高一点的湿润房间空气的？/有没有比这个好的湿润房间空气的/有没有比这个好的湿润房间空气的推荐一下/有没有性能更好的湿润房间空气的/有没有性能更好的湿润房间空气的推荐一下/性能更好的湿润房间空气的/我想知道其他的湿润房间空气的/换一款湿润房间空气的/换一个湿润房间空气的/下一个湿润房间空气的/再介绍一个其他的湿润房间空气的 /
+还有别的除去房间甲醛的么？/你们店里还有其他的除去房间甲醛的么？/除去房间甲醛的还有没有其他选择？/除去房间甲醛的还有没有其他款式？/除去房间甲醛的还有没有其他型号？/除去房间甲醛的其他型号有没有？/还有没有除去房间甲醛的/还有除去房间甲醛的么？/其他的除去房间甲醛的呢？/别的除去房间甲醛的/再给我推荐一个除去房间甲醛的/再推荐一个除去房间甲醛的我看看/再推荐一个除去房间甲醛的我听听/我还想了解其他的除去房间甲醛的/我还想了解别的除去房间甲醛的型号的/再介绍一个除去房间甲醛的/再介绍一款除去房间甲醛的/还有没有除去房间甲醛的？/还有其他的除去房间甲醛的么？/其他的除去房间甲醛的呢？/就这一款除去房间甲醛的么？/就这一个除去房间甲醛的？/有没有更好的除去房间甲醛的？/有没有配置高一点的除去房间甲醛的？/有没有比这个好的除去房间甲醛的/有没有比这个好的除去房间甲醛的推荐一下/有没有性能更好的除去房间甲醛的/有没有性能更好的除去房间甲醛的推荐一下/性能更好的除去房间甲醛的/我想知道其他的除去房间甲醛的/换一款除去房间甲醛的/换一个除去房间甲醛的/下一个除去房间甲醛的/再介绍一个其他的除去房间甲醛的/给我推荐一款空气净化机器人
+</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="7" sId="1">
@@ -3846,6 +4567,320 @@
       <alignment vertical="top" readingOrder="0"/>
     </dxf>
   </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog50.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="55" sId="1">
+    <oc r="F4" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>便宜一点的/既便宜又实惠的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>便宜的/我想买便宜点的/便宜点的/价格低点的/便宜的就行/我当然是买便宜的了/买便宜的啦/便宜的便宜的/价格便宜的/价格低的/我要便宜一点的有没有/我需要便宜点的/你能给我介绍便宜点的吗/我想买便宜点的有没有/我想买便宜点的/我想要价格低点的/我想要便宜的啊/当然是便宜的了/当然买价格低点了/当然是价格低的了/当然需要价格便宜的了/当然是买便宜一点的/买便宜点的/我就便宜一点的就行了/买便宜一点的就可以了/就买便宜一点的吧/你就给我介绍便宜一点的吧/你给我介绍便宜一点的就好了/给我说一下便宜一点的吧/不买贵的/不要贵的/贵的不要/不想要贵的/贵的不要/不要贵的/我不买贵的/我不要贵的/贵的我不要哈/我不想买贵的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/性价比高的/我想买一款便宜的/我想买一款性价比高的/你能给我推荐一款性价比高的吗/你可以推荐一款性价比高的给我吗/给我推荐一款价格低的吧/能不能给我推荐一款价格低点的啊</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F4" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>便宜一点的/既便宜又实惠的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>便宜的/我想买便宜点的/便宜点的/价格低点的/便宜的就行/我当然是买便宜的了/买便宜的啦/便宜的便宜的/价格便宜的/价格低的/我要便宜一点的有没有/我需要便宜点的/你能给我介绍便宜点的吗/我想买便宜点的有没有/我想买便宜点的/我想要价格低点的/我想要便宜的啊/当然是便宜的了/当然买价格低点了/当然是价格低的了/当然需要价格便宜的了/当然是买便宜一点的/买便宜点的/我就便宜一点的就行了/买便宜一点的就可以了/就买便宜一点的吧/你就给我介绍便宜一点的吧/你给我介绍便宜一点的就好了/给我说一下便宜一点的吧/不买贵的/不要贵的/贵的不要/不想要贵的/贵的不要/不要贵的/我不买贵的/我不要贵的/贵的我不要哈/我不想买贵的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/性价比高的/我想买一款便宜的/我想买一款性价比高的/你能给我推荐一款性价比高的吗/你可以推荐一款性价比高的给我吗/给我推荐一款价格低的吧/能不能给我推荐一款价格低点的啊</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="56" sId="1">
+    <oc r="F8" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>性能高点的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/性能好的/配置高的/性能高的/我</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>想买性能高点的/性能高点的/性能高的就行/我当然是买性能高的了/买性能高的啦/性能高的性能高的/我要性能高的/我要性能高一点的有没有/我需要性能高点的/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的了/当然买性能好的了/当然是性能高的了/当然需要性能高的了/当然是买性能高一点的/买性能高点的/性能高一点的就行了/买性能高一点的就可以了/就买性能高一点的吧/你就给我介绍性能高一点的吧/你给我介绍性能高一点的就好了/给我说一下性能高一点的吧/不买差的/不要差的/差的不要/不想要差的/差的不要/不要差的/我不买差的/我不要差的/差的我不要哈/我不想买差的/我要买好的/我要买能力强的/我要买高性能的/当然是买性能高的了/给我推荐一款性能好的/我要性能好的/我要配置高的/我想买一款配置高的/能给我推荐一款配置高的吗/能不能给我推荐一款性能高的/可以推荐一款性能高的吗？/我想买性能高的有吗/我想买配置高的/能不能给我推荐一款性能高的/可以推荐一款性能高的给我吗/给我推荐一款性能高的吗/有配置高的给我推荐一下吧/给我推荐一款配置高的吧</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F8" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>性能高点的/耐用的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>性能好的/配置高的/性能高的/我</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>想买性能高点的/性能高点的/性能高的就行/我当然是买性能高的了/买性能高的啦/性能高的性能高的/我要性能高的/我要性能高一点的有没有/我需要性能高点的/你能给我介绍性能高点的吗/我想买性能高点的有没有/我想买性能高点的/我想要性能好的/我想要性能高的啊/当然是性能高的了/当然买性能好的了/当然是性能高的了/当然需要性能高的了/当然是买性能高一点的/买性能高点的/性能高一点的就行了/买性能高一点的就可以了/就买性能高一点的吧/你就给我介绍性能高一点的吧/你给我介绍性能高一点的就好了/给我说一下性能高一点的吧/不买差的/不要差的/差的不要/不想要差的/差的不要/不要差的/我不买差的/我不要差的/差的我不要哈/我不想买差的/我要买好的/我要买能力强的/我要买高性能的/当然是买性能高的了/给我推荐一款性能好的/我要性能好的/我要配置高的/我想买一款配置高的/能给我推荐一款配置高的吗/能不能给我推荐一款性能高的/可以推荐一款性能高的吗？/我想买性能高的有吗/我想买配置高的/能不能给我推荐一款性能高的/可以推荐一款性能高的给我吗/给我推荐一款性能高的吗/有配置高的给我推荐一下吧/给我推荐一款配置高的吧</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog51.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="57" sId="2">
+    <oc r="B2" t="inlineStr">
+      <is>
+        <r>
+          <t>旺宝诚心</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>推荐您，本店在售的，会飞檐走壁的窗宝W855。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF00B0F0"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>他擦了刮，刮了擦，四段清洁很干净；</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="5" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>四重安全保证，全无后顾之忧；</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="6" tint="0.39997558519241921"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>智能记忆功，好放好取；</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>进口电机，使用寿命长；</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="4" tint="0.39997558519241921"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>轴流式负压风机设计，满足顾客多种介质的擦拭需求。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">您可以在主界面点击搜索了解详情。
+</t>
+        </r>
+        <phoneticPr fontId="6" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B2" t="inlineStr">
+      <is>
+        <r>
+          <t>旺宝诚心</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>推荐您，本店在售的，会飞檐走壁的窗宝W855。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF00B0F0"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>他擦了刮，刮了擦，四段清洁很干净；</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="5" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>四重安全保证，全无后顾之忧；</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="6" tint="0.39997558519241921"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>智能记忆功能，好放好取；</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>进口电机，使用寿命长；</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="4" tint="0.39997558519241921"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>轴流式负压风机设计，满足顾客多种介质的擦拭需求。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">您可以在主界面点击搜索了解详情。
+</t>
+        </r>
+        <phoneticPr fontId="6" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -3960,8 +4995,10 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{29CF6213-8653-4E57-8654-931AE97C14C1}" name="lulu.wang(王路路)" id="-627592542" dateTime="2017-12-25T10:45:15"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4253,8 +5290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4297,10 +5334,10 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="174" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -4308,59 +5345,59 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>37</v>
+      <c r="F2" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="185.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>52</v>
+      <c r="F3" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>51</v>
+        <v>18</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4370,10 +5407,10 @@
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="174" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -4381,102 +5418,102 @@
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>48</v>
+      <c r="F6" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="190.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>17</v>
+      <c r="B7" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>53</v>
+      <c r="F7" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>41</v>
+        <v>18</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>56</v>
+        <v>19</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4502,8 +5539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4513,7 +5550,7 @@
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="93.375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="93.375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -4532,7 +5569,7 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -4544,10 +5581,10 @@
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>11</v>
@@ -4555,34 +5592,34 @@
       <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>43</v>
+      <c r="F2" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="275.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>54</v>
+      <c r="F3" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -4606,7 +5643,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4614,7 +5651,7 @@
     <col min="1" max="1" width="21.75" customWidth="1"/>
     <col min="2" max="2" width="53.875" customWidth="1"/>
     <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="6" max="6" width="96.625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="96.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -4633,7 +5670,7 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -4645,10 +5682,10 @@
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="209.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>13</v>
@@ -4657,34 +5694,34 @@
         <v>14</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="13" t="s">
-        <v>46</v>
+      <c r="F2" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="242.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>55</v>
+      <c r="F3" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
